--- a/Zhodani Words List.xlsx
+++ b/Zhodani Words List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06DF0D52-71C6-47E3-A531-64D6AF4D64D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0278AE2-491D-4087-8C0B-207D3704B715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="909">
   <si>
     <t>Zhdetl word</t>
   </si>
@@ -2761,6 +2761,45 @@
   </si>
   <si>
     <t>19. Weather</t>
+  </si>
+  <si>
+    <t>20. Moods</t>
+  </si>
+  <si>
+    <t>paki</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>tlako</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>koalita</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>lianki</t>
+  </si>
+  <si>
+    <t>angry</t>
+  </si>
+  <si>
+    <t>ichtlayoplita</t>
+  </si>
+  <si>
+    <t>confused</t>
+  </si>
+  <si>
+    <t>iolotl</t>
+  </si>
+  <si>
+    <t>moods; emotions</t>
   </si>
 </sst>
 </file>
@@ -2927,7 +2966,37 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2989,8 +3058,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4039E8B-8AC1-44D4-939F-61521D537543}" name="Zhdetl" displayName="Zhdetl" ref="A1:B186" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B186" xr:uid="{B2E9EE69-E126-4FC1-ACEF-C598B63AECDE}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5974,11 +6043,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C551"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="A447" sqref="A447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6000,7 +6070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -6011,7 +6081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -6022,7 +6092,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>677</v>
       </c>
@@ -6033,7 +6103,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>606</v>
       </c>
@@ -6044,7 +6114,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>606</v>
       </c>
@@ -6055,7 +6125,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>44</v>
       </c>
@@ -6063,7 +6133,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>46</v>
       </c>
@@ -6072,7 +6142,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -6083,7 +6153,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>736</v>
       </c>
@@ -6094,7 +6164,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>725</v>
       </c>
@@ -6105,7 +6175,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>751</v>
       </c>
@@ -6116,7 +6186,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>47</v>
       </c>
@@ -6125,7 +6195,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>676</v>
       </c>
@@ -6136,7 +6206,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>48</v>
       </c>
@@ -6144,7 +6214,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>152</v>
       </c>
@@ -6153,7 +6223,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>154</v>
       </c>
@@ -6162,7 +6232,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>132</v>
       </c>
@@ -6171,7 +6241,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>133</v>
       </c>
@@ -6179,7 +6249,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>763</v>
       </c>
@@ -6190,7 +6260,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>135</v>
       </c>
@@ -6198,7 +6268,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>113</v>
       </c>
@@ -6209,7 +6279,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -6220,7 +6290,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>137</v>
       </c>
@@ -6231,7 +6301,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>138</v>
       </c>
@@ -6242,7 +6312,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>139</v>
       </c>
@@ -6251,7 +6321,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>549</v>
       </c>
@@ -6262,7 +6332,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>72</v>
       </c>
@@ -6270,7 +6340,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>140</v>
       </c>
@@ -6278,7 +6348,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>142</v>
       </c>
@@ -6287,7 +6357,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>144</v>
       </c>
@@ -6298,7 +6368,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>165</v>
       </c>
@@ -6309,7 +6379,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>167</v>
       </c>
@@ -6320,7 +6390,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>169</v>
       </c>
@@ -6329,7 +6399,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>171</v>
       </c>
@@ -6338,7 +6408,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -6349,7 +6419,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>604</v>
       </c>
@@ -6360,7 +6430,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>605</v>
       </c>
@@ -6371,7 +6441,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>603</v>
       </c>
@@ -6382,7 +6452,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>647</v>
       </c>
@@ -6393,7 +6463,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>654</v>
       </c>
@@ -6404,7 +6474,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>648</v>
       </c>
@@ -6415,7 +6485,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -6426,7 +6496,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>630</v>
       </c>
@@ -6437,7 +6507,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>173</v>
       </c>
@@ -6446,7 +6516,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>175</v>
       </c>
@@ -6455,7 +6525,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>177</v>
       </c>
@@ -6464,7 +6534,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>179</v>
       </c>
@@ -6473,7 +6543,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>698</v>
       </c>
@@ -6484,7 +6554,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>693</v>
       </c>
@@ -6495,7 +6565,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
         <v>70</v>
       </c>
@@ -6504,7 +6574,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
         <v>181</v>
       </c>
@@ -6513,7 +6583,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
         <v>720</v>
       </c>
@@ -6524,7 +6594,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>183</v>
       </c>
@@ -6533,7 +6603,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>185</v>
       </c>
@@ -6544,880 +6614,887 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="14"/>
-      <c r="C56" s="14"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="14" t="s">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="14" t="s">
         <v>884</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B56" s="14" t="s">
         <v>839</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C56" s="14" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="26" t="s">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="B57" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="C57" s="26" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="14" t="s">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B58" s="14" t="s">
         <v>709</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C58" s="14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="11" t="s">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="12" t="s">
+      <c r="B59" s="11"/>
+      <c r="C59" s="12" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="14" t="s">
+        <v>798</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
-        <v>798</v>
+        <v>771</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>776</v>
+        <v>753</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>753</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="17" t="s">
-        <v>772</v>
+        <v>752</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>753</v>
+        <v>729</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="17" t="s">
-        <v>752</v>
-      </c>
-      <c r="B64" s="21" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B64" s="20"/>
+      <c r="C64" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="17" t="s">
+        <v>702</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>680</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B67" s="20"/>
+      <c r="C67" s="16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="17" t="s">
+        <v>730</v>
+      </c>
+      <c r="B68" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="C64" s="18" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="B65" s="20"/>
-      <c r="C65" s="16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="17" t="s">
-        <v>702</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>680</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="B67" s="23" t="s">
-        <v>502</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="B68" s="20"/>
-      <c r="C68" s="16" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C68" s="18" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="17" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="17" t="s">
-        <v>717</v>
-      </c>
-      <c r="B70" s="21" t="s">
-        <v>709</v>
-      </c>
-      <c r="C70" s="18" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="15" t="s">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="B71" s="20"/>
-      <c r="C71" s="16" t="s">
+      <c r="B70" s="20"/>
+      <c r="C70" s="16" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="17" t="s">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="17" t="s">
         <v>824</v>
       </c>
-      <c r="B72" s="21" t="s">
+      <c r="B71" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C71" s="18" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="22" t="s">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="23" t="s">
+      <c r="B72" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="C73" s="24" t="s">
+      <c r="C72" s="24" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>807</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="17" t="s">
-        <v>828</v>
+        <v>795</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>807</v>
+        <v>776</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="17" t="s">
-        <v>795</v>
-      </c>
-      <c r="B75" s="21" t="s">
-        <v>776</v>
-      </c>
-      <c r="C75" s="18" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="15" t="s">
+    <row r="75" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="16" t="s">
+      <c r="B75" s="20"/>
+      <c r="C75" s="16" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="17" t="s">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B77" s="21"/>
-      <c r="C77" s="18" t="s">
+      <c r="B76" s="21"/>
+      <c r="C76" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B77" s="20"/>
+      <c r="C77" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="16" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="15" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="16" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="15" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="16" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="16" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="16" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="16" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="15" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="16" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="17" t="s">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="17" t="s">
         <v>670</v>
       </c>
-      <c r="B89" s="21" t="s">
+      <c r="B88" s="21" t="s">
         <v>656</v>
       </c>
-      <c r="C89" s="18" t="s">
+      <c r="C88" s="18" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B89" s="20"/>
+      <c r="C89" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="16" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="B92" s="20"/>
-      <c r="C92" s="16" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="17" t="s">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="B93" s="21" t="s">
+      <c r="B92" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="C93" s="18" t="s">
+      <c r="C92" s="18" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B93" s="20"/>
+      <c r="C93" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="16" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="B96" s="20"/>
-      <c r="C96" s="16" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="17" t="s">
+        <v>556</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="17" t="s">
-        <v>556</v>
-      </c>
-      <c r="B97" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B97" s="21"/>
+      <c r="C97" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="17" t="s">
+        <v>548</v>
+      </c>
+      <c r="B98" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="C97" s="18" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B98" s="21"/>
       <c r="C98" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="17" t="s">
-        <v>548</v>
-      </c>
-      <c r="B99" s="21" t="s">
-        <v>535</v>
-      </c>
-      <c r="C99" s="18" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B99" s="20"/>
+      <c r="C99" s="16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="16" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="16" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="17" t="s">
-        <v>12</v>
+        <v>626</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>514</v>
+        <v>610</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="17" t="s">
-        <v>626</v>
-      </c>
-      <c r="B103" s="21" t="s">
-        <v>610</v>
-      </c>
-      <c r="C103" s="18" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="15" t="s">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="B104" s="20"/>
-      <c r="C104" s="16" t="s">
+      <c r="B103" s="20"/>
+      <c r="C103" s="16" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="22" t="s">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B105" s="23" t="s">
+      <c r="B104" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="C105" s="24" t="s">
+      <c r="C104" s="24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="17" t="s">
+        <v>600</v>
+      </c>
+      <c r="B105" s="21" t="s">
+        <v>589</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="17" t="s">
-        <v>600</v>
+        <v>793</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>589</v>
+        <v>776</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="17" t="s">
-        <v>793</v>
-      </c>
-      <c r="B107" s="21" t="s">
-        <v>776</v>
-      </c>
-      <c r="C107" s="18" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="B107" s="20"/>
+      <c r="C107" s="16" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="15" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="16" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="15" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="16" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="B110" s="20"/>
-      <c r="C110" s="16" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="17" t="s">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="17" t="s">
         <v>649</v>
       </c>
-      <c r="B111" s="21" t="s">
+      <c r="B110" s="21" t="s">
         <v>634</v>
       </c>
-      <c r="C111" s="18" t="s">
+      <c r="C110" s="18" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="15" t="s">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="B112" s="20"/>
-      <c r="C112" s="16" t="s">
+      <c r="B111" s="20"/>
+      <c r="C111" s="16" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="C112" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="22" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="B113" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="C113" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B114" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="C113" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B114" s="23" t="s">
-        <v>501</v>
-      </c>
       <c r="C114" s="24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B115" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="C115" s="24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B115" s="20"/>
+      <c r="C115" s="16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="15" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="16" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="15" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="16" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="15" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="15" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="16" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="B120" s="20"/>
-      <c r="C120" s="16" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="B120" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="17" t="s">
-        <v>628</v>
+        <v>611</v>
       </c>
       <c r="B121" s="21" t="s">
         <v>610</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="17" t="s">
-        <v>611</v>
-      </c>
-      <c r="B122" s="21" t="s">
-        <v>610</v>
-      </c>
-      <c r="C122" s="18" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B122" s="20"/>
+      <c r="C122" s="16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="15" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="16" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A124" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="B124" s="20"/>
-      <c r="C124" s="16" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="C124" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B126" s="23" t="s">
-        <v>501</v>
-      </c>
-      <c r="C126" s="24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="15" t="s">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="B127" s="20"/>
-      <c r="C127" s="16" t="s">
+      <c r="B126" s="20"/>
+      <c r="C126" s="16" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="17" t="s">
+        <v>587</v>
+      </c>
+      <c r="B127" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="17" t="s">
-        <v>587</v>
+        <v>668</v>
       </c>
       <c r="B128" s="21" t="s">
-        <v>559</v>
+        <v>656</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="17" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="B129" s="21" t="s">
-        <v>656</v>
-      </c>
-      <c r="C129" s="18" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+        <v>634</v>
+      </c>
+      <c r="C129" s="19" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="17" t="s">
         <v>655</v>
       </c>
       <c r="B130" s="21" t="s">
-        <v>634</v>
-      </c>
-      <c r="C130" s="19" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="17" t="s">
-        <v>655</v>
-      </c>
-      <c r="B131" s="21" t="s">
         <v>656</v>
       </c>
-      <c r="C131" s="18" t="s">
+      <c r="C130" s="18" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="B131" s="20"/>
+      <c r="C131" s="16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="15" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A133" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="B133" s="20"/>
-      <c r="C133" s="16" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="17" t="s">
+        <v>814</v>
+      </c>
+      <c r="B133" s="21" t="s">
+        <v>807</v>
+      </c>
+      <c r="C133" s="18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="17" t="s">
-        <v>814</v>
+        <v>652</v>
       </c>
       <c r="B134" s="21" t="s">
-        <v>807</v>
+        <v>634</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="17" t="s">
-        <v>652</v>
-      </c>
-      <c r="B135" s="21" t="s">
-        <v>634</v>
-      </c>
-      <c r="C135" s="18" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="15" t="s">
+        <v>671</v>
+      </c>
+      <c r="B135" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="15" t="s">
-        <v>671</v>
-      </c>
-      <c r="B136" s="20" t="s">
-        <v>656</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="B136" s="20"/>
       <c r="C136" s="16" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="15" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="B138" s="20"/>
-      <c r="C138" s="16" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="17" t="s">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="17" t="s">
         <v>525</v>
       </c>
-      <c r="B139" s="21" t="s">
+      <c r="B138" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="C139" s="18" t="s">
+      <c r="C138" s="18" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="15" t="s">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="B140" s="20"/>
-      <c r="C140" s="16" t="s">
+      <c r="B139" s="20"/>
+      <c r="C139" s="16" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="17" t="s">
+        <v>831</v>
+      </c>
+      <c r="B140" s="21" t="s">
+        <v>807</v>
+      </c>
+      <c r="C140" s="18" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="17" t="s">
-        <v>831</v>
+        <v>757</v>
       </c>
       <c r="B141" s="21" t="s">
-        <v>807</v>
+        <v>753</v>
       </c>
       <c r="C141" s="18" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="17" t="s">
-        <v>757</v>
+        <v>735</v>
       </c>
       <c r="B142" s="21" t="s">
-        <v>753</v>
+        <v>729</v>
       </c>
       <c r="C142" s="18" t="s">
-        <v>756</v>
+        <v>734</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="17" t="s">
-        <v>735</v>
+      <c r="A143" s="15" t="s">
+        <v>905</v>
       </c>
       <c r="B143" s="21" t="s">
-        <v>729</v>
+        <v>896</v>
       </c>
       <c r="C143" s="18" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="17" t="s">
         <v>778</v>
       </c>
@@ -7428,7 +7505,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="17" t="s">
         <v>822</v>
       </c>
@@ -7439,7 +7516,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="15" t="s">
         <v>271</v>
       </c>
@@ -7448,7 +7525,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="15" t="s">
         <v>273</v>
       </c>
@@ -7457,7 +7534,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="22" t="s">
         <v>129</v>
       </c>
@@ -7468,7 +7545,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="22" t="s">
         <v>4</v>
       </c>
@@ -7479,7 +7556,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="17" t="s">
         <v>837</v>
       </c>
@@ -7490,7 +7567,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="15" t="s">
         <v>275</v>
       </c>
@@ -7499,7 +7576,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="15" t="s">
         <v>276</v>
       </c>
@@ -7508,7 +7585,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="15" t="s">
         <v>278</v>
       </c>
@@ -7519,370 +7596,383 @@
         <v>279</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="17"/>
-      <c r="C154" s="18"/>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="B154" s="11"/>
+      <c r="C154" s="16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="15" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B155" s="20"/>
       <c r="C155" s="16" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B156" s="20"/>
       <c r="C156" s="16" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="15" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B157" s="20"/>
       <c r="C157" s="16" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B158" s="20"/>
       <c r="C158" s="16" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="B159" s="20"/>
-      <c r="C159" s="16" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="17" t="s">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="17" t="s">
         <v>521</v>
       </c>
-      <c r="B160" s="21" t="s">
+      <c r="B159" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="C160" s="18" t="s">
+      <c r="C159" s="18" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B160" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="C160" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="22" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="B161" s="23" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C161" s="24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="B162" s="23" t="s">
-        <v>502</v>
-      </c>
-      <c r="C162" s="24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B162" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="C162" s="18" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="17" t="s">
-        <v>125</v>
+        <v>704</v>
       </c>
       <c r="B163" s="21" t="s">
-        <v>514</v>
+        <v>680</v>
       </c>
       <c r="C163" s="18" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="17" t="s">
-        <v>704</v>
+        <v>829</v>
       </c>
       <c r="B164" s="21" t="s">
-        <v>680</v>
+        <v>807</v>
       </c>
       <c r="C164" s="18" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="17" t="s">
-        <v>829</v>
+        <v>738</v>
       </c>
       <c r="B165" s="21" t="s">
-        <v>807</v>
+        <v>729</v>
       </c>
       <c r="C165" s="18" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="17" t="s">
-        <v>738</v>
-      </c>
-      <c r="B166" s="21" t="s">
-        <v>729</v>
-      </c>
-      <c r="C166" s="18" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="B166" s="20"/>
+      <c r="C166" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="15" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B167" s="20"/>
       <c r="C167" s="16" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="B168" s="20"/>
-      <c r="C168" s="16" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="B168" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="C168" s="18" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="17" t="s">
-        <v>631</v>
+        <v>715</v>
       </c>
       <c r="B169" s="21" t="s">
-        <v>610</v>
+        <v>709</v>
       </c>
       <c r="C169" s="18" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="17" t="s">
-        <v>715</v>
-      </c>
-      <c r="B170" s="21" t="s">
-        <v>709</v>
-      </c>
-      <c r="C170" s="18" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="15" t="s">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="B171" s="20"/>
-      <c r="C171" s="16" t="s">
+      <c r="B170" s="20"/>
+      <c r="C170" s="16" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="17" t="s">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="17" t="s">
         <v>881</v>
       </c>
-      <c r="B172" s="21" t="s">
+      <c r="B171" s="21" t="s">
         <v>839</v>
       </c>
-      <c r="C172" s="18" t="s">
+      <c r="C171" s="18" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="17"/>
-      <c r="B173" s="21"/>
-      <c r="C173" s="18"/>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="15" t="s">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="B174" s="20"/>
-      <c r="C174" s="16" t="s">
+      <c r="B172" s="20"/>
+      <c r="C172" s="16" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="17" t="s">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="17" t="s">
         <v>750</v>
       </c>
-      <c r="B175" s="21" t="s">
+      <c r="B173" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="C175" s="18" t="s">
+      <c r="C173" s="18" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B174" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="C174" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B175" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="C175" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="22" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B176" s="23" t="s">
         <v>500</v>
       </c>
       <c r="C176" s="24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B177" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="C177" s="24" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="B177" s="21" t="s">
+        <v>680</v>
+      </c>
+      <c r="C177" s="18" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B178" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="C178" s="24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="15" t="s">
+        <v>901</v>
+      </c>
+      <c r="B178" s="21" t="s">
+        <v>896</v>
+      </c>
+      <c r="C178" s="18" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="17" t="s">
-        <v>695</v>
+        <v>792</v>
       </c>
       <c r="B179" s="21" t="s">
+        <v>776</v>
+      </c>
+      <c r="C179" s="18" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="B180" s="21" t="s">
+        <v>729</v>
+      </c>
+      <c r="C180" s="18" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="17" t="s">
+        <v>703</v>
+      </c>
+      <c r="B181" s="21" t="s">
         <v>680</v>
       </c>
-      <c r="C179" s="18" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="17" t="s">
-        <v>792</v>
-      </c>
-      <c r="B180" s="21" t="s">
-        <v>776</v>
-      </c>
-      <c r="C180" s="18" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="17" t="s">
-        <v>748</v>
-      </c>
-      <c r="B181" s="21" t="s">
-        <v>729</v>
-      </c>
       <c r="C181" s="18" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="17" t="s">
-        <v>703</v>
+        <v>866</v>
       </c>
       <c r="B182" s="21" t="s">
-        <v>680</v>
+        <v>839</v>
       </c>
       <c r="C182" s="18" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="17" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B183" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C183" s="18" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="17" t="s">
-        <v>868</v>
+        <v>812</v>
       </c>
       <c r="B184" s="21" t="s">
-        <v>839</v>
+        <v>807</v>
       </c>
       <c r="C184" s="18" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="17" t="s">
-        <v>812</v>
+        <v>609</v>
       </c>
       <c r="B185" s="21" t="s">
-        <v>807</v>
+        <v>589</v>
       </c>
       <c r="C185" s="18" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B186" s="21" t="s">
         <v>589</v>
       </c>
       <c r="C186" s="18" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="B187" s="21" t="s">
-        <v>589</v>
-      </c>
-      <c r="C187" s="18" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="15" t="s">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="B188" s="20"/>
-      <c r="C188" s="16" t="s">
+      <c r="B187" s="20"/>
+      <c r="C187" s="16" t="s">
         <v>299</v>
       </c>
     </row>
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="17" t="s">
+        <v>867</v>
+      </c>
+      <c r="B188" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="C188" s="18" t="s">
+        <v>847</v>
+      </c>
+    </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="17" t="s">
-        <v>867</v>
+      <c r="A189" s="15" t="s">
+        <v>903</v>
       </c>
       <c r="B189" s="21" t="s">
-        <v>839</v>
+        <v>896</v>
       </c>
       <c r="C189" s="18" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="17" t="s">
         <v>300</v>
       </c>
@@ -7893,399 +7983,407 @@
         <v>74</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C191" s="18"/>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="15" t="s">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="B192" s="20"/>
-      <c r="C192" s="16" t="s">
+      <c r="B191" s="11"/>
+      <c r="C191" s="16" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="17" t="s">
+        <v>864</v>
+      </c>
+      <c r="B192" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="C192" s="18" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="17" t="s">
-        <v>864</v>
+        <v>804</v>
       </c>
       <c r="B193" s="21" t="s">
+        <v>776</v>
+      </c>
+      <c r="C193" s="18" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="B194" s="20"/>
+      <c r="C194" s="16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="17" t="s">
+        <v>675</v>
+      </c>
+      <c r="B195" s="21" t="s">
+        <v>656</v>
+      </c>
+      <c r="C195" s="18" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="17" t="s">
+        <v>870</v>
+      </c>
+      <c r="B196" s="21" t="s">
         <v>839</v>
       </c>
-      <c r="C193" s="18" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="17" t="s">
-        <v>804</v>
-      </c>
-      <c r="B194" s="21" t="s">
-        <v>776</v>
-      </c>
-      <c r="C194" s="18" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="B195" s="20"/>
-      <c r="C195" s="16" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" s="17" t="s">
-        <v>675</v>
-      </c>
-      <c r="B196" s="21" t="s">
-        <v>656</v>
-      </c>
       <c r="C196" s="18" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="17" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="B197" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C197" s="18" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="17" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B198" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C198" s="18" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="17" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B199" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C199" s="18" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="17" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B200" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C200" s="18" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="17" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B201" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C201" s="18" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="17" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B202" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C202" s="18" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="17" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B203" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C203" s="18" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="17" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B204" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C204" s="18" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="17" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="B205" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C205" s="18" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="17" t="s">
-        <v>872</v>
+        <v>796</v>
       </c>
       <c r="B206" s="21" t="s">
-        <v>839</v>
+        <v>776</v>
       </c>
       <c r="C206" s="18" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="17" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B207" s="21" t="s">
         <v>776</v>
       </c>
       <c r="C207" s="18" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" s="17" t="s">
-        <v>794</v>
-      </c>
-      <c r="B208" s="21" t="s">
-        <v>776</v>
-      </c>
-      <c r="C208" s="18" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" s="15" t="s">
+    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="B209" s="20"/>
-      <c r="C209" s="16" t="s">
+      <c r="B208" s="20"/>
+      <c r="C208" s="16" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="17" t="s">
+    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="17" t="s">
         <v>765</v>
       </c>
-      <c r="B210" s="21" t="s">
+      <c r="B209" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="C210" s="18" t="s">
+      <c r="C209" s="18" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B210" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="C210" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="22" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B211" s="23" t="s">
         <v>501</v>
       </c>
       <c r="C211" s="24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B212" s="23" t="s">
-        <v>501</v>
-      </c>
-      <c r="C212" s="24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="B212" s="21" t="s">
+        <v>753</v>
+      </c>
+      <c r="C212" s="18" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="17" t="s">
-        <v>755</v>
+        <v>672</v>
       </c>
       <c r="B213" s="21" t="s">
-        <v>753</v>
+        <v>656</v>
       </c>
       <c r="C213" s="18" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="17" t="s">
-        <v>672</v>
+        <v>882</v>
       </c>
       <c r="B214" s="21" t="s">
-        <v>656</v>
+        <v>514</v>
       </c>
       <c r="C214" s="18" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="17" t="s">
-        <v>882</v>
+        <v>607</v>
       </c>
       <c r="B215" s="21" t="s">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="C215" s="18" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="17" t="s">
-        <v>607</v>
+        <v>863</v>
       </c>
       <c r="B216" s="21" t="s">
-        <v>589</v>
+        <v>839</v>
       </c>
       <c r="C216" s="18" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="17" t="s">
-        <v>863</v>
-      </c>
-      <c r="B217" s="21" t="s">
-        <v>839</v>
-      </c>
-      <c r="C217" s="18" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="15" t="s">
+    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="B218" s="20"/>
-      <c r="C218" s="16" t="s">
+      <c r="B217" s="20"/>
+      <c r="C217" s="16" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="17" t="s">
+    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="17" t="s">
         <v>810</v>
       </c>
-      <c r="B219" s="21" t="s">
+      <c r="B218" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="C219" s="18" t="s">
+      <c r="C218" s="18" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="B219" s="20"/>
+      <c r="C219" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="15" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B220" s="20"/>
       <c r="C220" s="16" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="15" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B221" s="20"/>
       <c r="C221" s="16" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="B222" s="20"/>
-      <c r="C222" s="16" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="17" t="s">
+        <v>861</v>
+      </c>
+      <c r="B222" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="C222" s="18" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="17" t="s">
-        <v>861</v>
+        <v>879</v>
       </c>
       <c r="B223" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C223" s="18" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="17" t="s">
-        <v>879</v>
+        <v>673</v>
       </c>
       <c r="B224" s="21" t="s">
-        <v>839</v>
+        <v>656</v>
       </c>
       <c r="C224" s="18" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="17" t="s">
-        <v>673</v>
+        <v>706</v>
       </c>
       <c r="B225" s="21" t="s">
-        <v>656</v>
+        <v>680</v>
       </c>
       <c r="C225" s="18" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="17" t="s">
-        <v>706</v>
-      </c>
-      <c r="B226" s="21" t="s">
-        <v>680</v>
-      </c>
-      <c r="C226" s="18" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B226" s="20"/>
+      <c r="C226" s="16" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="11" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B227" s="20"/>
       <c r="C227" s="12" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="B228" s="20"/>
-      <c r="C228" s="12" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+        <v>897</v>
+      </c>
+      <c r="B228" s="20" t="s">
+        <v>896</v>
+      </c>
+      <c r="C228" s="14" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="11" t="s">
         <v>320</v>
       </c>
@@ -8294,7 +8392,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="11" t="s">
         <v>322</v>
       </c>
@@ -8303,7 +8401,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="10" t="s">
         <v>699</v>
       </c>
@@ -8314,7 +8412,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="10" t="s">
         <v>700</v>
       </c>
@@ -8325,7 +8423,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="11" t="s">
         <v>324</v>
       </c>
@@ -8334,7 +8432,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="11" t="s">
         <v>326</v>
       </c>
@@ -8343,7 +8441,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="11" t="s">
         <v>328</v>
       </c>
@@ -8352,7 +8450,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="10" t="s">
         <v>330</v>
       </c>
@@ -8363,7 +8461,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="11" t="s">
         <v>332</v>
       </c>
@@ -8372,7 +8470,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="11" t="s">
         <v>334</v>
       </c>
@@ -8381,7 +8479,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="11" t="s">
         <v>336</v>
       </c>
@@ -8390,7 +8488,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="11" t="s">
         <v>338</v>
       </c>
@@ -8399,7 +8497,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="11" t="s">
         <v>340</v>
       </c>
@@ -8408,7 +8506,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="11" t="s">
         <v>342</v>
       </c>
@@ -8417,7 +8515,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="10" t="s">
         <v>678</v>
       </c>
@@ -8428,7 +8526,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="11" t="s">
         <v>344</v>
       </c>
@@ -8437,7 +8535,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="11" t="s">
         <v>346</v>
       </c>
@@ -8446,7 +8544,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="10" t="s">
         <v>818</v>
       </c>
@@ -8457,7 +8555,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="11" t="s">
         <v>348</v>
       </c>
@@ -8466,7 +8564,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="11" t="s">
         <v>350</v>
       </c>
@@ -8475,7 +8573,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="11" t="s">
         <v>352</v>
       </c>
@@ -8484,7 +8582,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="11" t="s">
         <v>354</v>
       </c>
@@ -8493,7 +8591,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="10" t="s">
         <v>550</v>
       </c>
@@ -8504,7 +8602,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="10" t="s">
         <v>721</v>
       </c>
@@ -8515,7 +8613,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="14" t="s">
         <v>527</v>
       </c>
@@ -8526,7 +8624,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>127</v>
       </c>
@@ -8537,7 +8635,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>123</v>
       </c>
@@ -8548,7 +8646,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="11" t="s">
         <v>356</v>
       </c>
@@ -8557,7 +8655,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="14" t="s">
         <v>358</v>
       </c>
@@ -8568,509 +8666,517 @@
         <v>359</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C258" s="14"/>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
+    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
         <v>510</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B258" t="s">
         <v>502</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C258" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A260" s="11" t="s">
+    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="B260" s="11"/>
-      <c r="C260" s="12" t="s">
+      <c r="B259" s="11"/>
+      <c r="C259" s="12" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
+    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
         <v>26</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B260" t="s">
         <v>500</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C260" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="B261" s="11"/>
+      <c r="C261" s="12" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="11" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B262" s="11"/>
       <c r="C262" s="12" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="B263" s="11"/>
-      <c r="C263" s="12" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="B263" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="C263" s="10" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="10" t="s">
-        <v>586</v>
+        <v>629</v>
       </c>
       <c r="B264" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="C264" s="10" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="B265" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="C264" s="10" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A265" s="10" t="s">
-        <v>629</v>
-      </c>
-      <c r="B265" s="10" t="s">
-        <v>610</v>
-      </c>
       <c r="C265" s="10" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A266" s="10" t="s">
-        <v>578</v>
-      </c>
-      <c r="B266" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="C266" s="10" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="B266" s="11"/>
+      <c r="C266" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="11" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B267" s="11"/>
       <c r="C267" s="12" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="11" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B268" s="11"/>
       <c r="C268" s="12" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A269" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="B269" s="11"/>
-      <c r="C269" s="12" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
+    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
         <v>111</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B269" t="s">
         <v>502</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C269" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A271" s="14" t="s">
+    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B271" s="14"/>
-      <c r="C271" s="14" t="s">
+      <c r="B270" s="14"/>
+      <c r="C270" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A272" s="11" t="s">
+    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="B272" s="11"/>
-      <c r="C272" s="12" t="s">
+      <c r="B271" s="11"/>
+      <c r="C271" s="12" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A273" s="14" t="s">
+    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="14" t="s">
         <v>653</v>
       </c>
-      <c r="B273" s="14" t="s">
+      <c r="B272" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="C273" s="14" t="s">
+      <c r="C272" s="14" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A274" s="11" t="s">
+    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="B274" s="11"/>
-      <c r="C274" s="12" t="s">
+      <c r="B273" s="11"/>
+      <c r="C273" s="12" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>77</v>
+      </c>
+      <c r="B274" t="s">
+        <v>501</v>
+      </c>
+      <c r="C274" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B275" t="s">
         <v>501</v>
       </c>
       <c r="C275" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
-        <v>75</v>
-      </c>
-      <c r="B276" t="s">
-        <v>501</v>
-      </c>
-      <c r="C276" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="B276" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="C276" s="14" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="14" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B277" s="14" t="s">
         <v>589</v>
       </c>
       <c r="C277" s="14" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="14" t="s">
-        <v>602</v>
+        <v>515</v>
       </c>
       <c r="B278" s="14" t="s">
-        <v>589</v>
+        <v>514</v>
       </c>
       <c r="C278" s="14" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" s="14" t="s">
-        <v>515</v>
-      </c>
-      <c r="B279" s="14" t="s">
-        <v>514</v>
-      </c>
-      <c r="C279" s="14" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
+    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
         <v>119</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B279" t="s">
         <v>502</v>
       </c>
-      <c r="C280" t="s">
+      <c r="C279" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B280" s="11"/>
+      <c r="C280" s="12" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="11" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B281" s="11"/>
       <c r="C281" s="12" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A282" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="B282" s="11"/>
-      <c r="C282" s="12" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A283" s="14" t="s">
+    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B283" s="14"/>
-      <c r="C283" s="14" t="s">
+      <c r="B282" s="14"/>
+      <c r="C282" s="14" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A284" s="10" t="s">
+    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="B284" s="10" t="s">
+      <c r="B283" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="C284" s="10" t="s">
+      <c r="C283" s="10" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="11" t="s">
+    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="B285" s="11"/>
-      <c r="C285" s="12" t="s">
+      <c r="B284" s="11"/>
+      <c r="C284" s="12" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A286" s="14" t="s">
+    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B286" s="14"/>
-      <c r="C286" s="14" t="s">
+      <c r="B285" s="14"/>
+      <c r="C285" s="14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="B286" s="11"/>
+      <c r="C286" s="12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="11" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B287" s="11"/>
       <c r="C287" s="12" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="11" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B288" s="11"/>
       <c r="C288" s="12" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A289" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="B289" s="11"/>
-      <c r="C289" s="12" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="B289" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="C289" s="10" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="10" t="s">
-        <v>820</v>
+        <v>741</v>
       </c>
       <c r="B290" s="10" t="s">
-        <v>807</v>
+        <v>729</v>
       </c>
       <c r="C290" s="10" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="10" t="s">
-        <v>741</v>
+        <v>761</v>
       </c>
       <c r="B291" s="10" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="C291" s="10" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="10" t="s">
-        <v>761</v>
+        <v>708</v>
       </c>
       <c r="B292" s="10" t="s">
-        <v>753</v>
+        <v>680</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="10" t="s">
         <v>708</v>
       </c>
       <c r="B293" s="10" t="s">
-        <v>680</v>
+        <v>729</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="10" t="s">
-        <v>708</v>
+        <v>833</v>
       </c>
       <c r="B294" s="10" t="s">
-        <v>729</v>
+        <v>807</v>
       </c>
       <c r="C294" s="10" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="10" t="s">
-        <v>833</v>
-      </c>
-      <c r="B295" s="10" t="s">
-        <v>807</v>
-      </c>
-      <c r="C295" s="10" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A296" t="s">
+    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
         <v>16</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B295" t="s">
         <v>500</v>
       </c>
-      <c r="C296" t="s">
+      <c r="C295" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A297" s="10" t="s">
+    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="10" t="s">
         <v>588</v>
       </c>
-      <c r="B297" s="10" t="s">
+      <c r="B296" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="C297" s="10" t="s">
+      <c r="C296" s="10" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="B297" s="11"/>
+      <c r="C297" s="12" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="11" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B298" s="11"/>
       <c r="C298" s="12" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="11" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B299" s="11"/>
       <c r="C299" s="12" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A300" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="B300" s="11"/>
-      <c r="C300" s="12" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="B300" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C300" s="10" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="10" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
       <c r="B301" s="10" t="s">
         <v>680</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A302" s="10" t="s">
-        <v>705</v>
-      </c>
-      <c r="B302" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="C302" s="10" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A303" s="14" t="s">
+    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="B303" s="14" t="s">
+      <c r="B302" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C303" s="14" t="s">
+      <c r="C302" s="14" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="B303" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C303" s="10" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="10" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="B304" s="10" t="s">
         <v>709</v>
       </c>
       <c r="C304" s="10" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="10" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="B305" s="10" t="s">
         <v>709</v>
       </c>
       <c r="C305" s="10" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="10" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="B306" s="10" t="s">
         <v>709</v>
       </c>
       <c r="C306" s="10" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A307" s="10" t="s">
-        <v>712</v>
+      <c r="A307" s="11" t="s">
+        <v>899</v>
       </c>
       <c r="B307" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="C307" s="10" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+        <v>896</v>
+      </c>
+      <c r="C307" s="14" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="10" t="s">
         <v>806</v>
       </c>
@@ -9081,7 +9187,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="10" t="s">
         <v>797</v>
       </c>
@@ -9092,7 +9198,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>57</v>
       </c>
@@ -9103,7 +9209,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="10" t="s">
         <v>749</v>
       </c>
@@ -9114,7 +9220,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="10" t="s">
         <v>808</v>
       </c>
@@ -9125,7 +9231,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="11" t="s">
         <v>400</v>
       </c>
@@ -9134,7 +9240,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="10" t="s">
         <v>627</v>
       </c>
@@ -9145,7 +9251,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="10" t="s">
         <v>773</v>
       </c>
@@ -9156,7 +9262,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="10" t="s">
         <v>774</v>
       </c>
@@ -9167,7 +9273,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="10" t="s">
         <v>826</v>
       </c>
@@ -9178,7 +9284,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="10" t="s">
         <v>816</v>
       </c>
@@ -9189,7 +9295,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="10" t="s">
         <v>758</v>
       </c>
@@ -9200,7 +9306,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="10" t="s">
         <v>532</v>
       </c>
@@ -9211,7 +9317,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>35</v>
       </c>
@@ -9222,7 +9328,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="10" t="s">
         <v>775</v>
       </c>
@@ -9233,7 +9339,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="11" t="s">
         <v>402</v>
       </c>
@@ -9242,7 +9348,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="11" t="s">
         <v>404</v>
       </c>
@@ -9251,7 +9357,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="11" t="s">
         <v>406</v>
       </c>
@@ -9260,7 +9366,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="11" t="s">
         <v>408</v>
       </c>
@@ -9269,7 +9375,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="11" t="s">
         <v>410</v>
       </c>
@@ -9278,7 +9384,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="11" t="s">
         <v>412</v>
       </c>
@@ -9287,7 +9393,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="14" t="s">
         <v>573</v>
       </c>
@@ -9298,7 +9404,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="11" t="s">
         <v>414</v>
       </c>
@@ -9307,7 +9413,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="11" t="s">
         <v>416</v>
       </c>
@@ -9316,7 +9422,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="10" t="s">
         <v>800</v>
       </c>
@@ -9327,7 +9433,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="11" t="s">
         <v>418</v>
       </c>
@@ -9336,7 +9442,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>89</v>
       </c>
@@ -9347,7 +9453,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="10" t="s">
         <v>696</v>
       </c>
@@ -9358,7 +9464,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="10" t="s">
         <v>805</v>
       </c>
@@ -9369,7 +9475,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="10" t="s">
         <v>799</v>
       </c>
@@ -9380,7 +9486,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="10" t="s">
         <v>862</v>
       </c>
@@ -9391,7 +9497,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="10" t="s">
         <v>625</v>
       </c>
@@ -9402,7 +9508,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="11" t="s">
         <v>420</v>
       </c>
@@ -9411,7 +9517,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="14" t="s">
         <v>547</v>
       </c>
@@ -9422,7 +9528,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>41</v>
       </c>
@@ -9433,7 +9539,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="10" t="s">
         <v>41</v>
       </c>
@@ -9444,7 +9550,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="11" t="s">
         <v>422</v>
       </c>
@@ -9453,7 +9559,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="10" t="s">
         <v>633</v>
       </c>
@@ -9464,7 +9570,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="10" t="s">
         <v>633</v>
       </c>
@@ -9475,7 +9581,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="11" t="s">
         <v>424</v>
       </c>
@@ -9484,7 +9590,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="11" t="s">
         <v>426</v>
       </c>
@@ -9493,7 +9599,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="11" t="s">
         <v>428</v>
       </c>
@@ -9502,7 +9608,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="11" t="s">
         <v>430</v>
       </c>
@@ -9511,7 +9617,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="11" t="s">
         <v>432</v>
       </c>
@@ -9520,7 +9626,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="11" t="s">
         <v>434</v>
       </c>
@@ -9529,7 +9635,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="11" t="s">
         <v>436</v>
       </c>
@@ -9538,7 +9644,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="11" t="s">
         <v>438</v>
       </c>
@@ -9547,7 +9653,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="11" t="s">
         <v>101</v>
       </c>
@@ -9556,7 +9662,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="11" t="s">
         <v>441</v>
       </c>
@@ -9565,7 +9671,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="11" t="s">
         <v>443</v>
       </c>
@@ -9574,7 +9680,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="14" t="s">
         <v>85</v>
       </c>
@@ -9583,7 +9689,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="11" t="s">
         <v>447</v>
       </c>
@@ -9592,7 +9698,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="11" t="s">
         <v>449</v>
       </c>
@@ -9601,7 +9707,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="14" t="s">
         <v>565</v>
       </c>
@@ -9612,7 +9718,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="10" t="s">
         <v>544</v>
       </c>
@@ -9623,7 +9729,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="10" t="s">
         <v>624</v>
       </c>
@@ -9634,7 +9740,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="10" t="s">
         <v>623</v>
       </c>
@@ -9645,7 +9751,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="10" t="s">
         <v>646</v>
       </c>
@@ -9656,7 +9762,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="14" t="s">
         <v>545</v>
       </c>
@@ -9667,7 +9773,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="10" t="s">
         <v>560</v>
       </c>
@@ -9678,7 +9784,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="14" t="s">
         <v>546</v>
       </c>
@@ -9689,7 +9795,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="11" t="s">
         <v>451</v>
       </c>
@@ -9698,7 +9804,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="14" t="s">
         <v>453</v>
       </c>
@@ -9709,589 +9815,593 @@
         <v>454</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C371" s="14"/>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>117</v>
+      </c>
+      <c r="B371" t="s">
+        <v>502</v>
+      </c>
+      <c r="C371" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>117</v>
+        <v>455</v>
       </c>
       <c r="B372" t="s">
+        <v>886</v>
+      </c>
+      <c r="C372" s="12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A373" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="B373" s="10" t="s">
+        <v>776</v>
+      </c>
+      <c r="C373" s="10" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>121</v>
+      </c>
+      <c r="B374" t="s">
         <v>502</v>
       </c>
-      <c r="C372" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A373" t="s">
-        <v>455</v>
-      </c>
-      <c r="B373" t="s">
-        <v>886</v>
-      </c>
-      <c r="C373" s="12" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C374"/>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A375" s="10" t="s">
-        <v>801</v>
-      </c>
-      <c r="B375" s="10" t="s">
-        <v>776</v>
-      </c>
-      <c r="C375" s="10" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C374" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>105</v>
+      </c>
+      <c r="B375" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="C375" s="14" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B376" t="s">
         <v>502</v>
       </c>
       <c r="C376" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A377" t="s">
-        <v>105</v>
-      </c>
-      <c r="B377" s="14" t="s">
-        <v>514</v>
-      </c>
-      <c r="C377" s="14" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A378" t="s">
-        <v>105</v>
-      </c>
-      <c r="B378" t="s">
-        <v>502</v>
-      </c>
-      <c r="C378" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A377" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="B377" s="11"/>
+      <c r="C377" s="12" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A378" s="10" t="s">
+        <v>835</v>
+      </c>
+      <c r="B378" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="C378" s="10" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="11" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B379" s="11"/>
       <c r="C379" s="12" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A380" s="10" t="s">
-        <v>835</v>
-      </c>
-      <c r="B380" s="10" t="s">
-        <v>807</v>
-      </c>
-      <c r="C380" s="10" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A381" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="B381" s="11"/>
-      <c r="C381" s="12" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A382" s="11" t="s">
+    <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A380" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="B382" s="11"/>
-      <c r="C382" s="12" t="s">
+      <c r="B380" s="11"/>
+      <c r="C380" s="12" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A383" t="s">
+    <row r="381" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
         <v>104</v>
       </c>
-      <c r="B383" t="s">
+      <c r="B381" t="s">
         <v>501</v>
       </c>
-      <c r="C383" t="s">
+      <c r="C381" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A384" s="10" t="s">
+    <row r="382" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A382" s="10" t="s">
         <v>632</v>
       </c>
-      <c r="B384" s="10" t="s">
+      <c r="B382" s="10" t="s">
         <v>610</v>
       </c>
-      <c r="C384" s="10" t="s">
+      <c r="C382" s="10" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A385" s="11" t="s">
+    <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A383" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="B385" s="11"/>
-      <c r="C385" s="12" t="s">
+      <c r="B383" s="11"/>
+      <c r="C383" s="12" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A386" t="s">
+    <row r="384" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
         <v>15</v>
       </c>
-      <c r="B386" t="s">
+      <c r="B384" t="s">
         <v>500</v>
       </c>
-      <c r="C386" t="s">
+      <c r="C384" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A387" s="10" t="s">
+    <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A385" s="10" t="s">
         <v>650</v>
       </c>
-      <c r="B387" s="10" t="s">
+      <c r="B385" s="10" t="s">
         <v>634</v>
       </c>
-      <c r="C387" s="10" t="s">
+      <c r="C385" s="10" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A386" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="B386" s="11"/>
+      <c r="C386" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A387" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="B387" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C387" s="14" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="11" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B388" s="11"/>
       <c r="C388" s="12" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A389" s="14" t="s">
-        <v>561</v>
-      </c>
-      <c r="B389" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="C389" s="14" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A389" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="B389" s="11"/>
+      <c r="C389" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="11" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B390" s="11"/>
       <c r="C390" s="12" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="11" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B391" s="11"/>
       <c r="C391" s="12" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="11" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B392" s="11"/>
       <c r="C392" s="12" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="11" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B393" s="11"/>
       <c r="C393" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="11" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B394" s="11"/>
       <c r="C394" s="12" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="11" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B395" s="11"/>
       <c r="C395" s="12" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A396" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="B396" s="11"/>
-      <c r="C396" s="12" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A397" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="B397" s="11"/>
-      <c r="C397" s="12" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A398" s="10" t="s">
+    <row r="396" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A396" s="10" t="s">
         <v>674</v>
       </c>
-      <c r="B398" s="10" t="s">
+      <c r="B396" s="10" t="s">
         <v>656</v>
       </c>
-      <c r="C398" s="10" t="s">
+      <c r="C396" s="10" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A397" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="B397" s="10" t="s">
+        <v>776</v>
+      </c>
+      <c r="C397" s="10" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A398" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B398" s="11"/>
+      <c r="C398" s="12" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="10" t="s">
-        <v>802</v>
+        <v>584</v>
       </c>
       <c r="B399" s="10" t="s">
-        <v>776</v>
+        <v>559</v>
       </c>
       <c r="C399" s="10" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A400" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="B400" s="11"/>
-      <c r="C400" s="12" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A401" s="10" t="s">
-        <v>584</v>
-      </c>
-      <c r="B401" s="10" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A400" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="B400" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="C401" s="10" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A402" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="B402" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="C402" s="10" t="s">
+      <c r="C400" s="10" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A403" s="14" t="s">
+    <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A401" s="14" t="s">
         <v>651</v>
       </c>
-      <c r="B403" s="14" t="s">
+      <c r="B401" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="C403" s="14" t="s">
+      <c r="C401" s="14" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A402" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="B402" s="11"/>
+      <c r="C402" s="12" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>62</v>
+      </c>
+      <c r="B403" t="s">
+        <v>501</v>
+      </c>
+      <c r="C403" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="11" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B404" s="11"/>
       <c r="C404" s="12" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A405" t="s">
-        <v>62</v>
-      </c>
-      <c r="B405" t="s">
-        <v>501</v>
-      </c>
-      <c r="C405" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A406" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="B406" s="11"/>
-      <c r="C406" s="12" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A405" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="B405" s="11"/>
+      <c r="C405" s="12" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A406" s="10" t="s">
+        <v>732</v>
+      </c>
+      <c r="B406" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="C406" s="10" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="11" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B407" s="11"/>
       <c r="C407" s="12" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="10" t="s">
-        <v>732</v>
+        <v>697</v>
       </c>
       <c r="B408" s="10" t="s">
-        <v>729</v>
+        <v>680</v>
       </c>
       <c r="C408" s="10" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A409" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="B409" s="11"/>
-      <c r="C409" s="12" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>107</v>
+      </c>
+      <c r="B409" t="s">
+        <v>502</v>
+      </c>
+      <c r="C409" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="10" t="s">
-        <v>697</v>
+        <v>107</v>
       </c>
       <c r="B410" s="10" t="s">
-        <v>680</v>
+        <v>514</v>
       </c>
       <c r="C410" s="10" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A411" t="s">
-        <v>107</v>
-      </c>
-      <c r="B411" t="s">
-        <v>502</v>
-      </c>
-      <c r="C411" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A412" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B412" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="C412" s="10" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A413" s="14" t="s">
+    <row r="411" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A411" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B413" s="14"/>
-      <c r="C413" s="14" t="s">
+      <c r="B411" s="14"/>
+      <c r="C411" s="14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A414" s="11" t="s">
+    <row r="412" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A412" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="B414" s="11"/>
-      <c r="C414" s="12" t="s">
+      <c r="B412" s="11"/>
+      <c r="C412" s="12" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A415"/>
-      <c r="B415"/>
-      <c r="C415"/>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A416"/>
-      <c r="C416"/>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A417"/>
-      <c r="C417"/>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A418"/>
-      <c r="C418"/>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A419"/>
+    <row r="413" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A413" s="14"/>
+      <c r="C413" s="14"/>
+    </row>
+    <row r="414" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A414" s="14"/>
+      <c r="C414" s="14"/>
+    </row>
+    <row r="415" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A415" s="14"/>
+      <c r="B415" s="14"/>
+      <c r="C415" s="14"/>
+    </row>
+    <row r="416" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C416" s="14"/>
+    </row>
+    <row r="417" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C417" s="14"/>
+    </row>
+    <row r="418" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C418" s="14"/>
+    </row>
+    <row r="419" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="C419"/>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="14"/>
       <c r="B420" s="14"/>
       <c r="C420" s="25"/>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="14"/>
       <c r="B421" s="14"/>
       <c r="C421" s="25"/>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="14"/>
       <c r="B422" s="14"/>
       <c r="C422" s="14"/>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="14"/>
       <c r="B423" s="14"/>
       <c r="C423" s="14"/>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="14"/>
       <c r="B424" s="14"/>
       <c r="C424" s="14"/>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="14"/>
       <c r="B425" s="14"/>
       <c r="C425" s="14"/>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="14"/>
       <c r="B426" s="14"/>
       <c r="C426" s="14"/>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="14"/>
       <c r="B427" s="14"/>
       <c r="C427" s="14"/>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="14"/>
       <c r="B428" s="14"/>
       <c r="C428" s="25"/>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="14"/>
       <c r="B429" s="14"/>
       <c r="C429" s="14"/>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="14"/>
       <c r="B430" s="14"/>
       <c r="C430" s="14"/>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="14"/>
       <c r="B431" s="14"/>
       <c r="C431" s="14"/>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="14"/>
       <c r="B432" s="14"/>
       <c r="C432" s="14"/>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="14"/>
       <c r="B433" s="14"/>
       <c r="C433" s="14"/>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="14"/>
       <c r="B434" s="14"/>
       <c r="C434" s="14"/>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="14"/>
       <c r="B435" s="14"/>
       <c r="C435" s="14"/>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="14"/>
       <c r="B436" s="14"/>
       <c r="C436" s="14"/>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="14"/>
       <c r="B437" s="14"/>
       <c r="C437" s="14"/>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="14"/>
       <c r="B438" s="14"/>
       <c r="C438" s="14"/>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="14"/>
       <c r="B439" s="14"/>
       <c r="C439" s="14"/>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="14"/>
       <c r="B440" s="14"/>
       <c r="C440" s="14"/>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="14"/>
       <c r="B441" s="14"/>
       <c r="C441" s="14"/>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="14"/>
       <c r="B442" s="14"/>
       <c r="C442" s="14"/>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="14"/>
       <c r="B443" s="14"/>
       <c r="C443" s="14"/>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="14"/>
       <c r="B444" s="14"/>
       <c r="C444" s="14"/>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="14"/>
       <c r="B445" s="14"/>
       <c r="C445" s="14"/>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A446" s="14"/>
-      <c r="B446" s="14"/>
-      <c r="C446" s="14"/>
+      <c r="A446" s="14" t="s">
+        <v>907</v>
+      </c>
+      <c r="B446" s="14" t="s">
+        <v>896</v>
+      </c>
+      <c r="C446" s="14" t="s">
+        <v>908</v>
+      </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" s="14"/>
@@ -10598,15 +10708,24 @@
       <c r="C551" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C445" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C552">
-    <sortCondition ref="A2:A552"/>
+  <autoFilter ref="A1:C445" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="20. Moods"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C551">
+    <sortCondition ref="A2:A551"/>
   </sortState>
   <dataConsolidate/>
   <conditionalFormatting sqref="A375:A1048576 A372:A373 A259:A370 A192:A257 A1:A190">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Zhodani Words List.xlsx
+++ b/Zhodani Words List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0278AE2-491D-4087-8C0B-207D3704B715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02054245-43FA-4C34-A927-2E5A693B38E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Current vocabulary list'!$A$1:$C$445</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Current vocabulary list'!$A$1:$C$446</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lessons!$A$1:$C$223</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Zhdetl (from Alien Book 4)'!$A$1:$B$186</definedName>
   </definedNames>
@@ -2966,16 +2966,16 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -3006,26 +3006,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3058,8 +3038,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4039E8B-8AC1-44D4-939F-61521D537543}" name="Zhdetl" displayName="Zhdetl" ref="A1:B186" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B186" xr:uid="{B2E9EE69-E126-4FC1-ACEF-C598B63AECDE}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6043,7 +6023,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:C551"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
@@ -6070,7 +6049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -6081,7 +6060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -6092,7 +6071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>677</v>
       </c>
@@ -6103,7 +6082,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>606</v>
       </c>
@@ -6114,7 +6093,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>606</v>
       </c>
@@ -6125,7 +6104,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>44</v>
       </c>
@@ -6133,7 +6112,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>46</v>
       </c>
@@ -6142,7 +6121,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -6153,7 +6132,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>736</v>
       </c>
@@ -6164,7 +6143,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>725</v>
       </c>
@@ -6175,7 +6154,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>751</v>
       </c>
@@ -6186,7 +6165,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>47</v>
       </c>
@@ -6195,7 +6174,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>676</v>
       </c>
@@ -6206,7 +6185,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>48</v>
       </c>
@@ -6214,7 +6193,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>152</v>
       </c>
@@ -6223,7 +6202,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>154</v>
       </c>
@@ -6232,7 +6211,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>132</v>
       </c>
@@ -6241,7 +6220,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>133</v>
       </c>
@@ -6249,7 +6228,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>763</v>
       </c>
@@ -6260,7 +6239,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>135</v>
       </c>
@@ -6268,7 +6247,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>113</v>
       </c>
@@ -6279,7 +6258,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -6290,7 +6269,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>137</v>
       </c>
@@ -6301,7 +6280,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>138</v>
       </c>
@@ -6312,7 +6291,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>139</v>
       </c>
@@ -6321,7 +6300,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>549</v>
       </c>
@@ -6332,7 +6311,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>72</v>
       </c>
@@ -6340,7 +6319,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>140</v>
       </c>
@@ -6348,7 +6327,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>142</v>
       </c>
@@ -6357,7 +6336,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>144</v>
       </c>
@@ -6368,7 +6347,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>165</v>
       </c>
@@ -6379,7 +6358,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>167</v>
       </c>
@@ -6390,7 +6369,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>169</v>
       </c>
@@ -6399,7 +6378,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>171</v>
       </c>
@@ -6408,7 +6387,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -6419,7 +6398,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>604</v>
       </c>
@@ -6430,7 +6409,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>605</v>
       </c>
@@ -6441,7 +6420,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>603</v>
       </c>
@@ -6452,7 +6431,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>647</v>
       </c>
@@ -6463,7 +6442,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>654</v>
       </c>
@@ -6474,7 +6453,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>648</v>
       </c>
@@ -6485,7 +6464,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -6496,7 +6475,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>630</v>
       </c>
@@ -6507,7 +6486,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>173</v>
       </c>
@@ -6516,7 +6495,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>175</v>
       </c>
@@ -6525,7 +6504,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>177</v>
       </c>
@@ -6534,7 +6513,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>179</v>
       </c>
@@ -6543,7 +6522,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>698</v>
       </c>
@@ -6554,7 +6533,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>693</v>
       </c>
@@ -6565,7 +6544,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
         <v>70</v>
       </c>
@@ -6574,7 +6553,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
         <v>181</v>
       </c>
@@ -6583,7 +6562,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
         <v>720</v>
       </c>
@@ -6594,7 +6573,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>183</v>
       </c>
@@ -6603,7 +6582,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>185</v>
       </c>
@@ -6614,7 +6593,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
         <v>884</v>
       </c>
@@ -6625,7 +6604,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="s">
         <v>93</v>
       </c>
@@ -6636,7 +6615,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
         <v>93</v>
       </c>
@@ -6647,7 +6626,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
         <v>187</v>
       </c>
@@ -6656,7 +6635,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
         <v>798</v>
       </c>
@@ -6667,7 +6646,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
         <v>771</v>
       </c>
@@ -6678,7 +6657,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
         <v>772</v>
       </c>
@@ -6689,7 +6668,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="17" t="s">
         <v>752</v>
       </c>
@@ -6700,7 +6679,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
         <v>188</v>
       </c>
@@ -6709,7 +6688,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="17" t="s">
         <v>702</v>
       </c>
@@ -6720,7 +6699,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="22" t="s">
         <v>110</v>
       </c>
@@ -6731,7 +6710,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
         <v>190</v>
       </c>
@@ -6740,7 +6719,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="17" t="s">
         <v>730</v>
       </c>
@@ -6751,7 +6730,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="17" t="s">
         <v>717</v>
       </c>
@@ -6762,7 +6741,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
         <v>192</v>
       </c>
@@ -6771,7 +6750,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="17" t="s">
         <v>824</v>
       </c>
@@ -6782,7 +6761,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="22" t="s">
         <v>8</v>
       </c>
@@ -6793,7 +6772,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="17" t="s">
         <v>828</v>
       </c>
@@ -6804,7 +6783,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="17" t="s">
         <v>795</v>
       </c>
@@ -6815,7 +6794,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="15" t="s">
         <v>194</v>
       </c>
@@ -6824,7 +6803,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="17" t="s">
         <v>102</v>
       </c>
@@ -6833,7 +6812,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
         <v>196</v>
       </c>
@@ -6842,7 +6821,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
         <v>198</v>
       </c>
@@ -6851,7 +6830,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
         <v>200</v>
       </c>
@@ -6860,7 +6839,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
         <v>202</v>
       </c>
@@ -6869,7 +6848,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="15" t="s">
         <v>204</v>
       </c>
@@ -6878,7 +6857,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="15" t="s">
         <v>206</v>
       </c>
@@ -6887,7 +6866,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
         <v>208</v>
       </c>
@@ -6896,7 +6875,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
         <v>210</v>
       </c>
@@ -6905,7 +6884,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
         <v>212</v>
       </c>
@@ -6914,7 +6893,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
         <v>214</v>
       </c>
@@ -6923,7 +6902,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="15" t="s">
         <v>216</v>
       </c>
@@ -6932,7 +6911,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="17" t="s">
         <v>670</v>
       </c>
@@ -6943,7 +6922,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
         <v>218</v>
       </c>
@@ -6952,7 +6931,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
         <v>220</v>
       </c>
@@ -6961,7 +6940,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
         <v>222</v>
       </c>
@@ -6970,7 +6949,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="17" t="s">
         <v>551</v>
       </c>
@@ -6981,7 +6960,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="15" t="s">
         <v>224</v>
       </c>
@@ -6990,7 +6969,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
         <v>226</v>
       </c>
@@ -6999,7 +6978,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
         <v>228</v>
       </c>
@@ -7008,7 +6987,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="17" t="s">
         <v>556</v>
       </c>
@@ -7019,7 +6998,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="17" t="s">
         <v>51</v>
       </c>
@@ -7028,7 +7007,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="17" t="s">
         <v>548</v>
       </c>
@@ -7039,7 +7018,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
         <v>232</v>
       </c>
@@ -7048,7 +7027,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
         <v>234</v>
       </c>
@@ -7057,7 +7036,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="17" t="s">
         <v>12</v>
       </c>
@@ -7068,7 +7047,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="17" t="s">
         <v>626</v>
       </c>
@@ -7079,7 +7058,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
         <v>236</v>
       </c>
@@ -7088,7 +7067,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="22" t="s">
         <v>7</v>
       </c>
@@ -7099,7 +7078,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="17" t="s">
         <v>600</v>
       </c>
@@ -7110,7 +7089,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="17" t="s">
         <v>793</v>
       </c>
@@ -7121,7 +7100,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="15" t="s">
         <v>238</v>
       </c>
@@ -7130,7 +7109,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="15" t="s">
         <v>240</v>
       </c>
@@ -7139,7 +7118,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="15" t="s">
         <v>242</v>
       </c>
@@ -7148,7 +7127,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="17" t="s">
         <v>649</v>
       </c>
@@ -7159,7 +7138,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="15" t="s">
         <v>244</v>
       </c>
@@ -7168,7 +7147,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="22" t="s">
         <v>9</v>
       </c>
@@ -7179,7 +7158,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="22" t="s">
         <v>91</v>
       </c>
@@ -7190,7 +7169,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="22" t="s">
         <v>67</v>
       </c>
@@ -7201,7 +7180,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="15" t="s">
         <v>246</v>
       </c>
@@ -7210,7 +7189,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="15" t="s">
         <v>248</v>
       </c>
@@ -7219,7 +7198,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="15" t="s">
         <v>250</v>
       </c>
@@ -7228,7 +7207,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="15" t="s">
         <v>252</v>
       </c>
@@ -7237,7 +7216,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="15" t="s">
         <v>254</v>
       </c>
@@ -7246,7 +7225,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="17" t="s">
         <v>628</v>
       </c>
@@ -7257,7 +7236,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="17" t="s">
         <v>611</v>
       </c>
@@ -7268,7 +7247,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="15" t="s">
         <v>256</v>
       </c>
@@ -7277,7 +7256,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="15" t="s">
         <v>258</v>
       </c>
@@ -7286,7 +7265,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="22" t="s">
         <v>14</v>
       </c>
@@ -7297,7 +7276,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="22" t="s">
         <v>10</v>
       </c>
@@ -7308,7 +7287,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="15" t="s">
         <v>260</v>
       </c>
@@ -7317,7 +7296,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="17" t="s">
         <v>587</v>
       </c>
@@ -7328,7 +7307,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="17" t="s">
         <v>668</v>
       </c>
@@ -7339,7 +7318,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="17" t="s">
         <v>655</v>
       </c>
@@ -7350,7 +7329,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="17" t="s">
         <v>655</v>
       </c>
@@ -7361,7 +7340,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="15" t="s">
         <v>262</v>
       </c>
@@ -7370,7 +7349,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="15" t="s">
         <v>264</v>
       </c>
@@ -7379,7 +7358,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="17" t="s">
         <v>814</v>
       </c>
@@ -7390,7 +7369,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="17" t="s">
         <v>652</v>
       </c>
@@ -7401,7 +7380,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="15" t="s">
         <v>671</v>
       </c>
@@ -7412,7 +7391,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="15" t="s">
         <v>265</v>
       </c>
@@ -7421,7 +7400,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="15" t="s">
         <v>267</v>
       </c>
@@ -7430,7 +7409,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="17" t="s">
         <v>525</v>
       </c>
@@ -7441,7 +7420,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="15" t="s">
         <v>269</v>
       </c>
@@ -7450,7 +7429,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="17" t="s">
         <v>831</v>
       </c>
@@ -7461,7 +7440,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="17" t="s">
         <v>757</v>
       </c>
@@ -7472,7 +7451,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="17" t="s">
         <v>735</v>
       </c>
@@ -7494,7 +7473,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="17" t="s">
         <v>778</v>
       </c>
@@ -7505,7 +7484,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="17" t="s">
         <v>822</v>
       </c>
@@ -7516,7 +7495,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="15" t="s">
         <v>271</v>
       </c>
@@ -7525,7 +7504,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="15" t="s">
         <v>273</v>
       </c>
@@ -7534,7 +7513,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="22" t="s">
         <v>129</v>
       </c>
@@ -7545,7 +7524,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="22" t="s">
         <v>4</v>
       </c>
@@ -7556,7 +7535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="17" t="s">
         <v>837</v>
       </c>
@@ -7567,7 +7546,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="15" t="s">
         <v>275</v>
       </c>
@@ -7576,7 +7555,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="15" t="s">
         <v>276</v>
       </c>
@@ -7585,7 +7564,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="15" t="s">
         <v>278</v>
       </c>
@@ -7596,7 +7575,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="15" t="s">
         <v>280</v>
       </c>
@@ -7605,7 +7584,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="15" t="s">
         <v>282</v>
       </c>
@@ -7614,7 +7593,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="s">
         <v>284</v>
       </c>
@@ -7623,7 +7602,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="15" t="s">
         <v>286</v>
       </c>
@@ -7632,7 +7611,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="s">
         <v>288</v>
       </c>
@@ -7641,7 +7620,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="17" t="s">
         <v>521</v>
       </c>
@@ -7652,7 +7631,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="22" t="s">
         <v>61</v>
       </c>
@@ -7663,7 +7642,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="22" t="s">
         <v>125</v>
       </c>
@@ -7674,7 +7653,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="17" t="s">
         <v>125</v>
       </c>
@@ -7685,7 +7664,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="17" t="s">
         <v>704</v>
       </c>
@@ -7696,7 +7675,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="17" t="s">
         <v>829</v>
       </c>
@@ -7707,7 +7686,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="17" t="s">
         <v>738</v>
       </c>
@@ -7718,7 +7697,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="15" t="s">
         <v>290</v>
       </c>
@@ -7727,7 +7706,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="15" t="s">
         <v>292</v>
       </c>
@@ -7736,7 +7715,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="17" t="s">
         <v>631</v>
       </c>
@@ -7747,7 +7726,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="17" t="s">
         <v>715</v>
       </c>
@@ -7758,7 +7737,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="15" t="s">
         <v>294</v>
       </c>
@@ -7767,7 +7746,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="17" t="s">
         <v>881</v>
       </c>
@@ -7778,7 +7757,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="15" t="s">
         <v>296</v>
       </c>
@@ -7787,7 +7766,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="17" t="s">
         <v>750</v>
       </c>
@@ -7798,7 +7777,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="22" t="s">
         <v>53</v>
       </c>
@@ -7809,7 +7788,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="22" t="s">
         <v>54</v>
       </c>
@@ -7820,7 +7799,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="22" t="s">
         <v>39</v>
       </c>
@@ -7831,7 +7810,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="17" t="s">
         <v>695</v>
       </c>
@@ -7853,7 +7832,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="17" t="s">
         <v>792</v>
       </c>
@@ -7864,7 +7843,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="17" t="s">
         <v>748</v>
       </c>
@@ -7875,7 +7854,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="17" t="s">
         <v>703</v>
       </c>
@@ -7886,7 +7865,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="17" t="s">
         <v>866</v>
       </c>
@@ -7897,7 +7876,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="17" t="s">
         <v>868</v>
       </c>
@@ -7908,7 +7887,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="17" t="s">
         <v>812</v>
       </c>
@@ -7919,7 +7898,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="17" t="s">
         <v>609</v>
       </c>
@@ -7930,7 +7909,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="17" t="s">
         <v>608</v>
       </c>
@@ -7941,7 +7920,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="15" t="s">
         <v>298</v>
       </c>
@@ -7950,7 +7929,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="17" t="s">
         <v>867</v>
       </c>
@@ -7972,7 +7951,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="17" t="s">
         <v>300</v>
       </c>
@@ -7983,7 +7962,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="11" t="s">
         <v>302</v>
       </c>
@@ -7992,7 +7971,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="17" t="s">
         <v>864</v>
       </c>
@@ -8003,7 +7982,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="17" t="s">
         <v>804</v>
       </c>
@@ -8014,7 +7993,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="15" t="s">
         <v>304</v>
       </c>
@@ -8023,7 +8002,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="17" t="s">
         <v>675</v>
       </c>
@@ -8034,7 +8013,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="17" t="s">
         <v>870</v>
       </c>
@@ -8045,7 +8024,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="17" t="s">
         <v>875</v>
       </c>
@@ -8056,7 +8035,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="17" t="s">
         <v>876</v>
       </c>
@@ -8067,7 +8046,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="17" t="s">
         <v>878</v>
       </c>
@@ -8078,7 +8057,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="17" t="s">
         <v>877</v>
       </c>
@@ -8089,7 +8068,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="17" t="s">
         <v>874</v>
       </c>
@@ -8100,7 +8079,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="17" t="s">
         <v>873</v>
       </c>
@@ -8111,7 +8090,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="17" t="s">
         <v>871</v>
       </c>
@@ -8122,7 +8101,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="17" t="s">
         <v>869</v>
       </c>
@@ -8133,7 +8112,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="17" t="s">
         <v>872</v>
       </c>
@@ -8144,7 +8123,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="17" t="s">
         <v>796</v>
       </c>
@@ -8155,7 +8134,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="17" t="s">
         <v>794</v>
       </c>
@@ -8166,7 +8145,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="15" t="s">
         <v>306</v>
       </c>
@@ -8175,7 +8154,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="17" t="s">
         <v>765</v>
       </c>
@@ -8186,7 +8165,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="22" t="s">
         <v>95</v>
       </c>
@@ -8197,7 +8176,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="22" t="s">
         <v>63</v>
       </c>
@@ -8208,7 +8187,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="17" t="s">
         <v>755</v>
       </c>
@@ -8219,7 +8198,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="17" t="s">
         <v>672</v>
       </c>
@@ -8230,7 +8209,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="17" t="s">
         <v>882</v>
       </c>
@@ -8241,7 +8220,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="17" t="s">
         <v>607</v>
       </c>
@@ -8252,7 +8231,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="17" t="s">
         <v>863</v>
       </c>
@@ -8263,7 +8242,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="15" t="s">
         <v>308</v>
       </c>
@@ -8272,7 +8251,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="17" t="s">
         <v>810</v>
       </c>
@@ -8283,7 +8262,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="15" t="s">
         <v>310</v>
       </c>
@@ -8292,7 +8271,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="15" t="s">
         <v>312</v>
       </c>
@@ -8301,7 +8280,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="15" t="s">
         <v>314</v>
       </c>
@@ -8310,7 +8289,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="17" t="s">
         <v>861</v>
       </c>
@@ -8321,7 +8300,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="17" t="s">
         <v>879</v>
       </c>
@@ -8332,7 +8311,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="17" t="s">
         <v>673</v>
       </c>
@@ -8343,7 +8322,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="17" t="s">
         <v>706</v>
       </c>
@@ -8354,7 +8333,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="15" t="s">
         <v>316</v>
       </c>
@@ -8363,7 +8342,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="11" t="s">
         <v>318</v>
       </c>
@@ -8383,7 +8362,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="11" t="s">
         <v>320</v>
       </c>
@@ -8392,7 +8371,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="11" t="s">
         <v>322</v>
       </c>
@@ -8401,7 +8380,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="10" t="s">
         <v>699</v>
       </c>
@@ -8412,7 +8391,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="10" t="s">
         <v>700</v>
       </c>
@@ -8423,7 +8402,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="11" t="s">
         <v>324</v>
       </c>
@@ -8432,7 +8411,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="11" t="s">
         <v>326</v>
       </c>
@@ -8441,7 +8420,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="11" t="s">
         <v>328</v>
       </c>
@@ -8450,7 +8429,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="10" t="s">
         <v>330</v>
       </c>
@@ -8461,7 +8440,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A237" s="11" t="s">
         <v>332</v>
       </c>
@@ -8470,7 +8449,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="11" t="s">
         <v>334</v>
       </c>
@@ -8479,7 +8458,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="11" t="s">
         <v>336</v>
       </c>
@@ -8488,7 +8467,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="11" t="s">
         <v>338</v>
       </c>
@@ -8497,7 +8476,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="11" t="s">
         <v>340</v>
       </c>
@@ -8506,7 +8485,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="11" t="s">
         <v>342</v>
       </c>
@@ -8515,7 +8494,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="10" t="s">
         <v>678</v>
       </c>
@@ -8526,7 +8505,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="11" t="s">
         <v>344</v>
       </c>
@@ -8535,7 +8514,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A245" s="11" t="s">
         <v>346</v>
       </c>
@@ -8544,7 +8523,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="10" t="s">
         <v>818</v>
       </c>
@@ -8555,7 +8534,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="11" t="s">
         <v>348</v>
       </c>
@@ -8564,7 +8543,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="11" t="s">
         <v>350</v>
       </c>
@@ -8573,7 +8552,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="11" t="s">
         <v>352</v>
       </c>
@@ -8582,7 +8561,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="11" t="s">
         <v>354</v>
       </c>
@@ -8591,7 +8570,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="10" t="s">
         <v>550</v>
       </c>
@@ -8602,7 +8581,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="10" t="s">
         <v>721</v>
       </c>
@@ -8613,7 +8592,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="14" t="s">
         <v>527</v>
       </c>
@@ -8624,7 +8603,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>127</v>
       </c>
@@ -8635,7 +8614,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>123</v>
       </c>
@@ -8646,7 +8625,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="11" t="s">
         <v>356</v>
       </c>
@@ -8655,7 +8634,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="14" t="s">
         <v>358</v>
       </c>
@@ -8666,7 +8645,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>510</v>
       </c>
@@ -8677,7 +8656,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="11" t="s">
         <v>360</v>
       </c>
@@ -8686,7 +8665,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>26</v>
       </c>
@@ -8697,7 +8676,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="11" t="s">
         <v>362</v>
       </c>
@@ -8706,7 +8685,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="11" t="s">
         <v>364</v>
       </c>
@@ -8715,7 +8694,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="10" t="s">
         <v>586</v>
       </c>
@@ -8726,7 +8705,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="10" t="s">
         <v>629</v>
       </c>
@@ -8737,7 +8716,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="10" t="s">
         <v>578</v>
       </c>
@@ -8748,7 +8727,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="11" t="s">
         <v>366</v>
       </c>
@@ -8757,7 +8736,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="11" t="s">
         <v>368</v>
       </c>
@@ -8766,7 +8745,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="11" t="s">
         <v>370</v>
       </c>
@@ -8775,7 +8754,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>111</v>
       </c>
@@ -8786,7 +8765,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="14" t="s">
         <v>83</v>
       </c>
@@ -8795,7 +8774,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="11" t="s">
         <v>374</v>
       </c>
@@ -8804,7 +8783,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="14" t="s">
         <v>653</v>
       </c>
@@ -8815,7 +8794,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="11" t="s">
         <v>376</v>
       </c>
@@ -8824,7 +8803,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>77</v>
       </c>
@@ -8835,7 +8814,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>75</v>
       </c>
@@ -8846,7 +8825,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="14" t="s">
         <v>601</v>
       </c>
@@ -8857,7 +8836,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="14" t="s">
         <v>602</v>
       </c>
@@ -8868,7 +8847,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="14" t="s">
         <v>515</v>
       </c>
@@ -8879,7 +8858,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>119</v>
       </c>
@@ -8890,7 +8869,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="11" t="s">
         <v>378</v>
       </c>
@@ -8899,7 +8878,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="11" t="s">
         <v>380</v>
       </c>
@@ -8908,7 +8887,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="14" t="s">
         <v>98</v>
       </c>
@@ -8917,7 +8896,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="10" t="s">
         <v>582</v>
       </c>
@@ -8928,7 +8907,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="11" t="s">
         <v>384</v>
       </c>
@@ -8937,7 +8916,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="14" t="s">
         <v>68</v>
       </c>
@@ -8946,7 +8925,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="11" t="s">
         <v>388</v>
       </c>
@@ -8955,7 +8934,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="11" t="s">
         <v>390</v>
       </c>
@@ -8964,7 +8943,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="11" t="s">
         <v>392</v>
       </c>
@@ -8973,7 +8952,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="10" t="s">
         <v>820</v>
       </c>
@@ -8984,7 +8963,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="10" t="s">
         <v>741</v>
       </c>
@@ -8995,7 +8974,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="10" t="s">
         <v>761</v>
       </c>
@@ -9006,7 +8985,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="10" t="s">
         <v>708</v>
       </c>
@@ -9017,7 +8996,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="10" t="s">
         <v>708</v>
       </c>
@@ -9028,7 +9007,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="10" t="s">
         <v>833</v>
       </c>
@@ -9039,7 +9018,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>16</v>
       </c>
@@ -9050,7 +9029,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="10" t="s">
         <v>588</v>
       </c>
@@ -9061,7 +9040,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="11" t="s">
         <v>394</v>
       </c>
@@ -9070,7 +9049,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="11" t="s">
         <v>396</v>
       </c>
@@ -9079,7 +9058,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A299" s="11" t="s">
         <v>398</v>
       </c>
@@ -9088,7 +9067,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="10" t="s">
         <v>692</v>
       </c>
@@ -9099,7 +9078,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="10" t="s">
         <v>705</v>
       </c>
@@ -9110,7 +9089,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="14" t="s">
         <v>572</v>
       </c>
@@ -9121,7 +9100,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="10" t="s">
         <v>727</v>
       </c>
@@ -9132,7 +9111,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="10" t="s">
         <v>711</v>
       </c>
@@ -9143,7 +9122,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="10" t="s">
         <v>723</v>
       </c>
@@ -9154,7 +9133,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="10" t="s">
         <v>712</v>
       </c>
@@ -9176,7 +9155,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="10" t="s">
         <v>806</v>
       </c>
@@ -9187,7 +9166,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="10" t="s">
         <v>797</v>
       </c>
@@ -9198,7 +9177,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>57</v>
       </c>
@@ -9209,7 +9188,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="10" t="s">
         <v>749</v>
       </c>
@@ -9220,7 +9199,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="10" t="s">
         <v>808</v>
       </c>
@@ -9231,7 +9210,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="11" t="s">
         <v>400</v>
       </c>
@@ -9240,7 +9219,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="314" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="10" t="s">
         <v>627</v>
       </c>
@@ -9251,7 +9230,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="10" t="s">
         <v>773</v>
       </c>
@@ -9262,7 +9241,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="10" t="s">
         <v>774</v>
       </c>
@@ -9273,7 +9252,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="317" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="10" t="s">
         <v>826</v>
       </c>
@@ -9284,7 +9263,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="10" t="s">
         <v>816</v>
       </c>
@@ -9295,7 +9274,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="10" t="s">
         <v>758</v>
       </c>
@@ -9306,7 +9285,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="320" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="10" t="s">
         <v>532</v>
       </c>
@@ -9317,7 +9296,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>35</v>
       </c>
@@ -9328,7 +9307,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="10" t="s">
         <v>775</v>
       </c>
@@ -9339,7 +9318,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="11" t="s">
         <v>402</v>
       </c>
@@ -9348,7 +9327,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="11" t="s">
         <v>404</v>
       </c>
@@ -9357,7 +9336,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="11" t="s">
         <v>406</v>
       </c>
@@ -9366,7 +9345,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="11" t="s">
         <v>408</v>
       </c>
@@ -9375,7 +9354,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="11" t="s">
         <v>410</v>
       </c>
@@ -9384,7 +9363,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="11" t="s">
         <v>412</v>
       </c>
@@ -9393,7 +9372,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="14" t="s">
         <v>573</v>
       </c>
@@ -9404,7 +9383,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="11" t="s">
         <v>414</v>
       </c>
@@ -9413,7 +9392,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="11" t="s">
         <v>416</v>
       </c>
@@ -9422,7 +9401,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="10" t="s">
         <v>800</v>
       </c>
@@ -9433,7 +9412,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="11" t="s">
         <v>418</v>
       </c>
@@ -9442,7 +9421,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>89</v>
       </c>
@@ -9453,7 +9432,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="10" t="s">
         <v>696</v>
       </c>
@@ -9464,7 +9443,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="10" t="s">
         <v>805</v>
       </c>
@@ -9475,7 +9454,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="10" t="s">
         <v>799</v>
       </c>
@@ -9486,7 +9465,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="10" t="s">
         <v>862</v>
       </c>
@@ -9497,7 +9476,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="10" t="s">
         <v>625</v>
       </c>
@@ -9508,7 +9487,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="11" t="s">
         <v>420</v>
       </c>
@@ -9517,7 +9496,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="14" t="s">
         <v>547</v>
       </c>
@@ -9528,7 +9507,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>41</v>
       </c>
@@ -9539,7 +9518,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="10" t="s">
         <v>41</v>
       </c>
@@ -9550,7 +9529,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="344" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="11" t="s">
         <v>422</v>
       </c>
@@ -9559,7 +9538,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="10" t="s">
         <v>633</v>
       </c>
@@ -9570,7 +9549,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="10" t="s">
         <v>633</v>
       </c>
@@ -9581,7 +9560,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="11" t="s">
         <v>424</v>
       </c>
@@ -9590,7 +9569,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="11" t="s">
         <v>426</v>
       </c>
@@ -9599,7 +9578,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="11" t="s">
         <v>428</v>
       </c>
@@ -9608,7 +9587,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="11" t="s">
         <v>430</v>
       </c>
@@ -9617,7 +9596,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="351" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="11" t="s">
         <v>432</v>
       </c>
@@ -9626,7 +9605,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="352" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="11" t="s">
         <v>434</v>
       </c>
@@ -9635,7 +9614,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="11" t="s">
         <v>436</v>
       </c>
@@ -9644,7 +9623,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="11" t="s">
         <v>438</v>
       </c>
@@ -9653,7 +9632,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="11" t="s">
         <v>101</v>
       </c>
@@ -9662,7 +9641,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="11" t="s">
         <v>441</v>
       </c>
@@ -9671,7 +9650,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="357" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="11" t="s">
         <v>443</v>
       </c>
@@ -9680,7 +9659,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="358" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="14" t="s">
         <v>85</v>
       </c>
@@ -9689,7 +9668,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="359" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="11" t="s">
         <v>447</v>
       </c>
@@ -9698,7 +9677,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="11" t="s">
         <v>449</v>
       </c>
@@ -9707,7 +9686,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="14" t="s">
         <v>565</v>
       </c>
@@ -9718,7 +9697,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="10" t="s">
         <v>544</v>
       </c>
@@ -9729,7 +9708,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="363" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="10" t="s">
         <v>624</v>
       </c>
@@ -9740,7 +9719,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="10" t="s">
         <v>623</v>
       </c>
@@ -9751,7 +9730,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="365" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="10" t="s">
         <v>646</v>
       </c>
@@ -9762,7 +9741,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="366" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="14" t="s">
         <v>545</v>
       </c>
@@ -9773,7 +9752,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="10" t="s">
         <v>560</v>
       </c>
@@ -9784,7 +9763,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="14" t="s">
         <v>546</v>
       </c>
@@ -9795,7 +9774,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A369" s="11" t="s">
         <v>451</v>
       </c>
@@ -9804,7 +9783,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="370" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="14" t="s">
         <v>453</v>
       </c>
@@ -9815,7 +9794,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="371" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>117</v>
       </c>
@@ -9826,7 +9805,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>455</v>
       </c>
@@ -9837,7 +9816,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="373" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="10" t="s">
         <v>801</v>
       </c>
@@ -9848,7 +9827,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="374" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>121</v>
       </c>
@@ -9859,7 +9838,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="375" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>105</v>
       </c>
@@ -9870,7 +9849,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="376" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>105</v>
       </c>
@@ -9881,7 +9860,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="377" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="11" t="s">
         <v>457</v>
       </c>
@@ -9890,7 +9869,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="378" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="10" t="s">
         <v>835</v>
       </c>
@@ -9901,7 +9880,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" s="11" t="s">
         <v>459</v>
       </c>
@@ -9910,7 +9889,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="11" t="s">
         <v>461</v>
       </c>
@@ -9919,7 +9898,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="381" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>104</v>
       </c>
@@ -9930,7 +9909,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="382" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="10" t="s">
         <v>632</v>
       </c>
@@ -9941,7 +9920,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="11" t="s">
         <v>463</v>
       </c>
@@ -9950,7 +9929,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="384" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>15</v>
       </c>
@@ -9961,7 +9940,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="10" t="s">
         <v>650</v>
       </c>
@@ -9972,7 +9951,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="386" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="11" t="s">
         <v>465</v>
       </c>
@@ -9981,7 +9960,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="387" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" s="14" t="s">
         <v>561</v>
       </c>
@@ -9992,7 +9971,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" s="11" t="s">
         <v>467</v>
       </c>
@@ -10001,7 +9980,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" s="11" t="s">
         <v>469</v>
       </c>
@@ -10010,7 +9989,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="390" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="11" t="s">
         <v>471</v>
       </c>
@@ -10019,7 +9998,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="391" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="11" t="s">
         <v>473</v>
       </c>
@@ -10028,7 +10007,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" s="11" t="s">
         <v>475</v>
       </c>
@@ -10037,7 +10016,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="393" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" s="11" t="s">
         <v>477</v>
       </c>
@@ -10046,7 +10025,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" s="11" t="s">
         <v>479</v>
       </c>
@@ -10055,7 +10034,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="395" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" s="11" t="s">
         <v>481</v>
       </c>
@@ -10064,7 +10043,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="396" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" s="10" t="s">
         <v>674</v>
       </c>
@@ -10075,7 +10054,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="397" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" s="10" t="s">
         <v>802</v>
       </c>
@@ -10086,7 +10065,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" s="11" t="s">
         <v>483</v>
       </c>
@@ -10095,7 +10074,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="399" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" s="10" t="s">
         <v>584</v>
       </c>
@@ -10106,7 +10085,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="400" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" s="10" t="s">
         <v>583</v>
       </c>
@@ -10117,7 +10096,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" s="14" t="s">
         <v>651</v>
       </c>
@@ -10128,7 +10107,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="402" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" s="11" t="s">
         <v>485</v>
       </c>
@@ -10137,7 +10116,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>62</v>
       </c>
@@ -10148,7 +10127,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="404" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="11" t="s">
         <v>487</v>
       </c>
@@ -10157,7 +10136,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="405" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" s="11" t="s">
         <v>489</v>
       </c>
@@ -10166,7 +10145,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="406" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" s="10" t="s">
         <v>732</v>
       </c>
@@ -10177,7 +10156,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="407" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" s="11" t="s">
         <v>491</v>
       </c>
@@ -10186,7 +10165,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" s="10" t="s">
         <v>697</v>
       </c>
@@ -10197,7 +10176,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="409" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>107</v>
       </c>
@@ -10208,7 +10187,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="410" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" s="10" t="s">
         <v>107</v>
       </c>
@@ -10219,7 +10198,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="411" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" s="14" t="s">
         <v>87</v>
       </c>
@@ -10228,7 +10207,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="412" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" s="11" t="s">
         <v>495</v>
       </c>
@@ -10237,157 +10216,157 @@
         <v>496</v>
       </c>
     </row>
-    <row r="413" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" s="14"/>
       <c r="C413" s="14"/>
     </row>
-    <row r="414" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" s="14"/>
       <c r="C414" s="14"/>
     </row>
-    <row r="415" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" s="14"/>
       <c r="B415" s="14"/>
       <c r="C415" s="14"/>
     </row>
-    <row r="416" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C416" s="14"/>
     </row>
-    <row r="417" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C417" s="14"/>
     </row>
-    <row r="418" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C418" s="14"/>
     </row>
-    <row r="419" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C419"/>
     </row>
-    <row r="420" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="14"/>
       <c r="B420" s="14"/>
       <c r="C420" s="25"/>
     </row>
-    <row r="421" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="14"/>
       <c r="B421" s="14"/>
       <c r="C421" s="25"/>
     </row>
-    <row r="422" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" s="14"/>
       <c r="B422" s="14"/>
       <c r="C422" s="14"/>
     </row>
-    <row r="423" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" s="14"/>
       <c r="B423" s="14"/>
       <c r="C423" s="14"/>
     </row>
-    <row r="424" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" s="14"/>
       <c r="B424" s="14"/>
       <c r="C424" s="14"/>
     </row>
-    <row r="425" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" s="14"/>
       <c r="B425" s="14"/>
       <c r="C425" s="14"/>
     </row>
-    <row r="426" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" s="14"/>
       <c r="B426" s="14"/>
       <c r="C426" s="14"/>
     </row>
-    <row r="427" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" s="14"/>
       <c r="B427" s="14"/>
       <c r="C427" s="14"/>
     </row>
-    <row r="428" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" s="14"/>
       <c r="B428" s="14"/>
       <c r="C428" s="25"/>
     </row>
-    <row r="429" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" s="14"/>
       <c r="B429" s="14"/>
       <c r="C429" s="14"/>
     </row>
-    <row r="430" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" s="14"/>
       <c r="B430" s="14"/>
       <c r="C430" s="14"/>
     </row>
-    <row r="431" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" s="14"/>
       <c r="B431" s="14"/>
       <c r="C431" s="14"/>
     </row>
-    <row r="432" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" s="14"/>
       <c r="B432" s="14"/>
       <c r="C432" s="14"/>
     </row>
-    <row r="433" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" s="14"/>
       <c r="B433" s="14"/>
       <c r="C433" s="14"/>
     </row>
-    <row r="434" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" s="14"/>
       <c r="B434" s="14"/>
       <c r="C434" s="14"/>
     </row>
-    <row r="435" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" s="14"/>
       <c r="B435" s="14"/>
       <c r="C435" s="14"/>
     </row>
-    <row r="436" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" s="14"/>
       <c r="B436" s="14"/>
       <c r="C436" s="14"/>
     </row>
-    <row r="437" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" s="14"/>
       <c r="B437" s="14"/>
       <c r="C437" s="14"/>
     </row>
-    <row r="438" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" s="14"/>
       <c r="B438" s="14"/>
       <c r="C438" s="14"/>
     </row>
-    <row r="439" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" s="14"/>
       <c r="B439" s="14"/>
       <c r="C439" s="14"/>
     </row>
-    <row r="440" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" s="14"/>
       <c r="B440" s="14"/>
       <c r="C440" s="14"/>
     </row>
-    <row r="441" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" s="14"/>
       <c r="B441" s="14"/>
       <c r="C441" s="14"/>
     </row>
-    <row r="442" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" s="14"/>
       <c r="B442" s="14"/>
       <c r="C442" s="14"/>
     </row>
-    <row r="443" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" s="14"/>
       <c r="B443" s="14"/>
       <c r="C443" s="14"/>
     </row>
-    <row r="444" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" s="14"/>
       <c r="B444" s="14"/>
       <c r="C444" s="14"/>
     </row>
-    <row r="445" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" s="14"/>
       <c r="B445" s="14"/>
       <c r="C445" s="14"/>
@@ -10708,13 +10687,7 @@
       <c r="C551" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C445" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="20. Moods"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C446" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C551">
     <sortCondition ref="A2:A551"/>
   </sortState>
@@ -10726,7 +10699,7 @@
     <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Zhodani Words List.xlsx
+++ b/Zhodani Words List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06DF0D52-71C6-47E3-A531-64D6AF4D64D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02054245-43FA-4C34-A927-2E5A693B38E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Current vocabulary list'!$A$1:$C$445</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Current vocabulary list'!$A$1:$C$446</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lessons!$A$1:$C$223</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Zhdetl (from Alien Book 4)'!$A$1:$B$186</definedName>
   </definedNames>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="909">
   <si>
     <t>Zhdetl word</t>
   </si>
@@ -2761,6 +2761,45 @@
   </si>
   <si>
     <t>19. Weather</t>
+  </si>
+  <si>
+    <t>20. Moods</t>
+  </si>
+  <si>
+    <t>paki</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>tlako</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>koalita</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>lianki</t>
+  </si>
+  <si>
+    <t>angry</t>
+  </si>
+  <si>
+    <t>ichtlayoplita</t>
+  </si>
+  <si>
+    <t>confused</t>
+  </si>
+  <si>
+    <t>iolotl</t>
+  </si>
+  <si>
+    <t>moods; emotions</t>
   </si>
 </sst>
 </file>
@@ -2927,7 +2966,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2949,14 +2998,14 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
-        <b/>
+        <color rgb="FF9C0006"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2989,8 +3038,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4039E8B-8AC1-44D4-939F-61521D537543}" name="Zhdetl" displayName="Zhdetl" ref="A1:B186" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B186" xr:uid="{B2E9EE69-E126-4FC1-ACEF-C598B63AECDE}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5978,7 +6027,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="A447" sqref="A447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6545,732 +6594,739 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="14"/>
-      <c r="C56" s="14"/>
+      <c r="A56" s="14" t="s">
+        <v>884</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>839</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="14" t="s">
-        <v>884</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>839</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>840</v>
+      <c r="A57" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="C58" s="26" t="s">
+      <c r="B58" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="C58" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>709</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>94</v>
+      <c r="A59" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B59" s="11"/>
+      <c r="C59" s="12" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="12" t="s">
-        <v>499</v>
+      <c r="A60" s="14" t="s">
+        <v>798</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
-        <v>798</v>
+        <v>771</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>776</v>
+        <v>753</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>785</v>
+        <v>766</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>753</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="17" t="s">
-        <v>772</v>
+        <v>752</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>753</v>
+        <v>729</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>767</v>
+        <v>747</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="17" t="s">
-        <v>752</v>
-      </c>
-      <c r="B64" s="21" t="s">
+      <c r="A64" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B64" s="20"/>
+      <c r="C64" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="17" t="s">
+        <v>702</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>680</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B67" s="20"/>
+      <c r="C67" s="16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="17" t="s">
+        <v>730</v>
+      </c>
+      <c r="B68" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="C64" s="18" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="B65" s="20"/>
-      <c r="C65" s="16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="17" t="s">
-        <v>702</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>680</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="B67" s="23" t="s">
-        <v>502</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="B68" s="20"/>
-      <c r="C68" s="16" t="s">
-        <v>191</v>
+      <c r="C68" s="18" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="17" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="17" t="s">
-        <v>717</v>
-      </c>
-      <c r="B70" s="21" t="s">
-        <v>709</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>716</v>
+      <c r="A70" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B70" s="20"/>
+      <c r="C70" s="16" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="B71" s="20"/>
-      <c r="C71" s="16" t="s">
-        <v>193</v>
+      <c r="A71" s="17" t="s">
+        <v>824</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>807</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="17" t="s">
-        <v>824</v>
-      </c>
-      <c r="B72" s="21" t="s">
+      <c r="A72" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="B73" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="C72" s="18" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B73" s="23" t="s">
-        <v>501</v>
-      </c>
-      <c r="C73" s="24" t="s">
-        <v>55</v>
+      <c r="C73" s="18" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="17" t="s">
-        <v>828</v>
+        <v>795</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>807</v>
+        <v>776</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="17" t="s">
-        <v>795</v>
-      </c>
-      <c r="B75" s="21" t="s">
-        <v>776</v>
-      </c>
-      <c r="C75" s="18" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="15" t="s">
+    <row r="75" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="16" t="s">
+      <c r="B75" s="20"/>
+      <c r="C75" s="16" t="s">
         <v>195</v>
       </c>
     </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B76" s="21"/>
+      <c r="C76" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B77" s="21"/>
-      <c r="C77" s="18" t="s">
-        <v>103</v>
+      <c r="A77" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B77" s="20"/>
+      <c r="C77" s="16" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="16" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="16" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="15" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="16" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="15" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="16" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="16" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="16" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="16" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="15" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="16" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="16" t="s">
-        <v>217</v>
+      <c r="A88" s="17" t="s">
+        <v>670</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>656</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="B89" s="21" t="s">
-        <v>656</v>
-      </c>
-      <c r="C89" s="18" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B89" s="20"/>
+      <c r="C89" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="16" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="B92" s="20"/>
-      <c r="C92" s="16" t="s">
-        <v>223</v>
+      <c r="A92" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="17" t="s">
-        <v>551</v>
-      </c>
-      <c r="B93" s="21" t="s">
-        <v>535</v>
-      </c>
-      <c r="C93" s="18" t="s">
-        <v>552</v>
+      <c r="A93" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B93" s="20"/>
+      <c r="C93" s="16" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="16" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="16" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="B96" s="20"/>
-      <c r="C96" s="16" t="s">
-        <v>229</v>
+      <c r="A96" s="17" t="s">
+        <v>556</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="17" t="s">
-        <v>556</v>
-      </c>
-      <c r="B97" s="21" t="s">
-        <v>535</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B97" s="21"/>
       <c r="C97" s="18" t="s">
-        <v>536</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B98" s="21"/>
+        <v>548</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>535</v>
+      </c>
       <c r="C98" s="18" t="s">
-        <v>52</v>
+        <v>538</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="17" t="s">
-        <v>548</v>
-      </c>
-      <c r="B99" s="21" t="s">
-        <v>535</v>
-      </c>
-      <c r="C99" s="18" t="s">
-        <v>538</v>
+      <c r="A99" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B99" s="20"/>
+      <c r="C99" s="16" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="16" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="16" t="s">
-        <v>235</v>
+      <c r="A101" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="17" t="s">
-        <v>12</v>
+        <v>626</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>514</v>
+        <v>610</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>523</v>
+        <v>618</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="17" t="s">
-        <v>626</v>
-      </c>
-      <c r="B103" s="21" t="s">
-        <v>610</v>
-      </c>
-      <c r="C103" s="18" t="s">
-        <v>618</v>
+      <c r="A103" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B103" s="20"/>
+      <c r="C103" s="16" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="B104" s="20"/>
-      <c r="C104" s="16" t="s">
-        <v>237</v>
+      <c r="A104" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="C104" s="24" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B105" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="C105" s="24" t="s">
-        <v>38</v>
+      <c r="A105" s="17" t="s">
+        <v>600</v>
+      </c>
+      <c r="B105" s="21" t="s">
+        <v>589</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="17" t="s">
-        <v>600</v>
+        <v>793</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>589</v>
+        <v>776</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>590</v>
+        <v>780</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="17" t="s">
-        <v>793</v>
-      </c>
-      <c r="B107" s="21" t="s">
-        <v>776</v>
-      </c>
-      <c r="C107" s="18" t="s">
-        <v>780</v>
+      <c r="A107" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="B107" s="20"/>
+      <c r="C107" s="16" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="15" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="16" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="15" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="16" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="B110" s="20"/>
-      <c r="C110" s="16" t="s">
-        <v>243</v>
+      <c r="A110" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="B110" s="21" t="s">
+        <v>634</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="17" t="s">
-        <v>649</v>
-      </c>
-      <c r="B111" s="21" t="s">
-        <v>634</v>
-      </c>
-      <c r="C111" s="18" t="s">
-        <v>639</v>
+      <c r="A111" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B111" s="20"/>
+      <c r="C111" s="16" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="B112" s="20"/>
-      <c r="C112" s="16" t="s">
-        <v>245</v>
+      <c r="A112" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="C112" s="24" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="22" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="22" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B115" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="C115" s="24" t="s">
-        <v>33</v>
+      <c r="A115" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B115" s="20"/>
+      <c r="C115" s="16" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="15" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="16" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="15" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="16" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="15" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="16" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="15" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="16" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="B120" s="20"/>
-      <c r="C120" s="16" t="s">
-        <v>255</v>
+      <c r="A120" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="B120" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="17" t="s">
-        <v>628</v>
+        <v>611</v>
       </c>
       <c r="B121" s="21" t="s">
         <v>610</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="17" t="s">
-        <v>611</v>
-      </c>
-      <c r="B122" s="21" t="s">
-        <v>610</v>
-      </c>
-      <c r="C122" s="18" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B122" s="20"/>
+      <c r="C122" s="16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="15" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="16" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A124" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="B124" s="20"/>
-      <c r="C124" s="16" t="s">
         <v>259</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="C124" s="24" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B126" s="23" t="s">
-        <v>501</v>
-      </c>
-      <c r="C126" s="24" t="s">
-        <v>56</v>
+      <c r="A126" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B126" s="20"/>
+      <c r="C126" s="16" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="B127" s="20"/>
-      <c r="C127" s="16" t="s">
-        <v>261</v>
+      <c r="A127" s="17" t="s">
+        <v>587</v>
+      </c>
+      <c r="B127" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="17" t="s">
-        <v>587</v>
+        <v>668</v>
       </c>
       <c r="B128" s="21" t="s">
-        <v>559</v>
+        <v>656</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>568</v>
+        <v>663</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="17" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="B129" s="21" t="s">
-        <v>656</v>
-      </c>
-      <c r="C129" s="18" t="s">
-        <v>663</v>
+        <v>634</v>
+      </c>
+      <c r="C129" s="19" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -7278,143 +7334,143 @@
         <v>655</v>
       </c>
       <c r="B130" s="21" t="s">
-        <v>634</v>
-      </c>
-      <c r="C130" s="19" t="s">
-        <v>645</v>
+        <v>656</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="17" t="s">
-        <v>655</v>
-      </c>
-      <c r="B131" s="21" t="s">
-        <v>656</v>
-      </c>
-      <c r="C131" s="18" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="B131" s="20"/>
+      <c r="C131" s="16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="15" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A133" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="B133" s="20"/>
-      <c r="C133" s="16" t="s">
         <v>498</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="17" t="s">
+        <v>814</v>
+      </c>
+      <c r="B133" s="21" t="s">
+        <v>807</v>
+      </c>
+      <c r="C133" s="18" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="17" t="s">
-        <v>814</v>
+        <v>652</v>
       </c>
       <c r="B134" s="21" t="s">
-        <v>807</v>
+        <v>634</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>815</v>
+        <v>642</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="17" t="s">
-        <v>652</v>
-      </c>
-      <c r="B135" s="21" t="s">
-        <v>634</v>
-      </c>
-      <c r="C135" s="18" t="s">
-        <v>642</v>
+      <c r="A135" s="15" t="s">
+        <v>671</v>
+      </c>
+      <c r="B135" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="15" t="s">
-        <v>671</v>
-      </c>
-      <c r="B136" s="20" t="s">
-        <v>656</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="B136" s="20"/>
       <c r="C136" s="16" t="s">
-        <v>657</v>
+        <v>266</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="15" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="16" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="B138" s="20"/>
-      <c r="C138" s="16" t="s">
-        <v>268</v>
+      <c r="A138" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="B138" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="C138" s="18" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="17" t="s">
-        <v>525</v>
-      </c>
-      <c r="B139" s="21" t="s">
-        <v>514</v>
-      </c>
-      <c r="C139" s="18" t="s">
-        <v>526</v>
+      <c r="A139" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B139" s="20"/>
+      <c r="C139" s="16" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="B140" s="20"/>
-      <c r="C140" s="16" t="s">
-        <v>270</v>
+      <c r="A140" s="17" t="s">
+        <v>831</v>
+      </c>
+      <c r="B140" s="21" t="s">
+        <v>807</v>
+      </c>
+      <c r="C140" s="18" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="17" t="s">
-        <v>831</v>
+        <v>757</v>
       </c>
       <c r="B141" s="21" t="s">
-        <v>807</v>
+        <v>753</v>
       </c>
       <c r="C141" s="18" t="s">
-        <v>832</v>
+        <v>756</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="17" t="s">
-        <v>757</v>
+        <v>735</v>
       </c>
       <c r="B142" s="21" t="s">
-        <v>753</v>
+        <v>729</v>
       </c>
       <c r="C142" s="18" t="s">
-        <v>756</v>
+        <v>734</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="17" t="s">
-        <v>735</v>
+      <c r="A143" s="15" t="s">
+        <v>905</v>
       </c>
       <c r="B143" s="21" t="s">
-        <v>729</v>
+        <v>896</v>
       </c>
       <c r="C143" s="18" t="s">
-        <v>734</v>
+        <v>906</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -7520,366 +7576,379 @@
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="17"/>
-      <c r="C154" s="18"/>
+      <c r="A154" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="B154" s="11"/>
+      <c r="C154" s="16" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="15" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B155" s="20"/>
       <c r="C155" s="16" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B156" s="20"/>
       <c r="C156" s="16" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="15" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B157" s="20"/>
       <c r="C157" s="16" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B158" s="20"/>
       <c r="C158" s="16" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="B159" s="20"/>
-      <c r="C159" s="16" t="s">
-        <v>289</v>
+      <c r="A159" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="B159" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="C159" s="18" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="17" t="s">
-        <v>521</v>
-      </c>
-      <c r="B160" s="21" t="s">
-        <v>514</v>
-      </c>
-      <c r="C160" s="18" t="s">
-        <v>522</v>
+      <c r="A160" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B160" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="C160" s="24" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="22" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="B161" s="23" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C161" s="24" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="22" t="s">
+      <c r="A162" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="B162" s="23" t="s">
-        <v>502</v>
-      </c>
-      <c r="C162" s="24" t="s">
-        <v>126</v>
+      <c r="B162" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="C162" s="18" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="17" t="s">
-        <v>125</v>
+        <v>704</v>
       </c>
       <c r="B163" s="21" t="s">
-        <v>514</v>
+        <v>680</v>
       </c>
       <c r="C163" s="18" t="s">
-        <v>518</v>
+        <v>690</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="17" t="s">
-        <v>704</v>
+        <v>829</v>
       </c>
       <c r="B164" s="21" t="s">
-        <v>680</v>
+        <v>807</v>
       </c>
       <c r="C164" s="18" t="s">
-        <v>690</v>
+        <v>830</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="17" t="s">
-        <v>829</v>
+        <v>738</v>
       </c>
       <c r="B165" s="21" t="s">
-        <v>807</v>
+        <v>729</v>
       </c>
       <c r="C165" s="18" t="s">
-        <v>830</v>
+        <v>739</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="17" t="s">
-        <v>738</v>
-      </c>
-      <c r="B166" s="21" t="s">
-        <v>729</v>
-      </c>
-      <c r="C166" s="18" t="s">
-        <v>739</v>
+      <c r="A166" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="B166" s="20"/>
+      <c r="C166" s="16" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="15" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B167" s="20"/>
       <c r="C167" s="16" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="B168" s="20"/>
-      <c r="C168" s="16" t="s">
-        <v>293</v>
+      <c r="A168" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="B168" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="C168" s="18" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="17" t="s">
-        <v>631</v>
+        <v>715</v>
       </c>
       <c r="B169" s="21" t="s">
-        <v>610</v>
+        <v>709</v>
       </c>
       <c r="C169" s="18" t="s">
-        <v>613</v>
+        <v>714</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="17" t="s">
-        <v>715</v>
-      </c>
-      <c r="B170" s="21" t="s">
-        <v>709</v>
-      </c>
-      <c r="C170" s="18" t="s">
-        <v>714</v>
+      <c r="A170" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B170" s="20"/>
+      <c r="C170" s="16" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="B171" s="20"/>
-      <c r="C171" s="16" t="s">
-        <v>295</v>
+      <c r="A171" s="17" t="s">
+        <v>881</v>
+      </c>
+      <c r="B171" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="C171" s="18" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="17" t="s">
-        <v>881</v>
-      </c>
-      <c r="B172" s="21" t="s">
-        <v>839</v>
-      </c>
-      <c r="C172" s="18" t="s">
-        <v>845</v>
+      <c r="A172" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B172" s="20"/>
+      <c r="C172" s="16" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="17"/>
-      <c r="B173" s="21"/>
-      <c r="C173" s="18"/>
+      <c r="A173" s="17" t="s">
+        <v>750</v>
+      </c>
+      <c r="B173" s="21" t="s">
+        <v>729</v>
+      </c>
+      <c r="C173" s="18" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="B174" s="20"/>
-      <c r="C174" s="16" t="s">
-        <v>297</v>
+      <c r="A174" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B174" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="C174" s="24" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="17" t="s">
-        <v>750</v>
-      </c>
-      <c r="B175" s="21" t="s">
-        <v>729</v>
-      </c>
-      <c r="C175" s="18" t="s">
-        <v>745</v>
+      <c r="A175" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B175" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="C175" s="24" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="22" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B176" s="23" t="s">
         <v>500</v>
       </c>
       <c r="C176" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B177" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="C177" s="24" t="s">
-        <v>31</v>
+      <c r="A177" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="B177" s="21" t="s">
+        <v>680</v>
+      </c>
+      <c r="C177" s="18" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B178" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="C178" s="24" t="s">
-        <v>28</v>
+      <c r="A178" s="15" t="s">
+        <v>901</v>
+      </c>
+      <c r="B178" s="21" t="s">
+        <v>896</v>
+      </c>
+      <c r="C178" s="18" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="17" t="s">
-        <v>695</v>
+        <v>792</v>
       </c>
       <c r="B179" s="21" t="s">
-        <v>680</v>
+        <v>776</v>
       </c>
       <c r="C179" s="18" t="s">
-        <v>682</v>
+        <v>779</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="17" t="s">
-        <v>792</v>
+        <v>748</v>
       </c>
       <c r="B180" s="21" t="s">
-        <v>776</v>
+        <v>729</v>
       </c>
       <c r="C180" s="18" t="s">
-        <v>779</v>
+        <v>743</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="17" t="s">
-        <v>748</v>
+        <v>703</v>
       </c>
       <c r="B181" s="21" t="s">
-        <v>729</v>
+        <v>680</v>
       </c>
       <c r="C181" s="18" t="s">
-        <v>743</v>
+        <v>689</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="17" t="s">
-        <v>703</v>
+        <v>866</v>
       </c>
       <c r="B182" s="21" t="s">
-        <v>680</v>
+        <v>839</v>
       </c>
       <c r="C182" s="18" t="s">
-        <v>689</v>
+        <v>846</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="17" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B183" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C183" s="18" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="17" t="s">
-        <v>868</v>
+        <v>812</v>
       </c>
       <c r="B184" s="21" t="s">
-        <v>839</v>
+        <v>807</v>
       </c>
       <c r="C184" s="18" t="s">
-        <v>848</v>
+        <v>885</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="17" t="s">
-        <v>812</v>
+        <v>609</v>
       </c>
       <c r="B185" s="21" t="s">
-        <v>807</v>
+        <v>589</v>
       </c>
       <c r="C185" s="18" t="s">
-        <v>885</v>
+        <v>597</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B186" s="21" t="s">
         <v>589</v>
       </c>
       <c r="C186" s="18" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="B187" s="21" t="s">
-        <v>589</v>
-      </c>
-      <c r="C187" s="18" t="s">
-        <v>596</v>
+      <c r="A187" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="B187" s="20"/>
+      <c r="C187" s="16" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="B188" s="20"/>
-      <c r="C188" s="16" t="s">
-        <v>299</v>
+      <c r="A188" s="17" t="s">
+        <v>867</v>
+      </c>
+      <c r="B188" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="C188" s="18" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="17" t="s">
-        <v>867</v>
+      <c r="A189" s="15" t="s">
+        <v>903</v>
       </c>
       <c r="B189" s="21" t="s">
-        <v>839</v>
+        <v>896</v>
       </c>
       <c r="C189" s="18" t="s">
-        <v>847</v>
+        <v>904</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -7894,395 +7963,403 @@
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C191" s="18"/>
+      <c r="A191" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B191" s="11"/>
+      <c r="C191" s="16" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="B192" s="20"/>
-      <c r="C192" s="16" t="s">
-        <v>303</v>
+      <c r="A192" s="17" t="s">
+        <v>864</v>
+      </c>
+      <c r="B192" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="C192" s="18" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="17" t="s">
-        <v>864</v>
+        <v>804</v>
       </c>
       <c r="B193" s="21" t="s">
-        <v>839</v>
+        <v>776</v>
       </c>
       <c r="C193" s="18" t="s">
-        <v>844</v>
+        <v>790</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="17" t="s">
-        <v>804</v>
-      </c>
-      <c r="B194" s="21" t="s">
-        <v>776</v>
-      </c>
-      <c r="C194" s="18" t="s">
-        <v>790</v>
+      <c r="A194" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="B194" s="20"/>
+      <c r="C194" s="16" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="B195" s="20"/>
-      <c r="C195" s="16" t="s">
-        <v>305</v>
+      <c r="A195" s="17" t="s">
+        <v>675</v>
+      </c>
+      <c r="B195" s="21" t="s">
+        <v>656</v>
+      </c>
+      <c r="C195" s="18" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="17" t="s">
-        <v>675</v>
+        <v>870</v>
       </c>
       <c r="B196" s="21" t="s">
-        <v>656</v>
+        <v>839</v>
       </c>
       <c r="C196" s="18" t="s">
-        <v>667</v>
+        <v>850</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="17" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="B197" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C197" s="18" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="17" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B198" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C198" s="18" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="17" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B199" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C199" s="18" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="17" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B200" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C200" s="18" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="17" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B201" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C201" s="18" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="17" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B202" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C202" s="18" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="17" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B203" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C203" s="18" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="17" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B204" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C204" s="18" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="17" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="B205" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C205" s="18" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="17" t="s">
-        <v>872</v>
+        <v>796</v>
       </c>
       <c r="B206" s="21" t="s">
-        <v>839</v>
+        <v>776</v>
       </c>
       <c r="C206" s="18" t="s">
-        <v>852</v>
+        <v>781</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="17" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B207" s="21" t="s">
         <v>776</v>
       </c>
       <c r="C207" s="18" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" s="17" t="s">
-        <v>794</v>
-      </c>
-      <c r="B208" s="21" t="s">
-        <v>776</v>
-      </c>
-      <c r="C208" s="18" t="s">
-        <v>782</v>
+      <c r="A208" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="B208" s="20"/>
+      <c r="C208" s="16" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="B209" s="20"/>
-      <c r="C209" s="16" t="s">
-        <v>307</v>
+      <c r="A209" s="17" t="s">
+        <v>765</v>
+      </c>
+      <c r="B209" s="21" t="s">
+        <v>753</v>
+      </c>
+      <c r="C209" s="18" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="17" t="s">
-        <v>765</v>
-      </c>
-      <c r="B210" s="21" t="s">
-        <v>753</v>
-      </c>
-      <c r="C210" s="18" t="s">
-        <v>764</v>
+      <c r="A210" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B210" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="C210" s="24" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="22" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B211" s="23" t="s">
         <v>501</v>
       </c>
       <c r="C211" s="24" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B212" s="23" t="s">
-        <v>501</v>
-      </c>
-      <c r="C212" s="24" t="s">
-        <v>64</v>
+      <c r="A212" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="B212" s="21" t="s">
+        <v>753</v>
+      </c>
+      <c r="C212" s="18" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="17" t="s">
-        <v>755</v>
+        <v>672</v>
       </c>
       <c r="B213" s="21" t="s">
-        <v>753</v>
+        <v>656</v>
       </c>
       <c r="C213" s="18" t="s">
-        <v>754</v>
+        <v>658</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="17" t="s">
-        <v>672</v>
+        <v>882</v>
       </c>
       <c r="B214" s="21" t="s">
-        <v>656</v>
+        <v>514</v>
       </c>
       <c r="C214" s="18" t="s">
-        <v>658</v>
+        <v>524</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="17" t="s">
-        <v>882</v>
+        <v>607</v>
       </c>
       <c r="B215" s="21" t="s">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="C215" s="18" t="s">
-        <v>524</v>
+        <v>595</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="17" t="s">
-        <v>607</v>
+        <v>863</v>
       </c>
       <c r="B216" s="21" t="s">
-        <v>589</v>
+        <v>839</v>
       </c>
       <c r="C216" s="18" t="s">
-        <v>595</v>
+        <v>843</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="17" t="s">
-        <v>863</v>
-      </c>
-      <c r="B217" s="21" t="s">
-        <v>839</v>
-      </c>
-      <c r="C217" s="18" t="s">
-        <v>843</v>
+      <c r="A217" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B217" s="20"/>
+      <c r="C217" s="16" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="B218" s="20"/>
-      <c r="C218" s="16" t="s">
-        <v>309</v>
+      <c r="A218" s="17" t="s">
+        <v>810</v>
+      </c>
+      <c r="B218" s="21" t="s">
+        <v>807</v>
+      </c>
+      <c r="C218" s="18" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="17" t="s">
-        <v>810</v>
-      </c>
-      <c r="B219" s="21" t="s">
-        <v>807</v>
-      </c>
-      <c r="C219" s="18" t="s">
-        <v>811</v>
+      <c r="A219" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="B219" s="20"/>
+      <c r="C219" s="16" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="15" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B220" s="20"/>
       <c r="C220" s="16" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="15" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B221" s="20"/>
       <c r="C221" s="16" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="B222" s="20"/>
-      <c r="C222" s="16" t="s">
-        <v>315</v>
+      <c r="A222" s="17" t="s">
+        <v>861</v>
+      </c>
+      <c r="B222" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="C222" s="18" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="17" t="s">
-        <v>861</v>
+        <v>879</v>
       </c>
       <c r="B223" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C223" s="18" t="s">
-        <v>841</v>
+        <v>859</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="17" t="s">
-        <v>879</v>
+        <v>673</v>
       </c>
       <c r="B224" s="21" t="s">
-        <v>839</v>
+        <v>656</v>
       </c>
       <c r="C224" s="18" t="s">
-        <v>859</v>
+        <v>664</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="17" t="s">
-        <v>673</v>
+        <v>706</v>
       </c>
       <c r="B225" s="21" t="s">
-        <v>656</v>
+        <v>680</v>
       </c>
       <c r="C225" s="18" t="s">
-        <v>664</v>
+        <v>685</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="17" t="s">
-        <v>706</v>
-      </c>
-      <c r="B226" s="21" t="s">
-        <v>680</v>
-      </c>
-      <c r="C226" s="18" t="s">
-        <v>685</v>
+      <c r="A226" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B226" s="20"/>
+      <c r="C226" s="16" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="11" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B227" s="20"/>
       <c r="C227" s="12" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="B228" s="20"/>
-      <c r="C228" s="12" t="s">
-        <v>319</v>
+        <v>897</v>
+      </c>
+      <c r="B228" s="20" t="s">
+        <v>896</v>
+      </c>
+      <c r="C228" s="14" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
@@ -8569,346 +8646,354 @@
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C258" s="14"/>
+      <c r="A258" t="s">
+        <v>510</v>
+      </c>
+      <c r="B258" t="s">
+        <v>502</v>
+      </c>
+      <c r="C258" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
-        <v>510</v>
-      </c>
-      <c r="B259" t="s">
-        <v>502</v>
-      </c>
-      <c r="C259" t="s">
-        <v>511</v>
+      <c r="A259" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="B259" s="11"/>
+      <c r="C259" s="12" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A260" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="B260" s="11"/>
-      <c r="C260" s="12" t="s">
-        <v>361</v>
+      <c r="A260" t="s">
+        <v>26</v>
+      </c>
+      <c r="B260" t="s">
+        <v>500</v>
+      </c>
+      <c r="C260" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
-        <v>26</v>
-      </c>
-      <c r="B261" t="s">
-        <v>500</v>
-      </c>
-      <c r="C261" t="s">
-        <v>27</v>
+      <c r="A261" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="B261" s="11"/>
+      <c r="C261" s="12" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="11" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B262" s="11"/>
       <c r="C262" s="12" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="B263" s="11"/>
-      <c r="C263" s="12" t="s">
-        <v>365</v>
+      <c r="A263" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="B263" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="C263" s="10" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="10" t="s">
-        <v>586</v>
+        <v>629</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>559</v>
+        <v>610</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>585</v>
+        <v>620</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="10" t="s">
-        <v>629</v>
+        <v>578</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>610</v>
+        <v>559</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>620</v>
+        <v>574</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A266" s="10" t="s">
-        <v>578</v>
-      </c>
-      <c r="B266" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="C266" s="10" t="s">
-        <v>574</v>
+      <c r="A266" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="B266" s="11"/>
+      <c r="C266" s="12" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="11" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B267" s="11"/>
       <c r="C267" s="12" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="11" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B268" s="11"/>
       <c r="C268" s="12" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A269" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="B269" s="11"/>
-      <c r="C269" s="12" t="s">
-        <v>371</v>
+      <c r="A269" t="s">
+        <v>111</v>
+      </c>
+      <c r="B269" t="s">
+        <v>502</v>
+      </c>
+      <c r="C269" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
-        <v>111</v>
-      </c>
-      <c r="B270" t="s">
-        <v>502</v>
-      </c>
-      <c r="C270" t="s">
-        <v>112</v>
+      <c r="A270" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B270" s="14"/>
+      <c r="C270" s="14" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A271" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B271" s="14"/>
-      <c r="C271" s="14" t="s">
-        <v>84</v>
+      <c r="A271" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="B271" s="11"/>
+      <c r="C271" s="12" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A272" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="B272" s="11"/>
-      <c r="C272" s="12" t="s">
-        <v>375</v>
+      <c r="A272" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="B272" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="C272" s="14" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A273" s="14" t="s">
-        <v>653</v>
-      </c>
-      <c r="B273" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="C273" s="14" t="s">
-        <v>643</v>
+      <c r="A273" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="B273" s="11"/>
+      <c r="C273" s="12" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A274" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="B274" s="11"/>
-      <c r="C274" s="12" t="s">
-        <v>377</v>
+      <c r="A274" t="s">
+        <v>77</v>
+      </c>
+      <c r="B274" t="s">
+        <v>501</v>
+      </c>
+      <c r="C274" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B275" t="s">
         <v>501</v>
       </c>
       <c r="C275" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
-        <v>75</v>
-      </c>
-      <c r="B276" t="s">
-        <v>501</v>
-      </c>
-      <c r="C276" t="s">
-        <v>76</v>
+      <c r="A276" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="B276" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="C276" s="14" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="14" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B277" s="14" t="s">
         <v>589</v>
       </c>
       <c r="C277" s="14" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="14" t="s">
-        <v>602</v>
+        <v>515</v>
       </c>
       <c r="B278" s="14" t="s">
-        <v>589</v>
+        <v>514</v>
       </c>
       <c r="C278" s="14" t="s">
-        <v>592</v>
+        <v>516</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" s="14" t="s">
-        <v>515</v>
-      </c>
-      <c r="B279" s="14" t="s">
-        <v>514</v>
-      </c>
-      <c r="C279" s="14" t="s">
-        <v>516</v>
+      <c r="A279" t="s">
+        <v>119</v>
+      </c>
+      <c r="B279" t="s">
+        <v>502</v>
+      </c>
+      <c r="C279" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
-        <v>119</v>
-      </c>
-      <c r="B280" t="s">
-        <v>502</v>
-      </c>
-      <c r="C280" t="s">
-        <v>120</v>
+      <c r="A280" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B280" s="11"/>
+      <c r="C280" s="12" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="11" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B281" s="11"/>
       <c r="C281" s="12" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A282" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="B282" s="11"/>
-      <c r="C282" s="12" t="s">
-        <v>381</v>
+      <c r="A282" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B282" s="14"/>
+      <c r="C282" s="14" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A283" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B283" s="14"/>
-      <c r="C283" s="14" t="s">
-        <v>99</v>
+      <c r="A283" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="B283" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="C283" s="10" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A284" s="10" t="s">
-        <v>582</v>
-      </c>
-      <c r="B284" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="C284" s="10" t="s">
-        <v>581</v>
+      <c r="A284" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="B284" s="11"/>
+      <c r="C284" s="12" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="B285" s="11"/>
-      <c r="C285" s="12" t="s">
-        <v>385</v>
+      <c r="A285" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B285" s="14"/>
+      <c r="C285" s="14" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A286" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B286" s="14"/>
-      <c r="C286" s="14" t="s">
-        <v>69</v>
+      <c r="A286" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="B286" s="11"/>
+      <c r="C286" s="12" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="11" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B287" s="11"/>
       <c r="C287" s="12" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="11" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B288" s="11"/>
       <c r="C288" s="12" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A289" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="B289" s="11"/>
-      <c r="C289" s="12" t="s">
-        <v>393</v>
+      <c r="A289" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="B289" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="C289" s="10" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="10" t="s">
-        <v>820</v>
+        <v>741</v>
       </c>
       <c r="B290" s="10" t="s">
-        <v>807</v>
+        <v>729</v>
       </c>
       <c r="C290" s="10" t="s">
-        <v>821</v>
+        <v>740</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="10" t="s">
-        <v>741</v>
+        <v>761</v>
       </c>
       <c r="B291" s="10" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="C291" s="10" t="s">
-        <v>740</v>
+        <v>760</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="10" t="s">
-        <v>761</v>
+        <v>708</v>
       </c>
       <c r="B292" s="10" t="s">
-        <v>753</v>
+        <v>680</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>760</v>
+        <v>707</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
@@ -8916,158 +9001,158 @@
         <v>708</v>
       </c>
       <c r="B293" s="10" t="s">
-        <v>680</v>
+        <v>729</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>707</v>
+        <v>742</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="10" t="s">
-        <v>708</v>
+        <v>833</v>
       </c>
       <c r="B294" s="10" t="s">
-        <v>729</v>
+        <v>807</v>
       </c>
       <c r="C294" s="10" t="s">
-        <v>742</v>
+        <v>834</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="10" t="s">
-        <v>833</v>
-      </c>
-      <c r="B295" s="10" t="s">
-        <v>807</v>
-      </c>
-      <c r="C295" s="10" t="s">
-        <v>834</v>
+      <c r="A295" t="s">
+        <v>16</v>
+      </c>
+      <c r="B295" t="s">
+        <v>500</v>
+      </c>
+      <c r="C295" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A296" t="s">
-        <v>16</v>
-      </c>
-      <c r="B296" t="s">
-        <v>500</v>
-      </c>
-      <c r="C296" t="s">
-        <v>21</v>
+      <c r="A296" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="B296" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="C296" s="10" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A297" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="B297" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="C297" s="10" t="s">
-        <v>569</v>
+      <c r="A297" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="B297" s="11"/>
+      <c r="C297" s="12" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="11" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B298" s="11"/>
       <c r="C298" s="12" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A299" s="11" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B299" s="11"/>
       <c r="C299" s="12" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A300" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="B300" s="11"/>
-      <c r="C300" s="12" t="s">
         <v>399</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="B300" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C300" s="10" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="10" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
       <c r="B301" s="10" t="s">
         <v>680</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A302" s="10" t="s">
-        <v>705</v>
-      </c>
-      <c r="B302" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="C302" s="10" t="s">
-        <v>686</v>
+      <c r="A302" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="B302" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C302" s="14" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A303" s="14" t="s">
-        <v>572</v>
-      </c>
-      <c r="B303" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="C303" s="14" t="s">
-        <v>567</v>
+      <c r="A303" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="B303" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C303" s="10" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="10" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="B304" s="10" t="s">
         <v>709</v>
       </c>
       <c r="C304" s="10" t="s">
-        <v>728</v>
+        <v>710</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="10" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="B305" s="10" t="s">
         <v>709</v>
       </c>
       <c r="C305" s="10" t="s">
-        <v>710</v>
+        <v>724</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="10" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="B306" s="10" t="s">
         <v>709</v>
       </c>
       <c r="C306" s="10" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A307" s="10" t="s">
-        <v>712</v>
+      <c r="A307" s="11" t="s">
+        <v>899</v>
       </c>
       <c r="B307" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="C307" s="10" t="s">
-        <v>713</v>
+        <v>896</v>
+      </c>
+      <c r="C307" s="14" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
@@ -9710,452 +9795,450 @@
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C371" s="14"/>
+      <c r="A371" t="s">
+        <v>117</v>
+      </c>
+      <c r="B371" t="s">
+        <v>502</v>
+      </c>
+      <c r="C371" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>117</v>
+        <v>455</v>
       </c>
       <c r="B372" t="s">
+        <v>886</v>
+      </c>
+      <c r="C372" s="12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="B373" s="10" t="s">
+        <v>776</v>
+      </c>
+      <c r="C373" s="10" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>121</v>
+      </c>
+      <c r="B374" t="s">
         <v>502</v>
       </c>
-      <c r="C372" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A373" t="s">
-        <v>455</v>
-      </c>
-      <c r="B373" t="s">
-        <v>886</v>
-      </c>
-      <c r="C373" s="12" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C374"/>
+      <c r="C374" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A375" s="10" t="s">
-        <v>801</v>
-      </c>
-      <c r="B375" s="10" t="s">
-        <v>776</v>
-      </c>
-      <c r="C375" s="10" t="s">
-        <v>789</v>
+      <c r="A375" t="s">
+        <v>105</v>
+      </c>
+      <c r="B375" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="C375" s="14" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B376" t="s">
         <v>502</v>
       </c>
       <c r="C376" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A377" t="s">
-        <v>105</v>
-      </c>
-      <c r="B377" s="14" t="s">
-        <v>514</v>
-      </c>
-      <c r="C377" s="14" t="s">
-        <v>517</v>
+      <c r="A377" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="B377" s="11"/>
+      <c r="C377" s="12" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A378" t="s">
-        <v>105</v>
-      </c>
-      <c r="B378" t="s">
-        <v>502</v>
-      </c>
-      <c r="C378" t="s">
-        <v>106</v>
+      <c r="A378" s="10" t="s">
+        <v>835</v>
+      </c>
+      <c r="B378" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="C378" s="10" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" s="11" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B379" s="11"/>
       <c r="C379" s="12" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A380" s="10" t="s">
-        <v>835</v>
-      </c>
-      <c r="B380" s="10" t="s">
-        <v>807</v>
-      </c>
-      <c r="C380" s="10" t="s">
-        <v>836</v>
+      <c r="A380" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="B380" s="11"/>
+      <c r="C380" s="12" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A381" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="B381" s="11"/>
-      <c r="C381" s="12" t="s">
-        <v>460</v>
+      <c r="A381" t="s">
+        <v>104</v>
+      </c>
+      <c r="B381" t="s">
+        <v>501</v>
+      </c>
+      <c r="C381" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A382" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="B382" s="11"/>
-      <c r="C382" s="12" t="s">
-        <v>462</v>
+      <c r="A382" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="B382" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="C382" s="10" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A383" t="s">
-        <v>104</v>
-      </c>
-      <c r="B383" t="s">
-        <v>501</v>
-      </c>
-      <c r="C383" t="s">
-        <v>97</v>
+      <c r="A383" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="B383" s="11"/>
+      <c r="C383" s="12" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A384" s="10" t="s">
-        <v>632</v>
-      </c>
-      <c r="B384" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="C384" s="10" t="s">
-        <v>614</v>
+      <c r="A384" t="s">
+        <v>15</v>
+      </c>
+      <c r="B384" t="s">
+        <v>500</v>
+      </c>
+      <c r="C384" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A385" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="B385" s="11"/>
-      <c r="C385" s="12" t="s">
-        <v>464</v>
+      <c r="A385" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="B385" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="C385" s="10" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A386" t="s">
-        <v>15</v>
-      </c>
-      <c r="B386" t="s">
-        <v>500</v>
-      </c>
-      <c r="C386" t="s">
-        <v>22</v>
+      <c r="A386" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="B386" s="11"/>
+      <c r="C386" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A387" s="10" t="s">
-        <v>650</v>
-      </c>
-      <c r="B387" s="10" t="s">
-        <v>634</v>
-      </c>
-      <c r="C387" s="10" t="s">
-        <v>640</v>
+      <c r="A387" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="B387" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C387" s="14" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" s="11" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B388" s="11"/>
       <c r="C388" s="12" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A389" s="14" t="s">
-        <v>561</v>
-      </c>
-      <c r="B389" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="C389" s="14" t="s">
-        <v>562</v>
+      <c r="A389" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="B389" s="11"/>
+      <c r="C389" s="12" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="11" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B390" s="11"/>
       <c r="C390" s="12" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="11" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B391" s="11"/>
       <c r="C391" s="12" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" s="11" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B392" s="11"/>
       <c r="C392" s="12" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" s="11" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B393" s="11"/>
       <c r="C393" s="12" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" s="11" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B394" s="11"/>
       <c r="C394" s="12" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" s="11" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B395" s="11"/>
       <c r="C395" s="12" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A396" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="B396" s="11"/>
-      <c r="C396" s="12" t="s">
-        <v>480</v>
+      <c r="A396" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="B396" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="C396" s="10" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A397" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="B397" s="11"/>
-      <c r="C397" s="12" t="s">
-        <v>482</v>
+      <c r="A397" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="B397" s="10" t="s">
+        <v>776</v>
+      </c>
+      <c r="C397" s="10" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A398" s="10" t="s">
-        <v>674</v>
-      </c>
-      <c r="B398" s="10" t="s">
-        <v>656</v>
-      </c>
-      <c r="C398" s="10" t="s">
-        <v>665</v>
+      <c r="A398" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B398" s="11"/>
+      <c r="C398" s="12" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" s="10" t="s">
-        <v>802</v>
+        <v>584</v>
       </c>
       <c r="B399" s="10" t="s">
-        <v>776</v>
+        <v>559</v>
       </c>
       <c r="C399" s="10" t="s">
-        <v>803</v>
+        <v>570</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A400" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="B400" s="11"/>
-      <c r="C400" s="12" t="s">
-        <v>484</v>
+      <c r="A400" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="B400" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="C400" s="10" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A401" s="10" t="s">
-        <v>584</v>
-      </c>
-      <c r="B401" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="C401" s="10" t="s">
-        <v>570</v>
+      <c r="A401" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="B401" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="C401" s="14" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A402" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="B402" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="C402" s="10" t="s">
-        <v>571</v>
+      <c r="A402" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="B402" s="11"/>
+      <c r="C402" s="12" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A403" s="14" t="s">
-        <v>651</v>
-      </c>
-      <c r="B403" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="C403" s="14" t="s">
-        <v>641</v>
+      <c r="A403" t="s">
+        <v>62</v>
+      </c>
+      <c r="B403" t="s">
+        <v>501</v>
+      </c>
+      <c r="C403" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="11" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B404" s="11"/>
       <c r="C404" s="12" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A405" t="s">
-        <v>62</v>
-      </c>
-      <c r="B405" t="s">
-        <v>501</v>
-      </c>
-      <c r="C405" t="s">
-        <v>60</v>
+      <c r="A405" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="B405" s="11"/>
+      <c r="C405" s="12" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A406" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="B406" s="11"/>
-      <c r="C406" s="12" t="s">
-        <v>488</v>
+      <c r="A406" s="10" t="s">
+        <v>732</v>
+      </c>
+      <c r="B406" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="C406" s="10" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" s="11" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B407" s="11"/>
       <c r="C407" s="12" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" s="10" t="s">
-        <v>732</v>
+        <v>697</v>
       </c>
       <c r="B408" s="10" t="s">
-        <v>729</v>
+        <v>680</v>
       </c>
       <c r="C408" s="10" t="s">
-        <v>733</v>
+        <v>683</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A409" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="B409" s="11"/>
-      <c r="C409" s="12" t="s">
-        <v>492</v>
+      <c r="A409" t="s">
+        <v>107</v>
+      </c>
+      <c r="B409" t="s">
+        <v>502</v>
+      </c>
+      <c r="C409" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" s="10" t="s">
-        <v>697</v>
+        <v>107</v>
       </c>
       <c r="B410" s="10" t="s">
-        <v>680</v>
+        <v>514</v>
       </c>
       <c r="C410" s="10" t="s">
-        <v>683</v>
+        <v>534</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A411" t="s">
-        <v>107</v>
-      </c>
-      <c r="B411" t="s">
-        <v>502</v>
-      </c>
-      <c r="C411" t="s">
-        <v>109</v>
+      <c r="A411" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B411" s="14"/>
+      <c r="C411" s="14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A412" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B412" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="C412" s="10" t="s">
-        <v>534</v>
+      <c r="A412" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="B412" s="11"/>
+      <c r="C412" s="12" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A413" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B413" s="14"/>
-      <c r="C413" s="14" t="s">
-        <v>88</v>
-      </c>
+      <c r="A413" s="14"/>
+      <c r="C413" s="14"/>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A414" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="B414" s="11"/>
-      <c r="C414" s="12" t="s">
-        <v>496</v>
-      </c>
+      <c r="A414" s="14"/>
+      <c r="C414" s="14"/>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A415"/>
-      <c r="B415"/>
-      <c r="C415"/>
+      <c r="A415" s="14"/>
+      <c r="B415" s="14"/>
+      <c r="C415" s="14"/>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A416"/>
-      <c r="C416"/>
+      <c r="C416" s="14"/>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A417"/>
-      <c r="C417"/>
+      <c r="C417" s="14"/>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A418"/>
-      <c r="C418"/>
+      <c r="C418" s="14"/>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A419"/>
       <c r="C419"/>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
@@ -10289,9 +10372,15 @@
       <c r="C445" s="14"/>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A446" s="14"/>
-      <c r="B446" s="14"/>
-      <c r="C446" s="14"/>
+      <c r="A446" s="14" t="s">
+        <v>907</v>
+      </c>
+      <c r="B446" s="14" t="s">
+        <v>896</v>
+      </c>
+      <c r="C446" s="14" t="s">
+        <v>908</v>
+      </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" s="14"/>
@@ -10598,16 +10687,19 @@
       <c r="C551" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C445" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C552">
-    <sortCondition ref="A2:A552"/>
+  <autoFilter ref="A1:C446" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C551">
+    <sortCondition ref="A2:A551"/>
   </sortState>
   <dataConsolidate/>
   <conditionalFormatting sqref="A375:A1048576 A372:A373 A259:A370 A192:A257 A1:A190">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Zhodani Words List.xlsx
+++ b/Zhodani Words List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02054245-43FA-4C34-A927-2E5A693B38E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC8DA8E-CF1A-4121-84DB-EBF1FB390CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Current vocabulary list'!$A$1:$C$446</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Current vocabulary list'!$A$1:$C$451</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lessons!$A$1:$C$223</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Zhdetl (from Alien Book 4)'!$A$1:$B$186</definedName>
   </definedNames>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="929">
   <si>
     <t>Zhdetl word</t>
   </si>
@@ -2800,6 +2800,66 @@
   </si>
   <si>
     <t>moods; emotions</t>
+  </si>
+  <si>
+    <t>afraid</t>
+  </si>
+  <si>
+    <t>bereft</t>
+  </si>
+  <si>
+    <t>flirty</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>silly</t>
+  </si>
+  <si>
+    <t>machita</t>
+  </si>
+  <si>
+    <t>tlepika</t>
+  </si>
+  <si>
+    <t>nienekita</t>
+  </si>
+  <si>
+    <t>cholita</t>
+  </si>
+  <si>
+    <t>chacholita</t>
+  </si>
+  <si>
+    <t>hollow, blank, expressionless</t>
+  </si>
+  <si>
+    <t>confident</t>
+  </si>
+  <si>
+    <t>fierce</t>
+  </si>
+  <si>
+    <t>despondent</t>
+  </si>
+  <si>
+    <t>tekoyotik</t>
+  </si>
+  <si>
+    <t>chatlanekantik</t>
+  </si>
+  <si>
+    <t>incredulous; unbelieving</t>
+  </si>
+  <si>
+    <t>tlachtamota</t>
+  </si>
+  <si>
+    <t>tlaye'</t>
+  </si>
+  <si>
+    <t>yomichti</t>
   </si>
 </sst>
 </file>
@@ -6027,7 +6087,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A447" sqref="A447"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6087,21 +6147,21 @@
         <v>606</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C6" s="14" t="s">
         <v>598</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>606</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -6229,13 +6289,13 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="14" t="s">
         <v>763</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="14" t="s">
         <v>753</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="14" t="s">
         <v>762</v>
       </c>
     </row>
@@ -6248,24 +6308,24 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="26" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="26" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6284,7 +6344,7 @@
       <c r="A25" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="26" t="s">
         <v>886</v>
       </c>
       <c r="C25" s="12" t="s">
@@ -6307,7 +6367,7 @@
       <c r="B27" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="14" t="s">
         <v>540</v>
       </c>
     </row>
@@ -6340,7 +6400,7 @@
       <c r="A31" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="26" t="s">
         <v>886</v>
       </c>
       <c r="C31" s="14" t="s">
@@ -6351,7 +6411,7 @@
       <c r="A32" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="26" t="s">
         <v>886</v>
       </c>
       <c r="C32" s="12" t="s">
@@ -6362,7 +6422,7 @@
       <c r="A33" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="26" t="s">
         <v>886</v>
       </c>
       <c r="C33" s="12" t="s">
@@ -6399,35 +6459,35 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="14" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="14" t="s">
         <v>605</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="14" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="14" t="s">
         <v>603</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="14" t="s">
         <v>593</v>
       </c>
     </row>
@@ -6435,7 +6495,7 @@
       <c r="A40" s="10" t="s">
         <v>647</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="14" t="s">
         <v>634</v>
       </c>
       <c r="C40" s="10" t="s">
@@ -6476,13 +6536,13 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="14" t="s">
         <v>630</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="14" t="s">
         <v>615</v>
       </c>
     </row>
@@ -6514,3777 +6574,3849 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="14" t="s">
+        <v>918</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>896</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="12" t="s">
+      <c r="B49" s="11"/>
+      <c r="C49" s="12" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="10" t="s">
-        <v>698</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>680</v>
       </c>
       <c r="C50" s="10" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="12" t="s">
-        <v>182</v>
+      <c r="A52" s="14" t="s">
+        <v>924</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
-        <v>720</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>709</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B53" s="14"/>
       <c r="C53" s="14" t="s">
-        <v>718</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="11" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B57" s="14" t="s">
         <v>895</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C57" s="12" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="14" t="s">
-        <v>884</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>839</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
+        <v>884</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>839</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B59" s="14" t="s">
         <v>709</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C59" s="14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="11" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="12" t="s">
+      <c r="B61" s="11"/>
+      <c r="C61" s="12" t="s">
         <v>499</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="14" t="s">
-        <v>798</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>776</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="14" t="s">
-        <v>771</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>753</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
-        <v>772</v>
+        <v>798</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>753</v>
+        <v>776</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>767</v>
+        <v>785</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="17" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>747</v>
+        <v>766</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="16" t="s">
-        <v>189</v>
+      <c r="A64" s="17" t="s">
+        <v>772</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>753</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="17" t="s">
-        <v>702</v>
+        <v>752</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>680</v>
+        <v>729</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>701</v>
+        <v>747</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="B66" s="23" t="s">
-        <v>502</v>
-      </c>
-      <c r="C66" s="24" t="s">
-        <v>108</v>
+      <c r="A66" s="17" t="s">
+        <v>917</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>896</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="17" t="s">
-        <v>730</v>
+        <v>702</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>729</v>
+        <v>680</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>731</v>
+        <v>701</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="17" t="s">
-        <v>717</v>
-      </c>
-      <c r="B69" s="21" t="s">
-        <v>709</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>716</v>
+      <c r="A69" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="17" t="s">
-        <v>824</v>
+        <v>730</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>807</v>
+        <v>729</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>825</v>
+        <v>731</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B72" s="23" t="s">
-        <v>501</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>55</v>
+      <c r="A72" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>709</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="17" t="s">
-        <v>828</v>
-      </c>
-      <c r="B73" s="21" t="s">
-        <v>807</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>813</v>
+      <c r="A73" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B73" s="20"/>
+      <c r="C73" s="16" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="17" t="s">
-        <v>795</v>
+        <v>824</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>776</v>
+        <v>807</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B75" s="20"/>
-      <c r="C75" s="16" t="s">
-        <v>195</v>
+        <v>825</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B76" s="21"/>
+        <v>828</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>807</v>
+      </c>
       <c r="C76" s="18" t="s">
-        <v>103</v>
+        <v>813</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="17" t="s">
+        <v>795</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>776</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="16" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="B79" s="20"/>
-      <c r="C79" s="16" t="s">
-        <v>201</v>
+      <c r="A79" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B79" s="21"/>
+      <c r="C79" s="18" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="16" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="15" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="16" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="15" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="16" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="16" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="16" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="16" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="15" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="16" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="B88" s="21" t="s">
-        <v>656</v>
-      </c>
-      <c r="C88" s="18" t="s">
-        <v>659</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B88" s="20"/>
+      <c r="C88" s="16" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="16" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="B91" s="20"/>
-      <c r="C91" s="16" t="s">
-        <v>223</v>
+      <c r="A91" s="17" t="s">
+        <v>670</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>656</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="17" t="s">
-        <v>551</v>
-      </c>
-      <c r="B92" s="21" t="s">
-        <v>535</v>
-      </c>
-      <c r="C92" s="18" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B92" s="20"/>
+      <c r="C92" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="15" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="16" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B96" s="20"/>
+      <c r="C96" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B97" s="20"/>
+      <c r="C97" s="16" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="15" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="B95" s="20"/>
-      <c r="C95" s="16" t="s">
+      <c r="B98" s="20"/>
+      <c r="C98" s="16" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="17" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="B96" s="21" t="s">
+      <c r="B99" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="C96" s="18" t="s">
+      <c r="C99" s="18" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="17" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B97" s="21"/>
-      <c r="C97" s="18" t="s">
+      <c r="B100" s="21"/>
+      <c r="C100" s="18" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="17" t="s">
-        <v>548</v>
-      </c>
-      <c r="B98" s="21" t="s">
-        <v>535</v>
-      </c>
-      <c r="C98" s="18" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B99" s="20"/>
-      <c r="C99" s="16" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="B100" s="20"/>
-      <c r="C100" s="16" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="17" t="s">
-        <v>12</v>
+        <v>548</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="17" t="s">
-        <v>626</v>
-      </c>
-      <c r="B102" s="21" t="s">
-        <v>610</v>
-      </c>
-      <c r="C102" s="18" t="s">
-        <v>618</v>
+      <c r="A102" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B102" s="20"/>
+      <c r="C102" s="16" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B104" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="C104" s="24" t="s">
-        <v>38</v>
+      <c r="A104" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="17" t="s">
+        <v>626</v>
+      </c>
+      <c r="B105" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B106" s="20"/>
+      <c r="C106" s="16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="17" t="s">
         <v>600</v>
       </c>
-      <c r="B105" s="21" t="s">
+      <c r="B108" s="21" t="s">
         <v>589</v>
       </c>
-      <c r="C105" s="18" t="s">
+      <c r="C108" s="18" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="17" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="17" t="s">
         <v>793</v>
       </c>
-      <c r="B106" s="21" t="s">
+      <c r="B109" s="21" t="s">
         <v>776</v>
       </c>
-      <c r="C106" s="18" t="s">
+      <c r="C109" s="18" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="15" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="B107" s="20"/>
-      <c r="C107" s="16" t="s">
+      <c r="B110" s="20"/>
+      <c r="C110" s="16" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="B108" s="20"/>
-      <c r="C108" s="16" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="B109" s="20"/>
-      <c r="C109" s="16" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="17" t="s">
-        <v>649</v>
-      </c>
-      <c r="B110" s="21" t="s">
-        <v>634</v>
-      </c>
-      <c r="C110" s="18" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="15" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="B112" s="20"/>
+      <c r="C112" s="16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="B113" s="21" t="s">
+        <v>634</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B114" s="20"/>
+      <c r="C114" s="16" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="22" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B112" s="23" t="s">
+      <c r="B115" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="C112" s="24" t="s">
+      <c r="C115" s="24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="22" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="B113" s="23" t="s">
+      <c r="B116" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="C113" s="24" t="s">
+      <c r="C116" s="24" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="22" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B114" s="23" t="s">
+      <c r="B117" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="C114" s="24" t="s">
+      <c r="C117" s="24" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="B115" s="20"/>
-      <c r="C115" s="16" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="B116" s="20"/>
-      <c r="C116" s="16" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="B117" s="20"/>
-      <c r="C117" s="16" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="15" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="16" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="15" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="16" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="17" t="s">
-        <v>628</v>
-      </c>
-      <c r="B120" s="21" t="s">
-        <v>610</v>
-      </c>
-      <c r="C120" s="18" t="s">
-        <v>622</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A120" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="B120" s="20"/>
+      <c r="C120" s="16" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="17" t="s">
-        <v>611</v>
-      </c>
-      <c r="B121" s="21" t="s">
-        <v>610</v>
-      </c>
-      <c r="C121" s="18" t="s">
-        <v>612</v>
+      <c r="A121" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B121" s="20"/>
+      <c r="C121" s="16" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="16" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="B123" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="17" t="s">
+        <v>611</v>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B125" s="20"/>
+      <c r="C125" s="16" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A123" s="15" t="s">
+    <row r="126" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A126" s="15" t="s">
         <v>258</v>
-      </c>
-      <c r="B123" s="20"/>
-      <c r="C123" s="16" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B124" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="C124" s="24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B125" s="23" t="s">
-        <v>501</v>
-      </c>
-      <c r="C125" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="15" t="s">
-        <v>260</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="C127" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="C128" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B129" s="20"/>
+      <c r="C129" s="16" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="17" t="s">
-        <v>587</v>
-      </c>
-      <c r="B127" s="21" t="s">
-        <v>559</v>
-      </c>
-      <c r="C127" s="18" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="17" t="s">
-        <v>668</v>
-      </c>
-      <c r="B128" s="21" t="s">
-        <v>656</v>
-      </c>
-      <c r="C128" s="18" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="17" t="s">
-        <v>655</v>
-      </c>
-      <c r="B129" s="21" t="s">
-        <v>634</v>
-      </c>
-      <c r="C129" s="19" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="17" t="s">
+        <v>587</v>
+      </c>
+      <c r="B130" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="17" t="s">
+        <v>668</v>
+      </c>
+      <c r="B131" s="21" t="s">
+        <v>656</v>
+      </c>
+      <c r="C131" s="18" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="17" t="s">
         <v>655</v>
       </c>
-      <c r="B130" s="21" t="s">
+      <c r="B132" s="21" t="s">
         <v>656</v>
       </c>
-      <c r="C130" s="18" t="s">
+      <c r="C132" s="18" t="s">
         <v>666</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="B131" s="20"/>
-      <c r="C131" s="16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A132" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="B132" s="20"/>
-      <c r="C132" s="16" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="B133" s="21" t="s">
+        <v>634</v>
+      </c>
+      <c r="C133" s="19" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="B134" s="20"/>
+      <c r="C134" s="16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A135" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B135" s="20"/>
+      <c r="C135" s="16" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="17" t="s">
         <v>814</v>
       </c>
-      <c r="B133" s="21" t="s">
+      <c r="B136" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="C133" s="18" t="s">
+      <c r="C136" s="18" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="17" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="17" t="s">
         <v>652</v>
       </c>
-      <c r="B134" s="21" t="s">
+      <c r="B137" s="21" t="s">
         <v>634</v>
       </c>
-      <c r="C134" s="18" t="s">
+      <c r="C137" s="18" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="15" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="15" t="s">
         <v>671</v>
       </c>
-      <c r="B135" s="20" t="s">
+      <c r="B138" s="20" t="s">
         <v>656</v>
       </c>
-      <c r="C135" s="16" t="s">
+      <c r="C138" s="16" t="s">
         <v>657</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="B136" s="20"/>
-      <c r="C136" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="B137" s="20"/>
-      <c r="C137" s="16" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="17" t="s">
-        <v>525</v>
-      </c>
-      <c r="B138" s="21" t="s">
-        <v>514</v>
-      </c>
-      <c r="C138" s="18" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="16" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="17" t="s">
-        <v>831</v>
-      </c>
-      <c r="B140" s="21" t="s">
-        <v>807</v>
-      </c>
-      <c r="C140" s="18" t="s">
-        <v>832</v>
+      <c r="A140" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B140" s="20"/>
+      <c r="C140" s="16" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="17" t="s">
-        <v>757</v>
+        <v>525</v>
       </c>
       <c r="B141" s="21" t="s">
-        <v>753</v>
+        <v>514</v>
       </c>
       <c r="C141" s="18" t="s">
-        <v>756</v>
+        <v>526</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="17" t="s">
-        <v>735</v>
-      </c>
-      <c r="B142" s="21" t="s">
-        <v>729</v>
-      </c>
-      <c r="C142" s="18" t="s">
-        <v>734</v>
+      <c r="A142" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B142" s="20"/>
+      <c r="C142" s="16" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="15" t="s">
-        <v>905</v>
+      <c r="A143" s="17" t="s">
+        <v>831</v>
       </c>
       <c r="B143" s="21" t="s">
-        <v>896</v>
+        <v>807</v>
       </c>
       <c r="C143" s="18" t="s">
-        <v>906</v>
+        <v>832</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="17" t="s">
-        <v>778</v>
+        <v>757</v>
       </c>
       <c r="B144" s="21" t="s">
-        <v>776</v>
+        <v>753</v>
       </c>
       <c r="C144" s="18" t="s">
-        <v>787</v>
+        <v>756</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="17" t="s">
-        <v>822</v>
+        <v>735</v>
       </c>
       <c r="B145" s="21" t="s">
-        <v>807</v>
+        <v>729</v>
       </c>
       <c r="C145" s="18" t="s">
-        <v>823</v>
+        <v>734</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="15" t="s">
+        <v>905</v>
+      </c>
+      <c r="B146" s="21" t="s">
+        <v>896</v>
+      </c>
+      <c r="C146" s="18" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="B147" s="21" t="s">
+        <v>776</v>
+      </c>
+      <c r="C147" s="18" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="17" t="s">
+        <v>822</v>
+      </c>
+      <c r="B148" s="21" t="s">
+        <v>807</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="B146" s="20"/>
-      <c r="C146" s="16" t="s">
+      <c r="B149" s="20"/>
+      <c r="C149" s="16" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="B147" s="20"/>
-      <c r="C147" s="16" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="B148" s="23" t="s">
-        <v>502</v>
-      </c>
-      <c r="C148" s="24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B149" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="C149" s="24" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="17" t="s">
-        <v>837</v>
+        <v>907</v>
       </c>
       <c r="B150" s="21" t="s">
-        <v>807</v>
+        <v>896</v>
       </c>
       <c r="C150" s="18" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="16" t="s">
-        <v>719</v>
+        <v>274</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="B152" s="20"/>
-      <c r="C152" s="16" t="s">
-        <v>277</v>
+      <c r="A152" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B152" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="C152" s="24" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="B153" s="21" t="s">
-        <v>656</v>
-      </c>
-      <c r="C153" s="16" t="s">
-        <v>279</v>
+      <c r="A153" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="C153" s="24" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="B154" s="11"/>
-      <c r="C154" s="16" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="17" t="s">
+        <v>837</v>
+      </c>
+      <c r="B154" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="C154" s="18" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="15" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B155" s="20"/>
       <c r="C155" s="16" t="s">
-        <v>283</v>
+        <v>719</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B156" s="20"/>
       <c r="C156" s="16" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="B157" s="20"/>
+        <v>278</v>
+      </c>
+      <c r="B157" s="21" t="s">
+        <v>656</v>
+      </c>
       <c r="C157" s="16" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B158" s="20"/>
       <c r="C158" s="16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="B159" s="20"/>
+      <c r="C159" s="16" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="B160" s="20"/>
+      <c r="C160" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="B161" s="20"/>
+      <c r="C161" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B162" s="20"/>
+      <c r="C162" s="16" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="17" t="s">
-        <v>521</v>
-      </c>
-      <c r="B159" s="21" t="s">
-        <v>514</v>
-      </c>
-      <c r="C159" s="18" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B160" s="23" t="s">
-        <v>501</v>
-      </c>
-      <c r="C160" s="24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="B161" s="23" t="s">
-        <v>502</v>
-      </c>
-      <c r="C161" s="24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="B162" s="21" t="s">
-        <v>514</v>
-      </c>
-      <c r="C162" s="18" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="B163" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="C163" s="18" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B164" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="C164" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B165" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="C165" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B166" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="C166" s="18" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="17" t="s">
         <v>704</v>
       </c>
-      <c r="B163" s="21" t="s">
+      <c r="B167" s="21" t="s">
         <v>680</v>
       </c>
-      <c r="C163" s="18" t="s">
+      <c r="C167" s="18" t="s">
         <v>690</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="17" t="s">
-        <v>829</v>
-      </c>
-      <c r="B164" s="21" t="s">
-        <v>807</v>
-      </c>
-      <c r="C164" s="18" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="17" t="s">
-        <v>738</v>
-      </c>
-      <c r="B165" s="21" t="s">
-        <v>729</v>
-      </c>
-      <c r="C165" s="18" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="B166" s="20"/>
-      <c r="C166" s="16" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="B167" s="20"/>
-      <c r="C167" s="16" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="17" t="s">
-        <v>631</v>
+        <v>829</v>
       </c>
       <c r="B168" s="21" t="s">
-        <v>610</v>
+        <v>807</v>
       </c>
       <c r="C168" s="18" t="s">
-        <v>613</v>
+        <v>830</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="17" t="s">
-        <v>715</v>
+        <v>738</v>
       </c>
       <c r="B169" s="21" t="s">
-        <v>709</v>
+        <v>729</v>
       </c>
       <c r="C169" s="18" t="s">
-        <v>714</v>
+        <v>739</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="15" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B170" s="20"/>
       <c r="C170" s="16" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="17" t="s">
-        <v>881</v>
-      </c>
-      <c r="B171" s="21" t="s">
-        <v>839</v>
-      </c>
-      <c r="C171" s="18" t="s">
-        <v>845</v>
+      <c r="A171" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B171" s="20"/>
+      <c r="C171" s="16" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="B172" s="20"/>
-      <c r="C172" s="16" t="s">
-        <v>297</v>
+      <c r="A172" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="B172" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="C172" s="18" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="17" t="s">
-        <v>750</v>
+        <v>715</v>
       </c>
       <c r="B173" s="21" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="C173" s="18" t="s">
-        <v>745</v>
+        <v>714</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B174" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="C174" s="24" t="s">
-        <v>29</v>
+      <c r="A174" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B174" s="20"/>
+      <c r="C174" s="16" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B175" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="C175" s="24" t="s">
-        <v>31</v>
+      <c r="A175" s="17" t="s">
+        <v>881</v>
+      </c>
+      <c r="B175" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="C175" s="18" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B176" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="C176" s="24" t="s">
-        <v>28</v>
+      <c r="A176" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B176" s="20"/>
+      <c r="C176" s="16" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="17" t="s">
-        <v>695</v>
+        <v>750</v>
       </c>
       <c r="B177" s="21" t="s">
-        <v>680</v>
+        <v>729</v>
       </c>
       <c r="C177" s="18" t="s">
-        <v>682</v>
+        <v>745</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="15" t="s">
-        <v>901</v>
-      </c>
-      <c r="B178" s="21" t="s">
-        <v>896</v>
-      </c>
-      <c r="C178" s="18" t="s">
-        <v>902</v>
+      <c r="A178" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B178" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="C178" s="24" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="17" t="s">
-        <v>792</v>
-      </c>
-      <c r="B179" s="21" t="s">
-        <v>776</v>
-      </c>
-      <c r="C179" s="18" t="s">
-        <v>779</v>
+      <c r="A179" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B179" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="C179" s="24" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="17" t="s">
-        <v>748</v>
-      </c>
-      <c r="B180" s="21" t="s">
-        <v>729</v>
-      </c>
-      <c r="C180" s="18" t="s">
-        <v>743</v>
+      <c r="A180" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B180" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="C180" s="24" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="17" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="B181" s="21" t="s">
         <v>680</v>
       </c>
       <c r="C181" s="18" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="17" t="s">
-        <v>866</v>
+      <c r="A182" s="15" t="s">
+        <v>901</v>
       </c>
       <c r="B182" s="21" t="s">
-        <v>839</v>
+        <v>896</v>
       </c>
       <c r="C182" s="18" t="s">
-        <v>846</v>
+        <v>902</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="17" t="s">
-        <v>868</v>
+        <v>792</v>
       </c>
       <c r="B183" s="21" t="s">
-        <v>839</v>
+        <v>776</v>
       </c>
       <c r="C183" s="18" t="s">
-        <v>848</v>
+        <v>779</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="17" t="s">
-        <v>812</v>
+        <v>748</v>
       </c>
       <c r="B184" s="21" t="s">
-        <v>807</v>
+        <v>729</v>
       </c>
       <c r="C184" s="18" t="s">
-        <v>885</v>
+        <v>743</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="17" t="s">
-        <v>609</v>
+        <v>703</v>
       </c>
       <c r="B185" s="21" t="s">
-        <v>589</v>
+        <v>680</v>
       </c>
       <c r="C185" s="18" t="s">
-        <v>597</v>
+        <v>689</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="17" t="s">
-        <v>608</v>
+        <v>866</v>
       </c>
       <c r="B186" s="21" t="s">
-        <v>589</v>
+        <v>839</v>
       </c>
       <c r="C186" s="18" t="s">
-        <v>596</v>
+        <v>846</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="B187" s="20"/>
-      <c r="C187" s="16" t="s">
-        <v>299</v>
+      <c r="A187" s="17" t="s">
+        <v>868</v>
+      </c>
+      <c r="B187" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="C187" s="18" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="17" t="s">
-        <v>867</v>
+        <v>812</v>
       </c>
       <c r="B188" s="21" t="s">
-        <v>839</v>
+        <v>807</v>
       </c>
       <c r="C188" s="18" t="s">
-        <v>847</v>
+        <v>885</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="15" t="s">
-        <v>903</v>
+      <c r="A189" s="17" t="s">
+        <v>609</v>
       </c>
       <c r="B189" s="21" t="s">
-        <v>896</v>
+        <v>589</v>
       </c>
       <c r="C189" s="18" t="s">
-        <v>904</v>
+        <v>597</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="17" t="s">
-        <v>300</v>
+        <v>608</v>
       </c>
       <c r="B190" s="21" t="s">
-        <v>895</v>
+        <v>589</v>
       </c>
       <c r="C190" s="18" t="s">
-        <v>74</v>
+        <v>596</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="11" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B191" s="11"/>
       <c r="C191" s="16" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="17" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="B192" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C192" s="18" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="17" t="s">
-        <v>804</v>
+      <c r="A193" s="15" t="s">
+        <v>903</v>
       </c>
       <c r="B193" s="21" t="s">
-        <v>776</v>
+        <v>896</v>
       </c>
       <c r="C193" s="18" t="s">
-        <v>790</v>
+        <v>904</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="B194" s="20"/>
-      <c r="C194" s="16" t="s">
-        <v>305</v>
+      <c r="A194" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="B194" s="21" t="s">
+        <v>895</v>
+      </c>
+      <c r="C194" s="18" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="17" t="s">
-        <v>675</v>
-      </c>
-      <c r="B195" s="21" t="s">
-        <v>656</v>
-      </c>
-      <c r="C195" s="18" t="s">
-        <v>667</v>
+      <c r="A195" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B195" s="20"/>
+      <c r="C195" s="16" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="17" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="B196" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C196" s="18" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="17" t="s">
-        <v>875</v>
+        <v>914</v>
       </c>
       <c r="B197" s="21" t="s">
-        <v>839</v>
+        <v>896</v>
       </c>
       <c r="C197" s="18" t="s">
-        <v>855</v>
+        <v>909</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="17" t="s">
-        <v>876</v>
+        <v>804</v>
       </c>
       <c r="B198" s="21" t="s">
-        <v>839</v>
+        <v>776</v>
       </c>
       <c r="C198" s="18" t="s">
-        <v>856</v>
+        <v>790</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="17" t="s">
-        <v>878</v>
-      </c>
-      <c r="B199" s="21" t="s">
-        <v>839</v>
-      </c>
-      <c r="C199" s="18" t="s">
-        <v>858</v>
+      <c r="A199" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="B199" s="20"/>
+      <c r="C199" s="16" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="17" t="s">
-        <v>877</v>
+        <v>675</v>
       </c>
       <c r="B200" s="21" t="s">
-        <v>839</v>
+        <v>656</v>
       </c>
       <c r="C200" s="18" t="s">
-        <v>857</v>
+        <v>667</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="17" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="B201" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C201" s="18" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="17" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B202" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C202" s="18" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="17" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="B203" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C203" s="18" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="17" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="B204" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C204" s="18" t="s">
-        <v>849</v>
+        <v>858</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="17" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="B205" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C205" s="18" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="17" t="s">
-        <v>796</v>
+        <v>874</v>
       </c>
       <c r="B206" s="21" t="s">
-        <v>776</v>
+        <v>839</v>
       </c>
       <c r="C206" s="18" t="s">
-        <v>781</v>
+        <v>854</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="17" t="s">
-        <v>794</v>
+        <v>873</v>
       </c>
       <c r="B207" s="21" t="s">
-        <v>776</v>
+        <v>839</v>
       </c>
       <c r="C207" s="18" t="s">
-        <v>782</v>
+        <v>853</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="B208" s="20"/>
-      <c r="C208" s="16" t="s">
-        <v>307</v>
+      <c r="A208" s="17" t="s">
+        <v>871</v>
+      </c>
+      <c r="B208" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="C208" s="18" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="17" t="s">
-        <v>765</v>
+        <v>869</v>
       </c>
       <c r="B209" s="21" t="s">
-        <v>753</v>
+        <v>839</v>
       </c>
       <c r="C209" s="18" t="s">
-        <v>764</v>
+        <v>849</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B210" s="23" t="s">
-        <v>501</v>
-      </c>
-      <c r="C210" s="24" t="s">
-        <v>96</v>
+      <c r="A210" s="17" t="s">
+        <v>872</v>
+      </c>
+      <c r="B210" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="C210" s="18" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B211" s="23" t="s">
-        <v>501</v>
-      </c>
-      <c r="C211" s="24" t="s">
-        <v>64</v>
+      <c r="A211" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="B211" s="21" t="s">
+        <v>776</v>
+      </c>
+      <c r="C211" s="18" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="17" t="s">
-        <v>755</v>
+        <v>794</v>
       </c>
       <c r="B212" s="21" t="s">
-        <v>753</v>
+        <v>776</v>
       </c>
       <c r="C212" s="18" t="s">
-        <v>754</v>
+        <v>782</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" s="17" t="s">
-        <v>672</v>
-      </c>
-      <c r="B213" s="21" t="s">
-        <v>656</v>
-      </c>
-      <c r="C213" s="18" t="s">
-        <v>658</v>
+      <c r="A213" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="B213" s="20"/>
+      <c r="C213" s="16" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="17" t="s">
-        <v>882</v>
+        <v>765</v>
       </c>
       <c r="B214" s="21" t="s">
-        <v>514</v>
+        <v>753</v>
       </c>
       <c r="C214" s="18" t="s">
-        <v>524</v>
+        <v>764</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="17" t="s">
-        <v>607</v>
-      </c>
-      <c r="B215" s="21" t="s">
-        <v>589</v>
-      </c>
-      <c r="C215" s="18" t="s">
-        <v>595</v>
+      <c r="A215" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B215" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="C215" s="24" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="17" t="s">
-        <v>863</v>
-      </c>
-      <c r="B216" s="21" t="s">
-        <v>839</v>
-      </c>
-      <c r="C216" s="18" t="s">
-        <v>843</v>
+      <c r="A216" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B216" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="C216" s="24" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="B217" s="20"/>
-      <c r="C217" s="16" t="s">
-        <v>309</v>
+      <c r="A217" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="B217" s="21" t="s">
+        <v>753</v>
+      </c>
+      <c r="C217" s="18" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="17" t="s">
-        <v>810</v>
+        <v>672</v>
       </c>
       <c r="B218" s="21" t="s">
-        <v>807</v>
+        <v>656</v>
       </c>
       <c r="C218" s="18" t="s">
-        <v>811</v>
+        <v>658</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="B219" s="20"/>
-      <c r="C219" s="16" t="s">
-        <v>311</v>
+      <c r="A219" s="17" t="s">
+        <v>882</v>
+      </c>
+      <c r="B219" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="C219" s="18" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="B220" s="20"/>
-      <c r="C220" s="16" t="s">
-        <v>313</v>
+      <c r="A220" s="17" t="s">
+        <v>607</v>
+      </c>
+      <c r="B220" s="21" t="s">
+        <v>589</v>
+      </c>
+      <c r="C220" s="18" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="B221" s="20"/>
-      <c r="C221" s="16" t="s">
-        <v>315</v>
+      <c r="A221" s="17" t="s">
+        <v>863</v>
+      </c>
+      <c r="B221" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="C221" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="17" t="s">
-        <v>861</v>
-      </c>
-      <c r="B222" s="21" t="s">
-        <v>839</v>
-      </c>
-      <c r="C222" s="18" t="s">
-        <v>841</v>
+      <c r="A222" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B222" s="20"/>
+      <c r="C222" s="16" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="17" t="s">
-        <v>879</v>
+        <v>810</v>
       </c>
       <c r="B223" s="21" t="s">
-        <v>839</v>
+        <v>807</v>
       </c>
       <c r="C223" s="18" t="s">
-        <v>859</v>
+        <v>811</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="17" t="s">
-        <v>673</v>
+        <v>916</v>
       </c>
       <c r="B224" s="21" t="s">
-        <v>656</v>
+        <v>896</v>
       </c>
       <c r="C224" s="18" t="s">
-        <v>664</v>
+        <v>911</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="17" t="s">
-        <v>706</v>
-      </c>
-      <c r="B225" s="21" t="s">
-        <v>680</v>
-      </c>
-      <c r="C225" s="18" t="s">
-        <v>685</v>
+      <c r="A225" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="B225" s="20"/>
+      <c r="C225" s="16" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="15" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B226" s="20"/>
       <c r="C226" s="16" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="11" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B227" s="20"/>
       <c r="C227" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="11" t="s">
-        <v>897</v>
-      </c>
-      <c r="B228" s="20" t="s">
-        <v>896</v>
+      <c r="A228" s="14" t="s">
+        <v>861</v>
+      </c>
+      <c r="B228" s="21" t="s">
+        <v>839</v>
       </c>
       <c r="C228" s="14" t="s">
-        <v>898</v>
+        <v>841</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="B229" s="20"/>
-      <c r="C229" s="12" t="s">
-        <v>321</v>
+      <c r="A229" s="14" t="s">
+        <v>879</v>
+      </c>
+      <c r="B229" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="C229" s="14" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="B230" s="20"/>
-      <c r="C230" s="12" t="s">
-        <v>323</v>
+      <c r="A230" s="14" t="s">
+        <v>673</v>
+      </c>
+      <c r="B230" s="21" t="s">
+        <v>656</v>
+      </c>
+      <c r="C230" s="14" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="10" t="s">
-        <v>699</v>
+      <c r="A231" s="14" t="s">
+        <v>706</v>
       </c>
       <c r="B231" s="21" t="s">
         <v>680</v>
       </c>
-      <c r="C231" s="10" t="s">
-        <v>687</v>
+      <c r="C231" s="14" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" s="10" t="s">
-        <v>700</v>
-      </c>
-      <c r="B232" s="21" t="s">
-        <v>680</v>
-      </c>
-      <c r="C232" s="10" t="s">
-        <v>688</v>
+      <c r="A232" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="B232" s="20"/>
+      <c r="C232" s="12" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="11" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B233" s="20"/>
       <c r="C233" s="12" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="B234" s="20"/>
-      <c r="C234" s="12" t="s">
-        <v>327</v>
+        <v>897</v>
+      </c>
+      <c r="B234" s="20" t="s">
+        <v>896</v>
+      </c>
+      <c r="C234" s="14" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="11" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B235" s="11"/>
       <c r="C235" s="12" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="B236" s="14" t="s">
-        <v>656</v>
-      </c>
-      <c r="C236" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A237" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="B237" s="11"/>
-      <c r="C237" s="12" t="s">
-        <v>333</v>
+      <c r="A236" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B236" s="11"/>
+      <c r="C236" s="12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="B237" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="C237" s="10" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="B238" s="11"/>
-      <c r="C238" s="12" t="s">
-        <v>335</v>
+      <c r="A238" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="B238" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="C238" s="10" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="11" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="B239" s="11"/>
       <c r="C239" s="12" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="11" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B240" s="11"/>
       <c r="C240" s="12" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="11" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="B241" s="11"/>
       <c r="C241" s="12" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="B242" s="11"/>
-      <c r="C242" s="12" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243" s="10" t="s">
-        <v>678</v>
-      </c>
-      <c r="B243" s="10" t="s">
+      <c r="A242" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B242" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="C243" s="10" t="s">
-        <v>662</v>
+      <c r="C242" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A243" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="B243" s="11"/>
+      <c r="C243" s="12" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="11" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B244" s="11"/>
       <c r="C244" s="12" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="11" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B245" s="11"/>
       <c r="C245" s="12" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A246" s="10" t="s">
-        <v>818</v>
-      </c>
-      <c r="B246" s="10" t="s">
-        <v>807</v>
-      </c>
-      <c r="C246" s="10" t="s">
-        <v>819</v>
+      <c r="A246" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="B246" s="11"/>
+      <c r="C246" s="12" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="11" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B247" s="11"/>
       <c r="C247" s="12" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="11" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B248" s="11"/>
       <c r="C248" s="12" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A249" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="B249" s="11"/>
-      <c r="C249" s="12" t="s">
-        <v>353</v>
+      <c r="A249" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="B249" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="C249" s="10" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="11" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B250" s="11"/>
       <c r="C250" s="12" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A251" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="B251" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="C251" s="10" t="s">
-        <v>541</v>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A251" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="B251" s="11"/>
+      <c r="C251" s="12" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A252" s="10" t="s">
-        <v>721</v>
-      </c>
-      <c r="B252" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="C252" s="10" t="s">
-        <v>722</v>
+      <c r="A252" s="14" t="s">
+        <v>818</v>
+      </c>
+      <c r="B252" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="C252" s="14" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="14" t="s">
-        <v>527</v>
-      </c>
-      <c r="B253" s="14" t="s">
-        <v>514</v>
-      </c>
-      <c r="C253" s="14" t="s">
-        <v>528</v>
+      <c r="A253" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="B253" s="11"/>
+      <c r="C253" s="12" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
-        <v>127</v>
-      </c>
-      <c r="B254" t="s">
-        <v>502</v>
-      </c>
-      <c r="C254" t="s">
-        <v>128</v>
+      <c r="A254" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="B254" s="11"/>
+      <c r="C254" s="12" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
-        <v>123</v>
-      </c>
-      <c r="B255" t="s">
-        <v>502</v>
-      </c>
-      <c r="C255" t="s">
-        <v>124</v>
+      <c r="A255" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="B255" s="11"/>
+      <c r="C255" s="12" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B256" s="11"/>
       <c r="C256" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="14" t="s">
-        <v>358</v>
+        <v>550</v>
       </c>
       <c r="B257" s="14" t="s">
-        <v>895</v>
-      </c>
-      <c r="C257" s="12" t="s">
-        <v>359</v>
+        <v>535</v>
+      </c>
+      <c r="C257" s="14" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
-        <v>510</v>
-      </c>
-      <c r="B258" t="s">
+      <c r="A258" s="10" t="s">
+        <v>721</v>
+      </c>
+      <c r="B258" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C258" s="10" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="B259" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="C259" s="14" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B260" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="C258" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A259" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="B259" s="11"/>
-      <c r="C259" s="12" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
-        <v>26</v>
-      </c>
-      <c r="B260" t="s">
-        <v>500</v>
-      </c>
-      <c r="C260" t="s">
-        <v>27</v>
+      <c r="C260" s="26" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A261" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="B261" s="11"/>
-      <c r="C261" s="12" t="s">
-        <v>363</v>
+      <c r="A261" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B261" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C261" s="26" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="11" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B262" s="11"/>
       <c r="C262" s="12" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="10" t="s">
-        <v>586</v>
-      </c>
-      <c r="B263" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="C263" s="10" t="s">
-        <v>585</v>
+      <c r="A263" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="B263" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="C263" s="12" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A264" s="10" t="s">
-        <v>629</v>
-      </c>
-      <c r="B264" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="C264" s="10" t="s">
-        <v>620</v>
+      <c r="A264" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="B264" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C264" s="26" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A265" s="10" t="s">
-        <v>578</v>
-      </c>
-      <c r="B265" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="C265" s="10" t="s">
-        <v>574</v>
+      <c r="A265" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="B265" s="11"/>
+      <c r="C265" s="12" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A266" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="B266" s="11"/>
-      <c r="C266" s="12" t="s">
-        <v>367</v>
+      <c r="A266" t="s">
+        <v>26</v>
+      </c>
+      <c r="B266" t="s">
+        <v>500</v>
+      </c>
+      <c r="C266" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="11" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B267" s="11"/>
       <c r="C267" s="12" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="11" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B268" s="11"/>
       <c r="C268" s="12" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
-        <v>111</v>
-      </c>
-      <c r="B269" t="s">
-        <v>502</v>
-      </c>
-      <c r="C269" t="s">
-        <v>112</v>
+      <c r="A269" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="B269" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C269" s="14" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B270" s="14"/>
-      <c r="C270" s="14" t="s">
-        <v>84</v>
+      <c r="A270" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="B270" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C270" s="10" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A271" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="B271" s="11"/>
-      <c r="C271" s="12" t="s">
-        <v>375</v>
+      <c r="A271" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="B271" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C271" s="14" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A272" s="14" t="s">
-        <v>653</v>
-      </c>
-      <c r="B272" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="C272" s="14" t="s">
-        <v>643</v>
+      <c r="A272" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="B272" s="11"/>
+      <c r="C272" s="12" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="11" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B273" s="11"/>
       <c r="C273" s="12" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
-        <v>77</v>
-      </c>
-      <c r="B274" t="s">
-        <v>501</v>
-      </c>
-      <c r="C274" t="s">
-        <v>78</v>
+      <c r="A274" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="B274" s="11"/>
+      <c r="C274" s="12" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
-        <v>75</v>
-      </c>
-      <c r="B275" t="s">
-        <v>501</v>
-      </c>
-      <c r="C275" t="s">
-        <v>76</v>
+      <c r="A275" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B275" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C275" s="26" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="B276" s="14" t="s">
-        <v>589</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B276" s="14"/>
       <c r="C276" s="14" t="s">
-        <v>591</v>
+        <v>84</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A277" s="14" t="s">
-        <v>602</v>
-      </c>
-      <c r="B277" s="14" t="s">
-        <v>589</v>
-      </c>
-      <c r="C277" s="14" t="s">
-        <v>592</v>
+      <c r="A277" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="B277" s="11"/>
+      <c r="C277" s="12" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="14" t="s">
-        <v>515</v>
+        <v>653</v>
       </c>
       <c r="B278" s="14" t="s">
-        <v>514</v>
+        <v>634</v>
       </c>
       <c r="C278" s="14" t="s">
-        <v>516</v>
+        <v>643</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
-        <v>119</v>
-      </c>
-      <c r="B279" t="s">
-        <v>502</v>
-      </c>
-      <c r="C279" t="s">
-        <v>120</v>
+      <c r="A279" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="B279" s="11"/>
+      <c r="C279" s="12" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A280" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="B280" s="11"/>
-      <c r="C280" s="12" t="s">
-        <v>379</v>
+      <c r="A280" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B280" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="C280" s="26" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A281" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="B281" s="11"/>
-      <c r="C281" s="12" t="s">
-        <v>381</v>
+      <c r="A281" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B281" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="C281" s="26" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B282" s="14"/>
+        <v>601</v>
+      </c>
+      <c r="B282" s="14" t="s">
+        <v>589</v>
+      </c>
       <c r="C282" s="14" t="s">
-        <v>99</v>
+        <v>591</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A283" s="10" t="s">
-        <v>582</v>
-      </c>
-      <c r="B283" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="C283" s="10" t="s">
-        <v>581</v>
+      <c r="A283" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="B283" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="C283" s="14" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A284" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="B284" s="11"/>
-      <c r="C284" s="12" t="s">
-        <v>385</v>
+      <c r="A284" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="B284" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="C284" s="14" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B285" s="14"/>
-      <c r="C285" s="14" t="s">
-        <v>69</v>
+      <c r="A285" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B285" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C285" s="26" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="11" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="B286" s="11"/>
       <c r="C286" s="12" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="11" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B287" s="11"/>
       <c r="C287" s="12" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B288" s="14"/>
+      <c r="C288" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="B289" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C289" s="14" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="B290" s="11"/>
+      <c r="C290" s="12" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B291" s="14"/>
+      <c r="C291" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="B292" s="11"/>
+      <c r="C292" s="12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="B293" s="11"/>
+      <c r="C293" s="12" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A288" s="11" t="s">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="B288" s="11"/>
-      <c r="C288" s="12" t="s">
+      <c r="B294" s="11"/>
+      <c r="C294" s="12" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A289" s="10" t="s">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" s="14" t="s">
         <v>820</v>
       </c>
-      <c r="B289" s="10" t="s">
+      <c r="B295" s="14" t="s">
         <v>807</v>
       </c>
-      <c r="C289" s="10" t="s">
+      <c r="C295" s="14" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A290" s="10" t="s">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" s="14" t="s">
+        <v>923</v>
+      </c>
+      <c r="B296" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="C296" s="14" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" s="14" t="s">
         <v>741</v>
       </c>
-      <c r="B290" s="10" t="s">
+      <c r="B297" s="14" t="s">
         <v>729</v>
       </c>
-      <c r="C290" s="10" t="s">
+      <c r="C297" s="14" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A291" s="10" t="s">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" s="14" t="s">
         <v>761</v>
       </c>
-      <c r="B291" s="10" t="s">
+      <c r="B298" s="14" t="s">
         <v>753</v>
       </c>
-      <c r="C291" s="10" t="s">
+      <c r="C298" s="14" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A292" s="10" t="s">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" s="10" t="s">
         <v>708</v>
       </c>
-      <c r="B292" s="10" t="s">
+      <c r="B299" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="C292" s="10" t="s">
+      <c r="C299" s="10" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A293" s="10" t="s">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" s="14" t="s">
         <v>708</v>
       </c>
-      <c r="B293" s="10" t="s">
+      <c r="B300" s="14" t="s">
         <v>729</v>
       </c>
-      <c r="C293" s="10" t="s">
+      <c r="C300" s="14" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A294" s="10" t="s">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" s="14" t="s">
         <v>833</v>
       </c>
-      <c r="B294" s="10" t="s">
+      <c r="B301" s="14" t="s">
         <v>807</v>
       </c>
-      <c r="C294" s="10" t="s">
+      <c r="C301" s="14" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" t="s">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
         <v>16</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B302" t="s">
         <v>500</v>
       </c>
-      <c r="C295" t="s">
+      <c r="C302" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A296" s="10" t="s">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" s="14" t="s">
         <v>588</v>
       </c>
-      <c r="B296" s="10" t="s">
+      <c r="B303" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C296" s="10" t="s">
+      <c r="C303" s="14" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A297" s="11" t="s">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="B297" s="11"/>
-      <c r="C297" s="12" t="s">
+      <c r="B304" s="11"/>
+      <c r="C304" s="12" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A298" s="11" t="s">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="B298" s="11"/>
-      <c r="C298" s="12" t="s">
+      <c r="B305" s="11"/>
+      <c r="C305" s="12" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A299" s="11" t="s">
+    <row r="306" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A306" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="B299" s="11"/>
-      <c r="C299" s="12" t="s">
+      <c r="B306" s="11"/>
+      <c r="C306" s="12" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A300" s="10" t="s">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" s="10" t="s">
         <v>692</v>
       </c>
-      <c r="B300" s="10" t="s">
+      <c r="B307" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="C300" s="10" t="s">
+      <c r="C307" s="10" t="s">
         <v>679</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A301" s="10" t="s">
-        <v>705</v>
-      </c>
-      <c r="B301" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="C301" s="10" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A302" s="14" t="s">
-        <v>572</v>
-      </c>
-      <c r="B302" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="C302" s="14" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A303" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="B303" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="C303" s="10" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A304" s="10" t="s">
-        <v>711</v>
-      </c>
-      <c r="B304" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="C304" s="10" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A305" s="10" t="s">
-        <v>723</v>
-      </c>
-      <c r="B305" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="C305" s="10" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A306" s="10" t="s">
-        <v>712</v>
-      </c>
-      <c r="B306" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="C306" s="10" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A307" s="11" t="s">
-        <v>899</v>
-      </c>
-      <c r="B307" s="10" t="s">
-        <v>896</v>
-      </c>
-      <c r="C307" s="14" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="10" t="s">
-        <v>806</v>
+        <v>705</v>
       </c>
       <c r="B308" s="10" t="s">
-        <v>776</v>
+        <v>680</v>
       </c>
       <c r="C308" s="10" t="s">
-        <v>777</v>
+        <v>686</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A309" s="10" t="s">
-        <v>797</v>
-      </c>
-      <c r="B309" s="10" t="s">
-        <v>776</v>
-      </c>
-      <c r="C309" s="10" t="s">
-        <v>784</v>
+      <c r="A309" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="B309" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C309" s="14" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
-        <v>57</v>
-      </c>
-      <c r="B310" t="s">
-        <v>501</v>
-      </c>
-      <c r="C310" t="s">
-        <v>58</v>
+      <c r="A310" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="B310" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C310" s="10" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="10" t="s">
-        <v>749</v>
+        <v>711</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="C311" s="10" t="s">
-        <v>744</v>
+        <v>710</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="B312" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C312" s="10" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="B313" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C313" s="10" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" s="14" t="s">
+        <v>926</v>
+      </c>
+      <c r="B314" s="14" t="s">
+        <v>896</v>
+      </c>
+      <c r="C314" s="14" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" s="11" t="s">
+        <v>899</v>
+      </c>
+      <c r="B315" s="14" t="s">
+        <v>896</v>
+      </c>
+      <c r="C315" s="14" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="B316" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="C316" s="14" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="B317" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="C317" s="14" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B318" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="C318" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" s="14" t="s">
+        <v>749</v>
+      </c>
+      <c r="B319" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="C319" s="14" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" s="14" t="s">
         <v>808</v>
       </c>
-      <c r="B312" s="10" t="s">
+      <c r="B320" s="14" t="s">
         <v>807</v>
       </c>
-      <c r="C312" s="10" t="s">
+      <c r="C320" s="14" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A313" s="11" t="s">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="B313" s="11"/>
-      <c r="C313" s="12" t="s">
+      <c r="B321" s="11"/>
+      <c r="C321" s="12" t="s">
         <v>401</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A314" s="10" t="s">
-        <v>627</v>
-      </c>
-      <c r="B314" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="C314" s="10" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A315" s="10" t="s">
-        <v>773</v>
-      </c>
-      <c r="B315" s="10" t="s">
-        <v>753</v>
-      </c>
-      <c r="C315" s="10" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A316" s="10" t="s">
-        <v>774</v>
-      </c>
-      <c r="B316" s="10" t="s">
-        <v>753</v>
-      </c>
-      <c r="C316" s="10" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A317" s="10" t="s">
-        <v>826</v>
-      </c>
-      <c r="B317" s="10" t="s">
-        <v>807</v>
-      </c>
-      <c r="C317" s="10" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A318" s="10" t="s">
-        <v>816</v>
-      </c>
-      <c r="B318" s="10" t="s">
-        <v>807</v>
-      </c>
-      <c r="C318" s="10" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A319" s="10" t="s">
-        <v>758</v>
-      </c>
-      <c r="B319" s="10" t="s">
-        <v>753</v>
-      </c>
-      <c r="C319" s="10" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A320" s="10" t="s">
-        <v>532</v>
-      </c>
-      <c r="B320" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="C320" s="10" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A321" t="s">
-        <v>35</v>
-      </c>
-      <c r="B321" t="s">
-        <v>500</v>
-      </c>
-      <c r="C321" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="10" t="s">
-        <v>775</v>
-      </c>
-      <c r="B322" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="B322" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C322" s="10" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="B323" s="14" t="s">
         <v>753</v>
       </c>
-      <c r="C322" s="10" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A323" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="B323" s="11"/>
-      <c r="C323" s="12" t="s">
-        <v>403</v>
+      <c r="C323" s="14" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A324" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="B324" s="11"/>
-      <c r="C324" s="12" t="s">
-        <v>405</v>
+      <c r="A324" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="B324" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="C324" s="14" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A325" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="B325" s="11"/>
-      <c r="C325" s="12" t="s">
-        <v>407</v>
+      <c r="A325" s="10" t="s">
+        <v>927</v>
+      </c>
+      <c r="B325" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="C325" s="14" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A326" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="B326" s="11"/>
-      <c r="C326" s="12" t="s">
-        <v>409</v>
+      <c r="A326" s="14" t="s">
+        <v>826</v>
+      </c>
+      <c r="B326" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="C326" s="14" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A327" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="B327" s="11"/>
-      <c r="C327" s="12" t="s">
-        <v>411</v>
+      <c r="A327" s="14" t="s">
+        <v>816</v>
+      </c>
+      <c r="B327" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="C327" s="14" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A328" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="B328" s="11"/>
-      <c r="C328" s="12" t="s">
-        <v>413</v>
+      <c r="A328" s="14" t="s">
+        <v>758</v>
+      </c>
+      <c r="B328" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="C328" s="14" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="14" t="s">
-        <v>573</v>
+        <v>532</v>
       </c>
       <c r="B329" s="14" t="s">
-        <v>559</v>
+        <v>514</v>
       </c>
       <c r="C329" s="14" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A330" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="B330" s="11"/>
-      <c r="C330" s="12" t="s">
-        <v>415</v>
+      <c r="A330" t="s">
+        <v>35</v>
+      </c>
+      <c r="B330" t="s">
+        <v>500</v>
+      </c>
+      <c r="C330" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A331" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="B331" s="11"/>
-      <c r="C331" s="12" t="s">
-        <v>417</v>
+      <c r="A331" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="B331" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="C331" s="14" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A332" s="10" t="s">
-        <v>800</v>
-      </c>
-      <c r="B332" s="10" t="s">
-        <v>776</v>
-      </c>
-      <c r="C332" s="10" t="s">
-        <v>788</v>
+      <c r="A332" s="14" t="s">
+        <v>915</v>
+      </c>
+      <c r="B332" s="14" t="s">
+        <v>896</v>
+      </c>
+      <c r="C332" s="14" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="11" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="B333" s="11"/>
       <c r="C333" s="12" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A334" t="s">
-        <v>89</v>
-      </c>
-      <c r="B334" t="s">
-        <v>501</v>
-      </c>
-      <c r="C334" t="s">
-        <v>90</v>
+      <c r="A334" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="B334" s="11"/>
+      <c r="C334" s="12" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A335" s="10" t="s">
-        <v>696</v>
-      </c>
-      <c r="B335" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="C335" s="10" t="s">
-        <v>694</v>
+      <c r="A335" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="B335" s="11"/>
+      <c r="C335" s="12" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A336" s="10" t="s">
-        <v>805</v>
-      </c>
-      <c r="B336" s="10" t="s">
-        <v>776</v>
-      </c>
-      <c r="C336" s="10" t="s">
-        <v>791</v>
+      <c r="A336" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="B336" s="11"/>
+      <c r="C336" s="12" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A337" s="10" t="s">
-        <v>799</v>
-      </c>
-      <c r="B337" s="10" t="s">
-        <v>776</v>
-      </c>
-      <c r="C337" s="10" t="s">
-        <v>786</v>
+      <c r="A337" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="B337" s="11"/>
+      <c r="C337" s="12" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A338" s="10" t="s">
-        <v>862</v>
-      </c>
-      <c r="B338" s="10" t="s">
-        <v>839</v>
-      </c>
-      <c r="C338" s="10" t="s">
-        <v>842</v>
+      <c r="A338" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="B338" s="11"/>
+      <c r="C338" s="12" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A339" s="10" t="s">
-        <v>625</v>
-      </c>
-      <c r="B339" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="C339" s="10" t="s">
-        <v>617</v>
+      <c r="A339" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="B339" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C339" s="14" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="11" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B340" s="11"/>
       <c r="C340" s="12" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A341" s="14" t="s">
-        <v>547</v>
-      </c>
-      <c r="B341" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="C341" s="14" t="s">
-        <v>537</v>
+      <c r="A341" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="B341" s="11"/>
+      <c r="C341" s="12" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A342" t="s">
-        <v>41</v>
-      </c>
-      <c r="B342" t="s">
+      <c r="A342" s="14" t="s">
+        <v>800</v>
+      </c>
+      <c r="B342" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="C342" s="14" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="B343" s="11"/>
+      <c r="C343" s="12" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B344" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="C342" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A343" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B343" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="C343" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A344" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="B344" s="11"/>
-      <c r="C344" s="12" t="s">
-        <v>423</v>
+      <c r="C344" s="26" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="10" t="s">
-        <v>633</v>
+        <v>696</v>
       </c>
       <c r="B345" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C345" s="10" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A346" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="B346" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="C346" s="14" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347" s="14" t="s">
+        <v>799</v>
+      </c>
+      <c r="B347" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="C347" s="14" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A348" s="14" t="s">
+        <v>862</v>
+      </c>
+      <c r="B348" s="14" t="s">
+        <v>839</v>
+      </c>
+      <c r="C348" s="14" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A349" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="B349" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="C345" s="10" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A346" s="10" t="s">
-        <v>633</v>
-      </c>
-      <c r="B346" s="10" t="s">
-        <v>634</v>
-      </c>
-      <c r="C346" s="10" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A347" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="B347" s="11"/>
-      <c r="C347" s="12" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A348" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="B348" s="11"/>
-      <c r="C348" s="12" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A349" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="B349" s="11"/>
-      <c r="C349" s="12" t="s">
-        <v>429</v>
+      <c r="C349" s="10" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="11" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B350" s="11"/>
       <c r="C350" s="12" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A351" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="B351" s="11"/>
-      <c r="C351" s="12" t="s">
-        <v>433</v>
+      <c r="A351" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="B351" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="C351" s="14" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A352" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="B352" s="11"/>
-      <c r="C352" s="12" t="s">
-        <v>435</v>
+      <c r="A352" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B352" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C352" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A353" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="B353" s="11"/>
-      <c r="C353" s="12" t="s">
-        <v>437</v>
+      <c r="A353" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B353" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="C353" s="26" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="11" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="B354" s="11"/>
       <c r="C354" s="12" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A355" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B355" s="11"/>
-      <c r="C355" s="12" t="s">
-        <v>440</v>
+      <c r="A355" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="B355" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C355" s="10" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A356" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="B356" s="11"/>
-      <c r="C356" s="12" t="s">
-        <v>442</v>
+      <c r="A356" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="B356" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="C356" s="10" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="11" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="B357" s="11"/>
       <c r="C357" s="12" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A358" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B358" s="14"/>
-      <c r="C358" s="14" t="s">
-        <v>86</v>
+      <c r="A358" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="B358" s="11"/>
+      <c r="C358" s="12" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="11" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="B359" s="11"/>
       <c r="C359" s="12" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="11" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="B360" s="11"/>
       <c r="C360" s="12" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A361" s="14" t="s">
-        <v>565</v>
-      </c>
-      <c r="B361" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="C361" s="14" t="s">
-        <v>566</v>
+      <c r="A361" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="B361" s="11"/>
+      <c r="C361" s="12" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A362" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="B362" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="C362" s="10" t="s">
-        <v>542</v>
+      <c r="A362" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="B362" s="11"/>
+      <c r="C362" s="12" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A363" s="10" t="s">
-        <v>624</v>
-      </c>
-      <c r="B363" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="C363" s="10" t="s">
-        <v>616</v>
+      <c r="A363" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="B363" s="11"/>
+      <c r="C363" s="12" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A364" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="B364" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="C364" s="10" t="s">
-        <v>555</v>
+      <c r="A364" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="B364" s="11"/>
+      <c r="C364" s="12" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A365" s="10" t="s">
-        <v>646</v>
-      </c>
-      <c r="B365" s="10" t="s">
-        <v>634</v>
-      </c>
-      <c r="C365" s="10" t="s">
-        <v>635</v>
+      <c r="A365" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B365" s="11"/>
+      <c r="C365" s="12" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A366" s="14" t="s">
-        <v>545</v>
-      </c>
-      <c r="B366" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="C366" s="14" t="s">
-        <v>543</v>
+      <c r="A366" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="B366" s="11"/>
+      <c r="C366" s="12" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A367" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="B367" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="C367" s="10" t="s">
-        <v>553</v>
+      <c r="A367" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="B367" s="11"/>
+      <c r="C367" s="12" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="14" t="s">
-        <v>546</v>
-      </c>
-      <c r="B368" s="14" t="s">
-        <v>535</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B368" s="14"/>
       <c r="C368" s="14" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="11" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B369" s="11"/>
       <c r="C369" s="12" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A370" s="14" t="s">
-        <v>453</v>
-      </c>
-      <c r="B370" s="14" t="s">
-        <v>895</v>
-      </c>
+      <c r="A370" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B370" s="11"/>
       <c r="C370" s="12" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A371" t="s">
-        <v>117</v>
-      </c>
-      <c r="B371" t="s">
-        <v>502</v>
-      </c>
-      <c r="C371" t="s">
-        <v>118</v>
+      <c r="A371" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="B371" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C371" s="14" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A372" t="s">
-        <v>455</v>
-      </c>
-      <c r="B372" t="s">
-        <v>886</v>
-      </c>
-      <c r="C372" s="12" t="s">
-        <v>456</v>
+      <c r="A372" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="B372" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="C372" s="14" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="10" t="s">
-        <v>801</v>
-      </c>
-      <c r="B373" s="10" t="s">
-        <v>776</v>
+        <v>624</v>
+      </c>
+      <c r="B373" s="14" t="s">
+        <v>610</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>789</v>
+        <v>616</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A374" t="s">
-        <v>121</v>
-      </c>
-      <c r="B374" t="s">
-        <v>502</v>
-      </c>
-      <c r="C374" t="s">
-        <v>122</v>
+      <c r="A374" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="B374" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="C374" s="14" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A375" t="s">
-        <v>105</v>
-      </c>
-      <c r="B375" s="14" t="s">
-        <v>514</v>
-      </c>
-      <c r="C375" s="14" t="s">
-        <v>517</v>
+      <c r="A375" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="B375" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="C375" s="10" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A376" t="s">
-        <v>105</v>
-      </c>
-      <c r="B376" t="s">
-        <v>502</v>
-      </c>
-      <c r="C376" t="s">
-        <v>106</v>
+      <c r="A376" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="B376" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="C376" s="14" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A377" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="B377" s="11"/>
-      <c r="C377" s="12" t="s">
-        <v>458</v>
+      <c r="A377" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="B377" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="C377" s="14" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A378" s="10" t="s">
-        <v>835</v>
-      </c>
-      <c r="B378" s="10" t="s">
-        <v>807</v>
-      </c>
-      <c r="C378" s="10" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="B378" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="C378" s="14" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A379" s="11" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B379" s="11"/>
       <c r="C379" s="12" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A380" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="B380" s="11"/>
+      <c r="A380" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="B380" s="14" t="s">
+        <v>895</v>
+      </c>
       <c r="C380" s="12" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A381" t="s">
-        <v>104</v>
-      </c>
-      <c r="B381" t="s">
-        <v>501</v>
-      </c>
-      <c r="C381" t="s">
-        <v>97</v>
+      <c r="A381" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B381" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C381" s="26" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A382" s="10" t="s">
-        <v>632</v>
-      </c>
-      <c r="B382" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="C382" s="10" t="s">
-        <v>614</v>
+      <c r="A382" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="B382" s="26" t="s">
+        <v>886</v>
+      </c>
+      <c r="C382" s="12" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A383" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="B383" s="11"/>
-      <c r="C383" s="12" t="s">
-        <v>464</v>
+      <c r="A383" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="B383" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="C383" s="14" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A384" t="s">
-        <v>15</v>
-      </c>
-      <c r="B384" t="s">
-        <v>500</v>
-      </c>
-      <c r="C384" t="s">
-        <v>22</v>
+      <c r="A384" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B384" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C384" s="26" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A385" s="10" t="s">
-        <v>650</v>
-      </c>
-      <c r="B385" s="10" t="s">
-        <v>634</v>
-      </c>
-      <c r="C385" s="10" t="s">
-        <v>640</v>
+      <c r="A385" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B385" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C385" s="26" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A386" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="B386" s="11"/>
-      <c r="C386" s="12" t="s">
-        <v>466</v>
+      <c r="A386" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B386" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="C386" s="14" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A387" s="14" t="s">
-        <v>561</v>
-      </c>
-      <c r="B387" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="C387" s="14" t="s">
-        <v>562</v>
+      <c r="A387" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="B387" s="11"/>
+      <c r="C387" s="12" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A388" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="B388" s="11"/>
-      <c r="C388" s="12" t="s">
-        <v>468</v>
+      <c r="A388" s="14" t="s">
+        <v>835</v>
+      </c>
+      <c r="B388" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="C388" s="14" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A389" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="B389" s="11"/>
-      <c r="C389" s="12" t="s">
-        <v>470</v>
+      <c r="A389" s="10" t="s">
+        <v>928</v>
+      </c>
+      <c r="B389" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="C389" s="14" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="11" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="B390" s="11"/>
       <c r="C390" s="12" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="11" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="B391" s="11"/>
       <c r="C391" s="12" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A392" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="B392" s="11"/>
-      <c r="C392" s="12" t="s">
-        <v>476</v>
+      <c r="A392" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B392" t="s">
+        <v>501</v>
+      </c>
+      <c r="C392" s="26" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A393" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="B393" s="11"/>
-      <c r="C393" s="12" t="s">
-        <v>478</v>
+      <c r="A393" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="B393" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C393" s="10" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" s="11" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="B394" s="11"/>
       <c r="C394" s="12" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A395" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="B395" s="11"/>
-      <c r="C395" s="12" t="s">
-        <v>482</v>
+      <c r="A395" t="s">
+        <v>15</v>
+      </c>
+      <c r="B395" t="s">
+        <v>500</v>
+      </c>
+      <c r="C395" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" s="10" t="s">
-        <v>674</v>
+        <v>650</v>
       </c>
       <c r="B396" s="10" t="s">
-        <v>656</v>
+        <v>634</v>
       </c>
       <c r="C396" s="10" t="s">
-        <v>665</v>
+        <v>640</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A397" s="10" t="s">
-        <v>802</v>
-      </c>
-      <c r="B397" s="10" t="s">
-        <v>776</v>
-      </c>
-      <c r="C397" s="10" t="s">
-        <v>803</v>
+      <c r="A397" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="B397" s="11"/>
+      <c r="C397" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A398" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="B398" s="11"/>
-      <c r="C398" s="12" t="s">
-        <v>484</v>
+      <c r="A398" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="B398" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C398" s="14" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A399" s="10" t="s">
-        <v>584</v>
-      </c>
-      <c r="B399" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="C399" s="10" t="s">
-        <v>570</v>
+      <c r="A399" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="B399" s="11"/>
+      <c r="C399" s="12" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A400" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="B400" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="C400" s="10" t="s">
-        <v>571</v>
+      <c r="A400" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="B400" s="11"/>
+      <c r="C400" s="12" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A401" s="14" t="s">
-        <v>651</v>
-      </c>
-      <c r="B401" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="C401" s="14" t="s">
-        <v>641</v>
+      <c r="A401" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="B401" s="11"/>
+      <c r="C401" s="12" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" s="11" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B402" s="11"/>
       <c r="C402" s="12" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A403" t="s">
-        <v>62</v>
-      </c>
-      <c r="B403" t="s">
-        <v>501</v>
-      </c>
-      <c r="C403" t="s">
-        <v>60</v>
+      <c r="A403" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="B403" s="11"/>
+      <c r="C403" s="12" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="11" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="B404" s="11"/>
       <c r="C404" s="12" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" s="11" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="B405" s="11"/>
       <c r="C405" s="12" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A406" s="10" t="s">
-        <v>732</v>
-      </c>
-      <c r="B406" s="10" t="s">
-        <v>729</v>
-      </c>
-      <c r="C406" s="10" t="s">
-        <v>733</v>
+      <c r="A406" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="B406" s="11"/>
+      <c r="C406" s="12" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A407" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="B407" s="11"/>
-      <c r="C407" s="12" t="s">
-        <v>492</v>
+      <c r="A407" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="B407" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="C407" s="10" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A408" s="10" t="s">
-        <v>697</v>
-      </c>
-      <c r="B408" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="C408" s="10" t="s">
-        <v>683</v>
+      <c r="A408" s="14" t="s">
+        <v>802</v>
+      </c>
+      <c r="B408" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="C408" s="14" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A409" t="s">
-        <v>107</v>
-      </c>
-      <c r="B409" t="s">
-        <v>502</v>
-      </c>
-      <c r="C409" t="s">
-        <v>109</v>
+      <c r="A409" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B409" s="11"/>
+      <c r="C409" s="12" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A410" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B410" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="C410" s="10" t="s">
-        <v>534</v>
+      <c r="A410" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="B410" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C410" s="14" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="B411" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C411" s="14" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A412" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="B412" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="C412" s="14" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A413" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="B413" s="11"/>
+      <c r="C413" s="12" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A414" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B414" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="C414" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A415" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="B415" s="11"/>
+      <c r="C415" s="12" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A416" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="B416" s="11"/>
+      <c r="C416" s="12" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A417" s="14" t="s">
+        <v>732</v>
+      </c>
+      <c r="B417" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="C417" s="14" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A418" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="B418" s="11"/>
+      <c r="C418" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A419" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="B419" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C419" s="10" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A420" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B420" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C420" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A421" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B421" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="C421" s="14" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A422" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B411" s="14"/>
-      <c r="C411" s="14" t="s">
+      <c r="B422" s="14"/>
+      <c r="C422" s="14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A412" s="11" t="s">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A423" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="B412" s="11"/>
-      <c r="C412" s="12" t="s">
+      <c r="B423" s="11"/>
+      <c r="C423" s="12" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A413" s="14"/>
-      <c r="C413" s="14"/>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A414" s="14"/>
-      <c r="C414" s="14"/>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A415" s="14"/>
-      <c r="B415" s="14"/>
-      <c r="C415" s="14"/>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C416" s="14"/>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C417" s="14"/>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C418" s="14"/>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C419"/>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A420" s="14"/>
-      <c r="B420" s="14"/>
-      <c r="C420" s="25"/>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A421" s="14"/>
-      <c r="B421" s="14"/>
-      <c r="C421" s="25"/>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A422" s="14"/>
-      <c r="B422" s="14"/>
-      <c r="C422" s="14"/>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A423" s="14"/>
-      <c r="B423" s="14"/>
-      <c r="C423" s="14"/>
-    </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A424" s="14"/>
-      <c r="B424" s="14"/>
       <c r="C424" s="14"/>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A425" s="14"/>
-      <c r="B425" s="14"/>
-      <c r="C425" s="14"/>
+      <c r="C425"/>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" s="14"/>
       <c r="B426" s="14"/>
-      <c r="C426" s="14"/>
+      <c r="C426" s="25"/>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" s="14"/>
       <c r="B427" s="14"/>
-      <c r="C427" s="14"/>
+      <c r="C427" s="25"/>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" s="14"/>
       <c r="B428" s="14"/>
-      <c r="C428" s="25"/>
+      <c r="C428" s="14"/>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" s="14"/>
@@ -10314,7 +10446,7 @@
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" s="14"/>
       <c r="B434" s="14"/>
-      <c r="C434" s="14"/>
+      <c r="C434" s="25"/>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" s="14"/>
@@ -10372,15 +10504,9 @@
       <c r="C445" s="14"/>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A446" s="14" t="s">
-        <v>907</v>
-      </c>
-      <c r="B446" s="14" t="s">
-        <v>896</v>
-      </c>
-      <c r="C446" s="14" t="s">
-        <v>908</v>
-      </c>
+      <c r="A446" s="14"/>
+      <c r="B446" s="14"/>
+      <c r="C446" s="14"/>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" s="14"/>
@@ -10405,7 +10531,7 @@
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" s="14"/>
       <c r="B451" s="14"/>
-      <c r="C451" s="25"/>
+      <c r="C451" s="14"/>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" s="14"/>
@@ -10687,7 +10813,7 @@
       <c r="C551" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C446" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}"/>
+  <autoFilter ref="A1:C451" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C551">
     <sortCondition ref="A2:A551"/>
   </sortState>

--- a/Zhodani Words List.xlsx
+++ b/Zhodani Words List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02054245-43FA-4C34-A927-2E5A693B38E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEE2EAE-3F29-40CC-B763-33233A1DA129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Current vocabulary list'!$A$1:$C$446</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Current vocabulary list'!$A$1:$C$451</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lessons!$A$1:$C$223</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Zhdetl (from Alien Book 4)'!$A$1:$B$186</definedName>
   </definedNames>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="929">
   <si>
     <t>Zhdetl word</t>
   </si>
@@ -2800,6 +2800,66 @@
   </si>
   <si>
     <t>moods; emotions</t>
+  </si>
+  <si>
+    <t>afraid</t>
+  </si>
+  <si>
+    <t>bereft</t>
+  </si>
+  <si>
+    <t>flirty</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>silly</t>
+  </si>
+  <si>
+    <t>machita</t>
+  </si>
+  <si>
+    <t>tlepika</t>
+  </si>
+  <si>
+    <t>nienekita</t>
+  </si>
+  <si>
+    <t>cholita</t>
+  </si>
+  <si>
+    <t>chacholita</t>
+  </si>
+  <si>
+    <t>hollow, blank, expressionless</t>
+  </si>
+  <si>
+    <t>confident</t>
+  </si>
+  <si>
+    <t>fierce</t>
+  </si>
+  <si>
+    <t>despondent</t>
+  </si>
+  <si>
+    <t>tekoyotik</t>
+  </si>
+  <si>
+    <t>chatlanekantik</t>
+  </si>
+  <si>
+    <t>incredulous; unbelieving</t>
+  </si>
+  <si>
+    <t>tlachtamota</t>
+  </si>
+  <si>
+    <t>tlaye'</t>
+  </si>
+  <si>
+    <t>yomichti</t>
   </si>
 </sst>
 </file>
@@ -6027,7 +6087,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A447" sqref="A447"/>
+      <selection pane="bottomLeft" activeCell="A389" activeCellId="4" sqref="A296:XFD296 A52:XFD52 A314:XFD314 A325:XFD325 A389:XFD389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6087,21 +6147,21 @@
         <v>606</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C6" s="14" t="s">
         <v>598</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>606</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -6229,13 +6289,13 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="14" t="s">
         <v>763</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="14" t="s">
         <v>753</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="14" t="s">
         <v>762</v>
       </c>
     </row>
@@ -6248,24 +6308,24 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="26" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="26" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6284,7 +6344,7 @@
       <c r="A25" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="26" t="s">
         <v>886</v>
       </c>
       <c r="C25" s="12" t="s">
@@ -6307,7 +6367,7 @@
       <c r="B27" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="14" t="s">
         <v>540</v>
       </c>
     </row>
@@ -6340,7 +6400,7 @@
       <c r="A31" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="26" t="s">
         <v>886</v>
       </c>
       <c r="C31" s="14" t="s">
@@ -6351,7 +6411,7 @@
       <c r="A32" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="26" t="s">
         <v>886</v>
       </c>
       <c r="C32" s="12" t="s">
@@ -6362,7 +6422,7 @@
       <c r="A33" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="26" t="s">
         <v>886</v>
       </c>
       <c r="C33" s="12" t="s">
@@ -6399,35 +6459,35 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="14" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="14" t="s">
         <v>605</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="14" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="14" t="s">
         <v>603</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="14" t="s">
         <v>593</v>
       </c>
     </row>
@@ -6435,7 +6495,7 @@
       <c r="A40" s="10" t="s">
         <v>647</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="14" t="s">
         <v>634</v>
       </c>
       <c r="C40" s="10" t="s">
@@ -6476,13 +6536,13 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="14" t="s">
         <v>630</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="14" t="s">
         <v>615</v>
       </c>
     </row>
@@ -6514,3777 +6574,3849 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="14" t="s">
+        <v>918</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>896</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="12" t="s">
+      <c r="B49" s="11"/>
+      <c r="C49" s="12" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="10" t="s">
-        <v>698</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>680</v>
       </c>
       <c r="C50" s="10" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="12" t="s">
-        <v>182</v>
+      <c r="A52" s="14" t="s">
+        <v>924</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
-        <v>720</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>709</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B53" s="14"/>
       <c r="C53" s="14" t="s">
-        <v>718</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="11" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B57" s="14" t="s">
         <v>895</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C57" s="12" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="14" t="s">
-        <v>884</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>839</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
+        <v>884</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>839</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B59" s="14" t="s">
         <v>709</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C59" s="14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="11" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="12" t="s">
+      <c r="B61" s="11"/>
+      <c r="C61" s="12" t="s">
         <v>499</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="14" t="s">
-        <v>798</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>776</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="14" t="s">
-        <v>771</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>753</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
-        <v>772</v>
+        <v>798</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>753</v>
+        <v>776</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>767</v>
+        <v>785</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="17" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>747</v>
+        <v>766</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="16" t="s">
-        <v>189</v>
+      <c r="A64" s="17" t="s">
+        <v>772</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>753</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="17" t="s">
-        <v>702</v>
+        <v>752</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>680</v>
+        <v>729</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>701</v>
+        <v>747</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="B66" s="23" t="s">
-        <v>502</v>
-      </c>
-      <c r="C66" s="24" t="s">
-        <v>108</v>
+      <c r="A66" s="17" t="s">
+        <v>917</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>896</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="17" t="s">
-        <v>730</v>
+        <v>702</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>729</v>
+        <v>680</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>731</v>
+        <v>701</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="17" t="s">
-        <v>717</v>
-      </c>
-      <c r="B69" s="21" t="s">
-        <v>709</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>716</v>
+      <c r="A69" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="17" t="s">
-        <v>824</v>
+        <v>730</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>807</v>
+        <v>729</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>825</v>
+        <v>731</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B72" s="23" t="s">
-        <v>501</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>55</v>
+      <c r="A72" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>709</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="17" t="s">
-        <v>828</v>
-      </c>
-      <c r="B73" s="21" t="s">
-        <v>807</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>813</v>
+      <c r="A73" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B73" s="20"/>
+      <c r="C73" s="16" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="17" t="s">
-        <v>795</v>
+        <v>824</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>776</v>
+        <v>807</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B75" s="20"/>
-      <c r="C75" s="16" t="s">
-        <v>195</v>
+        <v>825</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B76" s="21"/>
+        <v>828</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>807</v>
+      </c>
       <c r="C76" s="18" t="s">
-        <v>103</v>
+        <v>813</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="17" t="s">
+        <v>795</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>776</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="16" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="B79" s="20"/>
-      <c r="C79" s="16" t="s">
-        <v>201</v>
+      <c r="A79" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B79" s="21"/>
+      <c r="C79" s="18" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="16" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="15" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="16" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="15" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="16" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="16" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="16" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="16" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="15" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="16" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="B88" s="21" t="s">
-        <v>656</v>
-      </c>
-      <c r="C88" s="18" t="s">
-        <v>659</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B88" s="20"/>
+      <c r="C88" s="16" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="16" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="B91" s="20"/>
-      <c r="C91" s="16" t="s">
-        <v>223</v>
+      <c r="A91" s="17" t="s">
+        <v>670</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>656</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="17" t="s">
-        <v>551</v>
-      </c>
-      <c r="B92" s="21" t="s">
-        <v>535</v>
-      </c>
-      <c r="C92" s="18" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B92" s="20"/>
+      <c r="C92" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="15" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="16" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B96" s="20"/>
+      <c r="C96" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B97" s="20"/>
+      <c r="C97" s="16" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="15" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="B95" s="20"/>
-      <c r="C95" s="16" t="s">
+      <c r="B98" s="20"/>
+      <c r="C98" s="16" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="17" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="B96" s="21" t="s">
+      <c r="B99" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="C96" s="18" t="s">
+      <c r="C99" s="18" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="17" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B97" s="21"/>
-      <c r="C97" s="18" t="s">
+      <c r="B100" s="21"/>
+      <c r="C100" s="18" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="17" t="s">
-        <v>548</v>
-      </c>
-      <c r="B98" s="21" t="s">
-        <v>535</v>
-      </c>
-      <c r="C98" s="18" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B99" s="20"/>
-      <c r="C99" s="16" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="B100" s="20"/>
-      <c r="C100" s="16" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="17" t="s">
-        <v>12</v>
+        <v>548</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="17" t="s">
-        <v>626</v>
-      </c>
-      <c r="B102" s="21" t="s">
-        <v>610</v>
-      </c>
-      <c r="C102" s="18" t="s">
-        <v>618</v>
+      <c r="A102" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B102" s="20"/>
+      <c r="C102" s="16" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B104" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="C104" s="24" t="s">
-        <v>38</v>
+      <c r="A104" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="17" t="s">
+        <v>626</v>
+      </c>
+      <c r="B105" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B106" s="20"/>
+      <c r="C106" s="16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="17" t="s">
         <v>600</v>
       </c>
-      <c r="B105" s="21" t="s">
+      <c r="B108" s="21" t="s">
         <v>589</v>
       </c>
-      <c r="C105" s="18" t="s">
+      <c r="C108" s="18" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="17" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="17" t="s">
         <v>793</v>
       </c>
-      <c r="B106" s="21" t="s">
+      <c r="B109" s="21" t="s">
         <v>776</v>
       </c>
-      <c r="C106" s="18" t="s">
+      <c r="C109" s="18" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="15" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="B107" s="20"/>
-      <c r="C107" s="16" t="s">
+      <c r="B110" s="20"/>
+      <c r="C110" s="16" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="B108" s="20"/>
-      <c r="C108" s="16" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="B109" s="20"/>
-      <c r="C109" s="16" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="17" t="s">
-        <v>649</v>
-      </c>
-      <c r="B110" s="21" t="s">
-        <v>634</v>
-      </c>
-      <c r="C110" s="18" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="15" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="B112" s="20"/>
+      <c r="C112" s="16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="B113" s="21" t="s">
+        <v>634</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B114" s="20"/>
+      <c r="C114" s="16" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="22" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B112" s="23" t="s">
+      <c r="B115" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="C112" s="24" t="s">
+      <c r="C115" s="24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="22" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="B113" s="23" t="s">
+      <c r="B116" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="C113" s="24" t="s">
+      <c r="C116" s="24" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="22" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B114" s="23" t="s">
+      <c r="B117" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="C114" s="24" t="s">
+      <c r="C117" s="24" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="B115" s="20"/>
-      <c r="C115" s="16" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="B116" s="20"/>
-      <c r="C116" s="16" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="B117" s="20"/>
-      <c r="C117" s="16" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="15" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="16" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="15" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="16" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="17" t="s">
-        <v>628</v>
-      </c>
-      <c r="B120" s="21" t="s">
-        <v>610</v>
-      </c>
-      <c r="C120" s="18" t="s">
-        <v>622</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A120" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="B120" s="20"/>
+      <c r="C120" s="16" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="17" t="s">
-        <v>611</v>
-      </c>
-      <c r="B121" s="21" t="s">
-        <v>610</v>
-      </c>
-      <c r="C121" s="18" t="s">
-        <v>612</v>
+      <c r="A121" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B121" s="20"/>
+      <c r="C121" s="16" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="16" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="B123" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="17" t="s">
+        <v>611</v>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B125" s="20"/>
+      <c r="C125" s="16" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A123" s="15" t="s">
+    <row r="126" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A126" s="15" t="s">
         <v>258</v>
-      </c>
-      <c r="B123" s="20"/>
-      <c r="C123" s="16" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B124" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="C124" s="24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B125" s="23" t="s">
-        <v>501</v>
-      </c>
-      <c r="C125" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="15" t="s">
-        <v>260</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="C127" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="C128" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B129" s="20"/>
+      <c r="C129" s="16" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="17" t="s">
-        <v>587</v>
-      </c>
-      <c r="B127" s="21" t="s">
-        <v>559</v>
-      </c>
-      <c r="C127" s="18" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="17" t="s">
-        <v>668</v>
-      </c>
-      <c r="B128" s="21" t="s">
-        <v>656</v>
-      </c>
-      <c r="C128" s="18" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="17" t="s">
-        <v>655</v>
-      </c>
-      <c r="B129" s="21" t="s">
-        <v>634</v>
-      </c>
-      <c r="C129" s="19" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="17" t="s">
+        <v>587</v>
+      </c>
+      <c r="B130" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="17" t="s">
+        <v>668</v>
+      </c>
+      <c r="B131" s="21" t="s">
+        <v>656</v>
+      </c>
+      <c r="C131" s="18" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="17" t="s">
         <v>655</v>
       </c>
-      <c r="B130" s="21" t="s">
+      <c r="B132" s="21" t="s">
         <v>656</v>
       </c>
-      <c r="C130" s="18" t="s">
+      <c r="C132" s="18" t="s">
         <v>666</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="B131" s="20"/>
-      <c r="C131" s="16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A132" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="B132" s="20"/>
-      <c r="C132" s="16" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="B133" s="21" t="s">
+        <v>634</v>
+      </c>
+      <c r="C133" s="19" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="B134" s="20"/>
+      <c r="C134" s="16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A135" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B135" s="20"/>
+      <c r="C135" s="16" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="17" t="s">
         <v>814</v>
       </c>
-      <c r="B133" s="21" t="s">
+      <c r="B136" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="C133" s="18" t="s">
+      <c r="C136" s="18" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="17" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="17" t="s">
         <v>652</v>
       </c>
-      <c r="B134" s="21" t="s">
+      <c r="B137" s="21" t="s">
         <v>634</v>
       </c>
-      <c r="C134" s="18" t="s">
+      <c r="C137" s="18" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="15" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="15" t="s">
         <v>671</v>
       </c>
-      <c r="B135" s="20" t="s">
+      <c r="B138" s="20" t="s">
         <v>656</v>
       </c>
-      <c r="C135" s="16" t="s">
+      <c r="C138" s="16" t="s">
         <v>657</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="B136" s="20"/>
-      <c r="C136" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="B137" s="20"/>
-      <c r="C137" s="16" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="17" t="s">
-        <v>525</v>
-      </c>
-      <c r="B138" s="21" t="s">
-        <v>514</v>
-      </c>
-      <c r="C138" s="18" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="16" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="17" t="s">
-        <v>831</v>
-      </c>
-      <c r="B140" s="21" t="s">
-        <v>807</v>
-      </c>
-      <c r="C140" s="18" t="s">
-        <v>832</v>
+      <c r="A140" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B140" s="20"/>
+      <c r="C140" s="16" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="17" t="s">
-        <v>757</v>
+        <v>525</v>
       </c>
       <c r="B141" s="21" t="s">
-        <v>753</v>
+        <v>514</v>
       </c>
       <c r="C141" s="18" t="s">
-        <v>756</v>
+        <v>526</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="17" t="s">
-        <v>735</v>
-      </c>
-      <c r="B142" s="21" t="s">
-        <v>729</v>
-      </c>
-      <c r="C142" s="18" t="s">
-        <v>734</v>
+      <c r="A142" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B142" s="20"/>
+      <c r="C142" s="16" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="15" t="s">
-        <v>905</v>
+      <c r="A143" s="17" t="s">
+        <v>831</v>
       </c>
       <c r="B143" s="21" t="s">
-        <v>896</v>
+        <v>807</v>
       </c>
       <c r="C143" s="18" t="s">
-        <v>906</v>
+        <v>832</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="17" t="s">
-        <v>778</v>
+        <v>757</v>
       </c>
       <c r="B144" s="21" t="s">
-        <v>776</v>
+        <v>753</v>
       </c>
       <c r="C144" s="18" t="s">
-        <v>787</v>
+        <v>756</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="17" t="s">
-        <v>822</v>
+        <v>735</v>
       </c>
       <c r="B145" s="21" t="s">
-        <v>807</v>
+        <v>729</v>
       </c>
       <c r="C145" s="18" t="s">
-        <v>823</v>
+        <v>734</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="15" t="s">
+        <v>905</v>
+      </c>
+      <c r="B146" s="21" t="s">
+        <v>896</v>
+      </c>
+      <c r="C146" s="18" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="B147" s="21" t="s">
+        <v>776</v>
+      </c>
+      <c r="C147" s="18" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="17" t="s">
+        <v>822</v>
+      </c>
+      <c r="B148" s="21" t="s">
+        <v>807</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="B146" s="20"/>
-      <c r="C146" s="16" t="s">
+      <c r="B149" s="20"/>
+      <c r="C149" s="16" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="B147" s="20"/>
-      <c r="C147" s="16" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="B148" s="23" t="s">
-        <v>502</v>
-      </c>
-      <c r="C148" s="24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B149" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="C149" s="24" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="17" t="s">
-        <v>837</v>
+        <v>907</v>
       </c>
       <c r="B150" s="21" t="s">
-        <v>807</v>
+        <v>896</v>
       </c>
       <c r="C150" s="18" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="16" t="s">
-        <v>719</v>
+        <v>274</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="B152" s="20"/>
-      <c r="C152" s="16" t="s">
-        <v>277</v>
+      <c r="A152" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B152" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="C152" s="24" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="B153" s="21" t="s">
-        <v>656</v>
-      </c>
-      <c r="C153" s="16" t="s">
-        <v>279</v>
+      <c r="A153" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="C153" s="24" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="B154" s="11"/>
-      <c r="C154" s="16" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="17" t="s">
+        <v>837</v>
+      </c>
+      <c r="B154" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="C154" s="18" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="15" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B155" s="20"/>
       <c r="C155" s="16" t="s">
-        <v>283</v>
+        <v>719</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B156" s="20"/>
       <c r="C156" s="16" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="B157" s="20"/>
+        <v>278</v>
+      </c>
+      <c r="B157" s="21" t="s">
+        <v>656</v>
+      </c>
       <c r="C157" s="16" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B158" s="20"/>
       <c r="C158" s="16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="B159" s="20"/>
+      <c r="C159" s="16" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="B160" s="20"/>
+      <c r="C160" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="B161" s="20"/>
+      <c r="C161" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B162" s="20"/>
+      <c r="C162" s="16" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="17" t="s">
-        <v>521</v>
-      </c>
-      <c r="B159" s="21" t="s">
-        <v>514</v>
-      </c>
-      <c r="C159" s="18" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B160" s="23" t="s">
-        <v>501</v>
-      </c>
-      <c r="C160" s="24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="B161" s="23" t="s">
-        <v>502</v>
-      </c>
-      <c r="C161" s="24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="B162" s="21" t="s">
-        <v>514</v>
-      </c>
-      <c r="C162" s="18" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="B163" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="C163" s="18" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B164" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="C164" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B165" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="C165" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B166" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="C166" s="18" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="17" t="s">
         <v>704</v>
       </c>
-      <c r="B163" s="21" t="s">
+      <c r="B167" s="21" t="s">
         <v>680</v>
       </c>
-      <c r="C163" s="18" t="s">
+      <c r="C167" s="18" t="s">
         <v>690</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="17" t="s">
-        <v>829</v>
-      </c>
-      <c r="B164" s="21" t="s">
-        <v>807</v>
-      </c>
-      <c r="C164" s="18" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="17" t="s">
-        <v>738</v>
-      </c>
-      <c r="B165" s="21" t="s">
-        <v>729</v>
-      </c>
-      <c r="C165" s="18" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="B166" s="20"/>
-      <c r="C166" s="16" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="B167" s="20"/>
-      <c r="C167" s="16" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="17" t="s">
-        <v>631</v>
+        <v>829</v>
       </c>
       <c r="B168" s="21" t="s">
-        <v>610</v>
+        <v>807</v>
       </c>
       <c r="C168" s="18" t="s">
-        <v>613</v>
+        <v>830</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="17" t="s">
-        <v>715</v>
+        <v>738</v>
       </c>
       <c r="B169" s="21" t="s">
-        <v>709</v>
+        <v>729</v>
       </c>
       <c r="C169" s="18" t="s">
-        <v>714</v>
+        <v>739</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="15" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B170" s="20"/>
       <c r="C170" s="16" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="17" t="s">
-        <v>881</v>
-      </c>
-      <c r="B171" s="21" t="s">
-        <v>839</v>
-      </c>
-      <c r="C171" s="18" t="s">
-        <v>845</v>
+      <c r="A171" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B171" s="20"/>
+      <c r="C171" s="16" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="B172" s="20"/>
-      <c r="C172" s="16" t="s">
-        <v>297</v>
+      <c r="A172" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="B172" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="C172" s="18" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="17" t="s">
-        <v>750</v>
+        <v>715</v>
       </c>
       <c r="B173" s="21" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="C173" s="18" t="s">
-        <v>745</v>
+        <v>714</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B174" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="C174" s="24" t="s">
-        <v>29</v>
+      <c r="A174" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B174" s="20"/>
+      <c r="C174" s="16" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B175" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="C175" s="24" t="s">
-        <v>31</v>
+      <c r="A175" s="17" t="s">
+        <v>881</v>
+      </c>
+      <c r="B175" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="C175" s="18" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B176" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="C176" s="24" t="s">
-        <v>28</v>
+      <c r="A176" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B176" s="20"/>
+      <c r="C176" s="16" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="17" t="s">
-        <v>695</v>
+        <v>750</v>
       </c>
       <c r="B177" s="21" t="s">
-        <v>680</v>
+        <v>729</v>
       </c>
       <c r="C177" s="18" t="s">
-        <v>682</v>
+        <v>745</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="15" t="s">
-        <v>901</v>
-      </c>
-      <c r="B178" s="21" t="s">
-        <v>896</v>
-      </c>
-      <c r="C178" s="18" t="s">
-        <v>902</v>
+      <c r="A178" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B178" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="C178" s="24" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="17" t="s">
-        <v>792</v>
-      </c>
-      <c r="B179" s="21" t="s">
-        <v>776</v>
-      </c>
-      <c r="C179" s="18" t="s">
-        <v>779</v>
+      <c r="A179" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B179" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="C179" s="24" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="17" t="s">
-        <v>748</v>
-      </c>
-      <c r="B180" s="21" t="s">
-        <v>729</v>
-      </c>
-      <c r="C180" s="18" t="s">
-        <v>743</v>
+      <c r="A180" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B180" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="C180" s="24" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="17" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="B181" s="21" t="s">
         <v>680</v>
       </c>
       <c r="C181" s="18" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="17" t="s">
-        <v>866</v>
+      <c r="A182" s="15" t="s">
+        <v>901</v>
       </c>
       <c r="B182" s="21" t="s">
-        <v>839</v>
+        <v>896</v>
       </c>
       <c r="C182" s="18" t="s">
-        <v>846</v>
+        <v>902</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="17" t="s">
-        <v>868</v>
+        <v>792</v>
       </c>
       <c r="B183" s="21" t="s">
-        <v>839</v>
+        <v>776</v>
       </c>
       <c r="C183" s="18" t="s">
-        <v>848</v>
+        <v>779</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="17" t="s">
-        <v>812</v>
+        <v>748</v>
       </c>
       <c r="B184" s="21" t="s">
-        <v>807</v>
+        <v>729</v>
       </c>
       <c r="C184" s="18" t="s">
-        <v>885</v>
+        <v>743</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="17" t="s">
-        <v>609</v>
+        <v>703</v>
       </c>
       <c r="B185" s="21" t="s">
-        <v>589</v>
+        <v>680</v>
       </c>
       <c r="C185" s="18" t="s">
-        <v>597</v>
+        <v>689</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="17" t="s">
-        <v>608</v>
+        <v>866</v>
       </c>
       <c r="B186" s="21" t="s">
-        <v>589</v>
+        <v>839</v>
       </c>
       <c r="C186" s="18" t="s">
-        <v>596</v>
+        <v>846</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="B187" s="20"/>
-      <c r="C187" s="16" t="s">
-        <v>299</v>
+      <c r="A187" s="17" t="s">
+        <v>868</v>
+      </c>
+      <c r="B187" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="C187" s="18" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="17" t="s">
-        <v>867</v>
+        <v>812</v>
       </c>
       <c r="B188" s="21" t="s">
-        <v>839</v>
+        <v>807</v>
       </c>
       <c r="C188" s="18" t="s">
-        <v>847</v>
+        <v>885</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="15" t="s">
-        <v>903</v>
+      <c r="A189" s="17" t="s">
+        <v>609</v>
       </c>
       <c r="B189" s="21" t="s">
-        <v>896</v>
+        <v>589</v>
       </c>
       <c r="C189" s="18" t="s">
-        <v>904</v>
+        <v>597</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="17" t="s">
-        <v>300</v>
+        <v>608</v>
       </c>
       <c r="B190" s="21" t="s">
-        <v>895</v>
+        <v>589</v>
       </c>
       <c r="C190" s="18" t="s">
-        <v>74</v>
+        <v>596</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="11" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B191" s="11"/>
       <c r="C191" s="16" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="17" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="B192" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C192" s="18" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="17" t="s">
-        <v>804</v>
+      <c r="A193" s="15" t="s">
+        <v>903</v>
       </c>
       <c r="B193" s="21" t="s">
-        <v>776</v>
+        <v>896</v>
       </c>
       <c r="C193" s="18" t="s">
-        <v>790</v>
+        <v>904</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="B194" s="20"/>
-      <c r="C194" s="16" t="s">
-        <v>305</v>
+      <c r="A194" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="B194" s="21" t="s">
+        <v>895</v>
+      </c>
+      <c r="C194" s="18" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="17" t="s">
-        <v>675</v>
-      </c>
-      <c r="B195" s="21" t="s">
-        <v>656</v>
-      </c>
-      <c r="C195" s="18" t="s">
-        <v>667</v>
+      <c r="A195" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B195" s="20"/>
+      <c r="C195" s="16" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="17" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="B196" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C196" s="18" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="17" t="s">
-        <v>875</v>
+        <v>914</v>
       </c>
       <c r="B197" s="21" t="s">
-        <v>839</v>
+        <v>896</v>
       </c>
       <c r="C197" s="18" t="s">
-        <v>855</v>
+        <v>909</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="17" t="s">
-        <v>876</v>
+        <v>804</v>
       </c>
       <c r="B198" s="21" t="s">
-        <v>839</v>
+        <v>776</v>
       </c>
       <c r="C198" s="18" t="s">
-        <v>856</v>
+        <v>790</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="17" t="s">
-        <v>878</v>
-      </c>
-      <c r="B199" s="21" t="s">
-        <v>839</v>
-      </c>
-      <c r="C199" s="18" t="s">
-        <v>858</v>
+      <c r="A199" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="B199" s="20"/>
+      <c r="C199" s="16" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="17" t="s">
-        <v>877</v>
+        <v>675</v>
       </c>
       <c r="B200" s="21" t="s">
-        <v>839</v>
+        <v>656</v>
       </c>
       <c r="C200" s="18" t="s">
-        <v>857</v>
+        <v>667</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="17" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="B201" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C201" s="18" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="17" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B202" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C202" s="18" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="17" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="B203" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C203" s="18" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="17" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="B204" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C204" s="18" t="s">
-        <v>849</v>
+        <v>858</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="17" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="B205" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C205" s="18" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="17" t="s">
-        <v>796</v>
+        <v>874</v>
       </c>
       <c r="B206" s="21" t="s">
-        <v>776</v>
+        <v>839</v>
       </c>
       <c r="C206" s="18" t="s">
-        <v>781</v>
+        <v>854</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="17" t="s">
-        <v>794</v>
+        <v>873</v>
       </c>
       <c r="B207" s="21" t="s">
-        <v>776</v>
+        <v>839</v>
       </c>
       <c r="C207" s="18" t="s">
-        <v>782</v>
+        <v>853</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="B208" s="20"/>
-      <c r="C208" s="16" t="s">
-        <v>307</v>
+      <c r="A208" s="17" t="s">
+        <v>871</v>
+      </c>
+      <c r="B208" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="C208" s="18" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="17" t="s">
-        <v>765</v>
+        <v>869</v>
       </c>
       <c r="B209" s="21" t="s">
-        <v>753</v>
+        <v>839</v>
       </c>
       <c r="C209" s="18" t="s">
-        <v>764</v>
+        <v>849</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B210" s="23" t="s">
-        <v>501</v>
-      </c>
-      <c r="C210" s="24" t="s">
-        <v>96</v>
+      <c r="A210" s="17" t="s">
+        <v>872</v>
+      </c>
+      <c r="B210" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="C210" s="18" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B211" s="23" t="s">
-        <v>501</v>
-      </c>
-      <c r="C211" s="24" t="s">
-        <v>64</v>
+      <c r="A211" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="B211" s="21" t="s">
+        <v>776</v>
+      </c>
+      <c r="C211" s="18" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="17" t="s">
-        <v>755</v>
+        <v>794</v>
       </c>
       <c r="B212" s="21" t="s">
-        <v>753</v>
+        <v>776</v>
       </c>
       <c r="C212" s="18" t="s">
-        <v>754</v>
+        <v>782</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" s="17" t="s">
-        <v>672</v>
-      </c>
-      <c r="B213" s="21" t="s">
-        <v>656</v>
-      </c>
-      <c r="C213" s="18" t="s">
-        <v>658</v>
+      <c r="A213" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="B213" s="20"/>
+      <c r="C213" s="16" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="17" t="s">
-        <v>882</v>
+        <v>765</v>
       </c>
       <c r="B214" s="21" t="s">
-        <v>514</v>
+        <v>753</v>
       </c>
       <c r="C214" s="18" t="s">
-        <v>524</v>
+        <v>764</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="17" t="s">
-        <v>607</v>
-      </c>
-      <c r="B215" s="21" t="s">
-        <v>589</v>
-      </c>
-      <c r="C215" s="18" t="s">
-        <v>595</v>
+      <c r="A215" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B215" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="C215" s="24" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="17" t="s">
-        <v>863</v>
-      </c>
-      <c r="B216" s="21" t="s">
-        <v>839</v>
-      </c>
-      <c r="C216" s="18" t="s">
-        <v>843</v>
+      <c r="A216" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B216" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="C216" s="24" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="B217" s="20"/>
-      <c r="C217" s="16" t="s">
-        <v>309</v>
+      <c r="A217" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="B217" s="21" t="s">
+        <v>753</v>
+      </c>
+      <c r="C217" s="18" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="17" t="s">
-        <v>810</v>
+        <v>672</v>
       </c>
       <c r="B218" s="21" t="s">
-        <v>807</v>
+        <v>656</v>
       </c>
       <c r="C218" s="18" t="s">
-        <v>811</v>
+        <v>658</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="B219" s="20"/>
-      <c r="C219" s="16" t="s">
-        <v>311</v>
+      <c r="A219" s="17" t="s">
+        <v>882</v>
+      </c>
+      <c r="B219" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="C219" s="18" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="B220" s="20"/>
-      <c r="C220" s="16" t="s">
-        <v>313</v>
+      <c r="A220" s="17" t="s">
+        <v>607</v>
+      </c>
+      <c r="B220" s="21" t="s">
+        <v>589</v>
+      </c>
+      <c r="C220" s="18" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="B221" s="20"/>
-      <c r="C221" s="16" t="s">
-        <v>315</v>
+      <c r="A221" s="17" t="s">
+        <v>863</v>
+      </c>
+      <c r="B221" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="C221" s="18" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="17" t="s">
-        <v>861</v>
-      </c>
-      <c r="B222" s="21" t="s">
-        <v>839</v>
-      </c>
-      <c r="C222" s="18" t="s">
-        <v>841</v>
+      <c r="A222" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B222" s="20"/>
+      <c r="C222" s="16" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="17" t="s">
-        <v>879</v>
+        <v>810</v>
       </c>
       <c r="B223" s="21" t="s">
-        <v>839</v>
+        <v>807</v>
       </c>
       <c r="C223" s="18" t="s">
-        <v>859</v>
+        <v>811</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="17" t="s">
-        <v>673</v>
+        <v>916</v>
       </c>
       <c r="B224" s="21" t="s">
-        <v>656</v>
+        <v>896</v>
       </c>
       <c r="C224" s="18" t="s">
-        <v>664</v>
+        <v>911</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="17" t="s">
-        <v>706</v>
-      </c>
-      <c r="B225" s="21" t="s">
-        <v>680</v>
-      </c>
-      <c r="C225" s="18" t="s">
-        <v>685</v>
+      <c r="A225" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="B225" s="20"/>
+      <c r="C225" s="16" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="15" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B226" s="20"/>
       <c r="C226" s="16" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="11" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B227" s="20"/>
       <c r="C227" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="11" t="s">
-        <v>897</v>
-      </c>
-      <c r="B228" s="20" t="s">
-        <v>896</v>
+      <c r="A228" s="14" t="s">
+        <v>861</v>
+      </c>
+      <c r="B228" s="21" t="s">
+        <v>839</v>
       </c>
       <c r="C228" s="14" t="s">
-        <v>898</v>
+        <v>841</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="B229" s="20"/>
-      <c r="C229" s="12" t="s">
-        <v>321</v>
+      <c r="A229" s="14" t="s">
+        <v>879</v>
+      </c>
+      <c r="B229" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="C229" s="14" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="B230" s="20"/>
-      <c r="C230" s="12" t="s">
-        <v>323</v>
+      <c r="A230" s="14" t="s">
+        <v>673</v>
+      </c>
+      <c r="B230" s="21" t="s">
+        <v>656</v>
+      </c>
+      <c r="C230" s="14" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="10" t="s">
-        <v>699</v>
+      <c r="A231" s="14" t="s">
+        <v>706</v>
       </c>
       <c r="B231" s="21" t="s">
         <v>680</v>
       </c>
-      <c r="C231" s="10" t="s">
-        <v>687</v>
+      <c r="C231" s="14" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" s="10" t="s">
-        <v>700</v>
-      </c>
-      <c r="B232" s="21" t="s">
-        <v>680</v>
-      </c>
-      <c r="C232" s="10" t="s">
-        <v>688</v>
+      <c r="A232" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="B232" s="20"/>
+      <c r="C232" s="12" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="11" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B233" s="20"/>
       <c r="C233" s="12" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="B234" s="20"/>
-      <c r="C234" s="12" t="s">
-        <v>327</v>
+        <v>897</v>
+      </c>
+      <c r="B234" s="20" t="s">
+        <v>896</v>
+      </c>
+      <c r="C234" s="14" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="11" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B235" s="11"/>
       <c r="C235" s="12" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="B236" s="14" t="s">
-        <v>656</v>
-      </c>
-      <c r="C236" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A237" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="B237" s="11"/>
-      <c r="C237" s="12" t="s">
-        <v>333</v>
+      <c r="A236" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B236" s="11"/>
+      <c r="C236" s="12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="B237" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="C237" s="10" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="B238" s="11"/>
-      <c r="C238" s="12" t="s">
-        <v>335</v>
+      <c r="A238" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="B238" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="C238" s="10" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="11" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="B239" s="11"/>
       <c r="C239" s="12" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="11" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B240" s="11"/>
       <c r="C240" s="12" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="11" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="B241" s="11"/>
       <c r="C241" s="12" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="B242" s="11"/>
-      <c r="C242" s="12" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243" s="10" t="s">
-        <v>678</v>
-      </c>
-      <c r="B243" s="10" t="s">
+      <c r="A242" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B242" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="C243" s="10" t="s">
-        <v>662</v>
+      <c r="C242" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A243" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="B243" s="11"/>
+      <c r="C243" s="12" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="11" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B244" s="11"/>
       <c r="C244" s="12" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="11" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B245" s="11"/>
       <c r="C245" s="12" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A246" s="10" t="s">
-        <v>818</v>
-      </c>
-      <c r="B246" s="10" t="s">
-        <v>807</v>
-      </c>
-      <c r="C246" s="10" t="s">
-        <v>819</v>
+      <c r="A246" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="B246" s="11"/>
+      <c r="C246" s="12" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="11" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B247" s="11"/>
       <c r="C247" s="12" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="11" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B248" s="11"/>
       <c r="C248" s="12" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A249" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="B249" s="11"/>
-      <c r="C249" s="12" t="s">
-        <v>353</v>
+      <c r="A249" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="B249" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="C249" s="10" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="11" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B250" s="11"/>
       <c r="C250" s="12" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A251" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="B251" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="C251" s="10" t="s">
-        <v>541</v>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A251" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="B251" s="11"/>
+      <c r="C251" s="12" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A252" s="10" t="s">
-        <v>721</v>
-      </c>
-      <c r="B252" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="C252" s="10" t="s">
-        <v>722</v>
+      <c r="A252" s="14" t="s">
+        <v>818</v>
+      </c>
+      <c r="B252" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="C252" s="14" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="14" t="s">
-        <v>527</v>
-      </c>
-      <c r="B253" s="14" t="s">
-        <v>514</v>
-      </c>
-      <c r="C253" s="14" t="s">
-        <v>528</v>
+      <c r="A253" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="B253" s="11"/>
+      <c r="C253" s="12" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
-        <v>127</v>
-      </c>
-      <c r="B254" t="s">
-        <v>502</v>
-      </c>
-      <c r="C254" t="s">
-        <v>128</v>
+      <c r="A254" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="B254" s="11"/>
+      <c r="C254" s="12" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
-        <v>123</v>
-      </c>
-      <c r="B255" t="s">
-        <v>502</v>
-      </c>
-      <c r="C255" t="s">
-        <v>124</v>
+      <c r="A255" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="B255" s="11"/>
+      <c r="C255" s="12" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B256" s="11"/>
       <c r="C256" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="14" t="s">
-        <v>358</v>
+        <v>550</v>
       </c>
       <c r="B257" s="14" t="s">
-        <v>895</v>
-      </c>
-      <c r="C257" s="12" t="s">
-        <v>359</v>
+        <v>535</v>
+      </c>
+      <c r="C257" s="14" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
-        <v>510</v>
-      </c>
-      <c r="B258" t="s">
+      <c r="A258" s="10" t="s">
+        <v>721</v>
+      </c>
+      <c r="B258" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C258" s="10" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="B259" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="C259" s="14" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B260" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="C258" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A259" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="B259" s="11"/>
-      <c r="C259" s="12" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
-        <v>26</v>
-      </c>
-      <c r="B260" t="s">
-        <v>500</v>
-      </c>
-      <c r="C260" t="s">
-        <v>27</v>
+      <c r="C260" s="26" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A261" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="B261" s="11"/>
-      <c r="C261" s="12" t="s">
-        <v>363</v>
+      <c r="A261" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B261" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C261" s="26" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="11" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B262" s="11"/>
       <c r="C262" s="12" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="10" t="s">
-        <v>586</v>
-      </c>
-      <c r="B263" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="C263" s="10" t="s">
-        <v>585</v>
+      <c r="A263" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="B263" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="C263" s="12" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A264" s="10" t="s">
-        <v>629</v>
-      </c>
-      <c r="B264" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="C264" s="10" t="s">
-        <v>620</v>
+      <c r="A264" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="B264" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C264" s="26" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A265" s="10" t="s">
-        <v>578</v>
-      </c>
-      <c r="B265" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="C265" s="10" t="s">
-        <v>574</v>
+      <c r="A265" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="B265" s="11"/>
+      <c r="C265" s="12" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A266" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="B266" s="11"/>
-      <c r="C266" s="12" t="s">
-        <v>367</v>
+      <c r="A266" t="s">
+        <v>26</v>
+      </c>
+      <c r="B266" t="s">
+        <v>500</v>
+      </c>
+      <c r="C266" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="11" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B267" s="11"/>
       <c r="C267" s="12" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="11" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B268" s="11"/>
       <c r="C268" s="12" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
-        <v>111</v>
-      </c>
-      <c r="B269" t="s">
-        <v>502</v>
-      </c>
-      <c r="C269" t="s">
-        <v>112</v>
+      <c r="A269" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="B269" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C269" s="14" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B270" s="14"/>
-      <c r="C270" s="14" t="s">
-        <v>84</v>
+      <c r="A270" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="B270" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C270" s="10" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A271" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="B271" s="11"/>
-      <c r="C271" s="12" t="s">
-        <v>375</v>
+      <c r="A271" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="B271" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C271" s="14" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A272" s="14" t="s">
-        <v>653</v>
-      </c>
-      <c r="B272" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="C272" s="14" t="s">
-        <v>643</v>
+      <c r="A272" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="B272" s="11"/>
+      <c r="C272" s="12" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="11" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B273" s="11"/>
       <c r="C273" s="12" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
-        <v>77</v>
-      </c>
-      <c r="B274" t="s">
-        <v>501</v>
-      </c>
-      <c r="C274" t="s">
-        <v>78</v>
+      <c r="A274" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="B274" s="11"/>
+      <c r="C274" s="12" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
-        <v>75</v>
-      </c>
-      <c r="B275" t="s">
-        <v>501</v>
-      </c>
-      <c r="C275" t="s">
-        <v>76</v>
+      <c r="A275" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B275" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C275" s="26" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="B276" s="14" t="s">
-        <v>589</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B276" s="14"/>
       <c r="C276" s="14" t="s">
-        <v>591</v>
+        <v>84</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A277" s="14" t="s">
-        <v>602</v>
-      </c>
-      <c r="B277" s="14" t="s">
-        <v>589</v>
-      </c>
-      <c r="C277" s="14" t="s">
-        <v>592</v>
+      <c r="A277" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="B277" s="11"/>
+      <c r="C277" s="12" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="14" t="s">
-        <v>515</v>
+        <v>653</v>
       </c>
       <c r="B278" s="14" t="s">
-        <v>514</v>
+        <v>634</v>
       </c>
       <c r="C278" s="14" t="s">
-        <v>516</v>
+        <v>643</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
-        <v>119</v>
-      </c>
-      <c r="B279" t="s">
-        <v>502</v>
-      </c>
-      <c r="C279" t="s">
-        <v>120</v>
+      <c r="A279" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="B279" s="11"/>
+      <c r="C279" s="12" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A280" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="B280" s="11"/>
-      <c r="C280" s="12" t="s">
-        <v>379</v>
+      <c r="A280" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B280" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="C280" s="26" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A281" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="B281" s="11"/>
-      <c r="C281" s="12" t="s">
-        <v>381</v>
+      <c r="A281" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B281" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="C281" s="26" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B282" s="14"/>
+        <v>601</v>
+      </c>
+      <c r="B282" s="14" t="s">
+        <v>589</v>
+      </c>
       <c r="C282" s="14" t="s">
-        <v>99</v>
+        <v>591</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A283" s="10" t="s">
-        <v>582</v>
-      </c>
-      <c r="B283" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="C283" s="10" t="s">
-        <v>581</v>
+      <c r="A283" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="B283" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="C283" s="14" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A284" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="B284" s="11"/>
-      <c r="C284" s="12" t="s">
-        <v>385</v>
+      <c r="A284" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="B284" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="C284" s="14" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B285" s="14"/>
-      <c r="C285" s="14" t="s">
-        <v>69</v>
+      <c r="A285" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B285" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C285" s="26" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="11" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="B286" s="11"/>
       <c r="C286" s="12" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="11" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B287" s="11"/>
       <c r="C287" s="12" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B288" s="14"/>
+      <c r="C288" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="B289" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C289" s="14" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="B290" s="11"/>
+      <c r="C290" s="12" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B291" s="14"/>
+      <c r="C291" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="B292" s="11"/>
+      <c r="C292" s="12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="B293" s="11"/>
+      <c r="C293" s="12" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A288" s="11" t="s">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="B288" s="11"/>
-      <c r="C288" s="12" t="s">
+      <c r="B294" s="11"/>
+      <c r="C294" s="12" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A289" s="10" t="s">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" s="14" t="s">
         <v>820</v>
       </c>
-      <c r="B289" s="10" t="s">
+      <c r="B295" s="14" t="s">
         <v>807</v>
       </c>
-      <c r="C289" s="10" t="s">
+      <c r="C295" s="14" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A290" s="10" t="s">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" s="14" t="s">
+        <v>923</v>
+      </c>
+      <c r="B296" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="C296" s="14" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" s="14" t="s">
         <v>741</v>
       </c>
-      <c r="B290" s="10" t="s">
+      <c r="B297" s="14" t="s">
         <v>729</v>
       </c>
-      <c r="C290" s="10" t="s">
+      <c r="C297" s="14" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A291" s="10" t="s">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" s="14" t="s">
         <v>761</v>
       </c>
-      <c r="B291" s="10" t="s">
+      <c r="B298" s="14" t="s">
         <v>753</v>
       </c>
-      <c r="C291" s="10" t="s">
+      <c r="C298" s="14" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A292" s="10" t="s">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" s="10" t="s">
         <v>708</v>
       </c>
-      <c r="B292" s="10" t="s">
+      <c r="B299" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="C292" s="10" t="s">
+      <c r="C299" s="10" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A293" s="10" t="s">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" s="14" t="s">
         <v>708</v>
       </c>
-      <c r="B293" s="10" t="s">
+      <c r="B300" s="14" t="s">
         <v>729</v>
       </c>
-      <c r="C293" s="10" t="s">
+      <c r="C300" s="14" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A294" s="10" t="s">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" s="14" t="s">
         <v>833</v>
       </c>
-      <c r="B294" s="10" t="s">
+      <c r="B301" s="14" t="s">
         <v>807</v>
       </c>
-      <c r="C294" s="10" t="s">
+      <c r="C301" s="14" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" t="s">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
         <v>16</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B302" t="s">
         <v>500</v>
       </c>
-      <c r="C295" t="s">
+      <c r="C302" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A296" s="10" t="s">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" s="14" t="s">
         <v>588</v>
       </c>
-      <c r="B296" s="10" t="s">
+      <c r="B303" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C296" s="10" t="s">
+      <c r="C303" s="14" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A297" s="11" t="s">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="B297" s="11"/>
-      <c r="C297" s="12" t="s">
+      <c r="B304" s="11"/>
+      <c r="C304" s="12" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A298" s="11" t="s">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="B298" s="11"/>
-      <c r="C298" s="12" t="s">
+      <c r="B305" s="11"/>
+      <c r="C305" s="12" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A299" s="11" t="s">
+    <row r="306" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A306" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="B299" s="11"/>
-      <c r="C299" s="12" t="s">
+      <c r="B306" s="11"/>
+      <c r="C306" s="12" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A300" s="10" t="s">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" s="10" t="s">
         <v>692</v>
       </c>
-      <c r="B300" s="10" t="s">
+      <c r="B307" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="C300" s="10" t="s">
+      <c r="C307" s="10" t="s">
         <v>679</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A301" s="10" t="s">
-        <v>705</v>
-      </c>
-      <c r="B301" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="C301" s="10" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A302" s="14" t="s">
-        <v>572</v>
-      </c>
-      <c r="B302" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="C302" s="14" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A303" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="B303" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="C303" s="10" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A304" s="10" t="s">
-        <v>711</v>
-      </c>
-      <c r="B304" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="C304" s="10" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A305" s="10" t="s">
-        <v>723</v>
-      </c>
-      <c r="B305" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="C305" s="10" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A306" s="10" t="s">
-        <v>712</v>
-      </c>
-      <c r="B306" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="C306" s="10" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A307" s="11" t="s">
-        <v>899</v>
-      </c>
-      <c r="B307" s="10" t="s">
-        <v>896</v>
-      </c>
-      <c r="C307" s="14" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="10" t="s">
-        <v>806</v>
+        <v>705</v>
       </c>
       <c r="B308" s="10" t="s">
-        <v>776</v>
+        <v>680</v>
       </c>
       <c r="C308" s="10" t="s">
-        <v>777</v>
+        <v>686</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A309" s="10" t="s">
-        <v>797</v>
-      </c>
-      <c r="B309" s="10" t="s">
-        <v>776</v>
-      </c>
-      <c r="C309" s="10" t="s">
-        <v>784</v>
+      <c r="A309" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="B309" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C309" s="14" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
-        <v>57</v>
-      </c>
-      <c r="B310" t="s">
-        <v>501</v>
-      </c>
-      <c r="C310" t="s">
-        <v>58</v>
+      <c r="A310" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="B310" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C310" s="10" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="10" t="s">
-        <v>749</v>
+        <v>711</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="C311" s="10" t="s">
-        <v>744</v>
+        <v>710</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="B312" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C312" s="10" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="B313" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C313" s="10" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" s="14" t="s">
+        <v>926</v>
+      </c>
+      <c r="B314" s="14" t="s">
+        <v>896</v>
+      </c>
+      <c r="C314" s="14" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" s="11" t="s">
+        <v>899</v>
+      </c>
+      <c r="B315" s="14" t="s">
+        <v>896</v>
+      </c>
+      <c r="C315" s="14" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="B316" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="C316" s="14" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="B317" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="C317" s="14" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B318" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="C318" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" s="14" t="s">
+        <v>749</v>
+      </c>
+      <c r="B319" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="C319" s="14" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" s="14" t="s">
         <v>808</v>
       </c>
-      <c r="B312" s="10" t="s">
+      <c r="B320" s="14" t="s">
         <v>807</v>
       </c>
-      <c r="C312" s="10" t="s">
+      <c r="C320" s="14" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A313" s="11" t="s">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="B313" s="11"/>
-      <c r="C313" s="12" t="s">
+      <c r="B321" s="11"/>
+      <c r="C321" s="12" t="s">
         <v>401</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A314" s="10" t="s">
-        <v>627</v>
-      </c>
-      <c r="B314" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="C314" s="10" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A315" s="10" t="s">
-        <v>773</v>
-      </c>
-      <c r="B315" s="10" t="s">
-        <v>753</v>
-      </c>
-      <c r="C315" s="10" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A316" s="10" t="s">
-        <v>774</v>
-      </c>
-      <c r="B316" s="10" t="s">
-        <v>753</v>
-      </c>
-      <c r="C316" s="10" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A317" s="10" t="s">
-        <v>826</v>
-      </c>
-      <c r="B317" s="10" t="s">
-        <v>807</v>
-      </c>
-      <c r="C317" s="10" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A318" s="10" t="s">
-        <v>816</v>
-      </c>
-      <c r="B318" s="10" t="s">
-        <v>807</v>
-      </c>
-      <c r="C318" s="10" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A319" s="10" t="s">
-        <v>758</v>
-      </c>
-      <c r="B319" s="10" t="s">
-        <v>753</v>
-      </c>
-      <c r="C319" s="10" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A320" s="10" t="s">
-        <v>532</v>
-      </c>
-      <c r="B320" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="C320" s="10" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A321" t="s">
-        <v>35</v>
-      </c>
-      <c r="B321" t="s">
-        <v>500</v>
-      </c>
-      <c r="C321" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="10" t="s">
-        <v>775</v>
-      </c>
-      <c r="B322" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="B322" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C322" s="10" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="B323" s="14" t="s">
         <v>753</v>
       </c>
-      <c r="C322" s="10" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A323" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="B323" s="11"/>
-      <c r="C323" s="12" t="s">
-        <v>403</v>
+      <c r="C323" s="14" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A324" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="B324" s="11"/>
-      <c r="C324" s="12" t="s">
-        <v>405</v>
+      <c r="A324" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="B324" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="C324" s="14" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A325" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="B325" s="11"/>
-      <c r="C325" s="12" t="s">
-        <v>407</v>
+      <c r="A325" s="10" t="s">
+        <v>927</v>
+      </c>
+      <c r="B325" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="C325" s="14" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A326" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="B326" s="11"/>
-      <c r="C326" s="12" t="s">
-        <v>409</v>
+      <c r="A326" s="14" t="s">
+        <v>826</v>
+      </c>
+      <c r="B326" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="C326" s="14" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A327" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="B327" s="11"/>
-      <c r="C327" s="12" t="s">
-        <v>411</v>
+      <c r="A327" s="14" t="s">
+        <v>816</v>
+      </c>
+      <c r="B327" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="C327" s="14" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A328" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="B328" s="11"/>
-      <c r="C328" s="12" t="s">
-        <v>413</v>
+      <c r="A328" s="14" t="s">
+        <v>758</v>
+      </c>
+      <c r="B328" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="C328" s="14" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="14" t="s">
-        <v>573</v>
+        <v>532</v>
       </c>
       <c r="B329" s="14" t="s">
-        <v>559</v>
+        <v>514</v>
       </c>
       <c r="C329" s="14" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A330" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="B330" s="11"/>
-      <c r="C330" s="12" t="s">
-        <v>415</v>
+      <c r="A330" t="s">
+        <v>35</v>
+      </c>
+      <c r="B330" t="s">
+        <v>500</v>
+      </c>
+      <c r="C330" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A331" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="B331" s="11"/>
-      <c r="C331" s="12" t="s">
-        <v>417</v>
+      <c r="A331" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="B331" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="C331" s="14" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A332" s="10" t="s">
-        <v>800</v>
-      </c>
-      <c r="B332" s="10" t="s">
-        <v>776</v>
-      </c>
-      <c r="C332" s="10" t="s">
-        <v>788</v>
+      <c r="A332" s="14" t="s">
+        <v>915</v>
+      </c>
+      <c r="B332" s="14" t="s">
+        <v>896</v>
+      </c>
+      <c r="C332" s="14" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="11" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="B333" s="11"/>
       <c r="C333" s="12" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A334" t="s">
-        <v>89</v>
-      </c>
-      <c r="B334" t="s">
-        <v>501</v>
-      </c>
-      <c r="C334" t="s">
-        <v>90</v>
+      <c r="A334" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="B334" s="11"/>
+      <c r="C334" s="12" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A335" s="10" t="s">
-        <v>696</v>
-      </c>
-      <c r="B335" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="C335" s="10" t="s">
-        <v>694</v>
+      <c r="A335" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="B335" s="11"/>
+      <c r="C335" s="12" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A336" s="10" t="s">
-        <v>805</v>
-      </c>
-      <c r="B336" s="10" t="s">
-        <v>776</v>
-      </c>
-      <c r="C336" s="10" t="s">
-        <v>791</v>
+      <c r="A336" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="B336" s="11"/>
+      <c r="C336" s="12" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A337" s="10" t="s">
-        <v>799</v>
-      </c>
-      <c r="B337" s="10" t="s">
-        <v>776</v>
-      </c>
-      <c r="C337" s="10" t="s">
-        <v>786</v>
+      <c r="A337" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="B337" s="11"/>
+      <c r="C337" s="12" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A338" s="10" t="s">
-        <v>862</v>
-      </c>
-      <c r="B338" s="10" t="s">
-        <v>839</v>
-      </c>
-      <c r="C338" s="10" t="s">
-        <v>842</v>
+      <c r="A338" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="B338" s="11"/>
+      <c r="C338" s="12" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A339" s="10" t="s">
-        <v>625</v>
-      </c>
-      <c r="B339" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="C339" s="10" t="s">
-        <v>617</v>
+      <c r="A339" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="B339" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C339" s="14" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="11" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B340" s="11"/>
       <c r="C340" s="12" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A341" s="14" t="s">
-        <v>547</v>
-      </c>
-      <c r="B341" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="C341" s="14" t="s">
-        <v>537</v>
+      <c r="A341" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="B341" s="11"/>
+      <c r="C341" s="12" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A342" t="s">
-        <v>41</v>
-      </c>
-      <c r="B342" t="s">
+      <c r="A342" s="14" t="s">
+        <v>800</v>
+      </c>
+      <c r="B342" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="C342" s="14" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="B343" s="11"/>
+      <c r="C343" s="12" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B344" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="C342" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A343" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B343" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="C343" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A344" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="B344" s="11"/>
-      <c r="C344" s="12" t="s">
-        <v>423</v>
+      <c r="C344" s="26" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="10" t="s">
-        <v>633</v>
+        <v>696</v>
       </c>
       <c r="B345" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C345" s="10" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A346" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="B346" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="C346" s="14" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347" s="14" t="s">
+        <v>799</v>
+      </c>
+      <c r="B347" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="C347" s="14" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A348" s="14" t="s">
+        <v>862</v>
+      </c>
+      <c r="B348" s="14" t="s">
+        <v>839</v>
+      </c>
+      <c r="C348" s="14" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A349" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="B349" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="C345" s="10" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A346" s="10" t="s">
-        <v>633</v>
-      </c>
-      <c r="B346" s="10" t="s">
-        <v>634</v>
-      </c>
-      <c r="C346" s="10" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A347" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="B347" s="11"/>
-      <c r="C347" s="12" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A348" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="B348" s="11"/>
-      <c r="C348" s="12" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A349" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="B349" s="11"/>
-      <c r="C349" s="12" t="s">
-        <v>429</v>
+      <c r="C349" s="10" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="11" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B350" s="11"/>
       <c r="C350" s="12" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A351" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="B351" s="11"/>
-      <c r="C351" s="12" t="s">
-        <v>433</v>
+      <c r="A351" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="B351" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="C351" s="14" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A352" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="B352" s="11"/>
-      <c r="C352" s="12" t="s">
-        <v>435</v>
+      <c r="A352" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B352" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C352" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A353" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="B353" s="11"/>
-      <c r="C353" s="12" t="s">
-        <v>437</v>
+      <c r="A353" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B353" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="C353" s="26" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="11" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="B354" s="11"/>
       <c r="C354" s="12" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A355" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B355" s="11"/>
-      <c r="C355" s="12" t="s">
-        <v>440</v>
+      <c r="A355" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="B355" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C355" s="10" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A356" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="B356" s="11"/>
-      <c r="C356" s="12" t="s">
-        <v>442</v>
+      <c r="A356" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="B356" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="C356" s="10" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="11" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="B357" s="11"/>
       <c r="C357" s="12" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A358" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B358" s="14"/>
-      <c r="C358" s="14" t="s">
-        <v>86</v>
+      <c r="A358" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="B358" s="11"/>
+      <c r="C358" s="12" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="11" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="B359" s="11"/>
       <c r="C359" s="12" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="11" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="B360" s="11"/>
       <c r="C360" s="12" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A361" s="14" t="s">
-        <v>565</v>
-      </c>
-      <c r="B361" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="C361" s="14" t="s">
-        <v>566</v>
+      <c r="A361" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="B361" s="11"/>
+      <c r="C361" s="12" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A362" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="B362" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="C362" s="10" t="s">
-        <v>542</v>
+      <c r="A362" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="B362" s="11"/>
+      <c r="C362" s="12" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A363" s="10" t="s">
-        <v>624</v>
-      </c>
-      <c r="B363" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="C363" s="10" t="s">
-        <v>616</v>
+      <c r="A363" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="B363" s="11"/>
+      <c r="C363" s="12" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A364" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="B364" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="C364" s="10" t="s">
-        <v>555</v>
+      <c r="A364" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="B364" s="11"/>
+      <c r="C364" s="12" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A365" s="10" t="s">
-        <v>646</v>
-      </c>
-      <c r="B365" s="10" t="s">
-        <v>634</v>
-      </c>
-      <c r="C365" s="10" t="s">
-        <v>635</v>
+      <c r="A365" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B365" s="11"/>
+      <c r="C365" s="12" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A366" s="14" t="s">
-        <v>545</v>
-      </c>
-      <c r="B366" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="C366" s="14" t="s">
-        <v>543</v>
+      <c r="A366" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="B366" s="11"/>
+      <c r="C366" s="12" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A367" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="B367" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="C367" s="10" t="s">
-        <v>553</v>
+      <c r="A367" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="B367" s="11"/>
+      <c r="C367" s="12" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="14" t="s">
-        <v>546</v>
-      </c>
-      <c r="B368" s="14" t="s">
-        <v>535</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B368" s="14"/>
       <c r="C368" s="14" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="11" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B369" s="11"/>
       <c r="C369" s="12" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A370" s="14" t="s">
-        <v>453</v>
-      </c>
-      <c r="B370" s="14" t="s">
-        <v>895</v>
-      </c>
+      <c r="A370" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B370" s="11"/>
       <c r="C370" s="12" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A371" t="s">
-        <v>117</v>
-      </c>
-      <c r="B371" t="s">
-        <v>502</v>
-      </c>
-      <c r="C371" t="s">
-        <v>118</v>
+      <c r="A371" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="B371" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C371" s="14" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A372" t="s">
-        <v>455</v>
-      </c>
-      <c r="B372" t="s">
-        <v>886</v>
-      </c>
-      <c r="C372" s="12" t="s">
-        <v>456</v>
+      <c r="A372" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="B372" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="C372" s="14" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="10" t="s">
-        <v>801</v>
-      </c>
-      <c r="B373" s="10" t="s">
-        <v>776</v>
+        <v>624</v>
+      </c>
+      <c r="B373" s="14" t="s">
+        <v>610</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>789</v>
+        <v>616</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A374" t="s">
-        <v>121</v>
-      </c>
-      <c r="B374" t="s">
-        <v>502</v>
-      </c>
-      <c r="C374" t="s">
-        <v>122</v>
+      <c r="A374" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="B374" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="C374" s="14" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A375" t="s">
-        <v>105</v>
-      </c>
-      <c r="B375" s="14" t="s">
-        <v>514</v>
-      </c>
-      <c r="C375" s="14" t="s">
-        <v>517</v>
+      <c r="A375" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="B375" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="C375" s="10" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A376" t="s">
-        <v>105</v>
-      </c>
-      <c r="B376" t="s">
-        <v>502</v>
-      </c>
-      <c r="C376" t="s">
-        <v>106</v>
+      <c r="A376" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="B376" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="C376" s="14" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A377" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="B377" s="11"/>
-      <c r="C377" s="12" t="s">
-        <v>458</v>
+      <c r="A377" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="B377" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="C377" s="14" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A378" s="10" t="s">
-        <v>835</v>
-      </c>
-      <c r="B378" s="10" t="s">
-        <v>807</v>
-      </c>
-      <c r="C378" s="10" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="B378" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="C378" s="14" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A379" s="11" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B379" s="11"/>
       <c r="C379" s="12" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A380" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="B380" s="11"/>
+      <c r="A380" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="B380" s="14" t="s">
+        <v>895</v>
+      </c>
       <c r="C380" s="12" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A381" t="s">
-        <v>104</v>
-      </c>
-      <c r="B381" t="s">
-        <v>501</v>
-      </c>
-      <c r="C381" t="s">
-        <v>97</v>
+      <c r="A381" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B381" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C381" s="26" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A382" s="10" t="s">
-        <v>632</v>
-      </c>
-      <c r="B382" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="C382" s="10" t="s">
-        <v>614</v>
+      <c r="A382" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="B382" s="26" t="s">
+        <v>886</v>
+      </c>
+      <c r="C382" s="12" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A383" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="B383" s="11"/>
-      <c r="C383" s="12" t="s">
-        <v>464</v>
+      <c r="A383" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="B383" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="C383" s="14" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A384" t="s">
-        <v>15</v>
-      </c>
-      <c r="B384" t="s">
-        <v>500</v>
-      </c>
-      <c r="C384" t="s">
-        <v>22</v>
+      <c r="A384" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B384" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C384" s="26" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A385" s="10" t="s">
-        <v>650</v>
-      </c>
-      <c r="B385" s="10" t="s">
-        <v>634</v>
-      </c>
-      <c r="C385" s="10" t="s">
-        <v>640</v>
+      <c r="A385" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B385" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C385" s="26" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A386" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="B386" s="11"/>
-      <c r="C386" s="12" t="s">
-        <v>466</v>
+      <c r="A386" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B386" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="C386" s="14" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A387" s="14" t="s">
-        <v>561</v>
-      </c>
-      <c r="B387" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="C387" s="14" t="s">
-        <v>562</v>
+      <c r="A387" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="B387" s="11"/>
+      <c r="C387" s="12" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A388" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="B388" s="11"/>
-      <c r="C388" s="12" t="s">
-        <v>468</v>
+      <c r="A388" s="14" t="s">
+        <v>835</v>
+      </c>
+      <c r="B388" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="C388" s="14" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A389" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="B389" s="11"/>
-      <c r="C389" s="12" t="s">
-        <v>470</v>
+      <c r="A389" s="10" t="s">
+        <v>928</v>
+      </c>
+      <c r="B389" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="C389" s="14" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="11" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="B390" s="11"/>
       <c r="C390" s="12" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="11" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="B391" s="11"/>
       <c r="C391" s="12" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A392" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="B392" s="11"/>
-      <c r="C392" s="12" t="s">
-        <v>476</v>
+      <c r="A392" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B392" t="s">
+        <v>501</v>
+      </c>
+      <c r="C392" s="26" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A393" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="B393" s="11"/>
-      <c r="C393" s="12" t="s">
-        <v>478</v>
+      <c r="A393" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="B393" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C393" s="10" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" s="11" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="B394" s="11"/>
       <c r="C394" s="12" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A395" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="B395" s="11"/>
-      <c r="C395" s="12" t="s">
-        <v>482</v>
+      <c r="A395" t="s">
+        <v>15</v>
+      </c>
+      <c r="B395" t="s">
+        <v>500</v>
+      </c>
+      <c r="C395" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" s="10" t="s">
-        <v>674</v>
+        <v>650</v>
       </c>
       <c r="B396" s="10" t="s">
-        <v>656</v>
+        <v>634</v>
       </c>
       <c r="C396" s="10" t="s">
-        <v>665</v>
+        <v>640</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A397" s="10" t="s">
-        <v>802</v>
-      </c>
-      <c r="B397" s="10" t="s">
-        <v>776</v>
-      </c>
-      <c r="C397" s="10" t="s">
-        <v>803</v>
+      <c r="A397" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="B397" s="11"/>
+      <c r="C397" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A398" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="B398" s="11"/>
-      <c r="C398" s="12" t="s">
-        <v>484</v>
+      <c r="A398" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="B398" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C398" s="14" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A399" s="10" t="s">
-        <v>584</v>
-      </c>
-      <c r="B399" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="C399" s="10" t="s">
-        <v>570</v>
+      <c r="A399" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="B399" s="11"/>
+      <c r="C399" s="12" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A400" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="B400" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="C400" s="10" t="s">
-        <v>571</v>
+      <c r="A400" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="B400" s="11"/>
+      <c r="C400" s="12" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A401" s="14" t="s">
-        <v>651</v>
-      </c>
-      <c r="B401" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="C401" s="14" t="s">
-        <v>641</v>
+      <c r="A401" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="B401" s="11"/>
+      <c r="C401" s="12" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" s="11" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B402" s="11"/>
       <c r="C402" s="12" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A403" t="s">
-        <v>62</v>
-      </c>
-      <c r="B403" t="s">
-        <v>501</v>
-      </c>
-      <c r="C403" t="s">
-        <v>60</v>
+      <c r="A403" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="B403" s="11"/>
+      <c r="C403" s="12" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="11" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="B404" s="11"/>
       <c r="C404" s="12" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" s="11" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="B405" s="11"/>
       <c r="C405" s="12" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A406" s="10" t="s">
-        <v>732</v>
-      </c>
-      <c r="B406" s="10" t="s">
-        <v>729</v>
-      </c>
-      <c r="C406" s="10" t="s">
-        <v>733</v>
+      <c r="A406" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="B406" s="11"/>
+      <c r="C406" s="12" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A407" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="B407" s="11"/>
-      <c r="C407" s="12" t="s">
-        <v>492</v>
+      <c r="A407" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="B407" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="C407" s="10" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A408" s="10" t="s">
-        <v>697</v>
-      </c>
-      <c r="B408" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="C408" s="10" t="s">
-        <v>683</v>
+      <c r="A408" s="14" t="s">
+        <v>802</v>
+      </c>
+      <c r="B408" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="C408" s="14" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A409" t="s">
-        <v>107</v>
-      </c>
-      <c r="B409" t="s">
-        <v>502</v>
-      </c>
-      <c r="C409" t="s">
-        <v>109</v>
+      <c r="A409" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B409" s="11"/>
+      <c r="C409" s="12" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A410" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B410" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="C410" s="10" t="s">
-        <v>534</v>
+      <c r="A410" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="B410" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C410" s="14" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="B411" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C411" s="14" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A412" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="B412" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="C412" s="14" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A413" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="B413" s="11"/>
+      <c r="C413" s="12" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A414" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B414" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="C414" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A415" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="B415" s="11"/>
+      <c r="C415" s="12" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A416" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="B416" s="11"/>
+      <c r="C416" s="12" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A417" s="14" t="s">
+        <v>732</v>
+      </c>
+      <c r="B417" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="C417" s="14" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A418" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="B418" s="11"/>
+      <c r="C418" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A419" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="B419" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C419" s="10" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A420" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B420" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C420" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A421" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B421" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="C421" s="14" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A422" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B411" s="14"/>
-      <c r="C411" s="14" t="s">
+      <c r="B422" s="14"/>
+      <c r="C422" s="14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A412" s="11" t="s">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A423" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="B412" s="11"/>
-      <c r="C412" s="12" t="s">
+      <c r="B423" s="11"/>
+      <c r="C423" s="12" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A413" s="14"/>
-      <c r="C413" s="14"/>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A414" s="14"/>
-      <c r="C414" s="14"/>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A415" s="14"/>
-      <c r="B415" s="14"/>
-      <c r="C415" s="14"/>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C416" s="14"/>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C417" s="14"/>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C418" s="14"/>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C419"/>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A420" s="14"/>
-      <c r="B420" s="14"/>
-      <c r="C420" s="25"/>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A421" s="14"/>
-      <c r="B421" s="14"/>
-      <c r="C421" s="25"/>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A422" s="14"/>
-      <c r="B422" s="14"/>
-      <c r="C422" s="14"/>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A423" s="14"/>
-      <c r="B423" s="14"/>
-      <c r="C423" s="14"/>
-    </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A424" s="14"/>
-      <c r="B424" s="14"/>
       <c r="C424" s="14"/>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A425" s="14"/>
-      <c r="B425" s="14"/>
-      <c r="C425" s="14"/>
+      <c r="C425"/>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" s="14"/>
       <c r="B426" s="14"/>
-      <c r="C426" s="14"/>
+      <c r="C426" s="25"/>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" s="14"/>
       <c r="B427" s="14"/>
-      <c r="C427" s="14"/>
+      <c r="C427" s="25"/>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" s="14"/>
       <c r="B428" s="14"/>
-      <c r="C428" s="25"/>
+      <c r="C428" s="14"/>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" s="14"/>
@@ -10314,7 +10446,7 @@
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" s="14"/>
       <c r="B434" s="14"/>
-      <c r="C434" s="14"/>
+      <c r="C434" s="25"/>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" s="14"/>
@@ -10372,15 +10504,9 @@
       <c r="C445" s="14"/>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A446" s="14" t="s">
-        <v>907</v>
-      </c>
-      <c r="B446" s="14" t="s">
-        <v>896</v>
-      </c>
-      <c r="C446" s="14" t="s">
-        <v>908</v>
-      </c>
+      <c r="A446" s="14"/>
+      <c r="B446" s="14"/>
+      <c r="C446" s="14"/>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" s="14"/>
@@ -10405,7 +10531,7 @@
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" s="14"/>
       <c r="B451" s="14"/>
-      <c r="C451" s="25"/>
+      <c r="C451" s="14"/>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" s="14"/>
@@ -10687,7 +10813,7 @@
       <c r="C551" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C446" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}"/>
+  <autoFilter ref="A1:C451" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C551">
     <sortCondition ref="A2:A551"/>
   </sortState>

--- a/Zhodani Words List.xlsx
+++ b/Zhodani Words List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEE2EAE-3F29-40CC-B763-33233A1DA129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACCE926-B7A4-4DB6-9EA6-545D4E270F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Current vocabulary list'!$A$1:$C$451</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Current vocabulary list'!$A$1:$C$456</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lessons!$A$1:$C$223</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Zhdetl (from Alien Book 4)'!$A$1:$B$186</definedName>
   </definedNames>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="939">
   <si>
     <t>Zhdetl word</t>
   </si>
@@ -2860,6 +2860,36 @@
   </si>
   <si>
     <t>yomichti</t>
+  </si>
+  <si>
+    <t>drunk</t>
+  </si>
+  <si>
+    <t>enraged</t>
+  </si>
+  <si>
+    <t>sarcastic</t>
+  </si>
+  <si>
+    <t>disgusted</t>
+  </si>
+  <si>
+    <t>nauseous, ill</t>
+  </si>
+  <si>
+    <t>ichthiota</t>
+  </si>
+  <si>
+    <t>tlazhoye'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khugeganki </t>
+  </si>
+  <si>
+    <t>tlaletia</t>
+  </si>
+  <si>
+    <t>moyazhoi</t>
   </si>
 </sst>
 </file>
@@ -6087,7 +6117,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A389" activeCellId="4" sqref="A296:XFD296 A52:XFD52 A314:XFD314 A325:XFD325 A389:XFD389"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7546,2897 +7576,2927 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="17" t="s">
+        <v>934</v>
+      </c>
+      <c r="B145" s="21" t="s">
+        <v>896</v>
+      </c>
+      <c r="C145" s="18" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="17" t="s">
         <v>735</v>
       </c>
-      <c r="B145" s="21" t="s">
+      <c r="B146" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="C145" s="18" t="s">
+      <c r="C146" s="18" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="15" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="15" t="s">
         <v>905</v>
       </c>
-      <c r="B146" s="21" t="s">
+      <c r="B147" s="21" t="s">
         <v>896</v>
       </c>
-      <c r="C146" s="18" t="s">
+      <c r="C147" s="18" t="s">
         <v>906</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="17" t="s">
-        <v>778</v>
-      </c>
-      <c r="B147" s="21" t="s">
-        <v>776</v>
-      </c>
-      <c r="C147" s="18" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="B148" s="21" t="s">
+        <v>776</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="17" t="s">
         <v>822</v>
       </c>
-      <c r="B148" s="21" t="s">
+      <c r="B149" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="C148" s="18" t="s">
+      <c r="C149" s="18" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="15" t="s">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="B149" s="20"/>
-      <c r="C149" s="16" t="s">
+      <c r="B150" s="20"/>
+      <c r="C150" s="16" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="17" t="s">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="17" t="s">
         <v>907</v>
       </c>
-      <c r="B150" s="21" t="s">
+      <c r="B151" s="21" t="s">
         <v>896</v>
       </c>
-      <c r="C150" s="18" t="s">
+      <c r="C151" s="18" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="15" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="B151" s="20"/>
-      <c r="C151" s="16" t="s">
+      <c r="B152" s="20"/>
+      <c r="C152" s="16" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="B152" s="23" t="s">
-        <v>502</v>
-      </c>
-      <c r="C152" s="24" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B153" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="C153" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B153" s="23" t="s">
+      <c r="B154" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="C153" s="24" t="s">
+      <c r="C154" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="17" t="s">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="17" t="s">
         <v>837</v>
       </c>
-      <c r="B154" s="14" t="s">
+      <c r="B155" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="C154" s="18" t="s">
+      <c r="C155" s="18" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A155" s="15" t="s">
+    <row r="156" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A156" s="15" t="s">
         <v>275</v>
-      </c>
-      <c r="B155" s="20"/>
-      <c r="C155" s="16" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="15" t="s">
-        <v>276</v>
       </c>
       <c r="B156" s="20"/>
       <c r="C156" s="16" t="s">
-        <v>277</v>
+        <v>719</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="B157" s="21" t="s">
-        <v>656</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="B157" s="20"/>
       <c r="C157" s="16" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="B158" s="20"/>
+        <v>278</v>
+      </c>
+      <c r="B158" s="21" t="s">
+        <v>656</v>
+      </c>
       <c r="C158" s="16" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B159" s="20"/>
       <c r="C159" s="16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B160" s="20"/>
       <c r="C160" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B161" s="20"/>
       <c r="C161" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B162" s="20"/>
       <c r="C162" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B163" s="20"/>
+      <c r="C163" s="16" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="17" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="17" t="s">
         <v>521</v>
       </c>
-      <c r="B163" s="21" t="s">
+      <c r="B164" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="C163" s="18" t="s">
+      <c r="C164" s="18" t="s">
         <v>522</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B164" s="23" t="s">
-        <v>501</v>
-      </c>
-      <c r="C164" s="24" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B165" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="C165" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="B165" s="23" t="s">
+      <c r="B166" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="C165" s="24" t="s">
+      <c r="C166" s="24" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="B166" s="21" t="s">
-        <v>514</v>
-      </c>
-      <c r="C166" s="18" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="17" t="s">
-        <v>704</v>
+        <v>125</v>
       </c>
       <c r="B167" s="21" t="s">
-        <v>680</v>
+        <v>514</v>
       </c>
       <c r="C167" s="18" t="s">
-        <v>690</v>
+        <v>518</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="17" t="s">
-        <v>829</v>
+        <v>704</v>
       </c>
       <c r="B168" s="21" t="s">
-        <v>807</v>
+        <v>680</v>
       </c>
       <c r="C168" s="18" t="s">
-        <v>830</v>
+        <v>690</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="17" t="s">
+        <v>829</v>
+      </c>
+      <c r="B169" s="21" t="s">
+        <v>807</v>
+      </c>
+      <c r="C169" s="18" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="17" t="s">
         <v>738</v>
       </c>
-      <c r="B169" s="21" t="s">
+      <c r="B170" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="C169" s="18" t="s">
+      <c r="C170" s="18" t="s">
         <v>739</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="B170" s="20"/>
-      <c r="C170" s="16" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B171" s="20"/>
       <c r="C171" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B172" s="20"/>
+      <c r="C172" s="16" t="s">
         <v>293</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="17" t="s">
-        <v>631</v>
-      </c>
-      <c r="B172" s="21" t="s">
-        <v>610</v>
-      </c>
-      <c r="C172" s="18" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="B173" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="C173" s="18" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="17" t="s">
         <v>715</v>
       </c>
-      <c r="B173" s="21" t="s">
+      <c r="B174" s="21" t="s">
         <v>709</v>
       </c>
-      <c r="C173" s="18" t="s">
+      <c r="C174" s="18" t="s">
         <v>714</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="B174" s="20"/>
-      <c r="C174" s="16" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="17" t="s">
-        <v>881</v>
+        <v>936</v>
       </c>
       <c r="B175" s="21" t="s">
-        <v>839</v>
+        <v>896</v>
       </c>
       <c r="C175" s="18" t="s">
-        <v>845</v>
+        <v>931</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B176" s="20"/>
       <c r="C176" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="17" t="s">
+        <v>881</v>
+      </c>
+      <c r="B177" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="C177" s="18" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B178" s="20"/>
+      <c r="C178" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="17" t="s">
         <v>750</v>
       </c>
-      <c r="B177" s="21" t="s">
+      <c r="B179" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="C177" s="18" t="s">
+      <c r="C179" s="18" t="s">
         <v>745</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B178" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="C178" s="24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B179" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="C179" s="24" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="22" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B180" s="23" t="s">
         <v>500</v>
       </c>
       <c r="C180" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B181" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="C181" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B182" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="C182" s="24" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="17" t="s">
-        <v>695</v>
-      </c>
-      <c r="B181" s="21" t="s">
-        <v>680</v>
-      </c>
-      <c r="C181" s="18" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="15" t="s">
-        <v>901</v>
-      </c>
-      <c r="B182" s="21" t="s">
-        <v>896</v>
-      </c>
-      <c r="C182" s="18" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="17" t="s">
-        <v>792</v>
+        <v>695</v>
       </c>
       <c r="B183" s="21" t="s">
-        <v>776</v>
+        <v>680</v>
       </c>
       <c r="C183" s="18" t="s">
-        <v>779</v>
+        <v>682</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="17" t="s">
-        <v>748</v>
+      <c r="A184" s="15" t="s">
+        <v>901</v>
       </c>
       <c r="B184" s="21" t="s">
-        <v>729</v>
+        <v>896</v>
       </c>
       <c r="C184" s="18" t="s">
-        <v>743</v>
+        <v>902</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="17" t="s">
-        <v>703</v>
+        <v>792</v>
       </c>
       <c r="B185" s="21" t="s">
-        <v>680</v>
+        <v>776</v>
       </c>
       <c r="C185" s="18" t="s">
-        <v>689</v>
+        <v>779</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="17" t="s">
-        <v>866</v>
+        <v>748</v>
       </c>
       <c r="B186" s="21" t="s">
-        <v>839</v>
+        <v>729</v>
       </c>
       <c r="C186" s="18" t="s">
-        <v>846</v>
+        <v>743</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="17" t="s">
-        <v>868</v>
+        <v>703</v>
       </c>
       <c r="B187" s="21" t="s">
-        <v>839</v>
+        <v>680</v>
       </c>
       <c r="C187" s="18" t="s">
-        <v>848</v>
+        <v>689</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="17" t="s">
-        <v>812</v>
+        <v>866</v>
       </c>
       <c r="B188" s="21" t="s">
-        <v>807</v>
+        <v>839</v>
       </c>
       <c r="C188" s="18" t="s">
-        <v>885</v>
+        <v>846</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="17" t="s">
-        <v>609</v>
+        <v>868</v>
       </c>
       <c r="B189" s="21" t="s">
-        <v>589</v>
+        <v>839</v>
       </c>
       <c r="C189" s="18" t="s">
-        <v>597</v>
+        <v>848</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="17" t="s">
-        <v>608</v>
+        <v>812</v>
       </c>
       <c r="B190" s="21" t="s">
+        <v>807</v>
+      </c>
+      <c r="C190" s="18" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="B191" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="C190" s="18" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="B191" s="11"/>
-      <c r="C191" s="16" t="s">
-        <v>299</v>
+      <c r="C191" s="18" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="17" t="s">
-        <v>867</v>
+        <v>608</v>
       </c>
       <c r="B192" s="21" t="s">
-        <v>839</v>
+        <v>589</v>
       </c>
       <c r="C192" s="18" t="s">
-        <v>847</v>
+        <v>596</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="15" t="s">
-        <v>903</v>
-      </c>
-      <c r="B193" s="21" t="s">
-        <v>896</v>
-      </c>
-      <c r="C193" s="18" t="s">
-        <v>904</v>
+        <v>298</v>
+      </c>
+      <c r="B193" s="20"/>
+      <c r="C193" s="16" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="17" t="s">
-        <v>300</v>
+        <v>867</v>
       </c>
       <c r="B194" s="21" t="s">
-        <v>895</v>
+        <v>839</v>
       </c>
       <c r="C194" s="18" t="s">
-        <v>74</v>
+        <v>847</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="B195" s="20"/>
-      <c r="C195" s="16" t="s">
-        <v>303</v>
+        <v>903</v>
+      </c>
+      <c r="B195" s="21" t="s">
+        <v>896</v>
+      </c>
+      <c r="C195" s="18" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="17" t="s">
-        <v>864</v>
+        <v>300</v>
       </c>
       <c r="B196" s="21" t="s">
-        <v>839</v>
+        <v>895</v>
       </c>
       <c r="C196" s="18" t="s">
-        <v>844</v>
+        <v>74</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="17" t="s">
-        <v>914</v>
-      </c>
-      <c r="B197" s="21" t="s">
-        <v>896</v>
-      </c>
-      <c r="C197" s="18" t="s">
-        <v>909</v>
+      <c r="A197" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B197" s="20"/>
+      <c r="C197" s="16" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="17" t="s">
-        <v>804</v>
+        <v>864</v>
       </c>
       <c r="B198" s="21" t="s">
-        <v>776</v>
+        <v>839</v>
       </c>
       <c r="C198" s="18" t="s">
-        <v>790</v>
+        <v>844</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="B199" s="20"/>
-      <c r="C199" s="16" t="s">
-        <v>305</v>
+      <c r="A199" s="17" t="s">
+        <v>914</v>
+      </c>
+      <c r="B199" s="21" t="s">
+        <v>896</v>
+      </c>
+      <c r="C199" s="18" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="17" t="s">
-        <v>675</v>
+        <v>804</v>
       </c>
       <c r="B200" s="21" t="s">
-        <v>656</v>
+        <v>776</v>
       </c>
       <c r="C200" s="18" t="s">
-        <v>667</v>
+        <v>790</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="17" t="s">
-        <v>870</v>
-      </c>
-      <c r="B201" s="21" t="s">
-        <v>839</v>
-      </c>
-      <c r="C201" s="18" t="s">
-        <v>850</v>
+      <c r="A201" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="B201" s="20"/>
+      <c r="C201" s="16" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="17" t="s">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="B202" s="21" t="s">
-        <v>839</v>
+        <v>656</v>
       </c>
       <c r="C202" s="18" t="s">
-        <v>855</v>
+        <v>667</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="17" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="B203" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C203" s="18" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="17" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B204" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C204" s="18" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="17" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B205" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C205" s="18" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="17" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="B206" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C206" s="18" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="17" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="B207" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C207" s="18" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="17" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="B208" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C208" s="18" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="17" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="B209" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C209" s="18" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="17" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B210" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C210" s="18" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="17" t="s">
-        <v>796</v>
+        <v>869</v>
       </c>
       <c r="B211" s="21" t="s">
-        <v>776</v>
+        <v>839</v>
       </c>
       <c r="C211" s="18" t="s">
-        <v>781</v>
+        <v>849</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="17" t="s">
-        <v>794</v>
+        <v>872</v>
       </c>
       <c r="B212" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="C212" s="18" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="B213" s="21" t="s">
         <v>776</v>
       </c>
-      <c r="C212" s="18" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="B213" s="20"/>
-      <c r="C213" s="16" t="s">
-        <v>307</v>
+      <c r="C213" s="18" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="17" t="s">
+        <v>794</v>
+      </c>
+      <c r="B214" s="21" t="s">
+        <v>776</v>
+      </c>
+      <c r="C214" s="18" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="B215" s="20"/>
+      <c r="C215" s="16" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="17" t="s">
         <v>765</v>
       </c>
-      <c r="B214" s="21" t="s">
+      <c r="B216" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="C214" s="18" t="s">
+      <c r="C216" s="18" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="22" t="s">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B215" s="23" t="s">
+      <c r="B217" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="C215" s="24" t="s">
+      <c r="C217" s="24" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="22" t="s">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B216" s="23" t="s">
+      <c r="B218" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="C216" s="24" t="s">
+      <c r="C218" s="24" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="17" t="s">
-        <v>755</v>
-      </c>
-      <c r="B217" s="21" t="s">
-        <v>753</v>
-      </c>
-      <c r="C217" s="18" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="17" t="s">
-        <v>672</v>
-      </c>
-      <c r="B218" s="21" t="s">
-        <v>656</v>
-      </c>
-      <c r="C218" s="18" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="17" t="s">
-        <v>882</v>
+        <v>755</v>
       </c>
       <c r="B219" s="21" t="s">
-        <v>514</v>
+        <v>753</v>
       </c>
       <c r="C219" s="18" t="s">
-        <v>524</v>
+        <v>754</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="17" t="s">
-        <v>607</v>
+        <v>672</v>
       </c>
       <c r="B220" s="21" t="s">
-        <v>589</v>
+        <v>656</v>
       </c>
       <c r="C220" s="18" t="s">
-        <v>595</v>
+        <v>658</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="17" t="s">
-        <v>863</v>
+        <v>882</v>
       </c>
       <c r="B221" s="21" t="s">
-        <v>839</v>
+        <v>514</v>
       </c>
       <c r="C221" s="18" t="s">
-        <v>843</v>
+        <v>524</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="B222" s="20"/>
-      <c r="C222" s="16" t="s">
-        <v>309</v>
+      <c r="A222" s="17" t="s">
+        <v>938</v>
+      </c>
+      <c r="B222" s="21" t="s">
+        <v>896</v>
+      </c>
+      <c r="C222" s="18" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="17" t="s">
-        <v>810</v>
+        <v>607</v>
       </c>
       <c r="B223" s="21" t="s">
-        <v>807</v>
+        <v>589</v>
       </c>
       <c r="C223" s="18" t="s">
-        <v>811</v>
+        <v>595</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="17" t="s">
-        <v>916</v>
+        <v>863</v>
       </c>
       <c r="B224" s="21" t="s">
-        <v>896</v>
+        <v>839</v>
       </c>
       <c r="C224" s="18" t="s">
-        <v>911</v>
+        <v>843</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B225" s="20"/>
       <c r="C225" s="16" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="17" t="s">
+        <v>810</v>
+      </c>
+      <c r="B226" s="21" t="s">
+        <v>807</v>
+      </c>
+      <c r="C226" s="18" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="14" t="s">
+        <v>916</v>
+      </c>
+      <c r="B227" s="21" t="s">
+        <v>896</v>
+      </c>
+      <c r="C227" s="14" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="B228" s="20"/>
+      <c r="C228" s="12" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="15" t="s">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="B226" s="20"/>
-      <c r="C226" s="16" t="s">
+      <c r="B229" s="20"/>
+      <c r="C229" s="12" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="11" t="s">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="B227" s="20"/>
-      <c r="C227" s="12" t="s">
+      <c r="B230" s="20"/>
+      <c r="C230" s="12" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="14" t="s">
-        <v>861</v>
-      </c>
-      <c r="B228" s="21" t="s">
-        <v>839</v>
-      </c>
-      <c r="C228" s="14" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="14" t="s">
-        <v>879</v>
-      </c>
-      <c r="B229" s="21" t="s">
-        <v>839</v>
-      </c>
-      <c r="C229" s="14" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="14" t="s">
-        <v>673</v>
-      </c>
-      <c r="B230" s="21" t="s">
-        <v>656</v>
-      </c>
-      <c r="C230" s="14" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="14" t="s">
+        <v>861</v>
+      </c>
+      <c r="B231" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="C231" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="14" t="s">
+        <v>879</v>
+      </c>
+      <c r="B232" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="C232" s="14" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="14" t="s">
+        <v>673</v>
+      </c>
+      <c r="B233" s="21" t="s">
+        <v>656</v>
+      </c>
+      <c r="C233" s="14" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="14" t="s">
         <v>706</v>
       </c>
-      <c r="B231" s="21" t="s">
+      <c r="B234" s="21" t="s">
         <v>680</v>
       </c>
-      <c r="C231" s="14" t="s">
+      <c r="C234" s="14" t="s">
         <v>685</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="B232" s="20"/>
-      <c r="C232" s="12" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="B233" s="20"/>
-      <c r="C233" s="12" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234" s="11" t="s">
-        <v>897</v>
-      </c>
-      <c r="B234" s="20" t="s">
-        <v>896</v>
-      </c>
-      <c r="C234" s="14" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="11" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B235" s="11"/>
       <c r="C235" s="12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="11" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B236" s="11"/>
       <c r="C236" s="12" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="10" t="s">
-        <v>699</v>
-      </c>
-      <c r="B237" s="14" t="s">
-        <v>680</v>
-      </c>
-      <c r="C237" s="10" t="s">
-        <v>687</v>
+      <c r="A237" s="11" t="s">
+        <v>897</v>
+      </c>
+      <c r="B237" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="C237" s="14" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" s="10" t="s">
-        <v>700</v>
-      </c>
-      <c r="B238" s="14" t="s">
-        <v>680</v>
-      </c>
-      <c r="C238" s="10" t="s">
-        <v>688</v>
+      <c r="A238" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="B238" s="11"/>
+      <c r="C238" s="12" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B239" s="11"/>
       <c r="C239" s="12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="B240" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="C240" s="10" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="B241" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="C241" s="10" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B242" s="11"/>
+      <c r="C242" s="12" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" s="11" t="s">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="B240" s="11"/>
-      <c r="C240" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="B241" s="11"/>
-      <c r="C241" s="12" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="B242" s="14" t="s">
-        <v>656</v>
-      </c>
-      <c r="C242" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A243" s="11" t="s">
-        <v>332</v>
       </c>
       <c r="B243" s="11"/>
       <c r="C243" s="12" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="11" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B244" s="11"/>
       <c r="C244" s="12" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="B245" s="11"/>
-      <c r="C245" s="12" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B245" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="C245" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A246" s="11" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B246" s="11"/>
       <c r="C246" s="12" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="11" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B247" s="11"/>
       <c r="C247" s="12" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="11" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B248" s="11"/>
       <c r="C248" s="12" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A249" s="10" t="s">
-        <v>678</v>
-      </c>
-      <c r="B249" s="10" t="s">
-        <v>656</v>
-      </c>
-      <c r="C249" s="10" t="s">
-        <v>662</v>
+      <c r="A249" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="B249" s="11"/>
+      <c r="C249" s="12" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="11" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B250" s="11"/>
       <c r="C250" s="12" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="11" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B251" s="11"/>
       <c r="C251" s="12" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A252" s="14" t="s">
-        <v>818</v>
-      </c>
-      <c r="B252" s="14" t="s">
-        <v>807</v>
-      </c>
-      <c r="C252" s="14" t="s">
-        <v>819</v>
+      <c r="A252" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="B252" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="C252" s="10" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="11" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B253" s="11"/>
       <c r="C253" s="12" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A254" s="11" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B254" s="11"/>
       <c r="C254" s="12" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A255" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="B255" s="11"/>
-      <c r="C255" s="12" t="s">
-        <v>353</v>
+      <c r="A255" s="14" t="s">
+        <v>818</v>
+      </c>
+      <c r="B255" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="C255" s="14" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="11" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B256" s="11"/>
       <c r="C256" s="12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="B257" s="11"/>
+      <c r="C257" s="12" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="B258" s="11"/>
+      <c r="C258" s="12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="B259" s="11"/>
+      <c r="C259" s="12" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A257" s="14" t="s">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" s="14" t="s">
         <v>550</v>
       </c>
-      <c r="B257" s="14" t="s">
+      <c r="B260" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="C257" s="14" t="s">
+      <c r="C260" s="14" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" s="10" t="s">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" s="10" t="s">
         <v>721</v>
       </c>
-      <c r="B258" s="10" t="s">
+      <c r="B261" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="C258" s="10" t="s">
+      <c r="C261" s="10" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A259" s="14" t="s">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" s="14" t="s">
         <v>527</v>
       </c>
-      <c r="B259" s="14" t="s">
+      <c r="B262" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="C259" s="14" t="s">
+      <c r="C262" s="14" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A260" s="26" t="s">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="B260" s="26" t="s">
+      <c r="B263" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="C260" s="26" t="s">
+      <c r="C263" s="26" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A261" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="B261" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="C261" s="26" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A262" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="B262" s="11"/>
-      <c r="C262" s="12" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="B263" s="14" t="s">
-        <v>895</v>
-      </c>
-      <c r="C263" s="12" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="26" t="s">
-        <v>510</v>
+        <v>123</v>
       </c>
       <c r="B264" s="26" t="s">
         <v>502</v>
       </c>
       <c r="C264" s="26" t="s">
-        <v>511</v>
+        <v>124</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="11" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B265" s="11"/>
       <c r="C265" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
-        <v>26</v>
-      </c>
-      <c r="B266" t="s">
-        <v>500</v>
-      </c>
-      <c r="C266" t="s">
-        <v>27</v>
+      <c r="A266" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="B266" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="C266" s="12" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A267" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="B267" s="11"/>
-      <c r="C267" s="12" t="s">
-        <v>363</v>
+      <c r="A267" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="B267" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C267" s="26" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="11" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B268" s="11"/>
       <c r="C268" s="12" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>26</v>
+      </c>
+      <c r="B269" t="s">
+        <v>500</v>
+      </c>
+      <c r="C269" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="B270" s="11"/>
+      <c r="C270" s="12" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="B271" s="11"/>
+      <c r="C271" s="12" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A269" s="14" t="s">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" s="14" t="s">
         <v>586</v>
       </c>
-      <c r="B269" s="14" t="s">
+      <c r="B272" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C269" s="14" t="s">
+      <c r="C272" s="14" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="10" t="s">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="B270" s="14" t="s">
+      <c r="B273" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="C270" s="10" t="s">
+      <c r="C273" s="10" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A271" s="14" t="s">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" s="14" t="s">
         <v>578</v>
       </c>
-      <c r="B271" s="14" t="s">
+      <c r="B274" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C271" s="14" t="s">
+      <c r="C274" s="14" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A272" s="11" t="s">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="B272" s="11"/>
-      <c r="C272" s="12" t="s">
+      <c r="B275" s="11"/>
+      <c r="C275" s="12" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A273" s="11" t="s">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="B273" s="11"/>
-      <c r="C273" s="12" t="s">
+      <c r="B276" s="11"/>
+      <c r="C276" s="12" t="s">
         <v>369</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A274" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="B274" s="11"/>
-      <c r="C274" s="12" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A275" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B275" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="C275" s="26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A276" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B276" s="14"/>
-      <c r="C276" s="14" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="11" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B277" s="11"/>
       <c r="C277" s="12" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B278" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C278" s="26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B279" s="14"/>
+      <c r="C279" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="B280" s="11"/>
+      <c r="C280" s="12" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A278" s="14" t="s">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" s="14" t="s">
         <v>653</v>
       </c>
-      <c r="B278" s="14" t="s">
+      <c r="B281" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="C278" s="14" t="s">
+      <c r="C281" s="14" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" s="11" t="s">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="B279" s="11"/>
-      <c r="C279" s="12" t="s">
+      <c r="B282" s="11"/>
+      <c r="C282" s="12" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A280" s="26" t="s">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B280" s="26" t="s">
+      <c r="B283" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="C280" s="26" t="s">
+      <c r="C283" s="26" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A281" s="26" t="s">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B281" s="26" t="s">
+      <c r="B284" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="C281" s="26" t="s">
+      <c r="C284" s="26" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A282" s="14" t="s">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" s="14" t="s">
         <v>601</v>
       </c>
-      <c r="B282" s="14" t="s">
+      <c r="B285" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="C282" s="14" t="s">
+      <c r="C285" s="14" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A283" s="14" t="s">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" s="14" t="s">
         <v>602</v>
       </c>
-      <c r="B283" s="14" t="s">
+      <c r="B286" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="C283" s="14" t="s">
+      <c r="C286" s="14" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A284" s="14" t="s">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" s="14" t="s">
         <v>515</v>
       </c>
-      <c r="B284" s="14" t="s">
+      <c r="B287" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="C284" s="14" t="s">
+      <c r="C287" s="14" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="26" t="s">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B285" s="26" t="s">
+      <c r="B288" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="C285" s="26" t="s">
+      <c r="C288" s="26" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A286" s="11" t="s">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="B286" s="11"/>
-      <c r="C286" s="12" t="s">
+      <c r="B289" s="11"/>
+      <c r="C289" s="12" t="s">
         <v>379</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A287" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="B287" s="11"/>
-      <c r="C287" s="12" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A288" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B288" s="14"/>
-      <c r="C288" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A289" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="B289" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="C289" s="14" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="11" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B290" s="11"/>
       <c r="C290" s="12" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="14" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="B291" s="14"/>
       <c r="C291" s="14" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A292" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="B292" s="11"/>
-      <c r="C292" s="12" t="s">
-        <v>389</v>
+      <c r="A292" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="B292" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C292" s="14" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="11" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B293" s="11"/>
       <c r="C293" s="12" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B294" s="14"/>
+      <c r="C294" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="B295" s="11"/>
+      <c r="C295" s="12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="B296" s="11"/>
+      <c r="C296" s="12" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A294" s="11" t="s">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="B294" s="11"/>
-      <c r="C294" s="12" t="s">
+      <c r="B297" s="11"/>
+      <c r="C297" s="12" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="14" t="s">
-        <v>820</v>
-      </c>
-      <c r="B295" s="14" t="s">
-        <v>807</v>
-      </c>
-      <c r="C295" s="14" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A296" s="14" t="s">
-        <v>923</v>
-      </c>
-      <c r="B296" s="10" t="s">
-        <v>896</v>
-      </c>
-      <c r="C296" s="14" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A297" s="14" t="s">
-        <v>741</v>
-      </c>
-      <c r="B297" s="14" t="s">
-        <v>729</v>
-      </c>
-      <c r="C297" s="14" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="14" t="s">
-        <v>761</v>
+        <v>820</v>
       </c>
       <c r="B298" s="14" t="s">
-        <v>753</v>
+        <v>807</v>
       </c>
       <c r="C298" s="14" t="s">
-        <v>760</v>
+        <v>821</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A299" s="10" t="s">
-        <v>708</v>
+      <c r="A299" s="14" t="s">
+        <v>923</v>
       </c>
       <c r="B299" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="C299" s="10" t="s">
-        <v>707</v>
+        <v>896</v>
+      </c>
+      <c r="C299" s="14" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="14" t="s">
-        <v>708</v>
+        <v>741</v>
       </c>
       <c r="B300" s="14" t="s">
         <v>729</v>
       </c>
       <c r="C300" s="14" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="14" t="s">
-        <v>833</v>
+        <v>761</v>
       </c>
       <c r="B301" s="14" t="s">
-        <v>807</v>
+        <v>753</v>
       </c>
       <c r="C301" s="14" t="s">
-        <v>834</v>
+        <v>760</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A302" t="s">
-        <v>16</v>
-      </c>
-      <c r="B302" t="s">
-        <v>500</v>
-      </c>
-      <c r="C302" t="s">
-        <v>21</v>
+      <c r="A302" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="B302" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C302" s="10" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="B303" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="C303" s="14" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" s="14" t="s">
+        <v>833</v>
+      </c>
+      <c r="B304" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="C304" s="14" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>16</v>
+      </c>
+      <c r="B305" t="s">
+        <v>500</v>
+      </c>
+      <c r="C305" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" s="14" t="s">
         <v>588</v>
       </c>
-      <c r="B303" s="14" t="s">
+      <c r="B306" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C303" s="14" t="s">
+      <c r="C306" s="14" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A304" s="11" t="s">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="B304" s="11"/>
-      <c r="C304" s="12" t="s">
+      <c r="B307" s="11"/>
+      <c r="C307" s="12" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A305" s="11" t="s">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="B305" s="11"/>
-      <c r="C305" s="12" t="s">
+      <c r="B308" s="11"/>
+      <c r="C308" s="12" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A306" s="11" t="s">
+    <row r="309" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A309" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="B306" s="11"/>
-      <c r="C306" s="12" t="s">
+      <c r="B309" s="11"/>
+      <c r="C309" s="12" t="s">
         <v>399</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A307" s="10" t="s">
-        <v>692</v>
-      </c>
-      <c r="B307" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="C307" s="10" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A308" s="10" t="s">
-        <v>705</v>
-      </c>
-      <c r="B308" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="C308" s="10" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A309" s="14" t="s">
-        <v>572</v>
-      </c>
-      <c r="B309" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="C309" s="14" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="10" t="s">
-        <v>727</v>
+        <v>692</v>
       </c>
       <c r="B310" s="10" t="s">
-        <v>709</v>
+        <v>680</v>
       </c>
       <c r="C310" s="10" t="s">
-        <v>728</v>
+        <v>679</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="10" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>709</v>
+        <v>680</v>
       </c>
       <c r="C311" s="10" t="s">
-        <v>710</v>
+        <v>686</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A312" s="10" t="s">
-        <v>723</v>
-      </c>
-      <c r="B312" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="C312" s="10" t="s">
-        <v>724</v>
+      <c r="A312" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="B312" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C312" s="14" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="10" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
       <c r="B313" s="10" t="s">
         <v>709</v>
       </c>
       <c r="C313" s="10" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="B314" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C314" s="10" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="B315" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C315" s="10" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="B316" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C316" s="10" t="s">
         <v>713</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A314" s="14" t="s">
-        <v>926</v>
-      </c>
-      <c r="B314" s="14" t="s">
-        <v>896</v>
-      </c>
-      <c r="C314" s="14" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A315" s="11" t="s">
-        <v>899</v>
-      </c>
-      <c r="B315" s="14" t="s">
-        <v>896</v>
-      </c>
-      <c r="C315" s="14" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A316" s="14" t="s">
-        <v>806</v>
-      </c>
-      <c r="B316" s="14" t="s">
-        <v>776</v>
-      </c>
-      <c r="C316" s="14" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="14" t="s">
-        <v>797</v>
+        <v>926</v>
       </c>
       <c r="B317" s="14" t="s">
-        <v>776</v>
+        <v>896</v>
       </c>
       <c r="C317" s="14" t="s">
-        <v>784</v>
+        <v>920</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A318" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B318" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="C318" s="26" t="s">
-        <v>58</v>
+      <c r="A318" s="11" t="s">
+        <v>899</v>
+      </c>
+      <c r="B318" s="14" t="s">
+        <v>896</v>
+      </c>
+      <c r="C318" s="14" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="14" t="s">
-        <v>749</v>
+        <v>806</v>
       </c>
       <c r="B319" s="14" t="s">
-        <v>729</v>
+        <v>776</v>
       </c>
       <c r="C319" s="14" t="s">
-        <v>744</v>
+        <v>777</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="14" t="s">
-        <v>808</v>
-      </c>
-      <c r="B320" s="14" t="s">
-        <v>807</v>
+        <v>937</v>
+      </c>
+      <c r="B320" s="10" t="s">
+        <v>896</v>
       </c>
       <c r="C320" s="14" t="s">
-        <v>809</v>
+        <v>932</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A321" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="B321" s="11"/>
-      <c r="C321" s="12" t="s">
-        <v>401</v>
+      <c r="A321" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="B321" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="C321" s="14" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A322" s="10" t="s">
-        <v>627</v>
-      </c>
-      <c r="B322" s="14" t="s">
-        <v>610</v>
-      </c>
-      <c r="C322" s="10" t="s">
-        <v>621</v>
+      <c r="A322" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B322" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="C322" s="26" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="14" t="s">
-        <v>773</v>
+        <v>749</v>
       </c>
       <c r="B323" s="14" t="s">
-        <v>753</v>
+        <v>729</v>
       </c>
       <c r="C323" s="14" t="s">
-        <v>768</v>
+        <v>744</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="14" t="s">
-        <v>774</v>
+        <v>808</v>
       </c>
       <c r="B324" s="14" t="s">
-        <v>753</v>
+        <v>807</v>
       </c>
       <c r="C324" s="14" t="s">
-        <v>769</v>
+        <v>809</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A325" s="10" t="s">
-        <v>927</v>
-      </c>
-      <c r="B325" s="10" t="s">
-        <v>896</v>
-      </c>
-      <c r="C325" s="14" t="s">
-        <v>921</v>
+      <c r="A325" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="B325" s="11"/>
+      <c r="C325" s="12" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A326" s="14" t="s">
-        <v>826</v>
+      <c r="A326" s="10" t="s">
+        <v>627</v>
       </c>
       <c r="B326" s="14" t="s">
-        <v>807</v>
-      </c>
-      <c r="C326" s="14" t="s">
-        <v>827</v>
+        <v>610</v>
+      </c>
+      <c r="C326" s="10" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="14" t="s">
-        <v>816</v>
+        <v>773</v>
       </c>
       <c r="B327" s="14" t="s">
-        <v>807</v>
+        <v>753</v>
       </c>
       <c r="C327" s="14" t="s">
-        <v>817</v>
+        <v>768</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="14" t="s">
-        <v>758</v>
+        <v>774</v>
       </c>
       <c r="B328" s="14" t="s">
         <v>753</v>
       </c>
       <c r="C328" s="14" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A329" s="14" t="s">
-        <v>532</v>
-      </c>
-      <c r="B329" s="14" t="s">
-        <v>514</v>
+      <c r="A329" s="10" t="s">
+        <v>927</v>
+      </c>
+      <c r="B329" s="10" t="s">
+        <v>896</v>
       </c>
       <c r="C329" s="14" t="s">
-        <v>533</v>
+        <v>921</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A330" t="s">
-        <v>35</v>
-      </c>
-      <c r="B330" t="s">
-        <v>500</v>
-      </c>
-      <c r="C330" t="s">
-        <v>36</v>
+      <c r="A330" s="14" t="s">
+        <v>826</v>
+      </c>
+      <c r="B330" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="C330" s="14" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="14" t="s">
-        <v>775</v>
+        <v>816</v>
       </c>
       <c r="B331" s="14" t="s">
-        <v>753</v>
+        <v>807</v>
       </c>
       <c r="C331" s="14" t="s">
-        <v>770</v>
+        <v>817</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="14" t="s">
+        <v>758</v>
+      </c>
+      <c r="B332" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="C332" s="14" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" s="14" t="s">
+        <v>935</v>
+      </c>
+      <c r="B333" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="C333" s="14" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="B334" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="C334" s="14" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>35</v>
+      </c>
+      <c r="B335" t="s">
+        <v>500</v>
+      </c>
+      <c r="C335" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="B336" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="C336" s="14" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337" s="14" t="s">
         <v>915</v>
       </c>
-      <c r="B332" s="14" t="s">
+      <c r="B337" s="14" t="s">
         <v>896</v>
       </c>
-      <c r="C332" s="14" t="s">
+      <c r="C337" s="14" t="s">
         <v>910</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A333" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="B333" s="11"/>
-      <c r="C333" s="12" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A334" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="B334" s="11"/>
-      <c r="C334" s="12" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A335" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="B335" s="11"/>
-      <c r="C335" s="12" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A336" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="B336" s="11"/>
-      <c r="C336" s="12" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A337" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="B337" s="11"/>
-      <c r="C337" s="12" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="11" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B338" s="11"/>
       <c r="C338" s="12" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A339" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="B339" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="C339" s="14" t="s">
-        <v>539</v>
+      <c r="A339" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="B339" s="11"/>
+      <c r="C339" s="12" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="11" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B340" s="11"/>
       <c r="C340" s="12" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="11" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B341" s="11"/>
       <c r="C341" s="12" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A342" s="14" t="s">
-        <v>800</v>
-      </c>
-      <c r="B342" s="14" t="s">
-        <v>776</v>
-      </c>
-      <c r="C342" s="14" t="s">
-        <v>788</v>
+      <c r="A342" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="B342" s="11"/>
+      <c r="C342" s="12" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="11" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B343" s="11"/>
       <c r="C343" s="12" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A344" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="B344" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="C344" s="26" t="s">
-        <v>90</v>
+      <c r="A344" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="B344" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C344" s="14" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A345" s="10" t="s">
-        <v>696</v>
-      </c>
-      <c r="B345" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="C345" s="10" t="s">
-        <v>694</v>
+      <c r="A345" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="B345" s="11"/>
+      <c r="C345" s="12" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A346" s="14" t="s">
-        <v>805</v>
-      </c>
-      <c r="B346" s="14" t="s">
-        <v>776</v>
-      </c>
-      <c r="C346" s="14" t="s">
-        <v>791</v>
+      <c r="A346" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="B346" s="11"/>
+      <c r="C346" s="12" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="14" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B347" s="14" t="s">
         <v>776</v>
       </c>
       <c r="C347" s="14" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A348" s="14" t="s">
-        <v>862</v>
-      </c>
-      <c r="B348" s="14" t="s">
-        <v>839</v>
-      </c>
-      <c r="C348" s="14" t="s">
-        <v>842</v>
+      <c r="A348" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="B348" s="11"/>
+      <c r="C348" s="12" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A349" s="10" t="s">
-        <v>625</v>
-      </c>
-      <c r="B349" s="14" t="s">
-        <v>610</v>
-      </c>
-      <c r="C349" s="10" t="s">
-        <v>617</v>
+      <c r="A349" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B349" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="C349" s="26" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A350" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="B350" s="11"/>
-      <c r="C350" s="12" t="s">
-        <v>421</v>
+      <c r="A350" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="B350" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C350" s="10" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="B351" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="C351" s="14" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A352" s="14" t="s">
+        <v>799</v>
+      </c>
+      <c r="B352" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="C352" s="14" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A353" s="14" t="s">
+        <v>862</v>
+      </c>
+      <c r="B353" s="14" t="s">
+        <v>839</v>
+      </c>
+      <c r="C353" s="14" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A354" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="B354" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C354" s="10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A355" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="B355" s="11"/>
+      <c r="C355" s="12" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A356" s="14" t="s">
         <v>547</v>
       </c>
-      <c r="B351" s="14" t="s">
+      <c r="B356" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="C351" s="14" t="s">
+      <c r="C356" s="14" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A352" s="10" t="s">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A357" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B352" s="10" t="s">
+      <c r="B357" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="C352" s="10" t="s">
+      <c r="C357" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A353" s="26" t="s">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A358" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B353" s="26" t="s">
+      <c r="B358" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="C353" s="26" t="s">
+      <c r="C358" s="26" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A354" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="B354" s="11"/>
-      <c r="C354" s="12" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A355" s="10" t="s">
-        <v>633</v>
-      </c>
-      <c r="B355" s="14" t="s">
-        <v>610</v>
-      </c>
-      <c r="C355" s="10" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A356" s="10" t="s">
-        <v>633</v>
-      </c>
-      <c r="B356" s="10" t="s">
-        <v>634</v>
-      </c>
-      <c r="C356" s="10" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A357" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="B357" s="11"/>
-      <c r="C357" s="12" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A358" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="B358" s="11"/>
-      <c r="C358" s="12" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="11" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B359" s="11"/>
       <c r="C359" s="12" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A360" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="B360" s="11"/>
-      <c r="C360" s="12" t="s">
-        <v>431</v>
+      <c r="A360" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="B360" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C360" s="10" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A361" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="B361" s="11"/>
-      <c r="C361" s="12" t="s">
-        <v>433</v>
+      <c r="A361" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="B361" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="C361" s="10" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="11" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B362" s="11"/>
       <c r="C362" s="12" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="11" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B363" s="11"/>
       <c r="C363" s="12" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="11" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B364" s="11"/>
       <c r="C364" s="12" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="11" t="s">
-        <v>101</v>
+        <v>430</v>
       </c>
       <c r="B365" s="11"/>
       <c r="C365" s="12" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="11" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="B366" s="11"/>
       <c r="C366" s="12" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="11" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B367" s="11"/>
       <c r="C367" s="12" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A368" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B368" s="14"/>
-      <c r="C368" s="14" t="s">
-        <v>86</v>
+      <c r="A368" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="B368" s="11"/>
+      <c r="C368" s="12" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="11" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="B369" s="11"/>
       <c r="C369" s="12" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="11" t="s">
-        <v>449</v>
+        <v>101</v>
       </c>
       <c r="B370" s="11"/>
       <c r="C370" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="B371" s="11"/>
+      <c r="C371" s="12" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="B372" s="11"/>
+      <c r="C372" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B373" s="14"/>
+      <c r="C373" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="B374" s="11"/>
+      <c r="C374" s="12" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B375" s="11"/>
+      <c r="C375" s="12" t="s">
         <v>450</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A371" s="14" t="s">
-        <v>565</v>
-      </c>
-      <c r="B371" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="C371" s="14" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A372" s="14" t="s">
-        <v>544</v>
-      </c>
-      <c r="B372" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="C372" s="14" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A373" s="10" t="s">
-        <v>624</v>
-      </c>
-      <c r="B373" s="14" t="s">
-        <v>610</v>
-      </c>
-      <c r="C373" s="10" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A374" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="B374" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="C374" s="14" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A375" s="10" t="s">
-        <v>646</v>
-      </c>
-      <c r="B375" s="10" t="s">
-        <v>634</v>
-      </c>
-      <c r="C375" s="10" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="14" t="s">
-        <v>545</v>
+        <v>565</v>
       </c>
       <c r="B376" s="14" t="s">
-        <v>535</v>
+        <v>559</v>
       </c>
       <c r="C376" s="14" t="s">
-        <v>543</v>
+        <v>566</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="14" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="B377" s="14" t="s">
         <v>535</v>
       </c>
       <c r="C377" s="14" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="B378" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C378" s="10" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="B379" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="C379" s="14" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="B380" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="C380" s="10" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="B381" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="C381" s="14" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="B382" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="C382" s="14" t="s">
         <v>553</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A378" s="14" t="s">
-        <v>546</v>
-      </c>
-      <c r="B378" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="C378" s="14" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A379" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="B379" s="11"/>
-      <c r="C379" s="12" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A380" s="14" t="s">
-        <v>453</v>
-      </c>
-      <c r="B380" s="14" t="s">
-        <v>895</v>
-      </c>
-      <c r="C380" s="12" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A381" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B381" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="C381" s="26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A382" s="26" t="s">
-        <v>455</v>
-      </c>
-      <c r="B382" s="26" t="s">
-        <v>886</v>
-      </c>
-      <c r="C382" s="12" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="14" t="s">
-        <v>801</v>
+        <v>546</v>
       </c>
       <c r="B383" s="14" t="s">
-        <v>776</v>
+        <v>535</v>
       </c>
       <c r="C383" s="14" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A384" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="B384" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="C384" s="26" t="s">
-        <v>122</v>
+        <v>554</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A384" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="B384" s="11"/>
+      <c r="C384" s="12" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A385" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="B385" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="C385" s="26" t="s">
-        <v>106</v>
+      <c r="A385" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="B385" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="C385" s="12" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="B386" s="14" t="s">
-        <v>514</v>
-      </c>
-      <c r="C386" s="14" t="s">
-        <v>517</v>
+        <v>117</v>
+      </c>
+      <c r="B386" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C386" s="26" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A387" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="B387" s="11"/>
+      <c r="A387" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="B387" s="26" t="s">
+        <v>886</v>
+      </c>
       <c r="C387" s="12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="B388" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="C388" s="14" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A389" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B389" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C389" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A390" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B390" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C390" s="26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A391" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B391" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="C391" s="14" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A392" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="B392" s="11"/>
+      <c r="C392" s="12" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A393" s="14" t="s">
         <v>835</v>
       </c>
-      <c r="B388" s="14" t="s">
+      <c r="B393" s="14" t="s">
         <v>807</v>
       </c>
-      <c r="C388" s="14" t="s">
+      <c r="C393" s="14" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A389" s="10" t="s">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A394" s="10" t="s">
         <v>928</v>
       </c>
-      <c r="B389" s="10" t="s">
+      <c r="B394" s="10" t="s">
         <v>896</v>
       </c>
-      <c r="C389" s="14" t="s">
+      <c r="C394" s="14" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A390" s="11" t="s">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A395" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="B390" s="11"/>
-      <c r="C390" s="12" t="s">
+      <c r="B395" s="11"/>
+      <c r="C395" s="12" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A391" s="11" t="s">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A396" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="B391" s="11"/>
-      <c r="C391" s="12" t="s">
+      <c r="B396" s="11"/>
+      <c r="C396" s="12" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A392" s="26" t="s">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A397" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="B392" t="s">
+      <c r="B397" t="s">
         <v>501</v>
       </c>
-      <c r="C392" s="26" t="s">
+      <c r="C397" s="26" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A393" s="10" t="s">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A398" s="10" t="s">
         <v>632</v>
       </c>
-      <c r="B393" s="14" t="s">
+      <c r="B398" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="C393" s="10" t="s">
+      <c r="C398" s="10" t="s">
         <v>614</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A394" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="B394" s="11"/>
-      <c r="C394" s="12" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A395" t="s">
-        <v>15</v>
-      </c>
-      <c r="B395" t="s">
-        <v>500</v>
-      </c>
-      <c r="C395" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A396" s="10" t="s">
-        <v>650</v>
-      </c>
-      <c r="B396" s="10" t="s">
-        <v>634</v>
-      </c>
-      <c r="C396" s="10" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A397" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="B397" s="11"/>
-      <c r="C397" s="12" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A398" s="14" t="s">
-        <v>561</v>
-      </c>
-      <c r="B398" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="C398" s="14" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" s="11" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B399" s="11"/>
       <c r="C399" s="12" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A400" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="B400" s="11"/>
-      <c r="C400" s="12" t="s">
-        <v>470</v>
+      <c r="A400" t="s">
+        <v>15</v>
+      </c>
+      <c r="B400" t="s">
+        <v>500</v>
+      </c>
+      <c r="C400" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A401" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="B401" s="11"/>
-      <c r="C401" s="12" t="s">
-        <v>472</v>
+      <c r="A401" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="B401" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="C401" s="10" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" s="11" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B402" s="11"/>
       <c r="C402" s="12" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A403" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="B403" s="11"/>
-      <c r="C403" s="12" t="s">
-        <v>476</v>
+      <c r="A403" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="B403" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C403" s="14" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="11" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B404" s="11"/>
       <c r="C404" s="12" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" s="11" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="B405" s="11"/>
       <c r="C405" s="12" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" s="11" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="B406" s="11"/>
       <c r="C406" s="12" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A407" s="10" t="s">
-        <v>674</v>
-      </c>
-      <c r="B407" s="10" t="s">
-        <v>656</v>
-      </c>
-      <c r="C407" s="10" t="s">
-        <v>665</v>
+      <c r="A407" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="B407" s="11"/>
+      <c r="C407" s="12" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A408" s="14" t="s">
-        <v>802</v>
-      </c>
-      <c r="B408" s="14" t="s">
-        <v>776</v>
-      </c>
-      <c r="C408" s="14" t="s">
-        <v>803</v>
+      <c r="A408" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="B408" s="11"/>
+      <c r="C408" s="12" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" s="11" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B409" s="11"/>
       <c r="C409" s="12" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A410" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B410" s="11"/>
+      <c r="C410" s="12" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A411" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="B411" s="11"/>
+      <c r="C411" s="12" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A412" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="B412" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="C412" s="10" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A413" s="14" t="s">
+        <v>802</v>
+      </c>
+      <c r="B413" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="C413" s="14" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A414" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B414" s="11"/>
+      <c r="C414" s="12" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A410" s="14" t="s">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A415" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="B410" s="14" t="s">
+      <c r="B415" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C410" s="14" t="s">
+      <c r="C415" s="14" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A411" s="14" t="s">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A416" s="14" t="s">
         <v>583</v>
       </c>
-      <c r="B411" s="14" t="s">
+      <c r="B416" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C411" s="14" t="s">
+      <c r="C416" s="14" t="s">
         <v>571</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A412" s="14" t="s">
-        <v>651</v>
-      </c>
-      <c r="B412" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="C412" s="14" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A413" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="B413" s="11"/>
-      <c r="C413" s="12" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A414" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B414" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="C414" s="26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A415" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="B415" s="11"/>
-      <c r="C415" s="12" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A416" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="B416" s="11"/>
-      <c r="C416" s="12" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" s="14" t="s">
-        <v>732</v>
+        <v>651</v>
       </c>
       <c r="B417" s="14" t="s">
-        <v>729</v>
+        <v>634</v>
       </c>
       <c r="C417" s="14" t="s">
-        <v>733</v>
+        <v>641</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="11" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B418" s="11"/>
       <c r="C418" s="12" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A419" s="10" t="s">
-        <v>697</v>
-      </c>
-      <c r="B419" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="C419" s="10" t="s">
-        <v>683</v>
+      <c r="A419" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B419" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="C419" s="26" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A420" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="B420" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="C420" s="26" t="s">
-        <v>109</v>
+      <c r="A420" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="B420" s="11"/>
+      <c r="C420" s="12" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A421" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B421" s="14" t="s">
-        <v>514</v>
-      </c>
-      <c r="C421" s="14" t="s">
-        <v>534</v>
+      <c r="A421" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="B421" s="11"/>
+      <c r="C421" s="12" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B422" s="14"/>
+        <v>732</v>
+      </c>
+      <c r="B422" s="14" t="s">
+        <v>729</v>
+      </c>
       <c r="C422" s="14" t="s">
-        <v>88</v>
+        <v>733</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" s="11" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B423" s="11"/>
       <c r="C423" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A424" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="B424" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C424" s="10" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A425" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B425" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C425" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A426" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B426" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="C426" s="14" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A427" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B427" s="14"/>
+      <c r="C427" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A428" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="B428" s="11"/>
+      <c r="C428" s="12" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C424" s="14"/>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C425"/>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A426" s="14"/>
-      <c r="B426" s="14"/>
-      <c r="C426" s="25"/>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A427" s="14"/>
-      <c r="B427" s="14"/>
-      <c r="C427" s="25"/>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A428" s="14"/>
-      <c r="B428" s="14"/>
-      <c r="C428" s="14"/>
-    </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A429" s="14"/>
-      <c r="B429" s="14"/>
       <c r="C429" s="14"/>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A430" s="14"/>
-      <c r="B430" s="14"/>
-      <c r="C430" s="14"/>
+      <c r="C430"/>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" s="14"/>
       <c r="B431" s="14"/>
-      <c r="C431" s="14"/>
+      <c r="C431" s="25"/>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" s="14"/>
       <c r="B432" s="14"/>
-      <c r="C432" s="14"/>
+      <c r="C432" s="25"/>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" s="14"/>
@@ -10446,7 +10506,7 @@
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" s="14"/>
       <c r="B434" s="14"/>
-      <c r="C434" s="25"/>
+      <c r="C434" s="14"/>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" s="14"/>
@@ -10471,7 +10531,7 @@
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" s="14"/>
       <c r="B439" s="14"/>
-      <c r="C439" s="14"/>
+      <c r="C439" s="25"/>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" s="14"/>
@@ -10813,7 +10873,7 @@
       <c r="C551" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C451" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}"/>
+  <autoFilter ref="A1:C456" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C551">
     <sortCondition ref="A2:A551"/>
   </sortState>

--- a/Zhodani Words List.xlsx
+++ b/Zhodani Words List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACCE926-B7A4-4DB6-9EA6-545D4E270F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF75CB6-D75C-4CA8-96A1-2CEFE4FA2244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
   <sheets>
     <sheet name="Lessons" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Zhdetl (from Alien Book 4)'!$A$1:$B$186</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="959">
   <si>
     <t>Zhdetl word</t>
   </si>
@@ -2890,6 +2891,66 @@
   </si>
   <si>
     <t>moyazhoi</t>
+  </si>
+  <si>
+    <t>21. The Day</t>
+  </si>
+  <si>
+    <t>A day, usually on Zhdant, but applied generically to any solar day</t>
+  </si>
+  <si>
+    <t>tlachali</t>
+  </si>
+  <si>
+    <t>noon</t>
+  </si>
+  <si>
+    <t>chapani</t>
+  </si>
+  <si>
+    <t>morning, after sunrise</t>
+  </si>
+  <si>
+    <t>Pliebrchani</t>
+  </si>
+  <si>
+    <t>sunrise</t>
+  </si>
+  <si>
+    <t>chikali</t>
+  </si>
+  <si>
+    <t>pre-dawn, early morning</t>
+  </si>
+  <si>
+    <t>teyoali</t>
+  </si>
+  <si>
+    <t>nighttime</t>
+  </si>
+  <si>
+    <t>afternoon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tlacha </t>
+  </si>
+  <si>
+    <t>Pliebratso</t>
+  </si>
+  <si>
+    <t>sunset</t>
+  </si>
+  <si>
+    <t>tlatso</t>
+  </si>
+  <si>
+    <t>evening after sunset</t>
+  </si>
+  <si>
+    <t>teyochali</t>
+  </si>
+  <si>
+    <t>midnight</t>
   </si>
 </sst>
 </file>
@@ -6117,7 +6178,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6647,3886 +6708,3950 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
-        <v>924</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>896</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>925</v>
+        <v>943</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>939</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
+        <v>924</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14" t="s">
+      <c r="B54" s="14"/>
+      <c r="C54" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="11" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="12" t="s">
+      <c r="B55" s="11"/>
+      <c r="C55" s="12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="14" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="14" t="s">
         <v>720</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B56" s="14" t="s">
         <v>709</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C56" s="14" t="s">
         <v>718</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="12" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B58" s="14" t="s">
         <v>895</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C58" s="12" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="14" t="s">
-        <v>884</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>839</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
+        <v>884</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>839</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B60" s="14" t="s">
         <v>709</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C60" s="14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="26" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B61" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="C60" s="26" t="s">
+      <c r="C61" s="26" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="12" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
-        <v>798</v>
+        <v>947</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>776</v>
+        <v>939</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>785</v>
+        <v>948</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="17" t="s">
-        <v>771</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>753</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>766</v>
+      <c r="A63" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B63" s="20"/>
+      <c r="C63" s="16" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="17" t="s">
-        <v>772</v>
+        <v>798</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>753</v>
+        <v>776</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>767</v>
+        <v>785</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="17" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>747</v>
+        <v>766</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="17" t="s">
-        <v>917</v>
+        <v>772</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>896</v>
+        <v>753</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>912</v>
+        <v>767</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="B67" s="20"/>
-      <c r="C67" s="16" t="s">
-        <v>189</v>
+      <c r="A67" s="17" t="s">
+        <v>752</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>729</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="17" t="s">
+        <v>917</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>896</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B69" s="20"/>
+      <c r="C69" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="17" t="s">
         <v>702</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="B70" s="21" t="s">
         <v>680</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C70" s="18" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="22" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="B69" s="23" t="s">
+      <c r="B71" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="C69" s="24" t="s">
+      <c r="C71" s="24" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="15" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="B70" s="20"/>
-      <c r="C70" s="16" t="s">
+      <c r="B72" s="20"/>
+      <c r="C72" s="16" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="17" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="17" t="s">
         <v>730</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="B73" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C73" s="18" t="s">
         <v>731</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="17" t="s">
-        <v>717</v>
-      </c>
-      <c r="B72" s="21" t="s">
-        <v>709</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="16" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="17" t="s">
-        <v>824</v>
+        <v>717</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>807</v>
+        <v>709</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>825</v>
+        <v>716</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B75" s="23" t="s">
-        <v>501</v>
-      </c>
-      <c r="C75" s="24" t="s">
-        <v>55</v>
+      <c r="A75" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B75" s="20"/>
+      <c r="C75" s="16" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="17" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="B76" s="21" t="s">
         <v>807</v>
       </c>
       <c r="C76" s="18" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>807</v>
+      </c>
+      <c r="C78" s="18" t="s">
         <v>813</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="17" t="s">
-        <v>795</v>
-      </c>
-      <c r="B77" s="21" t="s">
-        <v>776</v>
-      </c>
-      <c r="C77" s="18" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B78" s="20"/>
-      <c r="C78" s="16" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B79" s="21"/>
+        <v>795</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>776</v>
+      </c>
       <c r="C79" s="18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="B81" s="20"/>
-      <c r="C81" s="16" t="s">
-        <v>199</v>
+      <c r="A81" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B81" s="21"/>
+      <c r="C81" s="18" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="15" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="16" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="16" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="16" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="16" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="16" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="15" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="15" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="16" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="16" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="B91" s="21" t="s">
-        <v>656</v>
-      </c>
-      <c r="C91" s="18" t="s">
-        <v>659</v>
+      <c r="A91" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B91" s="20"/>
+      <c r="C91" s="16" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="B93" s="20"/>
-      <c r="C93" s="16" t="s">
-        <v>221</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="17" t="s">
+        <v>670</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>656</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="17" t="s">
-        <v>551</v>
-      </c>
-      <c r="B95" s="21" t="s">
-        <v>535</v>
-      </c>
-      <c r="C95" s="18" t="s">
-        <v>552</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A95" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B95" s="20"/>
+      <c r="C95" s="16" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="B97" s="20"/>
-      <c r="C97" s="16" t="s">
-        <v>227</v>
+      <c r="A97" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B99" s="20"/>
+      <c r="C99" s="16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B100" s="20"/>
+      <c r="C100" s="16" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="17" t="s">
-        <v>556</v>
-      </c>
-      <c r="B99" s="21" t="s">
-        <v>535</v>
-      </c>
-      <c r="C99" s="18" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B100" s="21"/>
-      <c r="C100" s="18" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="17" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="B101" s="21" t="s">
         <v>535</v>
       </c>
       <c r="C101" s="18" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B102" s="21"/>
+      <c r="C102" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="17" t="s">
+        <v>548</v>
+      </c>
+      <c r="B103" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="C103" s="18" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="15" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="B102" s="20"/>
-      <c r="C102" s="16" t="s">
+      <c r="B104" s="20"/>
+      <c r="C104" s="16" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="15" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="B103" s="20"/>
-      <c r="C103" s="16" t="s">
+      <c r="B105" s="20"/>
+      <c r="C105" s="16" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="17" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B104" s="21" t="s">
+      <c r="B106" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="C104" s="18" t="s">
+      <c r="C106" s="18" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="17" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="17" t="s">
         <v>626</v>
       </c>
-      <c r="B105" s="21" t="s">
+      <c r="B107" s="21" t="s">
         <v>610</v>
       </c>
-      <c r="C105" s="18" t="s">
+      <c r="C107" s="18" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="15" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="B106" s="20"/>
-      <c r="C106" s="16" t="s">
+      <c r="B108" s="20"/>
+      <c r="C108" s="16" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="22" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B107" s="23" t="s">
+      <c r="B109" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="C107" s="24" t="s">
+      <c r="C109" s="24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="17" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="17" t="s">
         <v>600</v>
       </c>
-      <c r="B108" s="21" t="s">
+      <c r="B110" s="21" t="s">
         <v>589</v>
       </c>
-      <c r="C108" s="18" t="s">
+      <c r="C110" s="18" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="17" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="17" t="s">
         <v>793</v>
       </c>
-      <c r="B109" s="21" t="s">
+      <c r="B111" s="21" t="s">
         <v>776</v>
       </c>
-      <c r="C109" s="18" t="s">
+      <c r="C111" s="18" t="s">
         <v>780</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="B110" s="20"/>
-      <c r="C110" s="16" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="B111" s="20"/>
-      <c r="C111" s="16" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="16" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="17" t="s">
-        <v>649</v>
-      </c>
-      <c r="B113" s="21" t="s">
-        <v>634</v>
-      </c>
-      <c r="C113" s="18" t="s">
-        <v>639</v>
+      <c r="A113" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B113" s="20"/>
+      <c r="C113" s="16" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="B115" s="21" t="s">
+        <v>634</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B116" s="20"/>
+      <c r="C116" s="16" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B115" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="C115" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B116" s="23" t="s">
-        <v>501</v>
-      </c>
-      <c r="C116" s="24" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="22" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B117" s="23" t="s">
         <v>500</v>
       </c>
       <c r="C117" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B118" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="C118" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B119" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="C119" s="24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="15" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="15" t="s">
         <v>246</v>
-      </c>
-      <c r="B118" s="20"/>
-      <c r="C118" s="16" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="B119" s="20"/>
-      <c r="C119" s="16" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A120" s="15" t="s">
-        <v>250</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="16" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="15" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="16" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="15" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B123" s="20"/>
+      <c r="C123" s="16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B124" s="20"/>
+      <c r="C124" s="16" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="17" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="17" t="s">
         <v>628</v>
       </c>
-      <c r="B123" s="21" t="s">
+      <c r="B125" s="21" t="s">
         <v>610</v>
       </c>
-      <c r="C123" s="18" t="s">
+      <c r="C125" s="18" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="17" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="17" t="s">
         <v>611</v>
       </c>
-      <c r="B124" s="21" t="s">
+      <c r="B126" s="21" t="s">
         <v>610</v>
       </c>
-      <c r="C124" s="18" t="s">
+      <c r="C126" s="18" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="15" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="B125" s="20"/>
-      <c r="C125" s="16" t="s">
+      <c r="B127" s="20"/>
+      <c r="C127" s="16" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="15" t="s">
+    <row r="128" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A128" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="B126" s="20"/>
-      <c r="C126" s="16" t="s">
+      <c r="B128" s="20"/>
+      <c r="C128" s="16" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="22" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B127" s="23" t="s">
+      <c r="B129" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="C127" s="24" t="s">
+      <c r="C129" s="24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="22" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B128" s="23" t="s">
+      <c r="B130" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="C128" s="24" t="s">
+      <c r="C130" s="24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="15" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="B129" s="20"/>
-      <c r="C129" s="16" t="s">
+      <c r="B131" s="20"/>
+      <c r="C131" s="16" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="17" t="s">
-        <v>587</v>
-      </c>
-      <c r="B130" s="21" t="s">
-        <v>559</v>
-      </c>
-      <c r="C130" s="18" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="17" t="s">
-        <v>668</v>
-      </c>
-      <c r="B131" s="21" t="s">
-        <v>656</v>
-      </c>
-      <c r="C131" s="18" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="17" t="s">
-        <v>655</v>
+        <v>587</v>
       </c>
       <c r="B132" s="21" t="s">
-        <v>656</v>
+        <v>559</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>666</v>
+        <v>568</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="17" t="s">
+        <v>668</v>
+      </c>
+      <c r="B133" s="21" t="s">
+        <v>656</v>
+      </c>
+      <c r="C133" s="18" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="17" t="s">
         <v>655</v>
       </c>
-      <c r="B133" s="21" t="s">
+      <c r="B134" s="21" t="s">
+        <v>656</v>
+      </c>
+      <c r="C134" s="18" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="B135" s="21" t="s">
         <v>634</v>
       </c>
-      <c r="C133" s="19" t="s">
+      <c r="C135" s="19" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="15" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="B134" s="20"/>
-      <c r="C134" s="16" t="s">
+      <c r="B136" s="20"/>
+      <c r="C136" s="16" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A135" s="15" t="s">
+    <row r="137" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A137" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B135" s="20"/>
-      <c r="C135" s="16" t="s">
+      <c r="B137" s="20"/>
+      <c r="C137" s="16" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="17" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="17" t="s">
         <v>814</v>
       </c>
-      <c r="B136" s="21" t="s">
+      <c r="B138" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="C136" s="18" t="s">
+      <c r="C138" s="18" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="17" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="17" t="s">
         <v>652</v>
       </c>
-      <c r="B137" s="21" t="s">
+      <c r="B139" s="21" t="s">
         <v>634</v>
       </c>
-      <c r="C137" s="18" t="s">
+      <c r="C139" s="18" t="s">
         <v>642</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="15" t="s">
-        <v>671</v>
-      </c>
-      <c r="B138" s="20" t="s">
-        <v>656</v>
-      </c>
-      <c r="C138" s="16" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="B139" s="20"/>
-      <c r="C139" s="16" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="B140" s="20"/>
+        <v>671</v>
+      </c>
+      <c r="B140" s="20" t="s">
+        <v>656</v>
+      </c>
       <c r="C140" s="16" t="s">
-        <v>268</v>
+        <v>657</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="17" t="s">
-        <v>525</v>
-      </c>
-      <c r="B141" s="21" t="s">
-        <v>514</v>
-      </c>
-      <c r="C141" s="18" t="s">
-        <v>526</v>
+      <c r="A141" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="B141" s="20"/>
+      <c r="C141" s="16" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="17" t="s">
-        <v>831</v>
+        <v>525</v>
       </c>
       <c r="B143" s="21" t="s">
-        <v>807</v>
+        <v>514</v>
       </c>
       <c r="C143" s="18" t="s">
-        <v>832</v>
+        <v>526</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="17" t="s">
-        <v>757</v>
-      </c>
-      <c r="B144" s="21" t="s">
-        <v>753</v>
-      </c>
-      <c r="C144" s="18" t="s">
-        <v>756</v>
+      <c r="A144" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B144" s="20"/>
+      <c r="C144" s="16" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="17" t="s">
-        <v>934</v>
+        <v>831</v>
       </c>
       <c r="B145" s="21" t="s">
-        <v>896</v>
+        <v>807</v>
       </c>
       <c r="C145" s="18" t="s">
-        <v>929</v>
+        <v>832</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="17" t="s">
-        <v>735</v>
+        <v>757</v>
       </c>
       <c r="B146" s="21" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="C146" s="18" t="s">
-        <v>734</v>
+        <v>756</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="15" t="s">
-        <v>905</v>
+      <c r="A147" s="17" t="s">
+        <v>934</v>
       </c>
       <c r="B147" s="21" t="s">
         <v>896</v>
       </c>
       <c r="C147" s="18" t="s">
-        <v>906</v>
+        <v>929</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="17" t="s">
+        <v>735</v>
+      </c>
+      <c r="B148" s="21" t="s">
+        <v>729</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="15" t="s">
+        <v>905</v>
+      </c>
+      <c r="B149" s="21" t="s">
+        <v>896</v>
+      </c>
+      <c r="C149" s="18" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="17" t="s">
         <v>778</v>
       </c>
-      <c r="B148" s="21" t="s">
+      <c r="B150" s="21" t="s">
         <v>776</v>
       </c>
-      <c r="C148" s="18" t="s">
+      <c r="C150" s="18" t="s">
         <v>787</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="17" t="s">
-        <v>822</v>
-      </c>
-      <c r="B149" s="21" t="s">
-        <v>807</v>
-      </c>
-      <c r="C149" s="18" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="B150" s="20"/>
-      <c r="C150" s="16" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="17" t="s">
-        <v>907</v>
+        <v>822</v>
       </c>
       <c r="B151" s="21" t="s">
-        <v>896</v>
+        <v>807</v>
       </c>
       <c r="C151" s="18" t="s">
-        <v>908</v>
+        <v>823</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="16" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="17" t="s">
+        <v>907</v>
+      </c>
+      <c r="B153" s="21" t="s">
+        <v>896</v>
+      </c>
+      <c r="C153" s="18" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="B154" s="11"/>
+      <c r="C154" s="16" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="22" t="s">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B153" s="23" t="s">
+      <c r="B155" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="C153" s="24" t="s">
+      <c r="C155" s="24" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="22" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B154" s="26" t="s">
+      <c r="B156" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="C154" s="24" t="s">
+      <c r="C156" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="17" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="17" t="s">
         <v>837</v>
       </c>
-      <c r="B155" s="21" t="s">
+      <c r="B157" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="C155" s="18" t="s">
+      <c r="C157" s="18" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A156" s="15" t="s">
+    <row r="158" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A158" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="B156" s="20"/>
-      <c r="C156" s="16" t="s">
+      <c r="B158" s="20"/>
+      <c r="C158" s="16" t="s">
         <v>719</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="B157" s="20"/>
-      <c r="C157" s="16" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="B158" s="21" t="s">
-        <v>656</v>
-      </c>
-      <c r="C158" s="16" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="15" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B159" s="20"/>
       <c r="C159" s="16" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="B160" s="20"/>
+        <v>278</v>
+      </c>
+      <c r="B160" s="21" t="s">
+        <v>656</v>
+      </c>
       <c r="C160" s="16" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="15" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B161" s="20"/>
       <c r="C161" s="16" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="15" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B162" s="20"/>
       <c r="C162" s="16" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B163" s="20"/>
       <c r="C163" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="B164" s="20"/>
+      <c r="C164" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B165" s="20"/>
+      <c r="C165" s="16" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="17" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="17" t="s">
         <v>521</v>
       </c>
-      <c r="B164" s="21" t="s">
+      <c r="B166" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="C164" s="18" t="s">
+      <c r="C166" s="18" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="22" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B165" s="23" t="s">
+      <c r="B167" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="C165" s="24" t="s">
+      <c r="C167" s="24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="22" t="s">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="B166" s="23" t="s">
+      <c r="B168" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="C166" s="24" t="s">
+      <c r="C168" s="24" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="B167" s="21" t="s">
-        <v>514</v>
-      </c>
-      <c r="C167" s="18" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="17" t="s">
-        <v>704</v>
-      </c>
-      <c r="B168" s="21" t="s">
-        <v>680</v>
-      </c>
-      <c r="C168" s="18" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="17" t="s">
-        <v>829</v>
+        <v>125</v>
       </c>
       <c r="B169" s="21" t="s">
-        <v>807</v>
+        <v>514</v>
       </c>
       <c r="C169" s="18" t="s">
-        <v>830</v>
+        <v>518</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="B170" s="21" t="s">
+        <v>680</v>
+      </c>
+      <c r="C170" s="18" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="17" t="s">
+        <v>829</v>
+      </c>
+      <c r="B171" s="21" t="s">
+        <v>807</v>
+      </c>
+      <c r="C171" s="18" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="17" t="s">
         <v>738</v>
       </c>
-      <c r="B170" s="21" t="s">
+      <c r="B172" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="C170" s="18" t="s">
+      <c r="C172" s="18" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="15" t="s">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="B171" s="20"/>
-      <c r="C171" s="16" t="s">
+      <c r="B173" s="20"/>
+      <c r="C173" s="16" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="15" t="s">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="B172" s="20"/>
-      <c r="C172" s="16" t="s">
+      <c r="B174" s="20"/>
+      <c r="C174" s="16" t="s">
         <v>293</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="17" t="s">
-        <v>631</v>
-      </c>
-      <c r="B173" s="21" t="s">
-        <v>610</v>
-      </c>
-      <c r="C173" s="18" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="17" t="s">
-        <v>715</v>
-      </c>
-      <c r="B174" s="21" t="s">
-        <v>709</v>
-      </c>
-      <c r="C174" s="18" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="17" t="s">
-        <v>936</v>
+        <v>631</v>
       </c>
       <c r="B175" s="21" t="s">
-        <v>896</v>
+        <v>610</v>
       </c>
       <c r="C175" s="18" t="s">
-        <v>931</v>
+        <v>613</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="B176" s="20"/>
-      <c r="C176" s="16" t="s">
-        <v>295</v>
+      <c r="A176" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="B176" s="21" t="s">
+        <v>709</v>
+      </c>
+      <c r="C176" s="18" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="17" t="s">
-        <v>881</v>
+        <v>936</v>
       </c>
       <c r="B177" s="21" t="s">
-        <v>839</v>
+        <v>896</v>
       </c>
       <c r="C177" s="18" t="s">
-        <v>845</v>
+        <v>931</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B178" s="20"/>
       <c r="C178" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="17" t="s">
+        <v>881</v>
+      </c>
+      <c r="B179" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="C179" s="18" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B180" s="20"/>
+      <c r="C180" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="17" t="s">
         <v>750</v>
       </c>
-      <c r="B179" s="21" t="s">
+      <c r="B181" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="C179" s="18" t="s">
+      <c r="C181" s="18" t="s">
         <v>745</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B180" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="C180" s="24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B181" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="C181" s="24" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="22" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B182" s="23" t="s">
         <v>500</v>
       </c>
       <c r="C182" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B183" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="C183" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B184" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="C184" s="24" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="17" t="s">
-        <v>695</v>
-      </c>
-      <c r="B183" s="21" t="s">
-        <v>680</v>
-      </c>
-      <c r="C183" s="18" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="15" t="s">
-        <v>901</v>
-      </c>
-      <c r="B184" s="21" t="s">
-        <v>896</v>
-      </c>
-      <c r="C184" s="18" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="17" t="s">
-        <v>792</v>
+        <v>695</v>
       </c>
       <c r="B185" s="21" t="s">
-        <v>776</v>
+        <v>680</v>
       </c>
       <c r="C185" s="18" t="s">
-        <v>779</v>
+        <v>682</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="17" t="s">
-        <v>748</v>
+      <c r="A186" s="15" t="s">
+        <v>901</v>
       </c>
       <c r="B186" s="21" t="s">
-        <v>729</v>
+        <v>896</v>
       </c>
       <c r="C186" s="18" t="s">
-        <v>743</v>
+        <v>902</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="17" t="s">
-        <v>703</v>
+        <v>792</v>
       </c>
       <c r="B187" s="21" t="s">
-        <v>680</v>
+        <v>776</v>
       </c>
       <c r="C187" s="18" t="s">
-        <v>689</v>
+        <v>779</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="17" t="s">
-        <v>866</v>
+        <v>748</v>
       </c>
       <c r="B188" s="21" t="s">
-        <v>839</v>
+        <v>729</v>
       </c>
       <c r="C188" s="18" t="s">
-        <v>846</v>
+        <v>743</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="17" t="s">
-        <v>868</v>
+        <v>703</v>
       </c>
       <c r="B189" s="21" t="s">
-        <v>839</v>
+        <v>680</v>
       </c>
       <c r="C189" s="18" t="s">
-        <v>848</v>
+        <v>689</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="17" t="s">
-        <v>812</v>
+        <v>866</v>
       </c>
       <c r="B190" s="21" t="s">
-        <v>807</v>
+        <v>839</v>
       </c>
       <c r="C190" s="18" t="s">
-        <v>885</v>
+        <v>846</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="14" t="s">
-        <v>609</v>
+        <v>868</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>589</v>
+        <v>839</v>
       </c>
       <c r="C191" s="18" t="s">
-        <v>597</v>
+        <v>848</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="17" t="s">
-        <v>608</v>
+        <v>812</v>
       </c>
       <c r="B192" s="21" t="s">
+        <v>807</v>
+      </c>
+      <c r="C192" s="18" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="17" t="s">
+        <v>609</v>
+      </c>
+      <c r="B193" s="21" t="s">
         <v>589</v>
       </c>
-      <c r="C192" s="18" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="B193" s="20"/>
-      <c r="C193" s="16" t="s">
-        <v>299</v>
+      <c r="C193" s="18" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="17" t="s">
-        <v>867</v>
+        <v>608</v>
       </c>
       <c r="B194" s="21" t="s">
-        <v>839</v>
+        <v>589</v>
       </c>
       <c r="C194" s="18" t="s">
-        <v>847</v>
+        <v>596</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="15" t="s">
-        <v>903</v>
-      </c>
-      <c r="B195" s="21" t="s">
-        <v>896</v>
-      </c>
-      <c r="C195" s="18" t="s">
-        <v>904</v>
+        <v>298</v>
+      </c>
+      <c r="B195" s="20"/>
+      <c r="C195" s="16" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="17" t="s">
-        <v>300</v>
+        <v>867</v>
       </c>
       <c r="B196" s="21" t="s">
-        <v>895</v>
+        <v>839</v>
       </c>
       <c r="C196" s="18" t="s">
-        <v>74</v>
+        <v>847</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="B197" s="20"/>
-      <c r="C197" s="16" t="s">
-        <v>303</v>
+        <v>903</v>
+      </c>
+      <c r="B197" s="21" t="s">
+        <v>896</v>
+      </c>
+      <c r="C197" s="18" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="17" t="s">
-        <v>864</v>
+        <v>300</v>
       </c>
       <c r="B198" s="21" t="s">
-        <v>839</v>
+        <v>895</v>
       </c>
       <c r="C198" s="18" t="s">
-        <v>844</v>
+        <v>74</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="17" t="s">
-        <v>914</v>
-      </c>
-      <c r="B199" s="21" t="s">
-        <v>896</v>
-      </c>
-      <c r="C199" s="18" t="s">
-        <v>909</v>
+      <c r="A199" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B199" s="20"/>
+      <c r="C199" s="16" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="17" t="s">
-        <v>804</v>
+        <v>864</v>
       </c>
       <c r="B200" s="21" t="s">
-        <v>776</v>
+        <v>839</v>
       </c>
       <c r="C200" s="18" t="s">
-        <v>790</v>
+        <v>844</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="B201" s="20"/>
-      <c r="C201" s="16" t="s">
-        <v>305</v>
+      <c r="A201" s="17" t="s">
+        <v>914</v>
+      </c>
+      <c r="B201" s="21" t="s">
+        <v>896</v>
+      </c>
+      <c r="C201" s="18" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="17" t="s">
-        <v>675</v>
+        <v>804</v>
       </c>
       <c r="B202" s="21" t="s">
-        <v>656</v>
+        <v>776</v>
       </c>
       <c r="C202" s="18" t="s">
-        <v>667</v>
+        <v>790</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="17" t="s">
-        <v>870</v>
-      </c>
-      <c r="B203" s="21" t="s">
-        <v>839</v>
-      </c>
-      <c r="C203" s="18" t="s">
-        <v>850</v>
+      <c r="A203" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="B203" s="20"/>
+      <c r="C203" s="16" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="17" t="s">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="B204" s="21" t="s">
-        <v>839</v>
+        <v>656</v>
       </c>
       <c r="C204" s="18" t="s">
-        <v>855</v>
+        <v>667</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="17" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="B205" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C205" s="18" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="17" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B206" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C206" s="18" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="17" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B207" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C207" s="18" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="17" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="B208" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C208" s="18" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="17" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="B209" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C209" s="18" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="17" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="B210" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C210" s="18" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="17" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="B211" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C211" s="18" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="17" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B212" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C212" s="18" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="17" t="s">
-        <v>796</v>
+        <v>869</v>
       </c>
       <c r="B213" s="21" t="s">
-        <v>776</v>
+        <v>839</v>
       </c>
       <c r="C213" s="18" t="s">
-        <v>781</v>
+        <v>849</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="17" t="s">
-        <v>794</v>
+        <v>872</v>
       </c>
       <c r="B214" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="C214" s="18" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="B215" s="21" t="s">
         <v>776</v>
       </c>
-      <c r="C214" s="18" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="B215" s="20"/>
-      <c r="C215" s="16" t="s">
-        <v>307</v>
+      <c r="C215" s="18" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="17" t="s">
+        <v>794</v>
+      </c>
+      <c r="B216" s="21" t="s">
+        <v>776</v>
+      </c>
+      <c r="C216" s="18" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="B217" s="20"/>
+      <c r="C217" s="16" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="17" t="s">
         <v>765</v>
       </c>
-      <c r="B216" s="21" t="s">
+      <c r="B218" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="C216" s="18" t="s">
+      <c r="C218" s="18" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="22" t="s">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B217" s="23" t="s">
+      <c r="B219" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="C217" s="24" t="s">
+      <c r="C219" s="24" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="22" t="s">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B218" s="23" t="s">
+      <c r="B220" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="C218" s="24" t="s">
+      <c r="C220" s="24" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="17" t="s">
-        <v>755</v>
-      </c>
-      <c r="B219" s="21" t="s">
-        <v>753</v>
-      </c>
-      <c r="C219" s="18" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="17" t="s">
-        <v>672</v>
-      </c>
-      <c r="B220" s="21" t="s">
-        <v>656</v>
-      </c>
-      <c r="C220" s="18" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="17" t="s">
-        <v>882</v>
+        <v>755</v>
       </c>
       <c r="B221" s="21" t="s">
-        <v>514</v>
+        <v>753</v>
       </c>
       <c r="C221" s="18" t="s">
-        <v>524</v>
+        <v>754</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="17" t="s">
-        <v>938</v>
+        <v>672</v>
       </c>
       <c r="B222" s="21" t="s">
-        <v>896</v>
+        <v>656</v>
       </c>
       <c r="C222" s="18" t="s">
-        <v>933</v>
+        <v>658</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="17" t="s">
-        <v>607</v>
+        <v>882</v>
       </c>
       <c r="B223" s="21" t="s">
-        <v>589</v>
+        <v>514</v>
       </c>
       <c r="C223" s="18" t="s">
-        <v>595</v>
+        <v>524</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="17" t="s">
-        <v>863</v>
+        <v>938</v>
       </c>
       <c r="B224" s="21" t="s">
-        <v>839</v>
+        <v>896</v>
       </c>
       <c r="C224" s="18" t="s">
-        <v>843</v>
+        <v>933</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="B225" s="20"/>
-      <c r="C225" s="16" t="s">
-        <v>309</v>
+      <c r="A225" s="17" t="s">
+        <v>607</v>
+      </c>
+      <c r="B225" s="21" t="s">
+        <v>589</v>
+      </c>
+      <c r="C225" s="18" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="17" t="s">
+        <v>863</v>
+      </c>
+      <c r="B226" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="C226" s="18" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B227" s="20"/>
+      <c r="C227" s="12" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="14" t="s">
         <v>810</v>
       </c>
-      <c r="B226" s="21" t="s">
+      <c r="B228" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="C226" s="18" t="s">
+      <c r="C228" s="14" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="14" t="s">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="14" t="s">
         <v>916</v>
       </c>
-      <c r="B227" s="21" t="s">
+      <c r="B229" s="21" t="s">
         <v>896</v>
       </c>
-      <c r="C227" s="14" t="s">
+      <c r="C229" s="14" t="s">
         <v>911</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="B228" s="20"/>
-      <c r="C228" s="12" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="B229" s="20"/>
-      <c r="C229" s="12" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="11" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B230" s="20"/>
       <c r="C230" s="12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B231" s="20"/>
+      <c r="C231" s="12" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="B232" s="20"/>
+      <c r="C232" s="12" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="14" t="s">
-        <v>861</v>
-      </c>
-      <c r="B231" s="21" t="s">
-        <v>839</v>
-      </c>
-      <c r="C231" s="14" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" s="14" t="s">
-        <v>879</v>
-      </c>
-      <c r="B232" s="21" t="s">
-        <v>839</v>
-      </c>
-      <c r="C232" s="14" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="14" t="s">
-        <v>673</v>
+        <v>861</v>
       </c>
       <c r="B233" s="21" t="s">
-        <v>656</v>
+        <v>839</v>
       </c>
       <c r="C233" s="14" t="s">
-        <v>664</v>
+        <v>841</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="14" t="s">
+        <v>879</v>
+      </c>
+      <c r="B234" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="C234" s="14" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="14" t="s">
+        <v>673</v>
+      </c>
+      <c r="B235" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="C235" s="14" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="14" t="s">
         <v>706</v>
       </c>
-      <c r="B234" s="21" t="s">
+      <c r="B236" s="14" t="s">
         <v>680</v>
       </c>
-      <c r="C234" s="14" t="s">
+      <c r="C236" s="14" t="s">
         <v>685</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="B235" s="11"/>
-      <c r="C235" s="12" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="B236" s="11"/>
-      <c r="C236" s="12" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="11" t="s">
-        <v>897</v>
-      </c>
-      <c r="B237" s="11" t="s">
-        <v>896</v>
-      </c>
-      <c r="C237" s="14" t="s">
-        <v>898</v>
+        <v>316</v>
+      </c>
+      <c r="B237" s="11"/>
+      <c r="C237" s="12" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B238" s="11"/>
       <c r="C238" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="11" t="s">
+        <v>897</v>
+      </c>
+      <c r="B239" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="C239" s="14" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="B240" s="11"/>
+      <c r="C240" s="12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="B239" s="11"/>
-      <c r="C239" s="12" t="s">
+      <c r="B241" s="11"/>
+      <c r="C241" s="12" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" s="10" t="s">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="14" t="s">
+        <v>953</v>
+      </c>
+      <c r="B242" s="14" t="s">
+        <v>939</v>
+      </c>
+      <c r="C242" s="14" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="14" t="s">
+        <v>945</v>
+      </c>
+      <c r="B243" s="14" t="s">
+        <v>939</v>
+      </c>
+      <c r="C243" s="25" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" s="10" t="s">
         <v>699</v>
       </c>
-      <c r="B240" s="14" t="s">
+      <c r="B244" s="14" t="s">
         <v>680</v>
       </c>
-      <c r="C240" s="10" t="s">
+      <c r="C244" s="10" t="s">
         <v>687</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" s="10" t="s">
-        <v>700</v>
-      </c>
-      <c r="B241" s="14" t="s">
-        <v>680</v>
-      </c>
-      <c r="C241" s="10" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="B242" s="11"/>
-      <c r="C242" s="12" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="B243" s="11"/>
-      <c r="C243" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A244" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="B244" s="11"/>
-      <c r="C244" s="12" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="10" t="s">
-        <v>330</v>
+        <v>700</v>
       </c>
       <c r="B245" s="14" t="s">
-        <v>656</v>
+        <v>680</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="11" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B246" s="11"/>
       <c r="C246" s="12" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="11" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B247" s="11"/>
       <c r="C247" s="12" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="11" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B248" s="11"/>
       <c r="C248" s="12" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A249" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="B249" s="11"/>
-      <c r="C249" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B249" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="C249" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" s="11" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B250" s="11"/>
       <c r="C250" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="11" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B251" s="11"/>
       <c r="C251" s="12" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A252" s="10" t="s">
-        <v>678</v>
-      </c>
-      <c r="B252" s="10" t="s">
-        <v>656</v>
-      </c>
-      <c r="C252" s="10" t="s">
-        <v>662</v>
+      <c r="A252" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="B252" s="11"/>
+      <c r="C252" s="12" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="11" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B253" s="11"/>
       <c r="C253" s="12" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="11" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B254" s="11"/>
       <c r="C254" s="12" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A255" s="14" t="s">
-        <v>818</v>
-      </c>
-      <c r="B255" s="14" t="s">
-        <v>807</v>
-      </c>
-      <c r="C255" s="14" t="s">
-        <v>819</v>
+      <c r="A255" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="B255" s="11"/>
+      <c r="C255" s="12" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A256" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="B256" s="11"/>
-      <c r="C256" s="12" t="s">
-        <v>349</v>
+      <c r="A256" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="B256" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="C256" s="10" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="11" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B257" s="11"/>
       <c r="C257" s="12" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A258" s="11" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B258" s="11"/>
       <c r="C258" s="12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" s="14" t="s">
+        <v>818</v>
+      </c>
+      <c r="B259" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="C259" s="14" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="B260" s="11"/>
+      <c r="C260" s="12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="B261" s="11"/>
+      <c r="C261" s="12" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="B262" s="11"/>
+      <c r="C262" s="12" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A259" s="11" t="s">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="B259" s="11"/>
-      <c r="C259" s="12" t="s">
+      <c r="B263" s="11"/>
+      <c r="C263" s="12" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A260" s="14" t="s">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" s="14" t="s">
         <v>550</v>
       </c>
-      <c r="B260" s="14" t="s">
+      <c r="B264" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="C260" s="14" t="s">
+      <c r="C264" s="14" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A261" s="10" t="s">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" s="10" t="s">
         <v>721</v>
       </c>
-      <c r="B261" s="10" t="s">
+      <c r="B265" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="C261" s="10" t="s">
+      <c r="C265" s="10" t="s">
         <v>722</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A262" s="14" t="s">
-        <v>527</v>
-      </c>
-      <c r="B262" s="14" t="s">
-        <v>514</v>
-      </c>
-      <c r="C262" s="14" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="B263" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="C263" s="26" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A264" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="B264" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="C264" s="26" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A265" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="B265" s="11"/>
-      <c r="C265" s="12" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="14" t="s">
-        <v>358</v>
+        <v>527</v>
       </c>
       <c r="B266" s="14" t="s">
-        <v>895</v>
-      </c>
-      <c r="C266" s="12" t="s">
-        <v>359</v>
+        <v>514</v>
+      </c>
+      <c r="C266" s="14" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="26" t="s">
-        <v>510</v>
+        <v>127</v>
       </c>
       <c r="B267" s="26" t="s">
         <v>502</v>
       </c>
       <c r="C267" s="26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B268" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C268" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="B269" s="11"/>
+      <c r="C269" s="12" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="B270" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="C270" s="12" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="B271" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C271" s="26" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A268" s="11" t="s">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="B268" s="11"/>
-      <c r="C268" s="12" t="s">
+      <c r="B272" s="11"/>
+      <c r="C272" s="12" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
         <v>26</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B273" t="s">
         <v>500</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C273" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="11" t="s">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="B270" s="11"/>
-      <c r="C270" s="12" t="s">
+      <c r="B274" s="11"/>
+      <c r="C274" s="12" t="s">
         <v>363</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A271" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="B271" s="11"/>
-      <c r="C271" s="12" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A272" s="14" t="s">
-        <v>586</v>
-      </c>
-      <c r="B272" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="C272" s="14" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A273" s="10" t="s">
-        <v>629</v>
-      </c>
-      <c r="B273" s="14" t="s">
-        <v>610</v>
-      </c>
-      <c r="C273" s="10" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A274" s="14" t="s">
-        <v>578</v>
-      </c>
-      <c r="B274" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="C274" s="14" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B275" s="11"/>
       <c r="C275" s="12" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="B276" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C276" s="14" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="B277" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C277" s="10" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="B278" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C278" s="14" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="B279" s="11"/>
+      <c r="C279" s="12" t="s">
         <v>367</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A276" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="B276" s="11"/>
-      <c r="C276" s="12" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A277" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="B277" s="11"/>
-      <c r="C277" s="12" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A278" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B278" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="C278" s="26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B279" s="14"/>
-      <c r="C279" s="14" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="11" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B280" s="11"/>
       <c r="C280" s="12" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="B281" s="11"/>
+      <c r="C281" s="12" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B282" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C282" s="26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B283" s="14"/>
+      <c r="C283" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="B284" s="11"/>
+      <c r="C284" s="12" t="s">
         <v>375</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A281" s="14" t="s">
-        <v>653</v>
-      </c>
-      <c r="B281" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="C281" s="14" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A282" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="B282" s="11"/>
-      <c r="C282" s="12" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A283" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B283" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="C283" s="26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A284" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B284" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="C284" s="26" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="14" t="s">
-        <v>601</v>
+        <v>653</v>
       </c>
       <c r="B285" s="14" t="s">
-        <v>589</v>
+        <v>634</v>
       </c>
       <c r="C285" s="14" t="s">
-        <v>591</v>
+        <v>643</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A286" s="14" t="s">
-        <v>602</v>
-      </c>
-      <c r="B286" s="14" t="s">
-        <v>589</v>
-      </c>
-      <c r="C286" s="14" t="s">
-        <v>592</v>
+      <c r="A286" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="B286" s="11"/>
+      <c r="C286" s="12" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A287" s="14" t="s">
-        <v>515</v>
-      </c>
-      <c r="B287" s="14" t="s">
-        <v>514</v>
-      </c>
-      <c r="C287" s="14" t="s">
-        <v>516</v>
+      <c r="A287" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B287" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="C287" s="26" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="26" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="B288" s="26" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C288" s="26" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A289" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="B289" s="11"/>
-      <c r="C289" s="12" t="s">
-        <v>379</v>
+      <c r="A289" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="B289" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="C289" s="14" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A290" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="B290" s="11"/>
-      <c r="C290" s="12" t="s">
-        <v>381</v>
+      <c r="A290" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="B290" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="C290" s="14" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B291" s="14"/>
+        <v>515</v>
+      </c>
+      <c r="B291" s="14" t="s">
+        <v>514</v>
+      </c>
       <c r="C291" s="14" t="s">
-        <v>99</v>
+        <v>516</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A292" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="B292" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="C292" s="14" t="s">
-        <v>581</v>
+      <c r="A292" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B292" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C292" s="26" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="11" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B293" s="11"/>
       <c r="C293" s="12" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A294" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B294" s="14"/>
-      <c r="C294" s="14" t="s">
-        <v>69</v>
+      <c r="A294" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="B294" s="11"/>
+      <c r="C294" s="12" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="B295" s="11"/>
-      <c r="C295" s="12" t="s">
-        <v>389</v>
+      <c r="A295" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B295" s="14"/>
+      <c r="C295" s="14" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A296" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="B296" s="11"/>
-      <c r="C296" s="12" t="s">
-        <v>391</v>
+      <c r="A296" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="B296" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C296" s="14" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="11" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B297" s="11"/>
       <c r="C297" s="12" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B298" s="14"/>
+      <c r="C298" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="B299" s="11"/>
+      <c r="C299" s="12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="B300" s="11"/>
+      <c r="C300" s="12" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="B301" s="11"/>
+      <c r="C301" s="12" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" s="14" t="s">
         <v>820</v>
       </c>
-      <c r="B298" s="14" t="s">
+      <c r="B302" s="14" t="s">
         <v>807</v>
       </c>
-      <c r="C298" s="14" t="s">
+      <c r="C302" s="14" t="s">
         <v>821</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A299" s="14" t="s">
-        <v>923</v>
-      </c>
-      <c r="B299" s="10" t="s">
-        <v>896</v>
-      </c>
-      <c r="C299" s="14" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A300" s="14" t="s">
-        <v>741</v>
-      </c>
-      <c r="B300" s="14" t="s">
-        <v>729</v>
-      </c>
-      <c r="C300" s="14" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A301" s="14" t="s">
-        <v>761</v>
-      </c>
-      <c r="B301" s="14" t="s">
-        <v>753</v>
-      </c>
-      <c r="C301" s="14" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A302" s="10" t="s">
-        <v>708</v>
-      </c>
-      <c r="B302" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="C302" s="10" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="14" t="s">
-        <v>708</v>
-      </c>
-      <c r="B303" s="14" t="s">
-        <v>729</v>
+        <v>923</v>
+      </c>
+      <c r="B303" s="10" t="s">
+        <v>896</v>
       </c>
       <c r="C303" s="14" t="s">
-        <v>742</v>
+        <v>919</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="14" t="s">
+        <v>741</v>
+      </c>
+      <c r="B304" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="C304" s="14" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" s="14" t="s">
+        <v>761</v>
+      </c>
+      <c r="B305" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="C305" s="14" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="B306" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C306" s="10" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="B307" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="C307" s="14" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" s="14" t="s">
         <v>833</v>
       </c>
-      <c r="B304" s="14" t="s">
+      <c r="B308" s="14" t="s">
         <v>807</v>
       </c>
-      <c r="C304" s="14" t="s">
+      <c r="C308" s="14" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
         <v>16</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B309" t="s">
         <v>500</v>
       </c>
-      <c r="C305" t="s">
+      <c r="C309" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A306" s="14" t="s">
-        <v>588</v>
-      </c>
-      <c r="B306" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="C306" s="14" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A307" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="B307" s="11"/>
-      <c r="C307" s="12" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A308" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="B308" s="11"/>
-      <c r="C308" s="12" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A309" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="B309" s="11"/>
-      <c r="C309" s="12" t="s">
-        <v>399</v>
-      </c>
-    </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A310" s="10" t="s">
-        <v>692</v>
-      </c>
-      <c r="B310" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="C310" s="10" t="s">
-        <v>679</v>
+      <c r="A310" s="14" t="s">
+        <v>949</v>
+      </c>
+      <c r="B310" s="14" t="s">
+        <v>939</v>
+      </c>
+      <c r="C310" s="14" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A311" s="10" t="s">
-        <v>705</v>
-      </c>
-      <c r="B311" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="C311" s="10" t="s">
-        <v>686</v>
+      <c r="A311" s="14" t="s">
+        <v>957</v>
+      </c>
+      <c r="B311" s="14" t="s">
+        <v>939</v>
+      </c>
+      <c r="C311" s="14" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="14" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="B312" s="14" t="s">
         <v>559</v>
       </c>
       <c r="C312" s="14" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A313" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="B313" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="C313" s="10" t="s">
-        <v>728</v>
+      <c r="A313" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="B313" s="11"/>
+      <c r="C313" s="12" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A314" s="10" t="s">
-        <v>711</v>
-      </c>
-      <c r="B314" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="C314" s="10" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A315" s="10" t="s">
-        <v>723</v>
-      </c>
-      <c r="B315" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="C315" s="10" t="s">
-        <v>724</v>
+      <c r="A314" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="B314" s="11"/>
+      <c r="C314" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A315" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="B315" s="11"/>
+      <c r="C315" s="12" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="B316" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C316" s="10" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="B317" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C317" s="10" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="B318" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C318" s="14" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="B319" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C319" s="10" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="B320" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C320" s="10" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="B321" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C321" s="10" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" s="10" t="s">
         <v>712</v>
       </c>
-      <c r="B316" s="10" t="s">
+      <c r="B322" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="C316" s="10" t="s">
+      <c r="C322" s="10" t="s">
         <v>713</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A317" s="14" t="s">
-        <v>926</v>
-      </c>
-      <c r="B317" s="14" t="s">
-        <v>896</v>
-      </c>
-      <c r="C317" s="14" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A318" s="11" t="s">
-        <v>899</v>
-      </c>
-      <c r="B318" s="14" t="s">
-        <v>896</v>
-      </c>
-      <c r="C318" s="14" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A319" s="14" t="s">
-        <v>806</v>
-      </c>
-      <c r="B319" s="14" t="s">
-        <v>776</v>
-      </c>
-      <c r="C319" s="14" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A320" s="14" t="s">
-        <v>937</v>
-      </c>
-      <c r="B320" s="10" t="s">
-        <v>896</v>
-      </c>
-      <c r="C320" s="14" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A321" s="14" t="s">
-        <v>797</v>
-      </c>
-      <c r="B321" s="14" t="s">
-        <v>776</v>
-      </c>
-      <c r="C321" s="14" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A322" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B322" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="C322" s="26" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="14" t="s">
-        <v>749</v>
+        <v>952</v>
       </c>
       <c r="B323" s="14" t="s">
-        <v>729</v>
+        <v>939</v>
       </c>
       <c r="C323" s="14" t="s">
-        <v>744</v>
+        <v>951</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A324" s="14" t="s">
-        <v>808</v>
-      </c>
-      <c r="B324" s="14" t="s">
-        <v>807</v>
+      <c r="A324" s="10" t="s">
+        <v>941</v>
+      </c>
+      <c r="B324" s="10" t="s">
+        <v>939</v>
       </c>
       <c r="C324" s="14" t="s">
-        <v>809</v>
+        <v>942</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A325" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="B325" s="11"/>
-      <c r="C325" s="12" t="s">
-        <v>401</v>
+      <c r="A325" s="14" t="s">
+        <v>926</v>
+      </c>
+      <c r="B325" s="14" t="s">
+        <v>896</v>
+      </c>
+      <c r="C325" s="14" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A326" s="10" t="s">
-        <v>627</v>
+      <c r="A326" s="11" t="s">
+        <v>899</v>
       </c>
       <c r="B326" s="14" t="s">
-        <v>610</v>
-      </c>
-      <c r="C326" s="10" t="s">
-        <v>621</v>
+        <v>896</v>
+      </c>
+      <c r="C326" s="14" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="14" t="s">
-        <v>773</v>
+        <v>806</v>
       </c>
       <c r="B327" s="14" t="s">
-        <v>753</v>
+        <v>776</v>
       </c>
       <c r="C327" s="14" t="s">
-        <v>768</v>
+        <v>777</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="14" t="s">
-        <v>774</v>
-      </c>
-      <c r="B328" s="14" t="s">
-        <v>753</v>
+        <v>937</v>
+      </c>
+      <c r="B328" s="10" t="s">
+        <v>896</v>
       </c>
       <c r="C328" s="14" t="s">
-        <v>769</v>
+        <v>932</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A329" s="10" t="s">
-        <v>927</v>
-      </c>
-      <c r="B329" s="10" t="s">
-        <v>896</v>
+      <c r="A329" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="B329" s="14" t="s">
+        <v>776</v>
       </c>
       <c r="C329" s="14" t="s">
-        <v>921</v>
+        <v>784</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A330" s="14" t="s">
-        <v>826</v>
-      </c>
-      <c r="B330" s="14" t="s">
-        <v>807</v>
-      </c>
-      <c r="C330" s="14" t="s">
-        <v>827</v>
+      <c r="A330" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B330" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="C330" s="26" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="14" t="s">
-        <v>816</v>
+        <v>749</v>
       </c>
       <c r="B331" s="14" t="s">
-        <v>807</v>
+        <v>729</v>
       </c>
       <c r="C331" s="14" t="s">
-        <v>817</v>
+        <v>744</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="14" t="s">
-        <v>758</v>
+        <v>808</v>
       </c>
       <c r="B332" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="C332" s="14" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="B333" s="11"/>
+      <c r="C333" s="12" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="B334" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C334" s="10" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A335" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="B335" s="14" t="s">
         <v>753</v>
       </c>
-      <c r="C332" s="14" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A333" s="14" t="s">
-        <v>935</v>
-      </c>
-      <c r="B333" s="10" t="s">
-        <v>896</v>
-      </c>
-      <c r="C333" s="14" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A334" s="14" t="s">
-        <v>532</v>
-      </c>
-      <c r="B334" s="14" t="s">
-        <v>514</v>
-      </c>
-      <c r="C334" s="14" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A335" t="s">
-        <v>35</v>
-      </c>
-      <c r="B335" t="s">
-        <v>500</v>
-      </c>
-      <c r="C335" t="s">
-        <v>36</v>
+      <c r="C335" s="14" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="14" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B336" s="14" t="s">
         <v>753</v>
       </c>
       <c r="C336" s="14" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="14" t="s">
+        <v>955</v>
+      </c>
+      <c r="B337" s="14" t="s">
+        <v>939</v>
+      </c>
+      <c r="C337" s="14" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A338" s="10" t="s">
+        <v>927</v>
+      </c>
+      <c r="B338" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="C338" s="14" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A339" s="14" t="s">
+        <v>826</v>
+      </c>
+      <c r="B339" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="C339" s="14" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A340" s="14" t="s">
+        <v>816</v>
+      </c>
+      <c r="B340" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="C340" s="14" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A341" s="14" t="s">
+        <v>758</v>
+      </c>
+      <c r="B341" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="C341" s="14" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A342" s="14" t="s">
+        <v>935</v>
+      </c>
+      <c r="B342" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="C342" s="14" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="B343" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="C343" s="14" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>35</v>
+      </c>
+      <c r="B344" t="s">
+        <v>500</v>
+      </c>
+      <c r="C344" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A345" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="B345" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="C345" s="14" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A346" s="14" t="s">
         <v>915</v>
       </c>
-      <c r="B337" s="14" t="s">
+      <c r="B346" s="14" t="s">
         <v>896</v>
       </c>
-      <c r="C337" s="14" t="s">
+      <c r="C346" s="14" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A338" s="11" t="s">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="B338" s="11"/>
-      <c r="C338" s="12" t="s">
+      <c r="B347" s="11"/>
+      <c r="C347" s="12" t="s">
         <v>403</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A339" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="B339" s="11"/>
-      <c r="C339" s="12" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A340" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="B340" s="11"/>
-      <c r="C340" s="12" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A341" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="B341" s="11"/>
-      <c r="C341" s="12" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A342" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="B342" s="11"/>
-      <c r="C342" s="12" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A343" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="B343" s="11"/>
-      <c r="C343" s="12" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A344" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="B344" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="C344" s="14" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A345" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="B345" s="11"/>
-      <c r="C345" s="12" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A346" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="B346" s="11"/>
-      <c r="C346" s="12" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A347" s="14" t="s">
-        <v>800</v>
-      </c>
-      <c r="B347" s="14" t="s">
-        <v>776</v>
-      </c>
-      <c r="C347" s="14" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="11" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="B348" s="11"/>
       <c r="C348" s="12" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A349" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="B349" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="C349" s="26" t="s">
-        <v>90</v>
+      <c r="A349" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="B349" s="11"/>
+      <c r="C349" s="12" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A350" s="10" t="s">
-        <v>696</v>
-      </c>
-      <c r="B350" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="C350" s="10" t="s">
-        <v>694</v>
+      <c r="A350" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="B350" s="11"/>
+      <c r="C350" s="12" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A351" s="14" t="s">
-        <v>805</v>
-      </c>
-      <c r="B351" s="14" t="s">
-        <v>776</v>
-      </c>
-      <c r="C351" s="14" t="s">
-        <v>791</v>
+      <c r="A351" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="B351" s="11"/>
+      <c r="C351" s="12" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A352" s="14" t="s">
-        <v>799</v>
-      </c>
-      <c r="B352" s="14" t="s">
-        <v>776</v>
-      </c>
-      <c r="C352" s="14" t="s">
-        <v>786</v>
+      <c r="A352" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="B352" s="11"/>
+      <c r="C352" s="12" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="14" t="s">
-        <v>862</v>
+        <v>573</v>
       </c>
       <c r="B353" s="14" t="s">
-        <v>839</v>
+        <v>559</v>
       </c>
       <c r="C353" s="14" t="s">
-        <v>842</v>
+        <v>539</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A354" s="10" t="s">
-        <v>625</v>
-      </c>
-      <c r="B354" s="14" t="s">
-        <v>610</v>
-      </c>
-      <c r="C354" s="10" t="s">
-        <v>617</v>
+      <c r="A354" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="B354" s="11"/>
+      <c r="C354" s="12" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B355" s="11"/>
       <c r="C355" s="12" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="14" t="s">
-        <v>547</v>
+        <v>800</v>
       </c>
       <c r="B356" s="14" t="s">
-        <v>535</v>
+        <v>776</v>
       </c>
       <c r="C356" s="14" t="s">
-        <v>537</v>
+        <v>788</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A357" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B357" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="C357" s="10" t="s">
-        <v>66</v>
+      <c r="A357" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="B357" s="11"/>
+      <c r="C357" s="12" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="26" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="B358" s="26" t="s">
         <v>501</v>
       </c>
       <c r="C358" s="26" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A359" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="B359" s="11"/>
-      <c r="C359" s="12" t="s">
-        <v>423</v>
+      <c r="A359" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="B359" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C359" s="10" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A360" s="10" t="s">
-        <v>633</v>
+      <c r="A360" s="14" t="s">
+        <v>805</v>
       </c>
       <c r="B360" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="C360" s="14" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A361" s="14" t="s">
+        <v>799</v>
+      </c>
+      <c r="B361" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="C361" s="14" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362" s="14" t="s">
+        <v>862</v>
+      </c>
+      <c r="B362" s="14" t="s">
+        <v>839</v>
+      </c>
+      <c r="C362" s="14" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="B363" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="C360" s="10" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A361" s="10" t="s">
-        <v>633</v>
-      </c>
-      <c r="B361" s="10" t="s">
-        <v>634</v>
-      </c>
-      <c r="C361" s="10" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A362" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="B362" s="11"/>
-      <c r="C362" s="12" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A363" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="B363" s="11"/>
-      <c r="C363" s="12" t="s">
-        <v>427</v>
+      <c r="C363" s="10" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="11" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B364" s="11"/>
       <c r="C364" s="12" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A365" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="B365" s="11"/>
-      <c r="C365" s="12" t="s">
-        <v>431</v>
+      <c r="A365" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="B365" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="C365" s="14" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A366" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="B366" s="11"/>
-      <c r="C366" s="12" t="s">
-        <v>433</v>
+      <c r="A366" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B366" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C366" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A367" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="B367" s="11"/>
-      <c r="C367" s="12" t="s">
-        <v>435</v>
+      <c r="A367" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B367" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="C367" s="26" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="11" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="B368" s="11"/>
       <c r="C368" s="12" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A369" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="B369" s="11"/>
-      <c r="C369" s="12" t="s">
-        <v>439</v>
+      <c r="A369" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="B369" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C369" s="10" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A370" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B370" s="11"/>
-      <c r="C370" s="12" t="s">
-        <v>440</v>
+      <c r="A370" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="B370" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="C370" s="10" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="11" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="B371" s="11"/>
       <c r="C371" s="12" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="11" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="B372" s="11"/>
       <c r="C372" s="12" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A373" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B373" s="14"/>
-      <c r="C373" s="14" t="s">
-        <v>86</v>
+      <c r="A373" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="B373" s="11"/>
+      <c r="C373" s="12" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="11" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="B374" s="11"/>
       <c r="C374" s="12" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="11" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="B375" s="11"/>
       <c r="C375" s="12" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A376" s="14" t="s">
-        <v>565</v>
-      </c>
-      <c r="B376" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="C376" s="14" t="s">
-        <v>566</v>
+      <c r="A376" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="B376" s="11"/>
+      <c r="C376" s="12" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A377" s="14" t="s">
-        <v>544</v>
-      </c>
-      <c r="B377" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="C377" s="14" t="s">
-        <v>542</v>
+      <c r="A377" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="B377" s="11"/>
+      <c r="C377" s="12" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A378" s="10" t="s">
-        <v>624</v>
-      </c>
-      <c r="B378" s="14" t="s">
-        <v>610</v>
-      </c>
-      <c r="C378" s="10" t="s">
-        <v>616</v>
+      <c r="A378" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="B378" s="11"/>
+      <c r="C378" s="12" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A379" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="B379" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="C379" s="14" t="s">
-        <v>555</v>
+      <c r="A379" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B379" s="11"/>
+      <c r="C379" s="12" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A380" s="10" t="s">
-        <v>646</v>
-      </c>
-      <c r="B380" s="10" t="s">
-        <v>634</v>
-      </c>
-      <c r="C380" s="10" t="s">
-        <v>635</v>
+      <c r="A380" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="B380" s="11"/>
+      <c r="C380" s="12" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A381" s="14" t="s">
-        <v>545</v>
-      </c>
-      <c r="B381" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="C381" s="14" t="s">
-        <v>543</v>
+      <c r="A381" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="B381" s="11"/>
+      <c r="C381" s="12" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="14" t="s">
-        <v>560</v>
-      </c>
-      <c r="B382" s="14" t="s">
-        <v>535</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B382" s="14"/>
       <c r="C382" s="14" t="s">
-        <v>553</v>
+        <v>86</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A383" s="14" t="s">
-        <v>546</v>
-      </c>
-      <c r="B383" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="C383" s="14" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A383" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="B383" s="11"/>
+      <c r="C383" s="12" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B384" s="11"/>
       <c r="C384" s="12" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="14" t="s">
-        <v>453</v>
+        <v>565</v>
       </c>
       <c r="B385" s="14" t="s">
-        <v>895</v>
-      </c>
-      <c r="C385" s="12" t="s">
-        <v>454</v>
+        <v>559</v>
+      </c>
+      <c r="C385" s="14" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A386" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B386" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="C386" s="26" t="s">
-        <v>118</v>
+      <c r="A386" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="B386" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="C386" s="14" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A387" s="26" t="s">
-        <v>455</v>
-      </c>
-      <c r="B387" s="26" t="s">
-        <v>886</v>
-      </c>
-      <c r="C387" s="12" t="s">
-        <v>456</v>
+      <c r="A387" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="B387" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C387" s="10" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="B388" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="C388" s="14" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A389" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="B389" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="C389" s="10" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A390" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="B390" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="C390" s="14" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A391" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="B391" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="C391" s="14" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A392" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="B392" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="C392" s="14" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A393" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="B393" s="11"/>
+      <c r="C393" s="12" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A394" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="B394" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="C394" s="12" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A395" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B395" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C395" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A396" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="B396" s="26" t="s">
+        <v>886</v>
+      </c>
+      <c r="C396" s="12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A397" s="14" t="s">
         <v>801</v>
       </c>
-      <c r="B388" s="14" t="s">
+      <c r="B397" s="14" t="s">
         <v>776</v>
       </c>
-      <c r="C388" s="14" t="s">
+      <c r="C397" s="14" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A389" s="26" t="s">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A398" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="B389" s="26" t="s">
+      <c r="B398" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="C389" s="26" t="s">
+      <c r="C398" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A390" s="26" t="s">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A399" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B390" s="26" t="s">
+      <c r="B399" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="C390" s="26" t="s">
+      <c r="C399" s="26" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A391" s="26" t="s">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A400" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B391" s="14" t="s">
+      <c r="B400" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="C391" s="14" t="s">
+      <c r="C400" s="14" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A392" s="11" t="s">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A401" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="B392" s="11"/>
-      <c r="C392" s="12" t="s">
+      <c r="B401" s="11"/>
+      <c r="C401" s="12" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A393" s="14" t="s">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A402" s="14" t="s">
         <v>835</v>
       </c>
-      <c r="B393" s="14" t="s">
+      <c r="B402" s="14" t="s">
         <v>807</v>
       </c>
-      <c r="C393" s="14" t="s">
+      <c r="C402" s="14" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A394" s="10" t="s">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A403" s="10" t="s">
         <v>928</v>
       </c>
-      <c r="B394" s="10" t="s">
+      <c r="B403" s="10" t="s">
         <v>896</v>
       </c>
-      <c r="C394" s="14" t="s">
+      <c r="C403" s="14" t="s">
         <v>922</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A395" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="B395" s="11"/>
-      <c r="C395" s="12" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A396" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="B396" s="11"/>
-      <c r="C396" s="12" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A397" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B397" t="s">
-        <v>501</v>
-      </c>
-      <c r="C397" s="26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A398" s="10" t="s">
-        <v>632</v>
-      </c>
-      <c r="B398" s="14" t="s">
-        <v>610</v>
-      </c>
-      <c r="C398" s="10" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A399" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="B399" s="11"/>
-      <c r="C399" s="12" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A400" t="s">
-        <v>15</v>
-      </c>
-      <c r="B400" t="s">
-        <v>500</v>
-      </c>
-      <c r="C400" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A401" s="10" t="s">
-        <v>650</v>
-      </c>
-      <c r="B401" s="10" t="s">
-        <v>634</v>
-      </c>
-      <c r="C401" s="10" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A402" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="B402" s="11"/>
-      <c r="C402" s="12" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A403" s="14" t="s">
-        <v>561</v>
-      </c>
-      <c r="B403" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="C403" s="14" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="11" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="B404" s="11"/>
       <c r="C404" s="12" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" s="11" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B405" s="11"/>
       <c r="C405" s="12" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A406" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="B406" s="11"/>
-      <c r="C406" s="12" t="s">
-        <v>472</v>
+      <c r="A406" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B406" t="s">
+        <v>501</v>
+      </c>
+      <c r="C406" s="26" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A407" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="B407" s="11"/>
-      <c r="C407" s="12" t="s">
-        <v>474</v>
+      <c r="A407" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="B407" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C407" s="10" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" s="11" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="B408" s="11"/>
       <c r="C408" s="12" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A409" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="B409" s="11"/>
-      <c r="C409" s="12" t="s">
-        <v>478</v>
+      <c r="A409" t="s">
+        <v>15</v>
+      </c>
+      <c r="B409" t="s">
+        <v>500</v>
+      </c>
+      <c r="C409" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A410" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="B410" s="11"/>
-      <c r="C410" s="12" t="s">
-        <v>480</v>
+      <c r="A410" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="B410" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="C410" s="10" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" s="11" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="B411" s="11"/>
       <c r="C411" s="12" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A412" s="10" t="s">
-        <v>674</v>
-      </c>
-      <c r="B412" s="10" t="s">
-        <v>656</v>
-      </c>
-      <c r="C412" s="10" t="s">
-        <v>665</v>
+      <c r="A412" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="B412" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C412" s="14" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A413" s="14" t="s">
-        <v>802</v>
-      </c>
-      <c r="B413" s="14" t="s">
-        <v>776</v>
-      </c>
-      <c r="C413" s="14" t="s">
-        <v>803</v>
+      <c r="A413" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="B413" s="11"/>
+      <c r="C413" s="12" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" s="11" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="B414" s="11"/>
       <c r="C414" s="12" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A415" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="B415" s="14" t="s">
-        <v>559</v>
+      <c r="A415" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="B415" s="10" t="s">
+        <v>939</v>
       </c>
       <c r="C415" s="14" t="s">
-        <v>570</v>
+        <v>940</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A416" s="14" t="s">
-        <v>583</v>
-      </c>
-      <c r="B416" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="C416" s="14" t="s">
-        <v>571</v>
+      <c r="A416" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="B416" s="11"/>
+      <c r="C416" s="12" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A417" s="14" t="s">
-        <v>651</v>
-      </c>
-      <c r="B417" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="C417" s="14" t="s">
-        <v>641</v>
+      <c r="A417" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="B417" s="11"/>
+      <c r="C417" s="12" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="11" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="B418" s="11"/>
       <c r="C418" s="12" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A419" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B419" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="C419" s="26" t="s">
-        <v>60</v>
+      <c r="A419" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="B419" s="11"/>
+      <c r="C419" s="12" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="11" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="B420" s="11"/>
       <c r="C420" s="12" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="11" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="B421" s="11"/>
       <c r="C421" s="12" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A422" s="14" t="s">
-        <v>732</v>
-      </c>
-      <c r="B422" s="14" t="s">
-        <v>729</v>
-      </c>
-      <c r="C422" s="14" t="s">
-        <v>733</v>
+      <c r="A422" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="B422" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="C422" s="10" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A423" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="B423" s="11"/>
-      <c r="C423" s="12" t="s">
-        <v>492</v>
+      <c r="A423" s="14" t="s">
+        <v>802</v>
+      </c>
+      <c r="B423" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="C423" s="14" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A424" s="10" t="s">
-        <v>697</v>
-      </c>
-      <c r="B424" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="C424" s="10" t="s">
-        <v>683</v>
+      <c r="A424" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B424" s="11"/>
+      <c r="C424" s="12" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A425" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="B425" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="C425" s="26" t="s">
-        <v>109</v>
+      <c r="A425" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="B425" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C425" s="14" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" s="14" t="s">
-        <v>107</v>
+        <v>583</v>
       </c>
       <c r="B426" s="14" t="s">
-        <v>514</v>
+        <v>559</v>
       </c>
       <c r="C426" s="14" t="s">
-        <v>534</v>
+        <v>571</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B427" s="14"/>
+        <v>651</v>
+      </c>
+      <c r="B427" s="14" t="s">
+        <v>634</v>
+      </c>
       <c r="C427" s="14" t="s">
-        <v>88</v>
+        <v>641</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" s="11" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="B428" s="11"/>
       <c r="C428" s="12" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A429" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B429" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="C429" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A430" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="B430" s="11"/>
+      <c r="C430" s="12" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A431" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="B431" s="11"/>
+      <c r="C431" s="12" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A432" s="14" t="s">
+        <v>732</v>
+      </c>
+      <c r="B432" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="C432" s="14" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A433" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="B433" s="11"/>
+      <c r="C433" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A434" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="B434" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C434" s="10" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A435" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B435" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C435" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A436" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B436" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="C436" s="14" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A437" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B437" s="14"/>
+      <c r="C437" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A438" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="B438" s="11"/>
+      <c r="C438" s="12" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C429" s="14"/>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C430"/>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A431" s="14"/>
-      <c r="B431" s="14"/>
-      <c r="C431" s="25"/>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A432" s="14"/>
-      <c r="B432" s="14"/>
-      <c r="C432" s="25"/>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A433" s="14"/>
-      <c r="B433" s="14"/>
-      <c r="C433" s="14"/>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A434" s="14"/>
-      <c r="B434" s="14"/>
-      <c r="C434" s="14"/>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A435" s="14"/>
-      <c r="B435" s="14"/>
-      <c r="C435" s="14"/>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A436" s="14"/>
-      <c r="B436" s="14"/>
-      <c r="C436" s="14"/>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A437" s="14"/>
-      <c r="B437" s="14"/>
-      <c r="C437" s="14"/>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A438" s="14"/>
-      <c r="B438" s="14"/>
-      <c r="C438" s="14"/>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" s="14"/>

--- a/Zhodani Words List.xlsx
+++ b/Zhodani Words List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF75CB6-D75C-4CA8-96A1-2CEFE4FA2244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CBDD1B-73BB-4148-B5E9-9A2BCFBDCEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
@@ -25,7 +25,6 @@
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Zhdetl (from Alien Book 4)'!$A$1:$B$186</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -74,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="975">
   <si>
     <t>Zhdetl word</t>
   </si>
@@ -2951,6 +2950,54 @@
   </si>
   <si>
     <t>midnight</t>
+  </si>
+  <si>
+    <t>pale'</t>
+  </si>
+  <si>
+    <t>to greet'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pale </t>
+  </si>
+  <si>
+    <t>greetings</t>
+  </si>
+  <si>
+    <t>palnad</t>
+  </si>
+  <si>
+    <t>greeter</t>
+  </si>
+  <si>
+    <t>chikapale</t>
+  </si>
+  <si>
+    <t>good morning; morning greetings</t>
+  </si>
+  <si>
+    <t>chipanpale</t>
+  </si>
+  <si>
+    <t>good morning; morning greetings (implies before dawn)</t>
+  </si>
+  <si>
+    <t>tlachapale</t>
+  </si>
+  <si>
+    <t>good afternoon</t>
+  </si>
+  <si>
+    <t>tlatsopale</t>
+  </si>
+  <si>
+    <t>good evening</t>
+  </si>
+  <si>
+    <t>teyopale</t>
+  </si>
+  <si>
+    <t>good night</t>
   </si>
 </sst>
 </file>
@@ -3119,16 +3166,6 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3157,6 +3194,16 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3189,8 +3236,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4039E8B-8AC1-44D4-939F-61521D537543}" name="Zhdetl" displayName="Zhdetl" ref="A1:B186" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B186" xr:uid="{B2E9EE69-E126-4FC1-ACEF-C598B63AECDE}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6177,8 +6224,8 @@
   <dimension ref="A1:C551"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6822,3876 +6869,3908 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="17" t="s">
+        <v>965</v>
+      </c>
+      <c r="B63" s="21"/>
+      <c r="C63" s="18" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="20"/>
-      <c r="C63" s="16" t="s">
+      <c r="B64" s="20"/>
+      <c r="C64" s="16" t="s">
         <v>499</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="17" t="s">
-        <v>798</v>
-      </c>
-      <c r="B64" s="21" t="s">
-        <v>776</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="17" t="s">
-        <v>771</v>
-      </c>
-      <c r="B65" s="21" t="s">
-        <v>753</v>
-      </c>
+        <v>967</v>
+      </c>
+      <c r="B65" s="21"/>
       <c r="C65" s="18" t="s">
-        <v>766</v>
+        <v>968</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="17" t="s">
-        <v>772</v>
+        <v>798</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>753</v>
+        <v>776</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>767</v>
+        <v>785</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="17" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>747</v>
+        <v>766</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="17" t="s">
-        <v>917</v>
+        <v>772</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>896</v>
+        <v>753</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>912</v>
+        <v>767</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="16" t="s">
-        <v>189</v>
+      <c r="A69" s="17" t="s">
+        <v>752</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>729</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="17" t="s">
+        <v>917</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>896</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B71" s="20"/>
+      <c r="C71" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="17" t="s">
         <v>702</v>
       </c>
-      <c r="B70" s="21" t="s">
+      <c r="B72" s="21" t="s">
         <v>680</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C72" s="18" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="22" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B73" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="C71" s="24" t="s">
+      <c r="C73" s="24" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="15" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="16" t="s">
+      <c r="B74" s="20"/>
+      <c r="C74" s="16" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="17" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="17" t="s">
         <v>730</v>
       </c>
-      <c r="B73" s="21" t="s">
+      <c r="B75" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C75" s="18" t="s">
         <v>731</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="17" t="s">
-        <v>717</v>
-      </c>
-      <c r="B74" s="21" t="s">
-        <v>709</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="B75" s="20"/>
-      <c r="C75" s="16" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="17" t="s">
-        <v>824</v>
+        <v>717</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>807</v>
+        <v>709</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>825</v>
+        <v>716</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B77" s="23" t="s">
-        <v>501</v>
-      </c>
-      <c r="C77" s="24" t="s">
-        <v>55</v>
+      <c r="A77" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B77" s="20"/>
+      <c r="C77" s="16" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="17" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="B78" s="21" t="s">
         <v>807</v>
       </c>
       <c r="C78" s="18" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>807</v>
+      </c>
+      <c r="C80" s="18" t="s">
         <v>813</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="17" t="s">
-        <v>795</v>
-      </c>
-      <c r="B79" s="21" t="s">
-        <v>776</v>
-      </c>
-      <c r="C79" s="18" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B80" s="20"/>
-      <c r="C80" s="16" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B81" s="21"/>
+        <v>795</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>776</v>
+      </c>
       <c r="C81" s="18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="B83" s="20"/>
-      <c r="C83" s="16" t="s">
-        <v>199</v>
+      <c r="A83" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" s="21"/>
+      <c r="C83" s="18" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="16" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="16" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="16" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="15" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="16" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="16" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="16" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="15" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="16" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="B93" s="21" t="s">
-        <v>656</v>
-      </c>
-      <c r="C93" s="18" t="s">
-        <v>659</v>
+      <c r="A93" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B93" s="20"/>
+      <c r="C93" s="16" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="B95" s="20"/>
-      <c r="C95" s="16" t="s">
-        <v>221</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="17" t="s">
+        <v>670</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>656</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="17" t="s">
-        <v>551</v>
-      </c>
-      <c r="B97" s="21" t="s">
-        <v>535</v>
-      </c>
-      <c r="C97" s="18" t="s">
-        <v>552</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B97" s="20"/>
+      <c r="C97" s="16" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="B99" s="20"/>
-      <c r="C99" s="16" t="s">
-        <v>227</v>
+      <c r="A99" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B101" s="20"/>
+      <c r="C101" s="16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B102" s="20"/>
+      <c r="C102" s="16" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="17" t="s">
-        <v>556</v>
-      </c>
-      <c r="B101" s="21" t="s">
-        <v>535</v>
-      </c>
-      <c r="C101" s="18" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B102" s="21"/>
-      <c r="C102" s="18" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="17" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="B103" s="21" t="s">
         <v>535</v>
       </c>
       <c r="C103" s="18" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B104" s="21"/>
+      <c r="C104" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="17" t="s">
+        <v>548</v>
+      </c>
+      <c r="B105" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="C105" s="18" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="15" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="B104" s="20"/>
-      <c r="C104" s="16" t="s">
+      <c r="B106" s="20"/>
+      <c r="C106" s="16" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="15" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="B105" s="20"/>
-      <c r="C105" s="16" t="s">
+      <c r="B107" s="20"/>
+      <c r="C107" s="16" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="17" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="21" t="s">
+      <c r="B108" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="C106" s="18" t="s">
+      <c r="C108" s="18" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="17" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="17" t="s">
         <v>626</v>
       </c>
-      <c r="B107" s="21" t="s">
+      <c r="B109" s="21" t="s">
         <v>610</v>
       </c>
-      <c r="C107" s="18" t="s">
+      <c r="C109" s="18" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="15" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="B108" s="20"/>
-      <c r="C108" s="16" t="s">
+      <c r="B110" s="20"/>
+      <c r="C110" s="16" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="22" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B109" s="23" t="s">
+      <c r="B111" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="C109" s="24" t="s">
+      <c r="C111" s="24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="17" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="17" t="s">
         <v>600</v>
       </c>
-      <c r="B110" s="21" t="s">
+      <c r="B112" s="21" t="s">
         <v>589</v>
       </c>
-      <c r="C110" s="18" t="s">
+      <c r="C112" s="18" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="17" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="17" t="s">
         <v>793</v>
       </c>
-      <c r="B111" s="21" t="s">
+      <c r="B113" s="21" t="s">
         <v>776</v>
       </c>
-      <c r="C111" s="18" t="s">
+      <c r="C113" s="18" t="s">
         <v>780</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="B112" s="20"/>
-      <c r="C112" s="16" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="B113" s="20"/>
-      <c r="C113" s="16" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="16" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="17" t="s">
-        <v>649</v>
-      </c>
-      <c r="B115" s="21" t="s">
-        <v>634</v>
-      </c>
-      <c r="C115" s="18" t="s">
-        <v>639</v>
+      <c r="A115" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B115" s="20"/>
+      <c r="C115" s="16" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="B117" s="21" t="s">
+        <v>634</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B118" s="20"/>
+      <c r="C118" s="16" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B117" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="C117" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B118" s="23" t="s">
-        <v>501</v>
-      </c>
-      <c r="C118" s="24" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="22" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B119" s="23" t="s">
         <v>500</v>
       </c>
       <c r="C119" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B120" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="C120" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B121" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="C121" s="24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="15" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="15" t="s">
         <v>246</v>
-      </c>
-      <c r="B120" s="20"/>
-      <c r="C120" s="16" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="B121" s="20"/>
-      <c r="C121" s="16" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A122" s="15" t="s">
-        <v>250</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="16" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="15" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="16" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="15" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B125" s="20"/>
+      <c r="C125" s="16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B126" s="20"/>
+      <c r="C126" s="16" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="17" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="17" t="s">
         <v>628</v>
       </c>
-      <c r="B125" s="21" t="s">
+      <c r="B127" s="21" t="s">
         <v>610</v>
       </c>
-      <c r="C125" s="18" t="s">
+      <c r="C127" s="18" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="17" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="17" t="s">
         <v>611</v>
       </c>
-      <c r="B126" s="21" t="s">
+      <c r="B128" s="21" t="s">
         <v>610</v>
       </c>
-      <c r="C126" s="18" t="s">
+      <c r="C128" s="18" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="15" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="B127" s="20"/>
-      <c r="C127" s="16" t="s">
+      <c r="B129" s="20"/>
+      <c r="C129" s="16" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="15" t="s">
+    <row r="130" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A130" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="B128" s="20"/>
-      <c r="C128" s="16" t="s">
+      <c r="B130" s="20"/>
+      <c r="C130" s="16" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="22" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B129" s="23" t="s">
+      <c r="B131" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="C129" s="24" t="s">
+      <c r="C131" s="24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="22" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B130" s="23" t="s">
+      <c r="B132" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="C130" s="24" t="s">
+      <c r="C132" s="24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="15" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="B131" s="20"/>
-      <c r="C131" s="16" t="s">
+      <c r="B133" s="20"/>
+      <c r="C133" s="16" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="17" t="s">
-        <v>587</v>
-      </c>
-      <c r="B132" s="21" t="s">
-        <v>559</v>
-      </c>
-      <c r="C132" s="18" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="17" t="s">
-        <v>668</v>
-      </c>
-      <c r="B133" s="21" t="s">
-        <v>656</v>
-      </c>
-      <c r="C133" s="18" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="17" t="s">
-        <v>655</v>
+        <v>587</v>
       </c>
       <c r="B134" s="21" t="s">
-        <v>656</v>
+        <v>559</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>666</v>
+        <v>568</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="17" t="s">
+        <v>668</v>
+      </c>
+      <c r="B135" s="21" t="s">
+        <v>656</v>
+      </c>
+      <c r="C135" s="18" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="17" t="s">
         <v>655</v>
       </c>
-      <c r="B135" s="21" t="s">
+      <c r="B136" s="21" t="s">
+        <v>656</v>
+      </c>
+      <c r="C136" s="18" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="B137" s="21" t="s">
         <v>634</v>
       </c>
-      <c r="C135" s="19" t="s">
+      <c r="C137" s="19" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="15" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="B136" s="20"/>
-      <c r="C136" s="16" t="s">
+      <c r="B138" s="20"/>
+      <c r="C138" s="16" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A137" s="15" t="s">
+    <row r="139" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A139" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B137" s="20"/>
-      <c r="C137" s="16" t="s">
+      <c r="B139" s="20"/>
+      <c r="C139" s="16" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="17" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="17" t="s">
         <v>814</v>
       </c>
-      <c r="B138" s="21" t="s">
+      <c r="B140" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="C138" s="18" t="s">
+      <c r="C140" s="18" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="17" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="17" t="s">
         <v>652</v>
       </c>
-      <c r="B139" s="21" t="s">
+      <c r="B141" s="21" t="s">
         <v>634</v>
       </c>
-      <c r="C139" s="18" t="s">
+      <c r="C141" s="18" t="s">
         <v>642</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="15" t="s">
-        <v>671</v>
-      </c>
-      <c r="B140" s="20" t="s">
-        <v>656</v>
-      </c>
-      <c r="C140" s="16" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="B141" s="20"/>
-      <c r="C141" s="16" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="B142" s="20"/>
+        <v>671</v>
+      </c>
+      <c r="B142" s="20" t="s">
+        <v>656</v>
+      </c>
       <c r="C142" s="16" t="s">
-        <v>268</v>
+        <v>657</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="17" t="s">
-        <v>525</v>
-      </c>
-      <c r="B143" s="21" t="s">
-        <v>514</v>
-      </c>
-      <c r="C143" s="18" t="s">
-        <v>526</v>
+      <c r="A143" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="B143" s="20"/>
+      <c r="C143" s="16" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="17" t="s">
-        <v>831</v>
+        <v>525</v>
       </c>
       <c r="B145" s="21" t="s">
-        <v>807</v>
+        <v>514</v>
       </c>
       <c r="C145" s="18" t="s">
-        <v>832</v>
+        <v>526</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="17" t="s">
-        <v>757</v>
-      </c>
-      <c r="B146" s="21" t="s">
-        <v>753</v>
-      </c>
-      <c r="C146" s="18" t="s">
-        <v>756</v>
+      <c r="A146" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B146" s="20"/>
+      <c r="C146" s="16" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="17" t="s">
-        <v>934</v>
+        <v>831</v>
       </c>
       <c r="B147" s="21" t="s">
-        <v>896</v>
+        <v>807</v>
       </c>
       <c r="C147" s="18" t="s">
-        <v>929</v>
+        <v>832</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="17" t="s">
-        <v>735</v>
+        <v>757</v>
       </c>
       <c r="B148" s="21" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="C148" s="18" t="s">
-        <v>734</v>
+        <v>756</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="15" t="s">
-        <v>905</v>
+      <c r="A149" s="17" t="s">
+        <v>934</v>
       </c>
       <c r="B149" s="21" t="s">
         <v>896</v>
       </c>
       <c r="C149" s="18" t="s">
-        <v>906</v>
+        <v>929</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="17" t="s">
+        <v>735</v>
+      </c>
+      <c r="B150" s="21" t="s">
+        <v>729</v>
+      </c>
+      <c r="C150" s="18" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="15" t="s">
+        <v>905</v>
+      </c>
+      <c r="B151" s="21" t="s">
+        <v>896</v>
+      </c>
+      <c r="C151" s="18" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="17" t="s">
         <v>778</v>
       </c>
-      <c r="B150" s="21" t="s">
+      <c r="B152" s="21" t="s">
         <v>776</v>
       </c>
-      <c r="C150" s="18" t="s">
+      <c r="C152" s="18" t="s">
         <v>787</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="17" t="s">
-        <v>822</v>
-      </c>
-      <c r="B151" s="21" t="s">
-        <v>807</v>
-      </c>
-      <c r="C151" s="18" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="B152" s="20"/>
-      <c r="C152" s="16" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="17" t="s">
-        <v>907</v>
+        <v>822</v>
       </c>
       <c r="B153" s="21" t="s">
-        <v>896</v>
+        <v>807</v>
       </c>
       <c r="C153" s="18" t="s">
-        <v>908</v>
+        <v>823</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B154" s="11"/>
       <c r="C154" s="16" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="17" t="s">
+        <v>907</v>
+      </c>
+      <c r="B155" s="21" t="s">
+        <v>896</v>
+      </c>
+      <c r="C155" s="18" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="B156" s="20"/>
+      <c r="C156" s="16" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="22" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B155" s="23" t="s">
+      <c r="B157" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="C155" s="24" t="s">
+      <c r="C157" s="24" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="22" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B156" s="23" t="s">
+      <c r="B158" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="C156" s="24" t="s">
+      <c r="C158" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="17" t="s">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="17" t="s">
         <v>837</v>
       </c>
-      <c r="B157" s="21" t="s">
+      <c r="B159" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="C157" s="18" t="s">
+      <c r="C159" s="18" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A158" s="15" t="s">
+    <row r="160" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A160" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="B158" s="20"/>
-      <c r="C158" s="16" t="s">
+      <c r="B160" s="20"/>
+      <c r="C160" s="16" t="s">
         <v>719</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="B159" s="20"/>
-      <c r="C159" s="16" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="B160" s="21" t="s">
-        <v>656</v>
-      </c>
-      <c r="C160" s="16" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="15" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B161" s="20"/>
       <c r="C161" s="16" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="B162" s="20"/>
+        <v>278</v>
+      </c>
+      <c r="B162" s="21" t="s">
+        <v>656</v>
+      </c>
       <c r="C162" s="16" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B163" s="20"/>
       <c r="C163" s="16" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="15" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B164" s="20"/>
       <c r="C164" s="16" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="15" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B165" s="20"/>
       <c r="C165" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="B166" s="20"/>
+      <c r="C166" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B167" s="20"/>
+      <c r="C167" s="16" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="17" t="s">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="17" t="s">
         <v>521</v>
       </c>
-      <c r="B166" s="21" t="s">
+      <c r="B168" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="C166" s="18" t="s">
+      <c r="C168" s="18" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="22" t="s">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B167" s="23" t="s">
+      <c r="B169" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="C167" s="24" t="s">
+      <c r="C169" s="24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="22" t="s">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="B168" s="23" t="s">
+      <c r="B170" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="C168" s="24" t="s">
+      <c r="C170" s="24" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="B169" s="21" t="s">
-        <v>514</v>
-      </c>
-      <c r="C169" s="18" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="17" t="s">
-        <v>704</v>
-      </c>
-      <c r="B170" s="21" t="s">
-        <v>680</v>
-      </c>
-      <c r="C170" s="18" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="17" t="s">
-        <v>829</v>
+        <v>125</v>
       </c>
       <c r="B171" s="21" t="s">
-        <v>807</v>
+        <v>514</v>
       </c>
       <c r="C171" s="18" t="s">
-        <v>830</v>
+        <v>518</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="B172" s="21" t="s">
+        <v>680</v>
+      </c>
+      <c r="C172" s="18" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="17" t="s">
+        <v>829</v>
+      </c>
+      <c r="B173" s="21" t="s">
+        <v>807</v>
+      </c>
+      <c r="C173" s="18" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="17" t="s">
         <v>738</v>
       </c>
-      <c r="B172" s="21" t="s">
+      <c r="B174" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="C172" s="18" t="s">
+      <c r="C174" s="18" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="15" t="s">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="B173" s="20"/>
-      <c r="C173" s="16" t="s">
+      <c r="B175" s="20"/>
+      <c r="C175" s="16" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="15" t="s">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="B174" s="20"/>
-      <c r="C174" s="16" t="s">
+      <c r="B176" s="20"/>
+      <c r="C176" s="16" t="s">
         <v>293</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="17" t="s">
-        <v>631</v>
-      </c>
-      <c r="B175" s="21" t="s">
-        <v>610</v>
-      </c>
-      <c r="C175" s="18" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="17" t="s">
-        <v>715</v>
-      </c>
-      <c r="B176" s="21" t="s">
-        <v>709</v>
-      </c>
-      <c r="C176" s="18" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="17" t="s">
-        <v>936</v>
+        <v>631</v>
       </c>
       <c r="B177" s="21" t="s">
-        <v>896</v>
+        <v>610</v>
       </c>
       <c r="C177" s="18" t="s">
-        <v>931</v>
+        <v>613</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="B178" s="20"/>
-      <c r="C178" s="16" t="s">
-        <v>295</v>
+      <c r="A178" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="B178" s="21" t="s">
+        <v>709</v>
+      </c>
+      <c r="C178" s="18" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="17" t="s">
-        <v>881</v>
+        <v>936</v>
       </c>
       <c r="B179" s="21" t="s">
-        <v>839</v>
+        <v>896</v>
       </c>
       <c r="C179" s="18" t="s">
-        <v>845</v>
+        <v>931</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B180" s="20"/>
       <c r="C180" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="17" t="s">
+        <v>881</v>
+      </c>
+      <c r="B181" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="C181" s="18" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B182" s="20"/>
+      <c r="C182" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="17" t="s">
         <v>750</v>
       </c>
-      <c r="B181" s="21" t="s">
+      <c r="B183" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="C181" s="18" t="s">
+      <c r="C183" s="18" t="s">
         <v>745</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B182" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="C182" s="24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B183" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="C183" s="24" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="22" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B184" s="23" t="s">
         <v>500</v>
       </c>
       <c r="C184" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B185" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="C185" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B186" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="C186" s="24" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="17" t="s">
-        <v>695</v>
-      </c>
-      <c r="B185" s="21" t="s">
-        <v>680</v>
-      </c>
-      <c r="C185" s="18" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="15" t="s">
-        <v>901</v>
-      </c>
-      <c r="B186" s="21" t="s">
-        <v>896</v>
-      </c>
-      <c r="C186" s="18" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="17" t="s">
-        <v>792</v>
+        <v>695</v>
       </c>
       <c r="B187" s="21" t="s">
-        <v>776</v>
+        <v>680</v>
       </c>
       <c r="C187" s="18" t="s">
-        <v>779</v>
+        <v>682</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="17" t="s">
-        <v>748</v>
+      <c r="A188" s="15" t="s">
+        <v>901</v>
       </c>
       <c r="B188" s="21" t="s">
-        <v>729</v>
+        <v>896</v>
       </c>
       <c r="C188" s="18" t="s">
-        <v>743</v>
+        <v>902</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="17" t="s">
-        <v>703</v>
+        <v>792</v>
       </c>
       <c r="B189" s="21" t="s">
-        <v>680</v>
+        <v>776</v>
       </c>
       <c r="C189" s="18" t="s">
-        <v>689</v>
+        <v>779</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="17" t="s">
-        <v>866</v>
+        <v>748</v>
       </c>
       <c r="B190" s="21" t="s">
-        <v>839</v>
+        <v>729</v>
       </c>
       <c r="C190" s="18" t="s">
-        <v>846</v>
+        <v>743</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="14" t="s">
-        <v>868</v>
+        <v>703</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>839</v>
+        <v>680</v>
       </c>
       <c r="C191" s="18" t="s">
-        <v>848</v>
+        <v>689</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="17" t="s">
-        <v>812</v>
+        <v>866</v>
       </c>
       <c r="B192" s="21" t="s">
-        <v>807</v>
+        <v>839</v>
       </c>
       <c r="C192" s="18" t="s">
-        <v>885</v>
+        <v>846</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="17" t="s">
-        <v>609</v>
+        <v>868</v>
       </c>
       <c r="B193" s="21" t="s">
-        <v>589</v>
+        <v>839</v>
       </c>
       <c r="C193" s="18" t="s">
-        <v>597</v>
+        <v>848</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="17" t="s">
-        <v>608</v>
+        <v>812</v>
       </c>
       <c r="B194" s="21" t="s">
+        <v>807</v>
+      </c>
+      <c r="C194" s="18" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="17" t="s">
+        <v>609</v>
+      </c>
+      <c r="B195" s="21" t="s">
         <v>589</v>
       </c>
-      <c r="C194" s="18" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="B195" s="20"/>
-      <c r="C195" s="16" t="s">
-        <v>299</v>
+      <c r="C195" s="18" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="17" t="s">
-        <v>867</v>
+        <v>608</v>
       </c>
       <c r="B196" s="21" t="s">
-        <v>839</v>
+        <v>589</v>
       </c>
       <c r="C196" s="18" t="s">
-        <v>847</v>
+        <v>596</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="15" t="s">
-        <v>903</v>
-      </c>
-      <c r="B197" s="21" t="s">
-        <v>896</v>
-      </c>
-      <c r="C197" s="18" t="s">
-        <v>904</v>
+        <v>298</v>
+      </c>
+      <c r="B197" s="20"/>
+      <c r="C197" s="16" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="17" t="s">
-        <v>300</v>
+        <v>867</v>
       </c>
       <c r="B198" s="21" t="s">
-        <v>895</v>
+        <v>839</v>
       </c>
       <c r="C198" s="18" t="s">
-        <v>74</v>
+        <v>847</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="B199" s="20"/>
-      <c r="C199" s="16" t="s">
-        <v>303</v>
+        <v>903</v>
+      </c>
+      <c r="B199" s="21" t="s">
+        <v>896</v>
+      </c>
+      <c r="C199" s="18" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="17" t="s">
-        <v>864</v>
+        <v>300</v>
       </c>
       <c r="B200" s="21" t="s">
-        <v>839</v>
+        <v>895</v>
       </c>
       <c r="C200" s="18" t="s">
-        <v>844</v>
+        <v>74</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="17" t="s">
-        <v>914</v>
-      </c>
-      <c r="B201" s="21" t="s">
-        <v>896</v>
-      </c>
-      <c r="C201" s="18" t="s">
-        <v>909</v>
+      <c r="A201" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B201" s="20"/>
+      <c r="C201" s="16" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="17" t="s">
-        <v>804</v>
+        <v>864</v>
       </c>
       <c r="B202" s="21" t="s">
-        <v>776</v>
+        <v>839</v>
       </c>
       <c r="C202" s="18" t="s">
-        <v>790</v>
+        <v>844</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="B203" s="20"/>
-      <c r="C203" s="16" t="s">
-        <v>305</v>
+      <c r="A203" s="17" t="s">
+        <v>914</v>
+      </c>
+      <c r="B203" s="21" t="s">
+        <v>896</v>
+      </c>
+      <c r="C203" s="18" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="17" t="s">
-        <v>675</v>
+        <v>804</v>
       </c>
       <c r="B204" s="21" t="s">
-        <v>656</v>
+        <v>776</v>
       </c>
       <c r="C204" s="18" t="s">
-        <v>667</v>
+        <v>790</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="17" t="s">
-        <v>870</v>
-      </c>
-      <c r="B205" s="21" t="s">
-        <v>839</v>
-      </c>
-      <c r="C205" s="18" t="s">
-        <v>850</v>
+      <c r="A205" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="B205" s="20"/>
+      <c r="C205" s="16" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="17" t="s">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="B206" s="21" t="s">
-        <v>839</v>
+        <v>656</v>
       </c>
       <c r="C206" s="18" t="s">
-        <v>855</v>
+        <v>667</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="17" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="B207" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C207" s="18" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="17" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B208" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C208" s="18" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="17" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B209" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C209" s="18" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="17" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="B210" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C210" s="18" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="17" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="B211" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C211" s="18" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="17" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="B212" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C212" s="18" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="17" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="B213" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C213" s="18" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="17" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B214" s="21" t="s">
         <v>839</v>
       </c>
       <c r="C214" s="18" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="17" t="s">
-        <v>796</v>
+        <v>869</v>
       </c>
       <c r="B215" s="21" t="s">
-        <v>776</v>
+        <v>839</v>
       </c>
       <c r="C215" s="18" t="s">
-        <v>781</v>
+        <v>849</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="17" t="s">
-        <v>794</v>
+        <v>872</v>
       </c>
       <c r="B216" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="C216" s="18" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="B217" s="21" t="s">
         <v>776</v>
       </c>
-      <c r="C216" s="18" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="B217" s="20"/>
-      <c r="C217" s="16" t="s">
-        <v>307</v>
+      <c r="C217" s="18" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="17" t="s">
+        <v>794</v>
+      </c>
+      <c r="B218" s="21" t="s">
+        <v>776</v>
+      </c>
+      <c r="C218" s="18" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="B219" s="20"/>
+      <c r="C219" s="16" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="17" t="s">
         <v>765</v>
       </c>
-      <c r="B218" s="21" t="s">
+      <c r="B220" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="C218" s="18" t="s">
+      <c r="C220" s="18" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="22" t="s">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B219" s="23" t="s">
+      <c r="B221" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="C219" s="24" t="s">
+      <c r="C221" s="24" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="22" t="s">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B220" s="23" t="s">
+      <c r="B222" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="C220" s="24" t="s">
+      <c r="C222" s="24" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="17" t="s">
-        <v>755</v>
-      </c>
-      <c r="B221" s="21" t="s">
-        <v>753</v>
-      </c>
-      <c r="C221" s="18" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="17" t="s">
-        <v>672</v>
-      </c>
-      <c r="B222" s="21" t="s">
-        <v>656</v>
-      </c>
-      <c r="C222" s="18" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="17" t="s">
-        <v>882</v>
+        <v>755</v>
       </c>
       <c r="B223" s="21" t="s">
-        <v>514</v>
+        <v>753</v>
       </c>
       <c r="C223" s="18" t="s">
-        <v>524</v>
+        <v>754</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="17" t="s">
-        <v>938</v>
+        <v>672</v>
       </c>
       <c r="B224" s="21" t="s">
-        <v>896</v>
+        <v>656</v>
       </c>
       <c r="C224" s="18" t="s">
-        <v>933</v>
+        <v>658</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="17" t="s">
-        <v>607</v>
+        <v>882</v>
       </c>
       <c r="B225" s="21" t="s">
-        <v>589</v>
+        <v>514</v>
       </c>
       <c r="C225" s="18" t="s">
-        <v>595</v>
+        <v>524</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="17" t="s">
-        <v>863</v>
+        <v>938</v>
       </c>
       <c r="B226" s="21" t="s">
-        <v>839</v>
+        <v>896</v>
       </c>
       <c r="C226" s="18" t="s">
-        <v>843</v>
+        <v>933</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="B227" s="20"/>
-      <c r="C227" s="12" t="s">
-        <v>309</v>
+      <c r="A227" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="B227" s="21" t="s">
+        <v>589</v>
+      </c>
+      <c r="C227" s="14" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="14" t="s">
+        <v>863</v>
+      </c>
+      <c r="B228" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="C228" s="14" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B229" s="20"/>
+      <c r="C229" s="12" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="14" t="s">
         <v>810</v>
       </c>
-      <c r="B228" s="21" t="s">
+      <c r="B230" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="C228" s="14" t="s">
+      <c r="C230" s="14" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="14" t="s">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="14" t="s">
         <v>916</v>
       </c>
-      <c r="B229" s="21" t="s">
+      <c r="B231" s="21" t="s">
         <v>896</v>
       </c>
-      <c r="C229" s="14" t="s">
+      <c r="C231" s="14" t="s">
         <v>911</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="B230" s="20"/>
-      <c r="C230" s="12" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="B231" s="20"/>
-      <c r="C231" s="12" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="11" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B232" s="20"/>
       <c r="C232" s="12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B233" s="20"/>
+      <c r="C233" s="12" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="B234" s="20"/>
+      <c r="C234" s="12" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="14" t="s">
-        <v>861</v>
-      </c>
-      <c r="B233" s="21" t="s">
-        <v>839</v>
-      </c>
-      <c r="C233" s="14" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234" s="14" t="s">
-        <v>879</v>
-      </c>
-      <c r="B234" s="21" t="s">
-        <v>839</v>
-      </c>
-      <c r="C234" s="14" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="14" t="s">
-        <v>673</v>
+        <v>861</v>
       </c>
       <c r="B235" s="14" t="s">
-        <v>656</v>
+        <v>839</v>
       </c>
       <c r="C235" s="14" t="s">
-        <v>664</v>
+        <v>841</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="14" t="s">
+        <v>879</v>
+      </c>
+      <c r="B236" s="14" t="s">
+        <v>839</v>
+      </c>
+      <c r="C236" s="14" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="14" t="s">
+        <v>673</v>
+      </c>
+      <c r="B237" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="C237" s="14" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="14" t="s">
         <v>706</v>
       </c>
-      <c r="B236" s="14" t="s">
+      <c r="B238" s="14" t="s">
         <v>680</v>
       </c>
-      <c r="C236" s="14" t="s">
+      <c r="C238" s="14" t="s">
         <v>685</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="B237" s="11"/>
-      <c r="C237" s="12" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="B238" s="11"/>
-      <c r="C238" s="12" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="11" t="s">
-        <v>897</v>
-      </c>
-      <c r="B239" s="11" t="s">
-        <v>896</v>
-      </c>
-      <c r="C239" s="14" t="s">
-        <v>898</v>
+        <v>316</v>
+      </c>
+      <c r="B239" s="11"/>
+      <c r="C239" s="12" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B240" s="11"/>
       <c r="C240" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="B241" s="11"/>
-      <c r="C241" s="12" t="s">
-        <v>323</v>
+        <v>897</v>
+      </c>
+      <c r="B241" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="C241" s="14" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="14" t="s">
-        <v>953</v>
-      </c>
-      <c r="B242" s="14" t="s">
-        <v>939</v>
-      </c>
-      <c r="C242" s="14" t="s">
-        <v>954</v>
+        <v>959</v>
+      </c>
+      <c r="B242" s="14"/>
+      <c r="C242" s="25" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="14" t="s">
-        <v>945</v>
-      </c>
-      <c r="B243" s="14" t="s">
-        <v>939</v>
-      </c>
-      <c r="C243" s="25" t="s">
-        <v>946</v>
+        <v>961</v>
+      </c>
+      <c r="B243" s="14"/>
+      <c r="C243" s="14" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A244" s="10" t="s">
-        <v>699</v>
-      </c>
-      <c r="B244" s="14" t="s">
-        <v>680</v>
-      </c>
-      <c r="C244" s="10" t="s">
-        <v>687</v>
+      <c r="A244" s="14" t="s">
+        <v>963</v>
+      </c>
+      <c r="B244" s="14"/>
+      <c r="C244" s="14" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245" s="10" t="s">
-        <v>700</v>
-      </c>
-      <c r="B245" s="14" t="s">
-        <v>680</v>
-      </c>
-      <c r="C245" s="10" t="s">
-        <v>688</v>
+      <c r="A245" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="B245" s="11"/>
+      <c r="C245" s="12" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B246" s="11"/>
       <c r="C246" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A247" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="B247" s="11"/>
-      <c r="C247" s="12" t="s">
-        <v>327</v>
+      <c r="A247" s="14" t="s">
+        <v>953</v>
+      </c>
+      <c r="B247" s="14" t="s">
+        <v>939</v>
+      </c>
+      <c r="C247" s="14" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="B248" s="11"/>
-      <c r="C248" s="12" t="s">
-        <v>329</v>
+      <c r="A248" s="14" t="s">
+        <v>945</v>
+      </c>
+      <c r="B248" s="14" t="s">
+        <v>939</v>
+      </c>
+      <c r="C248" s="25" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="10" t="s">
-        <v>330</v>
+        <v>699</v>
       </c>
       <c r="B249" s="14" t="s">
-        <v>656</v>
+        <v>680</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A250" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="B250" s="11"/>
-      <c r="C250" s="12" t="s">
-        <v>333</v>
+        <v>687</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="B250" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="C250" s="10" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="11" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B251" s="11"/>
       <c r="C251" s="12" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="11" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B252" s="11"/>
       <c r="C252" s="12" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="11" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B253" s="11"/>
       <c r="C253" s="12" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A254" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="B254" s="11"/>
-      <c r="C254" s="12" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B254" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="C254" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A255" s="11" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B255" s="11"/>
       <c r="C255" s="12" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A256" s="10" t="s">
-        <v>678</v>
-      </c>
-      <c r="B256" s="10" t="s">
-        <v>656</v>
-      </c>
-      <c r="C256" s="10" t="s">
-        <v>662</v>
+      <c r="A256" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="B256" s="11"/>
+      <c r="C256" s="12" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="11" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B257" s="11"/>
       <c r="C257" s="12" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="11" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B258" s="11"/>
       <c r="C258" s="12" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A259" s="14" t="s">
-        <v>818</v>
-      </c>
-      <c r="B259" s="14" t="s">
-        <v>807</v>
-      </c>
-      <c r="C259" s="14" t="s">
-        <v>819</v>
+      <c r="A259" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="B259" s="11"/>
+      <c r="C259" s="12" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="11" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B260" s="11"/>
       <c r="C260" s="12" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A261" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="B261" s="11"/>
-      <c r="C261" s="12" t="s">
-        <v>351</v>
+      <c r="A261" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="B261" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="C261" s="10" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="11" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B262" s="11"/>
       <c r="C262" s="12" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A263" s="11" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B263" s="11"/>
       <c r="C263" s="12" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="14" t="s">
+        <v>818</v>
+      </c>
+      <c r="B264" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="C264" s="14" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="B265" s="11"/>
+      <c r="C265" s="12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="B266" s="11"/>
+      <c r="C266" s="12" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="B267" s="11"/>
+      <c r="C267" s="12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="B268" s="11"/>
+      <c r="C268" s="12" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" s="14" t="s">
         <v>550</v>
       </c>
-      <c r="B264" s="14" t="s">
+      <c r="B269" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="C264" s="14" t="s">
+      <c r="C269" s="14" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A265" s="10" t="s">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" s="10" t="s">
         <v>721</v>
       </c>
-      <c r="B265" s="10" t="s">
+      <c r="B270" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="C265" s="10" t="s">
+      <c r="C270" s="10" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A266" s="14" t="s">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" s="14" t="s">
         <v>527</v>
       </c>
-      <c r="B266" s="14" t="s">
+      <c r="B271" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="C266" s="14" t="s">
+      <c r="C271" s="14" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A267" s="26" t="s">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="B267" s="26" t="s">
+      <c r="B272" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="C267" s="26" t="s">
+      <c r="C272" s="26" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A268" s="26" t="s">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B268" s="26" t="s">
+      <c r="B273" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="C268" s="26" t="s">
+      <c r="C273" s="26" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A269" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="B269" s="11"/>
-      <c r="C269" s="12" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="B270" s="14" t="s">
-        <v>895</v>
-      </c>
-      <c r="C270" s="12" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A271" s="26" t="s">
-        <v>510</v>
-      </c>
-      <c r="B271" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="C271" s="26" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A272" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="B272" s="11"/>
-      <c r="C272" s="12" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
-        <v>26</v>
-      </c>
-      <c r="B273" t="s">
-        <v>500</v>
-      </c>
-      <c r="C273" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="11" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B274" s="11"/>
       <c r="C274" s="12" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A275" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="B275" s="11"/>
+      <c r="A275" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="B275" s="14" t="s">
+        <v>895</v>
+      </c>
       <c r="C275" s="12" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A276" s="14" t="s">
-        <v>586</v>
-      </c>
-      <c r="B276" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="C276" s="14" t="s">
-        <v>585</v>
+      <c r="A276" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="B276" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C276" s="26" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A277" s="10" t="s">
-        <v>629</v>
-      </c>
-      <c r="B277" s="14" t="s">
-        <v>610</v>
-      </c>
-      <c r="C277" s="10" t="s">
-        <v>620</v>
+      <c r="A277" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="B277" s="11"/>
+      <c r="C277" s="12" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A278" s="14" t="s">
-        <v>578</v>
-      </c>
-      <c r="B278" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="C278" s="14" t="s">
-        <v>574</v>
+      <c r="A278" t="s">
+        <v>26</v>
+      </c>
+      <c r="B278" t="s">
+        <v>500</v>
+      </c>
+      <c r="C278" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="11" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B279" s="11"/>
       <c r="C279" s="12" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="11" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B280" s="11"/>
       <c r="C280" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A281" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="B281" s="11"/>
-      <c r="C281" s="12" t="s">
-        <v>371</v>
+      <c r="A281" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="B281" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C281" s="14" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A282" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B282" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="C282" s="26" t="s">
-        <v>112</v>
+      <c r="A282" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="B282" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C282" s="10" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B283" s="14"/>
+        <v>578</v>
+      </c>
+      <c r="B283" s="14" t="s">
+        <v>559</v>
+      </c>
       <c r="C283" s="14" t="s">
-        <v>84</v>
+        <v>574</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="11" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B284" s="11"/>
       <c r="C284" s="12" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="14" t="s">
-        <v>653</v>
-      </c>
-      <c r="B285" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="C285" s="14" t="s">
-        <v>643</v>
+      <c r="A285" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="B285" s="11"/>
+      <c r="C285" s="12" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="11" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B286" s="11"/>
       <c r="C286" s="12" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="26" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="B287" s="26" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C287" s="26" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A288" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B288" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="C288" s="26" t="s">
-        <v>76</v>
+      <c r="A288" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B288" s="14"/>
+      <c r="C288" s="14" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A289" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="B289" s="14" t="s">
-        <v>589</v>
-      </c>
-      <c r="C289" s="14" t="s">
-        <v>591</v>
+      <c r="A289" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="B289" s="11"/>
+      <c r="C289" s="12" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="14" t="s">
-        <v>602</v>
+        <v>653</v>
       </c>
       <c r="B290" s="14" t="s">
-        <v>589</v>
+        <v>634</v>
       </c>
       <c r="C290" s="14" t="s">
-        <v>592</v>
+        <v>643</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A291" s="14" t="s">
-        <v>515</v>
-      </c>
-      <c r="B291" s="14" t="s">
-        <v>514</v>
-      </c>
-      <c r="C291" s="14" t="s">
-        <v>516</v>
+      <c r="A291" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="B291" s="11"/>
+      <c r="C291" s="12" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="26" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B292" s="26" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C292" s="26" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A293" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="B293" s="11"/>
-      <c r="C293" s="12" t="s">
-        <v>379</v>
+      <c r="A293" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B293" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="C293" s="26" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A294" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="B294" s="11"/>
-      <c r="C294" s="12" t="s">
-        <v>381</v>
+      <c r="A294" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="B294" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="C294" s="14" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B295" s="14"/>
+        <v>602</v>
+      </c>
+      <c r="B295" s="14" t="s">
+        <v>589</v>
+      </c>
       <c r="C295" s="14" t="s">
-        <v>99</v>
+        <v>592</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="14" t="s">
-        <v>582</v>
+        <v>515</v>
       </c>
       <c r="B296" s="14" t="s">
-        <v>559</v>
+        <v>514</v>
       </c>
       <c r="C296" s="14" t="s">
-        <v>581</v>
+        <v>516</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A297" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="B297" s="11"/>
-      <c r="C297" s="12" t="s">
-        <v>385</v>
+      <c r="A297" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B297" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C297" s="26" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A298" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B298" s="14"/>
-      <c r="C298" s="14" t="s">
-        <v>69</v>
+      <c r="A298" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B298" s="11"/>
+      <c r="C298" s="12" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="11" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B299" s="11"/>
       <c r="C299" s="12" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A300" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="B300" s="11"/>
-      <c r="C300" s="12" t="s">
-        <v>391</v>
+      <c r="A300" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B300" s="14"/>
+      <c r="C300" s="14" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A301" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="B301" s="11"/>
-      <c r="C301" s="12" t="s">
-        <v>393</v>
+      <c r="A301" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="B301" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C301" s="14" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A302" s="14" t="s">
-        <v>820</v>
-      </c>
-      <c r="B302" s="14" t="s">
-        <v>807</v>
-      </c>
-      <c r="C302" s="14" t="s">
-        <v>821</v>
+      <c r="A302" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="B302" s="11"/>
+      <c r="C302" s="12" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="14" t="s">
-        <v>923</v>
-      </c>
-      <c r="B303" s="10" t="s">
-        <v>896</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B303" s="14"/>
       <c r="C303" s="14" t="s">
-        <v>919</v>
+        <v>69</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A304" s="14" t="s">
-        <v>741</v>
-      </c>
-      <c r="B304" s="14" t="s">
-        <v>729</v>
-      </c>
-      <c r="C304" s="14" t="s">
-        <v>740</v>
+      <c r="A304" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="B304" s="11"/>
+      <c r="C304" s="12" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A305" s="14" t="s">
-        <v>761</v>
-      </c>
-      <c r="B305" s="14" t="s">
-        <v>753</v>
-      </c>
-      <c r="C305" s="14" t="s">
-        <v>760</v>
+      <c r="A305" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="B305" s="11"/>
+      <c r="C305" s="12" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A306" s="10" t="s">
-        <v>708</v>
-      </c>
-      <c r="B306" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="C306" s="10" t="s">
-        <v>707</v>
+      <c r="A306" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="B306" s="11"/>
+      <c r="C306" s="12" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="14" t="s">
-        <v>708</v>
+        <v>820</v>
       </c>
       <c r="B307" s="14" t="s">
-        <v>729</v>
+        <v>807</v>
       </c>
       <c r="C307" s="14" t="s">
-        <v>742</v>
+        <v>821</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="14" t="s">
-        <v>833</v>
-      </c>
-      <c r="B308" s="14" t="s">
-        <v>807</v>
+        <v>923</v>
+      </c>
+      <c r="B308" s="10" t="s">
+        <v>896</v>
       </c>
       <c r="C308" s="14" t="s">
-        <v>834</v>
+        <v>919</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A309" t="s">
-        <v>16</v>
-      </c>
-      <c r="B309" t="s">
-        <v>500</v>
-      </c>
-      <c r="C309" t="s">
-        <v>21</v>
+      <c r="A309" s="14" t="s">
+        <v>741</v>
+      </c>
+      <c r="B309" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="C309" s="14" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="14" t="s">
-        <v>949</v>
+        <v>761</v>
       </c>
       <c r="B310" s="14" t="s">
-        <v>939</v>
+        <v>753</v>
       </c>
       <c r="C310" s="14" t="s">
-        <v>950</v>
+        <v>760</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A311" s="14" t="s">
-        <v>957</v>
-      </c>
-      <c r="B311" s="14" t="s">
-        <v>939</v>
-      </c>
-      <c r="C311" s="14" t="s">
-        <v>958</v>
+      <c r="A311" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="B311" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C311" s="10" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="14" t="s">
-        <v>588</v>
+        <v>708</v>
       </c>
       <c r="B312" s="14" t="s">
-        <v>559</v>
+        <v>729</v>
       </c>
       <c r="C312" s="14" t="s">
-        <v>569</v>
+        <v>742</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A313" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="B313" s="11"/>
-      <c r="C313" s="12" t="s">
-        <v>395</v>
+      <c r="A313" s="14" t="s">
+        <v>833</v>
+      </c>
+      <c r="B313" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="C313" s="14" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A314" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="B314" s="11"/>
-      <c r="C314" s="12" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A315" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="B315" s="11"/>
-      <c r="C315" s="12" t="s">
-        <v>399</v>
+      <c r="A314" t="s">
+        <v>16</v>
+      </c>
+      <c r="B314" t="s">
+        <v>500</v>
+      </c>
+      <c r="C314" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" s="14" t="s">
+        <v>949</v>
+      </c>
+      <c r="B315" s="14" t="s">
+        <v>939</v>
+      </c>
+      <c r="C315" s="14" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A316" s="10" t="s">
-        <v>692</v>
-      </c>
-      <c r="B316" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="C316" s="10" t="s">
-        <v>679</v>
+      <c r="A316" s="14" t="s">
+        <v>957</v>
+      </c>
+      <c r="B316" s="14" t="s">
+        <v>939</v>
+      </c>
+      <c r="C316" s="14" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A317" s="10" t="s">
-        <v>705</v>
-      </c>
-      <c r="B317" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="C317" s="10" t="s">
-        <v>686</v>
+      <c r="A317" s="14" t="s">
+        <v>973</v>
+      </c>
+      <c r="B317" s="14"/>
+      <c r="C317" s="14" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="14" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="B318" s="14" t="s">
         <v>559</v>
       </c>
       <c r="C318" s="14" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A319" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="B319" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="C319" s="10" t="s">
-        <v>728</v>
+      <c r="A319" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="B319" s="11"/>
+      <c r="C319" s="12" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A320" s="10" t="s">
-        <v>711</v>
-      </c>
-      <c r="B320" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="C320" s="10" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A321" s="10" t="s">
-        <v>723</v>
-      </c>
-      <c r="B321" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="C321" s="10" t="s">
-        <v>724</v>
+      <c r="A320" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="B320" s="11"/>
+      <c r="C320" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A321" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="B321" s="11"/>
+      <c r="C321" s="12" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="B322" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C322" s="10" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="B323" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C323" s="10" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="B324" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C324" s="14" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="B325" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C325" s="10" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="B326" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C326" s="10" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="B327" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C327" s="10" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" s="10" t="s">
         <v>712</v>
       </c>
-      <c r="B322" s="10" t="s">
+      <c r="B328" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="C322" s="10" t="s">
+      <c r="C328" s="10" t="s">
         <v>713</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A323" s="14" t="s">
-        <v>952</v>
-      </c>
-      <c r="B323" s="14" t="s">
-        <v>939</v>
-      </c>
-      <c r="C323" s="14" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A324" s="10" t="s">
-        <v>941</v>
-      </c>
-      <c r="B324" s="10" t="s">
-        <v>939</v>
-      </c>
-      <c r="C324" s="14" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A325" s="14" t="s">
-        <v>926</v>
-      </c>
-      <c r="B325" s="14" t="s">
-        <v>896</v>
-      </c>
-      <c r="C325" s="14" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A326" s="11" t="s">
-        <v>899</v>
-      </c>
-      <c r="B326" s="14" t="s">
-        <v>896</v>
-      </c>
-      <c r="C326" s="14" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A327" s="14" t="s">
-        <v>806</v>
-      </c>
-      <c r="B327" s="14" t="s">
-        <v>776</v>
-      </c>
-      <c r="C327" s="14" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A328" s="14" t="s">
-        <v>937</v>
-      </c>
-      <c r="B328" s="10" t="s">
-        <v>896</v>
-      </c>
-      <c r="C328" s="14" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="14" t="s">
-        <v>797</v>
+        <v>952</v>
       </c>
       <c r="B329" s="14" t="s">
-        <v>776</v>
+        <v>939</v>
       </c>
       <c r="C329" s="14" t="s">
-        <v>784</v>
+        <v>951</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A330" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B330" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="C330" s="26" t="s">
-        <v>58</v>
+      <c r="A330" s="10" t="s">
+        <v>941</v>
+      </c>
+      <c r="B330" s="10" t="s">
+        <v>939</v>
+      </c>
+      <c r="C330" s="14" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="14" t="s">
-        <v>749</v>
-      </c>
-      <c r="B331" s="14" t="s">
-        <v>729</v>
-      </c>
+        <v>969</v>
+      </c>
+      <c r="B331" s="14"/>
       <c r="C331" s="14" t="s">
-        <v>744</v>
+        <v>970</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="14" t="s">
-        <v>808</v>
+        <v>926</v>
       </c>
       <c r="B332" s="14" t="s">
-        <v>807</v>
+        <v>896</v>
       </c>
       <c r="C332" s="14" t="s">
-        <v>809</v>
+        <v>920</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="B333" s="11"/>
-      <c r="C333" s="12" t="s">
-        <v>401</v>
+        <v>899</v>
+      </c>
+      <c r="B333" s="14" t="s">
+        <v>896</v>
+      </c>
+      <c r="C333" s="14" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A334" s="10" t="s">
-        <v>627</v>
+      <c r="A334" s="14" t="s">
+        <v>806</v>
       </c>
       <c r="B334" s="14" t="s">
-        <v>610</v>
-      </c>
-      <c r="C334" s="10" t="s">
-        <v>621</v>
+        <v>776</v>
+      </c>
+      <c r="C334" s="14" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="14" t="s">
-        <v>773</v>
-      </c>
-      <c r="B335" s="14" t="s">
-        <v>753</v>
+        <v>937</v>
+      </c>
+      <c r="B335" s="10" t="s">
+        <v>896</v>
       </c>
       <c r="C335" s="14" t="s">
-        <v>768</v>
+        <v>932</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="14" t="s">
-        <v>774</v>
+        <v>797</v>
       </c>
       <c r="B336" s="14" t="s">
-        <v>753</v>
+        <v>776</v>
       </c>
       <c r="C336" s="14" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A337" s="14" t="s">
-        <v>955</v>
-      </c>
-      <c r="B337" s="14" t="s">
-        <v>939</v>
-      </c>
-      <c r="C337" s="14" t="s">
-        <v>956</v>
+      <c r="A337" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B337" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="C337" s="26" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A338" s="10" t="s">
-        <v>927</v>
-      </c>
-      <c r="B338" s="10" t="s">
-        <v>896</v>
+      <c r="A338" s="14" t="s">
+        <v>749</v>
+      </c>
+      <c r="B338" s="14" t="s">
+        <v>729</v>
       </c>
       <c r="C338" s="14" t="s">
-        <v>921</v>
+        <v>744</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="14" t="s">
-        <v>826</v>
+        <v>808</v>
       </c>
       <c r="B339" s="14" t="s">
         <v>807</v>
       </c>
       <c r="C339" s="14" t="s">
-        <v>827</v>
+        <v>809</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A340" s="14" t="s">
-        <v>816</v>
-      </c>
-      <c r="B340" s="14" t="s">
-        <v>807</v>
-      </c>
-      <c r="C340" s="14" t="s">
-        <v>817</v>
+      <c r="A340" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="B340" s="11"/>
+      <c r="C340" s="12" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A341" s="14" t="s">
-        <v>758</v>
+      <c r="A341" s="10" t="s">
+        <v>627</v>
       </c>
       <c r="B341" s="14" t="s">
-        <v>753</v>
-      </c>
-      <c r="C341" s="14" t="s">
-        <v>759</v>
+        <v>610</v>
+      </c>
+      <c r="C341" s="10" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="14" t="s">
-        <v>935</v>
-      </c>
-      <c r="B342" s="10" t="s">
-        <v>896</v>
+        <v>773</v>
+      </c>
+      <c r="B342" s="14" t="s">
+        <v>753</v>
       </c>
       <c r="C342" s="14" t="s">
-        <v>930</v>
+        <v>768</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="14" t="s">
-        <v>532</v>
+        <v>774</v>
       </c>
       <c r="B343" s="14" t="s">
-        <v>514</v>
+        <v>753</v>
       </c>
       <c r="C343" s="14" t="s">
-        <v>533</v>
+        <v>769</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A344" t="s">
-        <v>35</v>
-      </c>
-      <c r="B344" t="s">
-        <v>500</v>
-      </c>
-      <c r="C344" t="s">
-        <v>36</v>
+      <c r="A344" s="14" t="s">
+        <v>955</v>
+      </c>
+      <c r="B344" s="14" t="s">
+        <v>939</v>
+      </c>
+      <c r="C344" s="14" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="14" t="s">
-        <v>775</v>
-      </c>
-      <c r="B345" s="14" t="s">
+        <v>971</v>
+      </c>
+      <c r="B345" s="14"/>
+      <c r="C345" s="14" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A346" s="10" t="s">
+        <v>927</v>
+      </c>
+      <c r="B346" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="C346" s="14" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347" s="14" t="s">
+        <v>826</v>
+      </c>
+      <c r="B347" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="C347" s="14" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A348" s="14" t="s">
+        <v>816</v>
+      </c>
+      <c r="B348" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="C348" s="14" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A349" s="14" t="s">
+        <v>758</v>
+      </c>
+      <c r="B349" s="14" t="s">
         <v>753</v>
       </c>
-      <c r="C345" s="14" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A346" s="14" t="s">
-        <v>915</v>
-      </c>
-      <c r="B346" s="14" t="s">
+      <c r="C349" s="14" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A350" s="14" t="s">
+        <v>935</v>
+      </c>
+      <c r="B350" s="10" t="s">
         <v>896</v>
       </c>
-      <c r="C346" s="14" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A347" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="B347" s="11"/>
-      <c r="C347" s="12" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A348" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="B348" s="11"/>
-      <c r="C348" s="12" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A349" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="B349" s="11"/>
-      <c r="C349" s="12" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A350" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="B350" s="11"/>
-      <c r="C350" s="12" t="s">
-        <v>409</v>
+      <c r="C350" s="14" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A351" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="B351" s="11"/>
-      <c r="C351" s="12" t="s">
-        <v>411</v>
+      <c r="A351" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="B351" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="C351" s="14" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A352" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="B352" s="11"/>
-      <c r="C352" s="12" t="s">
-        <v>413</v>
+      <c r="A352" t="s">
+        <v>35</v>
+      </c>
+      <c r="B352" t="s">
+        <v>500</v>
+      </c>
+      <c r="C352" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="14" t="s">
-        <v>573</v>
+        <v>775</v>
       </c>
       <c r="B353" s="14" t="s">
-        <v>559</v>
+        <v>753</v>
       </c>
       <c r="C353" s="14" t="s">
-        <v>539</v>
+        <v>770</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A354" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="B354" s="11"/>
-      <c r="C354" s="12" t="s">
-        <v>415</v>
+      <c r="A354" s="14" t="s">
+        <v>915</v>
+      </c>
+      <c r="B354" s="14" t="s">
+        <v>896</v>
+      </c>
+      <c r="C354" s="14" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="11" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="B355" s="11"/>
       <c r="C355" s="12" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A356" s="14" t="s">
-        <v>800</v>
-      </c>
-      <c r="B356" s="14" t="s">
-        <v>776</v>
-      </c>
-      <c r="C356" s="14" t="s">
-        <v>788</v>
+      <c r="A356" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="B356" s="11"/>
+      <c r="C356" s="12" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="11" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="B357" s="11"/>
       <c r="C357" s="12" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A358" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="B358" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="C358" s="26" t="s">
-        <v>90</v>
+      <c r="A358" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="B358" s="11"/>
+      <c r="C358" s="12" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A359" s="10" t="s">
-        <v>696</v>
-      </c>
-      <c r="B359" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="C359" s="10" t="s">
-        <v>694</v>
+      <c r="A359" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="B359" s="11"/>
+      <c r="C359" s="12" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A360" s="14" t="s">
-        <v>805</v>
-      </c>
-      <c r="B360" s="14" t="s">
-        <v>776</v>
-      </c>
-      <c r="C360" s="14" t="s">
-        <v>791</v>
+      <c r="A360" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="B360" s="11"/>
+      <c r="C360" s="12" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="B361" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C361" s="14" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="B362" s="11"/>
+      <c r="C362" s="12" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="B363" s="11"/>
+      <c r="C363" s="12" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364" s="14" t="s">
+        <v>800</v>
+      </c>
+      <c r="B364" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="C364" s="14" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="B365" s="11"/>
+      <c r="C365" s="12" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B366" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="C366" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="B367" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C367" s="10" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="B368" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="C368" s="14" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369" s="14" t="s">
         <v>799</v>
       </c>
-      <c r="B361" s="14" t="s">
+      <c r="B369" s="14" t="s">
         <v>776</v>
       </c>
-      <c r="C361" s="14" t="s">
+      <c r="C369" s="14" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A362" s="14" t="s">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" s="14" t="s">
         <v>862</v>
       </c>
-      <c r="B362" s="14" t="s">
+      <c r="B370" s="14" t="s">
         <v>839</v>
       </c>
-      <c r="C362" s="14" t="s">
+      <c r="C370" s="14" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A363" s="10" t="s">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" s="10" t="s">
         <v>625</v>
       </c>
-      <c r="B363" s="14" t="s">
+      <c r="B371" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="C363" s="10" t="s">
+      <c r="C371" s="10" t="s">
         <v>617</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A364" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="B364" s="11"/>
-      <c r="C364" s="12" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A365" s="14" t="s">
-        <v>547</v>
-      </c>
-      <c r="B365" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="C365" s="14" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A366" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B366" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="C366" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A367" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B367" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="C367" s="26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A368" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="B368" s="11"/>
-      <c r="C368" s="12" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A369" s="10" t="s">
-        <v>633</v>
-      </c>
-      <c r="B369" s="14" t="s">
-        <v>610</v>
-      </c>
-      <c r="C369" s="10" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A370" s="10" t="s">
-        <v>633</v>
-      </c>
-      <c r="B370" s="10" t="s">
-        <v>634</v>
-      </c>
-      <c r="C370" s="10" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A371" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="B371" s="11"/>
-      <c r="C371" s="12" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="11" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B372" s="11"/>
       <c r="C372" s="12" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A373" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="B373" s="11"/>
-      <c r="C373" s="12" t="s">
-        <v>429</v>
+      <c r="A373" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="B373" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="C373" s="14" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A374" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="B374" s="11"/>
-      <c r="C374" s="12" t="s">
-        <v>431</v>
+      <c r="A374" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B374" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C374" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A375" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="B375" s="11"/>
-      <c r="C375" s="12" t="s">
-        <v>433</v>
+      <c r="A375" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B375" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="C375" s="26" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="11" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="B376" s="11"/>
       <c r="C376" s="12" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A377" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="B377" s="11"/>
-      <c r="C377" s="12" t="s">
-        <v>437</v>
+      <c r="A377" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="B377" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C377" s="10" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A378" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="B378" s="11"/>
-      <c r="C378" s="12" t="s">
-        <v>439</v>
+      <c r="A378" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="B378" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="C378" s="10" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" s="11" t="s">
-        <v>101</v>
+        <v>424</v>
       </c>
       <c r="B379" s="11"/>
       <c r="C379" s="12" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="11" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="B380" s="11"/>
       <c r="C380" s="12" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" s="11" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="B381" s="11"/>
       <c r="C381" s="12" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A382" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B382" s="14"/>
-      <c r="C382" s="14" t="s">
-        <v>86</v>
+      <c r="A382" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="B382" s="11"/>
+      <c r="C382" s="12" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="11" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="B383" s="11"/>
       <c r="C383" s="12" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" s="11" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="B384" s="11"/>
       <c r="C384" s="12" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A385" s="14" t="s">
-        <v>565</v>
-      </c>
-      <c r="B385" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="C385" s="14" t="s">
-        <v>566</v>
+      <c r="A385" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="B385" s="11"/>
+      <c r="C385" s="12" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A386" s="14" t="s">
-        <v>544</v>
-      </c>
-      <c r="B386" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="C386" s="14" t="s">
-        <v>542</v>
+      <c r="A386" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="B386" s="11"/>
+      <c r="C386" s="12" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A387" s="10" t="s">
-        <v>624</v>
-      </c>
-      <c r="B387" s="14" t="s">
-        <v>610</v>
-      </c>
-      <c r="C387" s="10" t="s">
-        <v>616</v>
+      <c r="A387" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B387" s="11"/>
+      <c r="C387" s="12" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A388" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="B388" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="C388" s="14" t="s">
-        <v>555</v>
+      <c r="A388" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="B388" s="11"/>
+      <c r="C388" s="12" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A389" s="10" t="s">
-        <v>646</v>
-      </c>
-      <c r="B389" s="10" t="s">
-        <v>634</v>
-      </c>
-      <c r="C389" s="10" t="s">
-        <v>635</v>
+      <c r="A389" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="B389" s="11"/>
+      <c r="C389" s="12" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="14" t="s">
-        <v>545</v>
-      </c>
-      <c r="B390" s="14" t="s">
-        <v>535</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B390" s="14"/>
       <c r="C390" s="14" t="s">
-        <v>543</v>
+        <v>86</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A391" s="14" t="s">
-        <v>560</v>
-      </c>
-      <c r="B391" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="C391" s="14" t="s">
-        <v>553</v>
+      <c r="A391" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="B391" s="11"/>
+      <c r="C391" s="12" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A392" s="14" t="s">
-        <v>546</v>
-      </c>
-      <c r="B392" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="C392" s="14" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A393" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="B393" s="11"/>
-      <c r="C393" s="12" t="s">
-        <v>452</v>
+      <c r="A392" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B392" s="11"/>
+      <c r="C392" s="12" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A393" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="B393" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C393" s="14" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" s="14" t="s">
-        <v>453</v>
+        <v>544</v>
       </c>
       <c r="B394" s="14" t="s">
-        <v>895</v>
-      </c>
-      <c r="C394" s="12" t="s">
-        <v>454</v>
+        <v>535</v>
+      </c>
+      <c r="C394" s="14" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A395" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B395" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="C395" s="26" t="s">
-        <v>118</v>
+      <c r="A395" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="B395" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C395" s="10" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A396" s="26" t="s">
-        <v>455</v>
-      </c>
-      <c r="B396" s="26" t="s">
-        <v>886</v>
-      </c>
-      <c r="C396" s="12" t="s">
-        <v>456</v>
+      <c r="A396" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="B396" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="C396" s="14" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A397" s="14" t="s">
-        <v>801</v>
-      </c>
-      <c r="B397" s="14" t="s">
-        <v>776</v>
-      </c>
-      <c r="C397" s="14" t="s">
-        <v>789</v>
+      <c r="A397" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="B397" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="C397" s="10" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A398" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="B398" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="C398" s="26" t="s">
-        <v>122</v>
+      <c r="A398" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="B398" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="C398" s="14" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A399" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="B399" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="C399" s="26" t="s">
-        <v>106</v>
+      <c r="A399" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="B399" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="C399" s="14" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A400" s="26" t="s">
-        <v>105</v>
+      <c r="A400" s="14" t="s">
+        <v>546</v>
       </c>
       <c r="B400" s="14" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="C400" s="14" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A401" s="11" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B401" s="11"/>
       <c r="C401" s="12" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" s="14" t="s">
-        <v>835</v>
+        <v>453</v>
       </c>
       <c r="B402" s="14" t="s">
-        <v>807</v>
-      </c>
-      <c r="C402" s="14" t="s">
-        <v>836</v>
+        <v>895</v>
+      </c>
+      <c r="C402" s="12" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A403" s="10" t="s">
-        <v>928</v>
-      </c>
-      <c r="B403" s="10" t="s">
-        <v>896</v>
-      </c>
-      <c r="C403" s="14" t="s">
-        <v>922</v>
+      <c r="A403" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B403" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C403" s="26" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A404" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="B404" s="11"/>
+      <c r="A404" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="B404" s="26" t="s">
+        <v>886</v>
+      </c>
       <c r="C404" s="12" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A405" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="B405" s="11"/>
-      <c r="C405" s="12" t="s">
-        <v>462</v>
+      <c r="A405" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="B405" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="C405" s="14" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B406" t="s">
-        <v>501</v>
+        <v>121</v>
+      </c>
+      <c r="B406" s="26" t="s">
+        <v>502</v>
       </c>
       <c r="C406" s="26" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A407" s="10" t="s">
-        <v>632</v>
-      </c>
-      <c r="B407" s="14" t="s">
-        <v>610</v>
-      </c>
-      <c r="C407" s="10" t="s">
-        <v>614</v>
+      <c r="A407" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B407" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C407" s="26" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A408" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="B408" s="11"/>
-      <c r="C408" s="12" t="s">
-        <v>464</v>
+      <c r="A408" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B408" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="C408" s="14" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A409" t="s">
-        <v>15</v>
-      </c>
-      <c r="B409" t="s">
-        <v>500</v>
-      </c>
-      <c r="C409" t="s">
-        <v>22</v>
+      <c r="A409" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="B409" s="11"/>
+      <c r="C409" s="12" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A410" s="10" t="s">
-        <v>650</v>
-      </c>
-      <c r="B410" s="10" t="s">
-        <v>634</v>
-      </c>
-      <c r="C410" s="10" t="s">
-        <v>640</v>
+      <c r="A410" s="14" t="s">
+        <v>835</v>
+      </c>
+      <c r="B410" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="C410" s="14" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A411" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="B411" s="11"/>
-      <c r="C411" s="12" t="s">
-        <v>466</v>
+      <c r="A411" s="10" t="s">
+        <v>928</v>
+      </c>
+      <c r="B411" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="C411" s="14" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A412" s="14" t="s">
-        <v>561</v>
-      </c>
-      <c r="B412" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="C412" s="14" t="s">
-        <v>562</v>
+      <c r="A412" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="B412" s="11"/>
+      <c r="C412" s="12" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" s="11" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B413" s="11"/>
       <c r="C413" s="12" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A414" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="B414" s="11"/>
-      <c r="C414" s="12" t="s">
-        <v>470</v>
+      <c r="A414" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B414" t="s">
+        <v>501</v>
+      </c>
+      <c r="C414" s="26" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="B415" s="10" t="s">
-        <v>939</v>
-      </c>
-      <c r="C415" s="14" t="s">
-        <v>940</v>
+        <v>632</v>
+      </c>
+      <c r="B415" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C415" s="10" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" s="11" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B416" s="11"/>
       <c r="C416" s="12" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A417" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="B417" s="11"/>
-      <c r="C417" s="12" t="s">
-        <v>474</v>
+      <c r="A417" t="s">
+        <v>15</v>
+      </c>
+      <c r="B417" t="s">
+        <v>500</v>
+      </c>
+      <c r="C417" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A418" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="B418" s="11"/>
-      <c r="C418" s="12" t="s">
-        <v>476</v>
+      <c r="A418" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="B418" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="C418" s="10" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" s="11" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="B419" s="11"/>
       <c r="C419" s="12" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A420" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="B420" s="11"/>
-      <c r="C420" s="12" t="s">
-        <v>480</v>
+      <c r="A420" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="B420" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C420" s="14" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="11" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="B421" s="11"/>
       <c r="C421" s="12" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A422" s="10" t="s">
-        <v>674</v>
-      </c>
-      <c r="B422" s="10" t="s">
-        <v>656</v>
-      </c>
-      <c r="C422" s="10" t="s">
-        <v>665</v>
+      <c r="A422" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="B422" s="11"/>
+      <c r="C422" s="12" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A423" s="14" t="s">
-        <v>802</v>
-      </c>
-      <c r="B423" s="14" t="s">
-        <v>776</v>
+      <c r="A423" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="B423" s="10" t="s">
+        <v>939</v>
       </c>
       <c r="C423" s="14" t="s">
-        <v>803</v>
+        <v>940</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" s="11" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="B424" s="11"/>
       <c r="C424" s="12" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A425" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="B425" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="C425" s="14" t="s">
-        <v>570</v>
+      <c r="A425" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="B425" s="11"/>
+      <c r="C425" s="12" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A426" s="14" t="s">
-        <v>583</v>
-      </c>
-      <c r="B426" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="C426" s="14" t="s">
-        <v>571</v>
+      <c r="A426" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="B426" s="11"/>
+      <c r="C426" s="12" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A427" s="14" t="s">
-        <v>651</v>
-      </c>
-      <c r="B427" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="C427" s="14" t="s">
-        <v>641</v>
+      <c r="A427" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="B427" s="11"/>
+      <c r="C427" s="12" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" s="11" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B428" s="11"/>
       <c r="C428" s="12" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A429" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="B429" s="11"/>
+      <c r="C429" s="12" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A430" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="B430" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="C430" s="10" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A431" s="14" t="s">
+        <v>802</v>
+      </c>
+      <c r="B431" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="C431" s="14" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A432" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B432" s="11"/>
+      <c r="C432" s="12" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A433" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="B433" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C433" s="14" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A434" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="B434" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C434" s="14" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A435" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="B435" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="C435" s="14" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A436" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="B436" s="11"/>
+      <c r="C436" s="12" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A429" s="26" t="s">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A437" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B429" s="26" t="s">
+      <c r="B437" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="C429" s="26" t="s">
+      <c r="C437" s="26" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A430" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="B430" s="11"/>
-      <c r="C430" s="12" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A431" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="B431" s="11"/>
-      <c r="C431" s="12" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A432" s="14" t="s">
-        <v>732</v>
-      </c>
-      <c r="B432" s="14" t="s">
-        <v>729</v>
-      </c>
-      <c r="C432" s="14" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A433" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="B433" s="11"/>
-      <c r="C433" s="12" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A434" s="10" t="s">
-        <v>697</v>
-      </c>
-      <c r="B434" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="C434" s="10" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A435" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="B435" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="C435" s="26" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A436" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B436" s="14" t="s">
-        <v>514</v>
-      </c>
-      <c r="C436" s="14" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A437" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B437" s="14"/>
-      <c r="C437" s="14" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" s="11" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B438" s="11"/>
       <c r="C438" s="12" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A439" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="B439" s="11"/>
+      <c r="C439" s="12" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A440" s="14" t="s">
+        <v>732</v>
+      </c>
+      <c r="B440" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="C440" s="14" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A441" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="B441" s="11"/>
+      <c r="C441" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A442" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="B442" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C442" s="10" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A443" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B443" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C443" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A444" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B444" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="C444" s="14" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A445" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B445" s="14"/>
+      <c r="C445" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A446" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="B446" s="11"/>
+      <c r="C446" s="12" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A439" s="14"/>
-      <c r="B439" s="14"/>
-      <c r="C439" s="25"/>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A440" s="14"/>
-      <c r="B440" s="14"/>
-      <c r="C440" s="14"/>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A441" s="14"/>
-      <c r="B441" s="14"/>
-      <c r="C441" s="14"/>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A442" s="14"/>
-      <c r="B442" s="14"/>
-      <c r="C442" s="14"/>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A443" s="14"/>
-      <c r="B443" s="14"/>
-      <c r="C443" s="14"/>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A444" s="14"/>
-      <c r="B444" s="14"/>
-      <c r="C444" s="14"/>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A445" s="14"/>
-      <c r="B445" s="14"/>
-      <c r="C445" s="14"/>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A446" s="14"/>
-      <c r="B446" s="14"/>
-      <c r="C446" s="14"/>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" s="14"/>
@@ -11003,14 +11082,14 @@
     <sortCondition ref="A2:A551"/>
   </sortState>
   <dataConsolidate/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A375:A1048576 A372:A373 A259:A370 A192:A257 A1:A190">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Zhodani Words List.xlsx
+++ b/Zhodani Words List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CBDD1B-73BB-4148-B5E9-9A2BCFBDCEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D0893A-9BFB-4952-8F51-890D29FB196D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="976">
   <si>
     <t>Zhdetl word</t>
   </si>
@@ -2998,6 +2998,9 @@
   </si>
   <si>
     <t>good night</t>
+  </si>
+  <si>
+    <t>22. Greetings</t>
   </si>
 </sst>
 </file>
@@ -3166,6 +3169,16 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3194,16 +3207,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3236,8 +3239,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4039E8B-8AC1-44D4-939F-61521D537543}" name="Zhdetl" displayName="Zhdetl" ref="A1:B186" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B186" xr:uid="{B2E9EE69-E126-4FC1-ACEF-C598B63AECDE}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6224,8 +6227,8 @@
   <dimension ref="A1:C551"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+      <pane ySplit="1" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B318" sqref="B318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6872,7 +6875,9 @@
       <c r="A63" s="17" t="s">
         <v>965</v>
       </c>
-      <c r="B63" s="21"/>
+      <c r="B63" s="21" t="s">
+        <v>975</v>
+      </c>
       <c r="C63" s="18" t="s">
         <v>966</v>
       </c>
@@ -6890,7 +6895,9 @@
       <c r="A65" s="17" t="s">
         <v>967</v>
       </c>
-      <c r="B65" s="21"/>
+      <c r="B65" s="21" t="s">
+        <v>975</v>
+      </c>
       <c r="C65" s="18" t="s">
         <v>968</v>
       </c>
@@ -8703,7 +8710,9 @@
       <c r="A242" s="14" t="s">
         <v>959</v>
       </c>
-      <c r="B242" s="14"/>
+      <c r="B242" s="14" t="s">
+        <v>975</v>
+      </c>
       <c r="C242" s="25" t="s">
         <v>960</v>
       </c>
@@ -8712,7 +8721,9 @@
       <c r="A243" s="14" t="s">
         <v>961</v>
       </c>
-      <c r="B243" s="14"/>
+      <c r="B243" s="14" t="s">
+        <v>975</v>
+      </c>
       <c r="C243" s="14" t="s">
         <v>962</v>
       </c>
@@ -8721,7 +8732,9 @@
       <c r="A244" s="14" t="s">
         <v>963</v>
       </c>
-      <c r="B244" s="14"/>
+      <c r="B244" s="14" t="s">
+        <v>975</v>
+      </c>
       <c r="C244" s="14" t="s">
         <v>964</v>
       </c>
@@ -9452,7 +9465,9 @@
       <c r="A317" s="14" t="s">
         <v>973</v>
       </c>
-      <c r="B317" s="14"/>
+      <c r="B317" s="14" t="s">
+        <v>975</v>
+      </c>
       <c r="C317" s="14" t="s">
         <v>974</v>
       </c>
@@ -9598,7 +9613,9 @@
       <c r="A331" s="14" t="s">
         <v>969</v>
       </c>
-      <c r="B331" s="14"/>
+      <c r="B331" s="14" t="s">
+        <v>975</v>
+      </c>
       <c r="C331" s="14" t="s">
         <v>970</v>
       </c>
@@ -9748,7 +9765,9 @@
       <c r="A345" s="14" t="s">
         <v>971</v>
       </c>
-      <c r="B345" s="14"/>
+      <c r="B345" s="14" t="s">
+        <v>975</v>
+      </c>
       <c r="C345" s="14" t="s">
         <v>972</v>
       </c>
@@ -11083,13 +11102,13 @@
   </sortState>
   <dataConsolidate/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A375:A1048576 A372:A373 A259:A370 A192:A257 A1:A190">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Zhodani Words List.xlsx
+++ b/Zhodani Words List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D0893A-9BFB-4952-8F51-890D29FB196D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06385F46-C376-4B5C-8077-8D3AF49DA377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Current vocabulary list'!$A$1:$C$456</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Current vocabulary list'!$A$1:$C$457</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lessons!$A$1:$C$223</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Zhdetl (from Alien Book 4)'!$A$1:$B$186</definedName>
   </definedNames>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="978">
   <si>
     <t>Zhdetl word</t>
   </si>
@@ -3001,6 +3001,12 @@
   </si>
   <si>
     <t>22. Greetings</t>
+  </si>
+  <si>
+    <t>teyopalanad</t>
+  </si>
+  <si>
+    <t>greeter; night-time greeter</t>
   </si>
 </sst>
 </file>
@@ -3169,16 +3175,6 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3207,6 +3203,16 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3239,8 +3245,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4039E8B-8AC1-44D4-939F-61521D537543}" name="Zhdetl" displayName="Zhdetl" ref="A1:B186" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B186" xr:uid="{B2E9EE69-E126-4FC1-ACEF-C598B63AECDE}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6224,11 +6230,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}">
-  <dimension ref="A1:C551"/>
+  <dimension ref="A1:C552"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B318" sqref="B318"/>
+      <selection pane="bottomLeft" activeCell="A318" sqref="A318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9463,1338 +9469,1344 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="14" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="B317" s="14" t="s">
         <v>975</v>
       </c>
       <c r="C317" s="14" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="14" t="s">
+        <v>973</v>
+      </c>
+      <c r="B318" s="14" t="s">
+        <v>975</v>
+      </c>
+      <c r="C318" s="14" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" s="14" t="s">
         <v>588</v>
       </c>
-      <c r="B318" s="14" t="s">
+      <c r="B319" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C318" s="14" t="s">
+      <c r="C319" s="14" t="s">
         <v>569</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A319" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="B319" s="11"/>
-      <c r="C319" s="12" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B320" s="11"/>
       <c r="C320" s="12" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B321" s="11"/>
       <c r="C321" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A322" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="B322" s="11"/>
+      <c r="C322" s="12" t="s">
         <v>399</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A322" s="10" t="s">
-        <v>692</v>
-      </c>
-      <c r="B322" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="C322" s="10" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="10" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="B323" s="10" t="s">
         <v>680</v>
       </c>
       <c r="C323" s="10" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="B324" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C324" s="10" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A324" s="14" t="s">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="B324" s="14" t="s">
+      <c r="B325" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C324" s="14" t="s">
+      <c r="C325" s="14" t="s">
         <v>567</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A325" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="B325" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="C325" s="10" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="10" t="s">
-        <v>711</v>
+        <v>727</v>
       </c>
       <c r="B326" s="10" t="s">
         <v>709</v>
       </c>
       <c r="C326" s="10" t="s">
-        <v>710</v>
+        <v>728</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="10" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="B327" s="10" t="s">
         <v>709</v>
       </c>
       <c r="C327" s="10" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="10" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="B328" s="10" t="s">
         <v>709</v>
       </c>
       <c r="C328" s="10" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="B329" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C329" s="10" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A329" s="14" t="s">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" s="14" t="s">
         <v>952</v>
       </c>
-      <c r="B329" s="14" t="s">
+      <c r="B330" s="14" t="s">
         <v>939</v>
       </c>
-      <c r="C329" s="14" t="s">
+      <c r="C330" s="14" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A330" s="10" t="s">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" s="10" t="s">
         <v>941</v>
       </c>
-      <c r="B330" s="10" t="s">
+      <c r="B331" s="10" t="s">
         <v>939</v>
       </c>
-      <c r="C330" s="14" t="s">
+      <c r="C331" s="14" t="s">
         <v>942</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A331" s="14" t="s">
-        <v>969</v>
-      </c>
-      <c r="B331" s="14" t="s">
-        <v>975</v>
-      </c>
-      <c r="C331" s="14" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="14" t="s">
+        <v>969</v>
+      </c>
+      <c r="B332" s="14" t="s">
+        <v>975</v>
+      </c>
+      <c r="C332" s="14" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" s="14" t="s">
         <v>926</v>
-      </c>
-      <c r="B332" s="14" t="s">
-        <v>896</v>
-      </c>
-      <c r="C332" s="14" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A333" s="11" t="s">
-        <v>899</v>
       </c>
       <c r="B333" s="14" t="s">
         <v>896</v>
       </c>
       <c r="C333" s="14" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" s="11" t="s">
+        <v>899</v>
+      </c>
+      <c r="B334" s="14" t="s">
+        <v>896</v>
+      </c>
+      <c r="C334" s="14" t="s">
         <v>900</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A334" s="14" t="s">
-        <v>806</v>
-      </c>
-      <c r="B334" s="14" t="s">
-        <v>776</v>
-      </c>
-      <c r="C334" s="14" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="14" t="s">
-        <v>937</v>
-      </c>
-      <c r="B335" s="10" t="s">
-        <v>896</v>
+        <v>806</v>
+      </c>
+      <c r="B335" s="14" t="s">
+        <v>776</v>
       </c>
       <c r="C335" s="14" t="s">
-        <v>932</v>
+        <v>777</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="14" t="s">
+        <v>937</v>
+      </c>
+      <c r="B336" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="C336" s="14" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337" s="14" t="s">
         <v>797</v>
       </c>
-      <c r="B336" s="14" t="s">
+      <c r="B337" s="14" t="s">
         <v>776</v>
       </c>
-      <c r="C336" s="14" t="s">
+      <c r="C337" s="14" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A337" s="26" t="s">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A338" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B337" s="26" t="s">
+      <c r="B338" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="C337" s="26" t="s">
+      <c r="C338" s="26" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A338" s="14" t="s">
-        <v>749</v>
-      </c>
-      <c r="B338" s="14" t="s">
-        <v>729</v>
-      </c>
-      <c r="C338" s="14" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="14" t="s">
+        <v>749</v>
+      </c>
+      <c r="B339" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="C339" s="14" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A340" s="14" t="s">
         <v>808</v>
       </c>
-      <c r="B339" s="14" t="s">
+      <c r="B340" s="14" t="s">
         <v>807</v>
       </c>
-      <c r="C339" s="14" t="s">
+      <c r="C340" s="14" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A340" s="11" t="s">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A341" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="B340" s="11"/>
-      <c r="C340" s="12" t="s">
+      <c r="B341" s="11"/>
+      <c r="C341" s="12" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A341" s="10" t="s">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A342" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="B341" s="14" t="s">
+      <c r="B342" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="C341" s="10" t="s">
+      <c r="C342" s="10" t="s">
         <v>621</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A342" s="14" t="s">
-        <v>773</v>
-      </c>
-      <c r="B342" s="14" t="s">
-        <v>753</v>
-      </c>
-      <c r="C342" s="14" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="14" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B343" s="14" t="s">
         <v>753</v>
       </c>
       <c r="C343" s="14" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="14" t="s">
-        <v>955</v>
+        <v>774</v>
       </c>
       <c r="B344" s="14" t="s">
-        <v>939</v>
+        <v>753</v>
       </c>
       <c r="C344" s="14" t="s">
-        <v>956</v>
+        <v>769</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="14" t="s">
+        <v>955</v>
+      </c>
+      <c r="B345" s="14" t="s">
+        <v>939</v>
+      </c>
+      <c r="C345" s="14" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A346" s="14" t="s">
         <v>971</v>
       </c>
-      <c r="B345" s="14" t="s">
+      <c r="B346" s="14" t="s">
         <v>975</v>
       </c>
-      <c r="C345" s="14" t="s">
+      <c r="C346" s="14" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A346" s="10" t="s">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347" s="10" t="s">
         <v>927</v>
       </c>
-      <c r="B346" s="10" t="s">
+      <c r="B347" s="10" t="s">
         <v>896</v>
       </c>
-      <c r="C346" s="14" t="s">
+      <c r="C347" s="14" t="s">
         <v>921</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A347" s="14" t="s">
-        <v>826</v>
-      </c>
-      <c r="B347" s="14" t="s">
-        <v>807</v>
-      </c>
-      <c r="C347" s="14" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="14" t="s">
-        <v>816</v>
+        <v>826</v>
       </c>
       <c r="B348" s="14" t="s">
         <v>807</v>
       </c>
       <c r="C348" s="14" t="s">
-        <v>817</v>
+        <v>827</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="14" t="s">
-        <v>758</v>
+        <v>816</v>
       </c>
       <c r="B349" s="14" t="s">
-        <v>753</v>
+        <v>807</v>
       </c>
       <c r="C349" s="14" t="s">
-        <v>759</v>
+        <v>817</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="14" t="s">
-        <v>935</v>
-      </c>
-      <c r="B350" s="10" t="s">
-        <v>896</v>
+        <v>758</v>
+      </c>
+      <c r="B350" s="14" t="s">
+        <v>753</v>
       </c>
       <c r="C350" s="14" t="s">
-        <v>930</v>
+        <v>759</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="14" t="s">
+        <v>935</v>
+      </c>
+      <c r="B351" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="C351" s="14" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A352" s="14" t="s">
         <v>532</v>
       </c>
-      <c r="B351" s="14" t="s">
+      <c r="B352" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="C351" s="14" t="s">
+      <c r="C352" s="14" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A352" t="s">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
         <v>35</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B353" t="s">
         <v>500</v>
       </c>
-      <c r="C352" t="s">
+      <c r="C353" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A353" s="14" t="s">
-        <v>775</v>
-      </c>
-      <c r="B353" s="14" t="s">
-        <v>753</v>
-      </c>
-      <c r="C353" s="14" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="B354" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="C354" s="14" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A355" s="14" t="s">
         <v>915</v>
       </c>
-      <c r="B354" s="14" t="s">
+      <c r="B355" s="14" t="s">
         <v>896</v>
       </c>
-      <c r="C354" s="14" t="s">
+      <c r="C355" s="14" t="s">
         <v>910</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A355" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="B355" s="11"/>
-      <c r="C355" s="12" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B356" s="11"/>
       <c r="C356" s="12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="11" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B357" s="11"/>
       <c r="C357" s="12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B358" s="11"/>
       <c r="C358" s="12" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B359" s="11"/>
       <c r="C359" s="12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B360" s="11"/>
       <c r="C360" s="12" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A361" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="B361" s="11"/>
+      <c r="C361" s="12" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A361" s="14" t="s">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="B361" s="14" t="s">
+      <c r="B362" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C361" s="14" t="s">
+      <c r="C362" s="14" t="s">
         <v>539</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A362" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="B362" s="11"/>
-      <c r="C362" s="12" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B363" s="11"/>
       <c r="C363" s="12" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="B364" s="11"/>
+      <c r="C364" s="12" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A364" s="14" t="s">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365" s="14" t="s">
         <v>800</v>
       </c>
-      <c r="B364" s="14" t="s">
+      <c r="B365" s="14" t="s">
         <v>776</v>
       </c>
-      <c r="C364" s="14" t="s">
+      <c r="C365" s="14" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A365" s="11" t="s">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="B365" s="11"/>
-      <c r="C365" s="12" t="s">
+      <c r="B366" s="11"/>
+      <c r="C366" s="12" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A366" s="26" t="s">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B366" s="26" t="s">
+      <c r="B367" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="C366" s="26" t="s">
+      <c r="C367" s="26" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A367" s="10" t="s">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368" s="10" t="s">
         <v>696</v>
       </c>
-      <c r="B367" s="10" t="s">
+      <c r="B368" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="C367" s="10" t="s">
+      <c r="C368" s="10" t="s">
         <v>694</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A368" s="14" t="s">
-        <v>805</v>
-      </c>
-      <c r="B368" s="14" t="s">
-        <v>776</v>
-      </c>
-      <c r="C368" s="14" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="14" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="B369" s="14" t="s">
         <v>776</v>
       </c>
       <c r="C369" s="14" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="14" t="s">
+        <v>799</v>
+      </c>
+      <c r="B370" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="C370" s="14" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" s="14" t="s">
         <v>862</v>
       </c>
-      <c r="B370" s="14" t="s">
+      <c r="B371" s="14" t="s">
         <v>839</v>
       </c>
-      <c r="C370" s="14" t="s">
+      <c r="C371" s="14" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A371" s="10" t="s">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" s="10" t="s">
         <v>625</v>
       </c>
-      <c r="B371" s="14" t="s">
+      <c r="B372" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="C371" s="10" t="s">
+      <c r="C372" s="10" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A372" s="11" t="s">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="B372" s="11"/>
-      <c r="C372" s="12" t="s">
+      <c r="B373" s="11"/>
+      <c r="C373" s="12" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A373" s="14" t="s">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374" s="14" t="s">
         <v>547</v>
       </c>
-      <c r="B373" s="14" t="s">
+      <c r="B374" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="C373" s="14" t="s">
+      <c r="C374" s="14" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A374" s="10" t="s">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B374" s="10" t="s">
+      <c r="B375" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="C374" s="10" t="s">
+      <c r="C375" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A375" s="26" t="s">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B375" s="26" t="s">
+      <c r="B376" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="C375" s="26" t="s">
+      <c r="C376" s="26" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A376" s="11" t="s">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="B376" s="11"/>
-      <c r="C376" s="12" t="s">
+      <c r="B377" s="11"/>
+      <c r="C377" s="12" t="s">
         <v>423</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A377" s="10" t="s">
-        <v>633</v>
-      </c>
-      <c r="B377" s="14" t="s">
-        <v>610</v>
-      </c>
-      <c r="C377" s="10" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="B378" s="10" t="s">
+      <c r="B378" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C378" s="10" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="B379" s="10" t="s">
         <v>634</v>
       </c>
-      <c r="C378" s="10" t="s">
+      <c r="C379" s="10" t="s">
         <v>636</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A379" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="B379" s="11"/>
-      <c r="C379" s="12" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B380" s="11"/>
       <c r="C380" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B381" s="11"/>
       <c r="C381" s="12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B382" s="11"/>
       <c r="C382" s="12" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B383" s="11"/>
       <c r="C383" s="12" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" s="11" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B384" s="11"/>
       <c r="C384" s="12" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="11" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B385" s="11"/>
       <c r="C385" s="12" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B386" s="11"/>
       <c r="C386" s="12" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" s="11" t="s">
-        <v>101</v>
+        <v>438</v>
       </c>
       <c r="B387" s="11"/>
       <c r="C387" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" s="11" t="s">
-        <v>441</v>
+        <v>101</v>
       </c>
       <c r="B388" s="11"/>
       <c r="C388" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" s="11" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B389" s="11"/>
       <c r="C389" s="12" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A390" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="B390" s="11"/>
+      <c r="C390" s="12" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A390" s="14" t="s">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A391" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B390" s="14"/>
-      <c r="C390" s="14" t="s">
+      <c r="B391" s="14"/>
+      <c r="C391" s="14" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A391" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="B391" s="11"/>
-      <c r="C391" s="12" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B392" s="11"/>
       <c r="C392" s="12" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A393" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B393" s="11"/>
+      <c r="C393" s="12" t="s">
         <v>450</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A393" s="14" t="s">
-        <v>565</v>
-      </c>
-      <c r="B393" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="C393" s="14" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="B394" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C394" s="14" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A395" s="14" t="s">
         <v>544</v>
       </c>
-      <c r="B394" s="14" t="s">
+      <c r="B395" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="C394" s="14" t="s">
+      <c r="C395" s="14" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A395" s="10" t="s">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A396" s="10" t="s">
         <v>624</v>
       </c>
-      <c r="B395" s="14" t="s">
+      <c r="B396" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="C395" s="10" t="s">
+      <c r="C396" s="10" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A396" s="14" t="s">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A397" s="14" t="s">
         <v>623</v>
       </c>
-      <c r="B396" s="14" t="s">
+      <c r="B397" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="C396" s="14" t="s">
+      <c r="C397" s="14" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A397" s="10" t="s">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A398" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="B397" s="10" t="s">
+      <c r="B398" s="10" t="s">
         <v>634</v>
       </c>
-      <c r="C397" s="10" t="s">
+      <c r="C398" s="10" t="s">
         <v>635</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A398" s="14" t="s">
-        <v>545</v>
-      </c>
-      <c r="B398" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="C398" s="14" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" s="14" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="B399" s="14" t="s">
         <v>535</v>
       </c>
       <c r="C399" s="14" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" s="14" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="B400" s="14" t="s">
         <v>535</v>
       </c>
       <c r="C400" s="14" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A401" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="B401" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="C401" s="14" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="401" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A401" s="11" t="s">
+    <row r="402" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A402" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="B401" s="11"/>
-      <c r="C401" s="12" t="s">
+      <c r="B402" s="11"/>
+      <c r="C402" s="12" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A402" s="14" t="s">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A403" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="B402" s="14" t="s">
+      <c r="B403" s="14" t="s">
         <v>895</v>
       </c>
-      <c r="C402" s="12" t="s">
+      <c r="C403" s="12" t="s">
         <v>454</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A403" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B403" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="C403" s="26" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B404" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C404" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A405" s="26" t="s">
         <v>455</v>
       </c>
-      <c r="B404" s="26" t="s">
+      <c r="B405" s="26" t="s">
         <v>886</v>
       </c>
-      <c r="C404" s="12" t="s">
+      <c r="C405" s="12" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A405" s="14" t="s">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A406" s="14" t="s">
         <v>801</v>
       </c>
-      <c r="B405" s="14" t="s">
+      <c r="B406" s="14" t="s">
         <v>776</v>
       </c>
-      <c r="C405" s="14" t="s">
+      <c r="C406" s="14" t="s">
         <v>789</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A406" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="B406" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="C406" s="26" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" s="26" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B407" s="26" t="s">
         <v>502</v>
       </c>
       <c r="C407" s="26" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B408" s="14" t="s">
+      <c r="B408" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C408" s="26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A409" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B409" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="C408" s="14" t="s">
+      <c r="C409" s="14" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A409" s="11" t="s">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A410" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="B409" s="11"/>
-      <c r="C409" s="12" t="s">
+      <c r="B410" s="11"/>
+      <c r="C410" s="12" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A410" s="14" t="s">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A411" s="14" t="s">
         <v>835</v>
       </c>
-      <c r="B410" s="14" t="s">
+      <c r="B411" s="14" t="s">
         <v>807</v>
       </c>
-      <c r="C410" s="14" t="s">
+      <c r="C411" s="14" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A411" s="10" t="s">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A412" s="10" t="s">
         <v>928</v>
       </c>
-      <c r="B411" s="10" t="s">
+      <c r="B412" s="10" t="s">
         <v>896</v>
       </c>
-      <c r="C411" s="14" t="s">
+      <c r="C412" s="14" t="s">
         <v>922</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A412" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="B412" s="11"/>
-      <c r="C412" s="12" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B413" s="11"/>
       <c r="C413" s="12" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A414" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="B414" s="11"/>
+      <c r="C414" s="12" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A414" s="26" t="s">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A415" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="B414" t="s">
+      <c r="B415" t="s">
         <v>501</v>
       </c>
-      <c r="C414" s="26" t="s">
+      <c r="C415" s="26" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A415" s="10" t="s">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A416" s="10" t="s">
         <v>632</v>
       </c>
-      <c r="B415" s="14" t="s">
+      <c r="B416" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="C415" s="10" t="s">
+      <c r="C416" s="10" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A416" s="11" t="s">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A417" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="B416" s="11"/>
-      <c r="C416" s="12" t="s">
+      <c r="B417" s="11"/>
+      <c r="C417" s="12" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A417" t="s">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
         <v>15</v>
       </c>
-      <c r="B417" t="s">
+      <c r="B418" t="s">
         <v>500</v>
       </c>
-      <c r="C417" t="s">
+      <c r="C418" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A418" s="10" t="s">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A419" s="10" t="s">
         <v>650</v>
       </c>
-      <c r="B418" s="10" t="s">
+      <c r="B419" s="10" t="s">
         <v>634</v>
       </c>
-      <c r="C418" s="10" t="s">
+      <c r="C419" s="10" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A419" s="11" t="s">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A420" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="B419" s="11"/>
-      <c r="C419" s="12" t="s">
+      <c r="B420" s="11"/>
+      <c r="C420" s="12" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A420" s="14" t="s">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A421" s="14" t="s">
         <v>561</v>
       </c>
-      <c r="B420" s="14" t="s">
+      <c r="B421" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C420" s="14" t="s">
+      <c r="C421" s="14" t="s">
         <v>562</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A421" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="B421" s="11"/>
-      <c r="C421" s="12" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" s="11" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B422" s="11"/>
       <c r="C422" s="12" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A423" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="B423" s="11"/>
+      <c r="C423" s="12" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A423" s="10" t="s">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A424" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="B423" s="10" t="s">
+      <c r="B424" s="10" t="s">
         <v>939</v>
       </c>
-      <c r="C423" s="14" t="s">
+      <c r="C424" s="14" t="s">
         <v>940</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A424" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="B424" s="11"/>
-      <c r="C424" s="12" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" s="11" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B425" s="11"/>
       <c r="C425" s="12" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B426" s="11"/>
       <c r="C426" s="12" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" s="11" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B427" s="11"/>
       <c r="C427" s="12" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" s="11" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B428" s="11"/>
       <c r="C428" s="12" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" s="11" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B429" s="11"/>
       <c r="C429" s="12" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A430" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="B430" s="11"/>
+      <c r="C430" s="12" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A430" s="10" t="s">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A431" s="10" t="s">
         <v>674</v>
       </c>
-      <c r="B430" s="10" t="s">
+      <c r="B431" s="10" t="s">
         <v>656</v>
       </c>
-      <c r="C430" s="10" t="s">
+      <c r="C431" s="10" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A431" s="14" t="s">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A432" s="14" t="s">
         <v>802</v>
       </c>
-      <c r="B431" s="14" t="s">
+      <c r="B432" s="14" t="s">
         <v>776</v>
       </c>
-      <c r="C431" s="14" t="s">
+      <c r="C432" s="14" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A432" s="11" t="s">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A433" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="B432" s="11"/>
-      <c r="C432" s="12" t="s">
+      <c r="B433" s="11"/>
+      <c r="C433" s="12" t="s">
         <v>484</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A433" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="B433" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="C433" s="14" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" s="14" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B434" s="14" t="s">
         <v>559</v>
       </c>
       <c r="C434" s="14" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="B435" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C435" s="14" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A436" s="14" t="s">
         <v>651</v>
       </c>
-      <c r="B435" s="14" t="s">
+      <c r="B436" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="C435" s="14" t="s">
+      <c r="C436" s="14" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A436" s="11" t="s">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A437" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="B436" s="11"/>
-      <c r="C436" s="12" t="s">
+      <c r="B437" s="11"/>
+      <c r="C437" s="12" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A437" s="26" t="s">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A438" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B437" s="26" t="s">
+      <c r="B438" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="C437" s="26" t="s">
+      <c r="C438" s="26" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A438" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="B438" s="11"/>
-      <c r="C438" s="12" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B439" s="11"/>
       <c r="C439" s="12" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A440" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="B440" s="11"/>
+      <c r="C440" s="12" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A440" s="14" t="s">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A441" s="14" t="s">
         <v>732</v>
       </c>
-      <c r="B440" s="14" t="s">
+      <c r="B441" s="14" t="s">
         <v>729</v>
       </c>
-      <c r="C440" s="14" t="s">
+      <c r="C441" s="14" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A441" s="11" t="s">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A442" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="B441" s="11"/>
-      <c r="C441" s="12" t="s">
+      <c r="B442" s="11"/>
+      <c r="C442" s="12" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A442" s="10" t="s">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A443" s="10" t="s">
         <v>697</v>
       </c>
-      <c r="B442" s="10" t="s">
+      <c r="B443" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="C442" s="10" t="s">
+      <c r="C443" s="10" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A443" s="26" t="s">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A444" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B443" s="26" t="s">
+      <c r="B444" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="C443" s="26" t="s">
+      <c r="C444" s="26" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A444" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B444" s="14" t="s">
-        <v>514</v>
-      </c>
-      <c r="C444" s="14" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B445" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="C445" s="14" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A446" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B445" s="14"/>
-      <c r="C445" s="14" t="s">
+      <c r="B446" s="14"/>
+      <c r="C446" s="14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A446" s="11" t="s">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A447" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="B446" s="11"/>
-      <c r="C446" s="12" t="s">
+      <c r="B447" s="11"/>
+      <c r="C447" s="12" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A447" s="14"/>
-      <c r="B447" s="14"/>
-      <c r="C447" s="14"/>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" s="14"/>
@@ -10844,12 +10856,12 @@
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" s="14"/>
       <c r="B457" s="14"/>
-      <c r="C457" s="25"/>
+      <c r="C457" s="14"/>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" s="14"/>
       <c r="B458" s="14"/>
-      <c r="C458" s="14"/>
+      <c r="C458" s="25"/>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" s="14"/>
@@ -10859,12 +10871,12 @@
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" s="14"/>
       <c r="B460" s="14"/>
-      <c r="C460" s="25"/>
+      <c r="C460" s="14"/>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" s="14"/>
       <c r="B461" s="14"/>
-      <c r="C461" s="14"/>
+      <c r="C461" s="25"/>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" s="14"/>
@@ -10892,13 +10904,13 @@
       <c r="C466" s="14"/>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A467" s="25"/>
-      <c r="B467" s="25"/>
+      <c r="A467" s="14"/>
+      <c r="B467" s="14"/>
       <c r="C467" s="14"/>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A468" s="14"/>
-      <c r="B468" s="14"/>
+      <c r="A468" s="25"/>
+      <c r="B468" s="25"/>
       <c r="C468" s="14"/>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
@@ -10999,56 +11011,56 @@
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" s="14"/>
       <c r="B488" s="14"/>
-      <c r="C488" s="25"/>
+      <c r="C488" s="14"/>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A489" s="14"/>
       <c r="B489" s="14"/>
-      <c r="C489" s="13"/>
+      <c r="C489" s="25"/>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B490" s="14"/>
       <c r="C490" s="13"/>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A491" s="11"/>
-      <c r="B491" s="11"/>
-      <c r="C491" s="12"/>
+      <c r="B491" s="14"/>
+      <c r="C491" s="13"/>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A492" s="14"/>
-      <c r="B492" s="14"/>
-      <c r="C492" s="14"/>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C501" s="13"/>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A503" s="13"/>
-      <c r="B503" s="13"/>
+      <c r="A492" s="11"/>
+      <c r="B492" s="11"/>
+      <c r="C492" s="12"/>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A493" s="14"/>
+      <c r="B493" s="14"/>
+      <c r="C493" s="14"/>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C502" s="13"/>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C504" s="13"/>
-    </row>
-    <row r="521" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C521" s="13"/>
-    </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C537" s="13"/>
+      <c r="A504" s="13"/>
+      <c r="B504" s="13"/>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C505" s="13"/>
+    </row>
+    <row r="522" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C522" s="13"/>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A538" s="14"/>
-      <c r="B538" s="14"/>
-      <c r="C538" s="14"/>
+      <c r="C538" s="13"/>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A539" s="11"/>
-      <c r="B539" s="11"/>
-      <c r="C539" s="12"/>
+      <c r="A539" s="14"/>
+      <c r="B539" s="14"/>
+      <c r="C539" s="14"/>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A540" s="14"/>
-      <c r="B540" s="14"/>
-      <c r="C540" s="14"/>
+      <c r="A540" s="11"/>
+      <c r="B540" s="11"/>
+      <c r="C540" s="12"/>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" s="14"/>
@@ -11090,25 +11102,30 @@
       <c r="B548" s="14"/>
       <c r="C548" s="14"/>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A551" s="14"/>
-      <c r="B551" s="14"/>
-      <c r="C551" s="14"/>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A549" s="14"/>
+      <c r="B549" s="14"/>
+      <c r="C549" s="14"/>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A552" s="14"/>
+      <c r="B552" s="14"/>
+      <c r="C552" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C456" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C551">
-    <sortCondition ref="A2:A551"/>
+  <autoFilter ref="A1:C457" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C552">
+    <sortCondition ref="A2:A552"/>
   </sortState>
   <dataConsolidate/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A375:A1048576 A372:A373 A259:A370 A192:A257 A1:A190">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  <conditionalFormatting sqref="A376:A1048576 A373:A374 A259:A371 A192:A257 A1:A190">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Zhodani Words List.xlsx
+++ b/Zhodani Words List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06385F46-C376-4B5C-8077-8D3AF49DA377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FFDF7A-84CE-46B2-8782-C17FCAC2FB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
   <sheets>
     <sheet name="Lessons" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Current vocabulary list'!$A$1:$C$457</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Current vocabulary list'!$A$1:$C$450</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lessons!$A$1:$C$223</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Zhdetl (from Alien Book 4)'!$A$1:$B$186</definedName>
   </definedNames>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="992">
   <si>
     <t>Zhdetl word</t>
   </si>
@@ -3007,6 +3007,48 @@
   </si>
   <si>
     <t>greeter; night-time greeter</t>
+  </si>
+  <si>
+    <t>23. Truth and Falsehood</t>
+  </si>
+  <si>
+    <t>iazh</t>
+  </si>
+  <si>
+    <t>pra</t>
+  </si>
+  <si>
+    <t>shti</t>
+  </si>
+  <si>
+    <t>falsehood; can also mean 'no' depeding on context</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'and', meaning both or all conditions are true</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'or', meaining either condition can be true</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'not', implying that either an expression is false or a comparision is false (as in A but not B)</t>
+  </si>
+  <si>
+    <t>plaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'xor', or 'either one or the other but not both, used when there are several choices that cannot be simultaneously true</t>
+  </si>
+  <si>
+    <t>chapra</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'nor', both or all conditions are not true</t>
+  </si>
+  <si>
+    <t>plachapra</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'xnor', both or all conditions are true or false</t>
   </si>
 </sst>
 </file>
@@ -6230,11 +6272,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}">
-  <dimension ref="A1:C552"/>
+  <dimension ref="A1:C542"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A318" sqref="A318"/>
+      <pane ySplit="1" topLeftCell="A442" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A455" sqref="A455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10809,39 +10851,81 @@
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A448" s="14"/>
-      <c r="B448" s="14"/>
-      <c r="C448" s="14"/>
+      <c r="A448" s="14" t="s">
+        <v>979</v>
+      </c>
+      <c r="B448" s="14" t="s">
+        <v>978</v>
+      </c>
+      <c r="C448" s="25" t="s">
+        <v>983</v>
+      </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A449" s="14"/>
-      <c r="B449" s="14"/>
-      <c r="C449" s="14"/>
+      <c r="A449" s="14" t="s">
+        <v>980</v>
+      </c>
+      <c r="B449" s="14" t="s">
+        <v>978</v>
+      </c>
+      <c r="C449" s="25" t="s">
+        <v>984</v>
+      </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A450" s="14"/>
-      <c r="B450" s="14"/>
-      <c r="C450" s="14"/>
+      <c r="A450" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B450" s="14" t="s">
+        <v>978</v>
+      </c>
+      <c r="C450" s="14" t="s">
+        <v>982</v>
+      </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A451" s="14"/>
-      <c r="B451" s="14"/>
-      <c r="C451" s="14"/>
+      <c r="A451" s="14" t="s">
+        <v>981</v>
+      </c>
+      <c r="B451" s="14" t="s">
+        <v>978</v>
+      </c>
+      <c r="C451" s="25" t="s">
+        <v>985</v>
+      </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A452" s="14"/>
-      <c r="B452" s="14"/>
-      <c r="C452" s="14"/>
+      <c r="A452" s="14" t="s">
+        <v>986</v>
+      </c>
+      <c r="B452" s="14" t="s">
+        <v>978</v>
+      </c>
+      <c r="C452" s="14" t="s">
+        <v>987</v>
+      </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A453" s="14"/>
-      <c r="B453" s="14"/>
-      <c r="C453" s="14"/>
+      <c r="A453" s="14" t="s">
+        <v>988</v>
+      </c>
+      <c r="B453" s="14" t="s">
+        <v>978</v>
+      </c>
+      <c r="C453" s="14" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A454" s="14"/>
-      <c r="B454" s="14"/>
-      <c r="C454" s="14"/>
+      <c r="A454" s="14" t="s">
+        <v>990</v>
+      </c>
+      <c r="B454" s="14" t="s">
+        <v>978</v>
+      </c>
+      <c r="C454" s="14" t="s">
+        <v>991</v>
+      </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" s="14"/>
@@ -10859,9 +10943,9 @@
       <c r="C457" s="14"/>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A458" s="14"/>
-      <c r="B458" s="14"/>
-      <c r="C458" s="25"/>
+      <c r="A458" s="25"/>
+      <c r="B458" s="25"/>
+      <c r="C458" s="14"/>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" s="14"/>
@@ -10876,7 +10960,7 @@
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" s="14"/>
       <c r="B461" s="14"/>
-      <c r="C461" s="25"/>
+      <c r="C461" s="14"/>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" s="14"/>
@@ -10909,8 +10993,8 @@
       <c r="C467" s="14"/>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A468" s="25"/>
-      <c r="B468" s="25"/>
+      <c r="A468" s="14"/>
+      <c r="B468" s="14"/>
       <c r="C468" s="14"/>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
@@ -10966,156 +11050,106 @@
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" s="14"/>
       <c r="B479" s="14"/>
-      <c r="C479" s="14"/>
+      <c r="C479" s="25"/>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A480" s="14"/>
       <c r="B480" s="14"/>
-      <c r="C480" s="14"/>
+      <c r="C480" s="13"/>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A481" s="14"/>
       <c r="B481" s="14"/>
-      <c r="C481" s="14"/>
+      <c r="C481" s="13"/>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A482" s="14"/>
-      <c r="B482" s="14"/>
-      <c r="C482" s="14"/>
+      <c r="A482" s="11"/>
+      <c r="B482" s="11"/>
+      <c r="C482" s="12"/>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" s="14"/>
       <c r="B483" s="14"/>
       <c r="C483" s="14"/>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A484" s="14"/>
-      <c r="B484" s="14"/>
-      <c r="C484" s="14"/>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A485" s="14"/>
-      <c r="B485" s="14"/>
-      <c r="C485" s="14"/>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A486" s="14"/>
-      <c r="B486" s="14"/>
-      <c r="C486" s="14"/>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A487" s="14"/>
-      <c r="B487" s="14"/>
-      <c r="C487" s="14"/>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A488" s="14"/>
-      <c r="B488" s="14"/>
-      <c r="C488" s="14"/>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A489" s="14"/>
-      <c r="B489" s="14"/>
-      <c r="C489" s="25"/>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B490" s="14"/>
-      <c r="C490" s="13"/>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B491" s="14"/>
-      <c r="C491" s="13"/>
-    </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A492" s="11"/>
-      <c r="B492" s="11"/>
-      <c r="C492" s="12"/>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A493" s="14"/>
-      <c r="B493" s="14"/>
-      <c r="C493" s="14"/>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C502" s="13"/>
-    </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A504" s="13"/>
-      <c r="B504" s="13"/>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C505" s="13"/>
-    </row>
-    <row r="522" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C522" s="13"/>
+      <c r="C492" s="13"/>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A494" s="13"/>
+      <c r="B494" s="13"/>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C495" s="13"/>
+    </row>
+    <row r="512" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C512" s="13"/>
+    </row>
+    <row r="528" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C528" s="13"/>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A529" s="14"/>
+      <c r="B529" s="14"/>
+      <c r="C529" s="14"/>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A530" s="11"/>
+      <c r="B530" s="11"/>
+      <c r="C530" s="12"/>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A531" s="14"/>
+      <c r="B531" s="14"/>
+      <c r="C531" s="14"/>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A532" s="14"/>
+      <c r="B532" s="14"/>
+      <c r="C532" s="14"/>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A533" s="14"/>
+      <c r="B533" s="14"/>
+      <c r="C533" s="14"/>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A534" s="14"/>
+      <c r="B534" s="14"/>
+      <c r="C534" s="14"/>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A535" s="14"/>
+      <c r="B535" s="14"/>
+      <c r="C535" s="14"/>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A536" s="14"/>
+      <c r="B536" s="14"/>
+      <c r="C536" s="14"/>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A537" s="14"/>
+      <c r="B537" s="14"/>
+      <c r="C537" s="14"/>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C538" s="13"/>
+      <c r="A538" s="14"/>
+      <c r="B538" s="14"/>
+      <c r="C538" s="14"/>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539" s="14"/>
       <c r="B539" s="14"/>
       <c r="C539" s="14"/>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A540" s="11"/>
-      <c r="B540" s="11"/>
-      <c r="C540" s="12"/>
-    </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A541" s="14"/>
-      <c r="B541" s="14"/>
-      <c r="C541" s="14"/>
-    </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" s="14"/>
       <c r="B542" s="14"/>
       <c r="C542" s="14"/>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A543" s="14"/>
-      <c r="B543" s="14"/>
-      <c r="C543" s="14"/>
-    </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A544" s="14"/>
-      <c r="B544" s="14"/>
-      <c r="C544" s="14"/>
-    </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A545" s="14"/>
-      <c r="B545" s="14"/>
-      <c r="C545" s="14"/>
-    </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A546" s="14"/>
-      <c r="B546" s="14"/>
-      <c r="C546" s="14"/>
-    </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A547" s="14"/>
-      <c r="B547" s="14"/>
-      <c r="C547" s="14"/>
-    </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A548" s="14"/>
-      <c r="B548" s="14"/>
-      <c r="C548" s="14"/>
-    </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A549" s="14"/>
-      <c r="B549" s="14"/>
-      <c r="C549" s="14"/>
-    </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A552" s="14"/>
-      <c r="B552" s="14"/>
-      <c r="C552" s="14"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C457" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C552">
-    <sortCondition ref="A2:A552"/>
+  <autoFilter ref="A1:C450" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C542">
+    <sortCondition ref="A2:A542"/>
   </sortState>
   <dataConsolidate/>
   <conditionalFormatting sqref="C1:C1048576">
@@ -11136,8 +11170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202BFE38-5763-453D-9FF5-A2457E37E84D}">
   <dimension ref="A1:B186"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B186"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Zhodani Words List.xlsx
+++ b/Zhodani Words List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FFDF7A-84CE-46B2-8782-C17FCAC2FB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B88B08-4A4D-4D07-B897-BCCA86B8A695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="1033">
   <si>
     <t>Zhdetl word</t>
   </si>
@@ -3049,6 +3049,129 @@
   </si>
   <si>
     <t xml:space="preserve"> 'xnor', both or all conditions are true or false</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>pilotchil</t>
+  </si>
+  <si>
+    <t>Suit</t>
+  </si>
+  <si>
+    <t>suffixes</t>
+  </si>
+  <si>
+    <t>-iepr</t>
+  </si>
+  <si>
+    <t>-atl</t>
+  </si>
+  <si>
+    <t>-stebr</t>
+  </si>
+  <si>
+    <t>-tlas</t>
+  </si>
+  <si>
+    <t>-tlasche'</t>
+  </si>
+  <si>
+    <t>-iashav</t>
+  </si>
+  <si>
+    <t>intendant (an individual of Soc-10)</t>
+  </si>
+  <si>
+    <t>aspirant (Soc-11)</t>
+  </si>
+  <si>
+    <t>wellborn (Soc 12)</t>
+  </si>
+  <si>
+    <t>highborn (Soc 13)</t>
+  </si>
+  <si>
+    <t>noble born (Soc 14)</t>
+  </si>
+  <si>
+    <t>princely born (Soc 15)</t>
+  </si>
+  <si>
+    <t>-'ad</t>
+  </si>
+  <si>
+    <t>"a person who"; see also Zhant'ad</t>
+  </si>
+  <si>
+    <t>nechiatlo</t>
+  </si>
+  <si>
+    <t>24. InkZhober</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vevl </t>
+  </si>
+  <si>
+    <t>Vessel; ship</t>
+  </si>
+  <si>
+    <t>choazheqatzl</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>chepitzcatl</t>
+  </si>
+  <si>
+    <t>ghost; spirit</t>
+  </si>
+  <si>
+    <t>spirits; liquor</t>
+  </si>
+  <si>
+    <t>qalotlak</t>
+  </si>
+  <si>
+    <t>raven; a raven-like creature native to Zhdant and having intelligence similar to the Terran analogue</t>
+  </si>
+  <si>
+    <t>shiv</t>
+  </si>
+  <si>
+    <t>moon</t>
+  </si>
+  <si>
+    <t>pitlitzika</t>
+  </si>
+  <si>
+    <t>knot</t>
+  </si>
+  <si>
+    <t>ichtotlia</t>
+  </si>
+  <si>
+    <t>eyes</t>
+  </si>
+  <si>
+    <t>ayoqik</t>
+  </si>
+  <si>
+    <t>nevermore</t>
+  </si>
+  <si>
+    <t>vaqietskatl</t>
+  </si>
+  <si>
+    <t>lightning</t>
+  </si>
+  <si>
+    <t>petzanili</t>
+  </si>
+  <si>
+    <t>mystery</t>
   </si>
 </sst>
 </file>
@@ -3217,6 +3340,16 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3245,16 +3378,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3287,8 +3410,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4039E8B-8AC1-44D4-939F-61521D537543}" name="Zhdetl" displayName="Zhdetl" ref="A1:B186" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B186" xr:uid="{B2E9EE69-E126-4FC1-ACEF-C598B63AECDE}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6275,8 +6398,8 @@
   <dimension ref="A1:C542"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A442" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A455" sqref="A455"/>
+      <pane ySplit="1" topLeftCell="A471" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A475" sqref="A475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10928,104 +11051,224 @@
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A455" s="14"/>
-      <c r="B455" s="14"/>
-      <c r="C455" s="14"/>
+      <c r="A455" s="14" t="s">
+        <v>993</v>
+      </c>
+      <c r="B455" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C455" s="14" t="s">
+        <v>992</v>
+      </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A456" s="14"/>
-      <c r="B456" s="14"/>
-      <c r="C456" s="14"/>
+      <c r="A456" s="14" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B456" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C456" s="14" t="s">
+        <v>994</v>
+      </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A457" s="14"/>
-      <c r="B457" s="14"/>
-      <c r="C457" s="14"/>
+      <c r="A457" s="25" t="s">
+        <v>996</v>
+      </c>
+      <c r="B457" s="14" t="s">
+        <v>995</v>
+      </c>
+      <c r="C457" s="14" t="s">
+        <v>1002</v>
+      </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A458" s="25"/>
-      <c r="B458" s="25"/>
-      <c r="C458" s="14"/>
+      <c r="A458" s="25" t="s">
+        <v>997</v>
+      </c>
+      <c r="B458" s="25" t="s">
+        <v>995</v>
+      </c>
+      <c r="C458" s="14" t="s">
+        <v>1003</v>
+      </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A459" s="14"/>
-      <c r="B459" s="14"/>
-      <c r="C459" s="14"/>
+      <c r="A459" s="25" t="s">
+        <v>998</v>
+      </c>
+      <c r="B459" s="14" t="s">
+        <v>995</v>
+      </c>
+      <c r="C459" s="14" t="s">
+        <v>1004</v>
+      </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A460" s="14"/>
-      <c r="B460" s="14"/>
-      <c r="C460" s="14"/>
+      <c r="A460" s="25" t="s">
+        <v>999</v>
+      </c>
+      <c r="B460" s="14" t="s">
+        <v>995</v>
+      </c>
+      <c r="C460" s="14" t="s">
+        <v>1005</v>
+      </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A461" s="14"/>
-      <c r="B461" s="14"/>
-      <c r="C461" s="14"/>
+      <c r="A461" s="25" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B461" s="14" t="s">
+        <v>995</v>
+      </c>
+      <c r="C461" s="14" t="s">
+        <v>1006</v>
+      </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A462" s="14"/>
-      <c r="B462" s="14"/>
-      <c r="C462" s="14"/>
+      <c r="A462" s="25" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B462" s="14" t="s">
+        <v>995</v>
+      </c>
+      <c r="C462" s="14" t="s">
+        <v>1007</v>
+      </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A463" s="14"/>
-      <c r="B463" s="14"/>
-      <c r="C463" s="14"/>
+      <c r="A463" s="25" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B463" s="14" t="s">
+        <v>995</v>
+      </c>
+      <c r="C463" s="14" t="s">
+        <v>1009</v>
+      </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A464" s="14"/>
-      <c r="B464" s="14"/>
-      <c r="C464" s="14"/>
+      <c r="A464" s="14" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B464" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C464" s="14" t="s">
+        <v>1013</v>
+      </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A465" s="14"/>
-      <c r="B465" s="14"/>
-      <c r="C465" s="14"/>
+      <c r="A465" s="14" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B465" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C465" s="14" t="s">
+        <v>1015</v>
+      </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A466" s="14"/>
-      <c r="B466" s="14"/>
-      <c r="C466" s="14"/>
+      <c r="A466" s="14" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B466" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C466" s="14" t="s">
+        <v>1017</v>
+      </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A467" s="14"/>
-      <c r="B467" s="14"/>
-      <c r="C467" s="14"/>
+      <c r="A467" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="B467" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C467" s="14" t="s">
+        <v>1018</v>
+      </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A468" s="14"/>
-      <c r="B468" s="14"/>
-      <c r="C468" s="14"/>
+      <c r="A468" s="14" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B468" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C468" s="14" t="s">
+        <v>1020</v>
+      </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A469" s="14"/>
-      <c r="B469" s="14"/>
-      <c r="C469" s="14"/>
+      <c r="A469" s="14" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B469" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C469" s="14" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A470" s="14"/>
-      <c r="B470" s="14"/>
-      <c r="C470" s="14"/>
+      <c r="A470" s="14" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B470" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C470" s="14" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A471" s="14"/>
-      <c r="B471" s="14"/>
-      <c r="C471" s="14"/>
+      <c r="A471" s="14" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B471" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C471" s="14" t="s">
+        <v>1026</v>
+      </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A472" s="14"/>
-      <c r="B472" s="14"/>
-      <c r="C472" s="14"/>
+      <c r="A472" s="14" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B472" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C472" s="14" t="s">
+        <v>1028</v>
+      </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A473" s="14"/>
-      <c r="B473" s="14"/>
-      <c r="C473" s="14"/>
+      <c r="A473" s="14" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B473" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C473" s="14" t="s">
+        <v>1030</v>
+      </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A474" s="14"/>
-      <c r="B474" s="14"/>
-      <c r="C474" s="14"/>
+      <c r="A474" s="14" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B474" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C474" s="14" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" s="14"/>
@@ -11153,13 +11396,13 @@
   </sortState>
   <dataConsolidate/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A376:A1048576 A373:A374 A259:A371 A192:A257 A1:A190">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Zhodani Words List.xlsx
+++ b/Zhodani Words List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B88B08-4A4D-4D07-B897-BCCA86B8A695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F06887-7DE6-463E-AA69-8289CD5BECD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
+    <workbookView xWindow="30510" yWindow="1650" windowWidth="17280" windowHeight="8970" activeTab="1" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
   <sheets>
     <sheet name="Lessons" sheetId="1" r:id="rId1"/>
@@ -6398,8 +6398,8 @@
   <dimension ref="A1:C542"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A471" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A475" sqref="A475"/>
+      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A329" sqref="A329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Zhodani Words List.xlsx
+++ b/Zhodani Words List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F06887-7DE6-463E-AA69-8289CD5BECD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F3F963-4F06-48FF-B36A-366DFC47016E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30510" yWindow="1650" windowWidth="17280" windowHeight="8970" activeTab="1" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="1" activeTab="1" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
   <sheets>
     <sheet name="Lessons" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="1033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2370" uniqueCount="1051">
   <si>
     <t>Zhdetl word</t>
   </si>
@@ -3172,6 +3172,60 @@
   </si>
   <si>
     <t>mystery</t>
+  </si>
+  <si>
+    <t>tlatkral</t>
+  </si>
+  <si>
+    <t>pick (plectrum</t>
+  </si>
+  <si>
+    <t>khuurmikaka</t>
+  </si>
+  <si>
+    <t>katzaptila</t>
+  </si>
+  <si>
+    <t>tezhokoqi</t>
+  </si>
+  <si>
+    <t>pepetli</t>
+  </si>
+  <si>
+    <t>pick (sharp tool)</t>
+  </si>
+  <si>
+    <t>to pick, as in fruit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to choose </t>
+  </si>
+  <si>
+    <t>tlalotzili</t>
+  </si>
+  <si>
+    <t>abandoned</t>
+  </si>
+  <si>
+    <t>zheplatlik</t>
+  </si>
+  <si>
+    <t>stuck</t>
+  </si>
+  <si>
+    <t>qoachalatl</t>
+  </si>
+  <si>
+    <t>roof</t>
+  </si>
+  <si>
+    <t>shtolechiej</t>
+  </si>
+  <si>
+    <t>pochitli</t>
+  </si>
+  <si>
+    <t>tick</t>
   </si>
 </sst>
 </file>
@@ -6398,8 +6452,8 @@
   <dimension ref="A1:C542"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A329" sqref="A329"/>
+      <pane ySplit="1" topLeftCell="A466" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A484" sqref="A484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9397,7 +9451,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="14" t="s">
-        <v>601</v>
+        <v>774</v>
       </c>
       <c r="B294" s="14" t="s">
         <v>589</v>
@@ -9408,7 +9462,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="14" t="s">
-        <v>602</v>
+        <v>1033</v>
       </c>
       <c r="B295" s="14" t="s">
         <v>589</v>
@@ -11271,47 +11325,103 @@
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A475" s="14"/>
-      <c r="B475" s="14"/>
-      <c r="C475" s="14"/>
+      <c r="A475" s="14" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B475" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C475" s="14" t="s">
+        <v>1034</v>
+      </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A476" s="14"/>
-      <c r="B476" s="14"/>
-      <c r="C476" s="14"/>
+      <c r="A476" s="14" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B476" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C476" s="14" t="s">
+        <v>1039</v>
+      </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A477" s="14"/>
-      <c r="B477" s="14"/>
-      <c r="C477" s="14"/>
+      <c r="A477" s="14" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B477" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C477" s="14" t="s">
+        <v>1040</v>
+      </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A478" s="14"/>
-      <c r="B478" s="14"/>
-      <c r="C478" s="14"/>
+      <c r="A478" s="14" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B478" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C478" s="14" t="s">
+        <v>1041</v>
+      </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A479" s="14"/>
-      <c r="B479" s="14"/>
-      <c r="C479" s="25"/>
+      <c r="A479" s="14" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B479" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C479" s="25" t="s">
+        <v>1043</v>
+      </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B480" s="14"/>
-      <c r="C480" s="13"/>
+      <c r="A480" s="10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B480" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C480" s="13" t="s">
+        <v>1045</v>
+      </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B481" s="14"/>
-      <c r="C481" s="13"/>
+      <c r="A481" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B481" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C481" s="13" t="s">
+        <v>1047</v>
+      </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A482" s="11"/>
-      <c r="B482" s="11"/>
-      <c r="C482" s="12"/>
+      <c r="A482" s="11" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B482" s="11" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C482" s="12" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A483" s="14"/>
-      <c r="B483" s="14"/>
-      <c r="C483" s="14"/>
+      <c r="A483" s="14" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B483" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C483" s="14" t="s">
+        <v>1050</v>
+      </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C492" s="13"/>

--- a/Zhodani Words List.xlsx
+++ b/Zhodani Words List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADADAA89-15DD-4F03-AFCB-3BB7D7C8AFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84539552-A697-42BA-8932-57BC307E78F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
+    <workbookView xWindow="31080" yWindow="1515" windowWidth="17280" windowHeight="8970" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
   <sheets>
     <sheet name="Current vocabulary list" sheetId="2" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2480" uniqueCount="1158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2483" uniqueCount="1160">
   <si>
     <t>Zhdetl word</t>
   </si>
@@ -3548,6 +3548,12 @@
   </si>
   <si>
     <t>guard (if a condition is met)</t>
+  </si>
+  <si>
+    <t>tochinqoa</t>
+  </si>
+  <si>
+    <t>a six legged rabbit-like creature with the temperament of a honey badger.</t>
   </si>
 </sst>
 </file>
@@ -3732,12 +3738,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4122,8 +4128,8 @@
   <dimension ref="A1:C542"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A486" sqref="A486"/>
+      <pane ySplit="1" topLeftCell="A480" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A487" sqref="A487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9113,6 +9119,17 @@
       </c>
       <c r="C485" s="10" t="s">
         <v>1054</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A486" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B486" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C486" s="10" t="s">
+        <v>1159</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
@@ -10935,241 +10952,241 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>1055</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28" t="s">
         <v>1056</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>1057</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>1058</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>1059</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="28" t="s">
         <v>1060</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="28" t="s">
         <v>1061</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>1062</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>1063</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>1064</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>1065</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>1066</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="27" t="s">
         <v>1067</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="27" t="s">
         <v>1068</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>1069</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>1070</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>1071</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>1072</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="27" t="s">
         <v>1073</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="27" t="s">
         <v>1074</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="27" t="s">
         <v>1075</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>1076</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>1077</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>1078</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="27" t="s">
         <v>1079</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="27" t="s">
         <v>1080</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="27" t="s">
         <v>1081</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="27" t="s">
         <v>1082</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>1083</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>1084</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>1085</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>1086</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="27" t="s">
         <v>1087</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="27" t="s">
         <v>1088</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="27" t="s">
         <v>1089</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="28" t="s">
         <v>1090</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="27" t="s">
         <v>1091</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="27" t="s">
         <v>1092</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="27" t="s">
         <v>1093</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="27" t="s">
         <v>1094</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="27" t="s">
         <v>1095</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="27" t="s">
         <v>1096</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>1097</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="27" t="s">
         <v>1098</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>1099</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="27" t="s">
         <v>1100</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="27" t="s">
         <v>1101</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="27" t="s">
         <v>1102</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="27" t="s">
         <v>1103</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>1104</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>1105</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>1106</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="27" t="s">
         <v>1107</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>1108</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="27" t="s">
         <v>1109</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="27" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>1111</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>1112</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="27" t="s">
         <v>1113</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="27" t="s">
         <v>1114</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="27" t="s">
         <v>1115</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="27" t="s">
         <v>1116</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="27" t="s">
         <v>1117</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>1118</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="27" t="s">
         <v>1119</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>1120</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="27" t="s">
         <v>1121</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="27" t="s">
         <v>1122</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="27" t="s">
         <v>1123</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="27" t="s">
         <v>1124</v>
       </c>
     </row>
@@ -11218,7 +11235,7 @@
       <c r="A6" t="s">
         <v>1129</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>1130</v>
       </c>
     </row>
@@ -11226,7 +11243,7 @@
       <c r="A7" t="s">
         <v>1131</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>1132</v>
       </c>
     </row>
@@ -11234,7 +11251,7 @@
       <c r="A8" t="s">
         <v>1133</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>1134</v>
       </c>
     </row>
@@ -11242,7 +11259,7 @@
       <c r="A9" t="s">
         <v>1135</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="29" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -11250,7 +11267,7 @@
       <c r="A10" t="s">
         <v>1137</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>1138</v>
       </c>
     </row>

--- a/Zhodani Words List.xlsx
+++ b/Zhodani Words List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84539552-A697-42BA-8932-57BC307E78F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676E1096-16F2-4F31-AEA3-01B96ED78E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31080" yWindow="1515" windowWidth="17280" windowHeight="8970" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
   <sheets>
     <sheet name="Current vocabulary list" sheetId="2" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2483" uniqueCount="1160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="1178">
   <si>
     <t>Zhdetl word</t>
   </si>
@@ -3554,6 +3554,60 @@
   </si>
   <si>
     <t>a six legged rabbit-like creature with the temperament of a honey badger.</t>
+  </si>
+  <si>
+    <t>achitsle'</t>
+  </si>
+  <si>
+    <t>collide; to collide</t>
+  </si>
+  <si>
+    <t>chtika</t>
+  </si>
+  <si>
+    <t>leak</t>
+  </si>
+  <si>
+    <t>mayakatl</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>yotliqi</t>
+  </si>
+  <si>
+    <t>sprout</t>
+  </si>
+  <si>
+    <t>chtolmiqo</t>
+  </si>
+  <si>
+    <t>lost</t>
+  </si>
+  <si>
+    <t>chtolmiqnad</t>
+  </si>
+  <si>
+    <t>someone or something lost</t>
+  </si>
+  <si>
+    <t>makmalitzl</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>chakr</t>
+  </si>
+  <si>
+    <t>sand</t>
+  </si>
+  <si>
+    <t>chakroqil</t>
+  </si>
+  <si>
+    <t>sandworm</t>
   </si>
 </sst>
 </file>
@@ -4128,8 +4182,8 @@
   <dimension ref="A1:C542"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A480" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A487" sqref="A487"/>
+      <pane ySplit="1" topLeftCell="A477" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A496" sqref="A496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9132,15 +9186,104 @@
         <v>1159</v>
       </c>
     </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A487" s="10" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B487" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C487" s="10" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A488" s="10" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B488" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C488" s="10" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A489" s="10" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B489" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C489" s="10" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A490" s="10" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B490" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C490" s="10" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A491" s="10" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B491" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C491" s="10" t="s">
+        <v>1169</v>
+      </c>
+    </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C492" s="13"/>
+      <c r="A492" s="10" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B492" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C492" s="13" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A493" s="10" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B493" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C493" s="10" t="s">
+        <v>1173</v>
+      </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A494" s="13"/>
-      <c r="B494" s="13"/>
+      <c r="A494" s="13" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B494" s="13" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C494" s="10" t="s">
+        <v>1175</v>
+      </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C495" s="13"/>
+      <c r="A495" s="10" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B495" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C495" s="13" t="s">
+        <v>1177</v>
+      </c>
     </row>
     <row r="512" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C512" s="13"/>

--- a/Zhodani Words List.xlsx
+++ b/Zhodani Words List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676E1096-16F2-4F31-AEA3-01B96ED78E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD5E983-900F-4781-BB1C-C603A0EBFDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="Lessons" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Current vocabulary list'!$A$1:$C$450</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Current vocabulary list'!$A$1:$D$495</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Lessons!$A$1:$C$223</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">'Zhdetl (from Alien Book 4)'!$A$1:$B$186</definedName>
   </definedNames>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="1178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2782" uniqueCount="1183">
   <si>
     <t>Zhdetl word</t>
   </si>
@@ -2767,9 +2767,6 @@
     <t>20. Moods</t>
   </si>
   <si>
-    <t>paki</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
@@ -2779,27 +2776,15 @@
     <t>sad</t>
   </si>
   <si>
-    <t>koalita</t>
-  </si>
-  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>lianki</t>
-  </si>
-  <si>
     <t>angry</t>
   </si>
   <si>
-    <t>ichtlayoplita</t>
-  </si>
-  <si>
     <t>confused</t>
   </si>
   <si>
-    <t>iolotl</t>
-  </si>
-  <si>
     <t>moods; emotions</t>
   </si>
   <si>
@@ -2818,18 +2803,6 @@
     <t>silly</t>
   </si>
   <si>
-    <t>machita</t>
-  </si>
-  <si>
-    <t>tlepika</t>
-  </si>
-  <si>
-    <t>nienekita</t>
-  </si>
-  <si>
-    <t>cholita</t>
-  </si>
-  <si>
     <t>chacholita</t>
   </si>
   <si>
@@ -2845,24 +2818,12 @@
     <t>despondent</t>
   </si>
   <si>
-    <t>tekoyotik</t>
-  </si>
-  <si>
     <t>chatlanekantik</t>
   </si>
   <si>
     <t>incredulous; unbelieving</t>
   </si>
   <si>
-    <t>tlachtamota</t>
-  </si>
-  <si>
-    <t>tlaye'</t>
-  </si>
-  <si>
-    <t>yomichti</t>
-  </si>
-  <si>
     <t>drunk</t>
   </si>
   <si>
@@ -2878,21 +2839,6 @@
     <t>nauseous, ill</t>
   </si>
   <si>
-    <t>ichthiota</t>
-  </si>
-  <si>
-    <t>tlazhoye'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">khugeganki </t>
-  </si>
-  <si>
-    <t>tlaletia</t>
-  </si>
-  <si>
-    <t>moyazhoi</t>
-  </si>
-  <si>
     <t>21. The Day</t>
   </si>
   <si>
@@ -3608,6 +3554,75 @@
   </si>
   <si>
     <t>sandworm</t>
+  </si>
+  <si>
+    <t>Word type</t>
+  </si>
+  <si>
+    <t>noun</t>
+  </si>
+  <si>
+    <t>verb</t>
+  </si>
+  <si>
+    <t>adjective</t>
+  </si>
+  <si>
+    <t>noun, adj</t>
+  </si>
+  <si>
+    <t>cholito</t>
+  </si>
+  <si>
+    <t>ichthioto</t>
+  </si>
+  <si>
+    <t>ichtlayoplito</t>
+  </si>
+  <si>
+    <t>iolotlo</t>
+  </si>
+  <si>
+    <t>khugegankio</t>
+  </si>
+  <si>
+    <t>koalito</t>
+  </si>
+  <si>
+    <t>lianko</t>
+  </si>
+  <si>
+    <t>machito</t>
+  </si>
+  <si>
+    <t>moyazho</t>
+  </si>
+  <si>
+    <t>nienekito</t>
+  </si>
+  <si>
+    <t>pakio</t>
+  </si>
+  <si>
+    <t>tekoyotiko</t>
+  </si>
+  <si>
+    <t>tlachtamoto</t>
+  </si>
+  <si>
+    <t>tlaletio</t>
+  </si>
+  <si>
+    <t>tlayeo</t>
+  </si>
+  <si>
+    <t>tlazhoyeo</t>
+  </si>
+  <si>
+    <t>tlepiko</t>
+  </si>
+  <si>
+    <t>yomichto</t>
   </si>
 </sst>
 </file>
@@ -3805,16 +3820,6 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3843,6 +3848,16 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3875,8 +3890,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4039E8B-8AC1-44D4-939F-61521D537543}" name="Zhdetl" displayName="Zhdetl" ref="A1:B186" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B186" xr:uid="{B2E9EE69-E126-4FC1-ACEF-C598B63AECDE}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4179,22 +4194,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}">
-  <dimension ref="A1:C542"/>
+  <dimension ref="A1:D542"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A477" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A496" sqref="A496"/>
+      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D251" sqref="D251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.109375" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="108.5546875" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="10"/>
+    <col min="3" max="3" width="22.5546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="108.5546875" style="10" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>880</v>
       </c>
@@ -4202,10 +4218,13 @@
         <v>883</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -4213,10 +4232,13 @@
         <v>500</v>
       </c>
       <c r="C2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -4224,10 +4246,13 @@
         <v>500</v>
       </c>
       <c r="C3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>677</v>
       </c>
@@ -4235,10 +4260,13 @@
         <v>656</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>606</v>
       </c>
@@ -4246,10 +4274,13 @@
         <v>680</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>606</v>
       </c>
@@ -4257,38 +4288,50 @@
         <v>589</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B8" s="11"/>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>500</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="11" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>736</v>
       </c>
@@ -4296,10 +4339,13 @@
         <v>729</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>725</v>
       </c>
@@ -4307,10 +4353,13 @@
         <v>709</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>751</v>
       </c>
@@ -4318,19 +4367,25 @@
         <v>729</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="11"/>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>676</v>
       </c>
@@ -4338,53 +4393,71 @@
         <v>656</v>
       </c>
       <c r="C14" s="14" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>152</v>
       </c>
       <c r="B16" s="11"/>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>154</v>
       </c>
       <c r="B17" s="11"/>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>132</v>
       </c>
       <c r="B18" s="11"/>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>133</v>
       </c>
       <c r="C19" s="10" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>763</v>
       </c>
@@ -4392,107 +4465,140 @@
         <v>753</v>
       </c>
       <c r="C20" s="14" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>135</v>
       </c>
       <c r="C21" s="10" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>113</v>
       </c>
       <c r="B22" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="14" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D22" s="26" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>115</v>
       </c>
       <c r="B23" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="14" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D23" s="26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>137</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>886</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>138</v>
       </c>
       <c r="B25" s="26" t="s">
         <v>886</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>139</v>
       </c>
       <c r="B26" s="11"/>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>549</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="10" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C28" s="10" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>140</v>
       </c>
       <c r="C29" s="10" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>142</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="14" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>144</v>
       </c>
@@ -4500,61 +4606,79 @@
         <v>886</v>
       </c>
       <c r="C31" s="14" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>165</v>
       </c>
       <c r="B32" s="26" t="s">
         <v>886</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="14" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>167</v>
       </c>
       <c r="B33" s="26" t="s">
         <v>886</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="14" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>169</v>
       </c>
       <c r="B34" s="11"/>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="11" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>171</v>
       </c>
       <c r="B35" s="11"/>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="11" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>3</v>
       </c>
       <c r="B36" t="s">
         <v>500</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="11" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>604</v>
       </c>
@@ -4562,10 +4686,13 @@
         <v>589</v>
       </c>
       <c r="C37" s="14" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>605</v>
       </c>
@@ -4573,10 +4700,13 @@
         <v>589</v>
       </c>
       <c r="C38" s="14" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>603</v>
       </c>
@@ -4584,21 +4714,27 @@
         <v>589</v>
       </c>
       <c r="C39" s="14" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>647</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="14" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>654</v>
       </c>
@@ -4606,10 +4742,13 @@
         <v>634</v>
       </c>
       <c r="C41" s="10" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>648</v>
       </c>
@@ -4617,21 +4756,27 @@
         <v>634</v>
       </c>
       <c r="C42" s="10" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
       <c r="B43" t="s">
         <v>500</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="10" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
         <v>630</v>
       </c>
@@ -4639,57 +4784,75 @@
         <v>610</v>
       </c>
       <c r="C44" s="14" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D44" s="14" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>173</v>
       </c>
       <c r="B45" s="11"/>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="11" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D45" s="12" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>175</v>
       </c>
       <c r="B46" s="11"/>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="11" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D46" s="12" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>177</v>
       </c>
       <c r="B47" s="11"/>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="11" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D47" s="12" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>896</v>
       </c>
-      <c r="C48" s="25" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C48" s="14" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>179</v>
       </c>
       <c r="B49" s="11"/>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="11" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D49" s="12" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>698</v>
       </c>
@@ -4697,10 +4860,13 @@
         <v>680</v>
       </c>
       <c r="C50" s="10" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D50" s="10" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>693</v>
       </c>
@@ -4708,50 +4874,65 @@
         <v>680</v>
       </c>
       <c r="C51" s="10" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
-        <v>943</v>
+        <v>925</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>939</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>921</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>896</v>
       </c>
-      <c r="C53" s="14" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="10" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B54" s="14"/>
       <c r="C54" s="14" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D54" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>181</v>
       </c>
       <c r="B55" s="11"/>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="11" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D55" s="12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
         <v>720</v>
       </c>
@@ -4759,30 +4940,39 @@
         <v>709</v>
       </c>
       <c r="C56" s="14" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D56" s="14" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>183</v>
       </c>
       <c r="B57" s="11"/>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="11" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D57" s="12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
         <v>185</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>895</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="14" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D58" s="12" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
         <v>884</v>
       </c>
@@ -4790,10 +4980,13 @@
         <v>839</v>
       </c>
       <c r="C59" s="14" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D59" s="14" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
         <v>93</v>
       </c>
@@ -4801,4570 +4994,5426 @@
         <v>709</v>
       </c>
       <c r="C60" s="14" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D60" s="14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="26" t="s">
         <v>93</v>
       </c>
       <c r="B61" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="C61" s="14" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D61" s="26" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
+        <v>929</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>921</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="17" t="s">
         <v>947</v>
       </c>
-      <c r="B62" s="14" t="s">
-        <v>939</v>
-      </c>
-      <c r="C62" s="14" t="s">
+      <c r="B63" s="21" t="s">
+        <v>957</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D63" s="18" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="17" t="s">
-        <v>965</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>975</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
         <v>187</v>
       </c>
       <c r="B64" s="20"/>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="20" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D64" s="16" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="17" t="s">
-        <v>967</v>
+        <v>949</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>975</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+        <v>957</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="17" t="s">
         <v>798</v>
       </c>
       <c r="B66" s="21" t="s">
         <v>776</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D66" s="18" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="17" t="s">
         <v>771</v>
       </c>
       <c r="B67" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C67" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D67" s="18" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="17" t="s">
         <v>772</v>
       </c>
       <c r="B68" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D68" s="18" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="17" t="s">
         <v>752</v>
       </c>
       <c r="B69" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C69" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D69" s="18" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="17" t="s">
-        <v>917</v>
+        <v>1165</v>
       </c>
       <c r="B70" s="21" t="s">
         <v>896</v>
       </c>
-      <c r="C70" s="18" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C70" s="21" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="15" t="s">
         <v>188</v>
       </c>
       <c r="B71" s="20"/>
-      <c r="C71" s="16" t="s">
+      <c r="C71" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D71" s="16" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="s">
         <v>702</v>
       </c>
       <c r="B72" s="21" t="s">
         <v>680</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D72" s="18" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="22" t="s">
         <v>110</v>
       </c>
       <c r="B73" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="C73" s="24" t="s">
+      <c r="C73" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D73" s="24" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
         <v>190</v>
       </c>
       <c r="B74" s="20"/>
-      <c r="C74" s="16" t="s">
+      <c r="C74" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D74" s="16" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="17" t="s">
         <v>730</v>
       </c>
       <c r="B75" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="C75" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D75" s="18" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="17" t="s">
         <v>717</v>
       </c>
       <c r="B76" s="21" t="s">
         <v>709</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D76" s="18" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
         <v>192</v>
       </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="16" t="s">
+      <c r="C77" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D77" s="16" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="17" t="s">
         <v>824</v>
       </c>
       <c r="B78" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C78" s="21" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D78" s="18" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B79" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="C79" s="24" t="s">
+      <c r="C79" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D79" s="24" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="17" t="s">
         <v>828</v>
       </c>
       <c r="B80" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="21" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D80" s="18" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="17" t="s">
         <v>795</v>
       </c>
       <c r="B81" s="21" t="s">
         <v>776</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C81" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D81" s="18" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="15" t="s">
         <v>194</v>
       </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="16" t="s">
+      <c r="C82" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D82" s="16" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="17" t="s">
         <v>102</v>
       </c>
       <c r="B83" s="21"/>
-      <c r="C83" s="18" t="s">
+      <c r="C83" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D83" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
         <v>196</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="16" t="s">
+      <c r="C84" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D84" s="16" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
         <v>198</v>
       </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="16" t="s">
+      <c r="C85" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D85" s="16" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
         <v>200</v>
       </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="16" t="s">
+      <c r="C86" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D86" s="16" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="15" t="s">
         <v>202</v>
       </c>
       <c r="B87" s="20"/>
-      <c r="C87" s="16" t="s">
+      <c r="C87" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D87" s="16" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="15" t="s">
         <v>204</v>
       </c>
       <c r="B88" s="20"/>
-      <c r="C88" s="16" t="s">
+      <c r="C88" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D88" s="16" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
         <v>206</v>
       </c>
       <c r="B89" s="20"/>
-      <c r="C89" s="16" t="s">
+      <c r="C89" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D89" s="16" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
         <v>208</v>
       </c>
       <c r="B90" s="20"/>
-      <c r="C90" s="16" t="s">
+      <c r="C90" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D90" s="16" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
         <v>210</v>
       </c>
       <c r="B91" s="20"/>
-      <c r="C91" s="16" t="s">
+      <c r="C91" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D91" s="16" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="15" t="s">
         <v>212</v>
       </c>
       <c r="B92" s="20"/>
-      <c r="C92" s="16" t="s">
+      <c r="C92" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D92" s="16" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="15" t="s">
         <v>214</v>
       </c>
       <c r="B93" s="20"/>
-      <c r="C93" s="16" t="s">
+      <c r="C93" s="21" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D93" s="16" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
         <v>216</v>
       </c>
       <c r="B94" s="20"/>
-      <c r="C94" s="16" t="s">
+      <c r="C94" s="21" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D94" s="16" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="17" t="s">
         <v>670</v>
       </c>
       <c r="B95" s="21" t="s">
         <v>656</v>
       </c>
-      <c r="C95" s="18" t="s">
+      <c r="C95" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D95" s="18" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
         <v>218</v>
       </c>
       <c r="B96" s="20"/>
-      <c r="C96" s="16" t="s">
+      <c r="C96" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D96" s="16" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
         <v>220</v>
       </c>
       <c r="B97" s="20"/>
-      <c r="C97" s="16" t="s">
+      <c r="C97" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D97" s="16" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
         <v>222</v>
       </c>
       <c r="B98" s="20"/>
-      <c r="C98" s="16" t="s">
+      <c r="C98" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D98" s="16" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="17" t="s">
         <v>551</v>
       </c>
       <c r="B99" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="C99" s="18" t="s">
+      <c r="C99" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D99" s="18" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
         <v>224</v>
       </c>
       <c r="B100" s="20"/>
-      <c r="C100" s="16" t="s">
+      <c r="C100" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D100" s="16" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
         <v>226</v>
       </c>
       <c r="B101" s="20"/>
-      <c r="C101" s="16" t="s">
+      <c r="C101" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D101" s="16" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
         <v>228</v>
       </c>
       <c r="B102" s="20"/>
-      <c r="C102" s="16" t="s">
+      <c r="C102" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D102" s="16" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="17" t="s">
         <v>556</v>
       </c>
       <c r="B103" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="C103" s="18" t="s">
+      <c r="C103" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D103" s="18" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="17" t="s">
         <v>51</v>
       </c>
       <c r="B104" s="21"/>
-      <c r="C104" s="18" t="s">
+      <c r="C104" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D104" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="17" t="s">
         <v>548</v>
       </c>
       <c r="B105" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="C105" s="18" t="s">
+      <c r="C105" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D105" s="18" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="15" t="s">
         <v>232</v>
       </c>
       <c r="B106" s="20"/>
-      <c r="C106" s="16" t="s">
+      <c r="C106" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D106" s="16" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="15" t="s">
         <v>234</v>
       </c>
       <c r="B107" s="20"/>
-      <c r="C107" s="16" t="s">
+      <c r="C107" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D107" s="16" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="17" t="s">
         <v>12</v>
       </c>
       <c r="B108" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="C108" s="18" t="s">
+      <c r="C108" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D108" s="18" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="17" t="s">
         <v>626</v>
       </c>
       <c r="B109" s="21" t="s">
         <v>610</v>
       </c>
-      <c r="C109" s="18" t="s">
+      <c r="C109" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D109" s="18" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="15" t="s">
         <v>236</v>
       </c>
       <c r="B110" s="20"/>
-      <c r="C110" s="16" t="s">
+      <c r="C110" s="21" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D110" s="16" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B111" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="C111" s="24" t="s">
+      <c r="C111" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D111" s="24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="17" t="s">
         <v>600</v>
       </c>
       <c r="B112" s="21" t="s">
         <v>589</v>
       </c>
-      <c r="C112" s="18" t="s">
+      <c r="C112" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D112" s="18" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="17" t="s">
         <v>793</v>
       </c>
       <c r="B113" s="21" t="s">
         <v>776</v>
       </c>
-      <c r="C113" s="18" t="s">
+      <c r="C113" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D113" s="18" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="15" t="s">
         <v>238</v>
       </c>
       <c r="B114" s="20"/>
-      <c r="C114" s="16" t="s">
+      <c r="C114" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D114" s="16" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="15" t="s">
         <v>240</v>
       </c>
       <c r="B115" s="20"/>
-      <c r="C115" s="16" t="s">
+      <c r="C115" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D115" s="16" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="15" t="s">
         <v>242</v>
       </c>
       <c r="B116" s="20"/>
-      <c r="C116" s="16" t="s">
+      <c r="C116" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D116" s="16" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="17" t="s">
         <v>649</v>
       </c>
       <c r="B117" s="21" t="s">
         <v>634</v>
       </c>
-      <c r="C117" s="18" t="s">
+      <c r="C117" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D117" s="18" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="15" t="s">
         <v>244</v>
       </c>
       <c r="B118" s="20"/>
-      <c r="C118" s="16" t="s">
+      <c r="C118" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D118" s="16" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B119" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="C119" s="24" t="s">
+      <c r="C119" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D119" s="24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="22" t="s">
         <v>91</v>
       </c>
       <c r="B120" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="C120" s="24" t="s">
+      <c r="C120" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D120" s="24" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="22" t="s">
         <v>67</v>
       </c>
       <c r="B121" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="C121" s="24" t="s">
+      <c r="C121" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D121" s="24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="15" t="s">
         <v>246</v>
       </c>
       <c r="B122" s="20"/>
-      <c r="C122" s="16" t="s">
+      <c r="C122" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D122" s="16" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="15" t="s">
         <v>248</v>
       </c>
       <c r="B123" s="20"/>
-      <c r="C123" s="16" t="s">
+      <c r="C123" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D123" s="16" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="15" t="s">
         <v>250</v>
       </c>
       <c r="B124" s="20"/>
-      <c r="C124" s="16" t="s">
+      <c r="C124" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D124" s="16" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="15" t="s">
         <v>252</v>
       </c>
       <c r="B125" s="20"/>
-      <c r="C125" s="16" t="s">
+      <c r="C125" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D125" s="16" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="15" t="s">
         <v>254</v>
       </c>
       <c r="B126" s="20"/>
-      <c r="C126" s="16" t="s">
+      <c r="C126" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D126" s="16" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="17" t="s">
         <v>628</v>
       </c>
       <c r="B127" s="21" t="s">
         <v>610</v>
       </c>
-      <c r="C127" s="18" t="s">
+      <c r="C127" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D127" s="18" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="17" t="s">
         <v>611</v>
       </c>
       <c r="B128" s="21" t="s">
         <v>610</v>
       </c>
-      <c r="C128" s="18" t="s">
+      <c r="C128" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D128" s="18" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="15" t="s">
         <v>256</v>
       </c>
       <c r="B129" s="20"/>
-      <c r="C129" s="16" t="s">
+      <c r="C129" s="20" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D129" s="16" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="15" t="s">
         <v>258</v>
       </c>
       <c r="B130" s="20"/>
-      <c r="C130" s="16" t="s">
+      <c r="C130" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D130" s="16" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B131" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="C131" s="24" t="s">
+      <c r="C131" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D131" s="24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B132" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="C132" s="24" t="s">
+      <c r="C132" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D132" s="24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="15" t="s">
         <v>260</v>
       </c>
       <c r="B133" s="20"/>
-      <c r="C133" s="16" t="s">
+      <c r="C133" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D133" s="16" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="17" t="s">
         <v>587</v>
       </c>
       <c r="B134" s="21" t="s">
         <v>559</v>
       </c>
-      <c r="C134" s="18" t="s">
+      <c r="C134" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D134" s="18" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="17" t="s">
         <v>668</v>
       </c>
       <c r="B135" s="21" t="s">
         <v>656</v>
       </c>
-      <c r="C135" s="18" t="s">
+      <c r="C135" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D135" s="18" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="17" t="s">
         <v>655</v>
       </c>
       <c r="B136" s="21" t="s">
         <v>656</v>
       </c>
-      <c r="C136" s="18" t="s">
+      <c r="C136" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D136" s="18" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="17" t="s">
         <v>655</v>
       </c>
       <c r="B137" s="21" t="s">
         <v>634</v>
       </c>
-      <c r="C137" s="19" t="s">
+      <c r="C137" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D137" s="19" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="15" t="s">
         <v>262</v>
       </c>
       <c r="B138" s="20"/>
-      <c r="C138" s="16" t="s">
+      <c r="C138" s="20" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D138" s="16" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" s="15" t="s">
         <v>264</v>
       </c>
       <c r="B139" s="20"/>
-      <c r="C139" s="16" t="s">
+      <c r="C139" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D139" s="16" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="17" t="s">
         <v>814</v>
       </c>
       <c r="B140" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="C140" s="18" t="s">
+      <c r="C140" s="21" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D140" s="18" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="17" t="s">
         <v>652</v>
       </c>
       <c r="B141" s="21" t="s">
         <v>634</v>
       </c>
-      <c r="C141" s="18" t="s">
+      <c r="C141" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D141" s="18" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="15" t="s">
         <v>671</v>
       </c>
       <c r="B142" s="20" t="s">
         <v>656</v>
       </c>
-      <c r="C142" s="16" t="s">
+      <c r="C142" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D142" s="16" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="15" t="s">
         <v>265</v>
       </c>
       <c r="B143" s="20"/>
-      <c r="C143" s="16" t="s">
+      <c r="C143" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D143" s="16" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="15" t="s">
         <v>267</v>
       </c>
       <c r="B144" s="20"/>
-      <c r="C144" s="16" t="s">
+      <c r="C144" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D144" s="16" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="17" t="s">
         <v>525</v>
       </c>
       <c r="B145" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="C145" s="18" t="s">
+      <c r="C145" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D145" s="18" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="15" t="s">
         <v>269</v>
       </c>
       <c r="B146" s="20"/>
-      <c r="C146" s="16" t="s">
+      <c r="C146" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D146" s="16" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="17" t="s">
         <v>831</v>
       </c>
       <c r="B147" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="C147" s="18" t="s">
+      <c r="C147" s="21" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D147" s="18" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="17" t="s">
         <v>757</v>
       </c>
       <c r="B148" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="C148" s="18" t="s">
+      <c r="C148" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D148" s="18" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="17" t="s">
-        <v>934</v>
+        <v>1166</v>
       </c>
       <c r="B149" s="21" t="s">
         <v>896</v>
       </c>
-      <c r="C149" s="18" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C149" s="21" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D149" s="18" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="17" t="s">
         <v>735</v>
       </c>
       <c r="B150" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="C150" s="18" t="s">
+      <c r="C150" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D150" s="18" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="15" t="s">
-        <v>905</v>
+        <v>1167</v>
       </c>
       <c r="B151" s="21" t="s">
         <v>896</v>
       </c>
-      <c r="C151" s="18" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C151" s="21" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D151" s="18" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="17" t="s">
         <v>778</v>
       </c>
       <c r="B152" s="21" t="s">
         <v>776</v>
       </c>
-      <c r="C152" s="18" t="s">
+      <c r="C152" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D152" s="18" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="17" t="s">
         <v>822</v>
       </c>
       <c r="B153" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="C153" s="18" t="s">
+      <c r="C153" s="21" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D153" s="18" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="15" t="s">
         <v>271</v>
       </c>
       <c r="B154" s="11"/>
-      <c r="C154" s="16" t="s">
+      <c r="C154" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D154" s="16" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="17" t="s">
-        <v>907</v>
+        <v>1168</v>
       </c>
       <c r="B155" s="21" t="s">
         <v>896</v>
       </c>
-      <c r="C155" s="18" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C155" s="21" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D155" s="18" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="s">
         <v>273</v>
       </c>
       <c r="B156" s="20"/>
-      <c r="C156" s="16" t="s">
+      <c r="C156" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D156" s="16" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="22" t="s">
         <v>129</v>
       </c>
       <c r="B157" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="C157" s="24" t="s">
+      <c r="C157" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D157" s="24" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B158" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="C158" s="24" t="s">
+      <c r="C158" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D158" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="17" t="s">
         <v>837</v>
       </c>
       <c r="B159" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="C159" s="18" t="s">
+      <c r="C159" s="21" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D159" s="18" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" s="15" t="s">
         <v>275</v>
       </c>
       <c r="B160" s="20"/>
-      <c r="C160" s="16" t="s">
+      <c r="C160" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D160" s="16" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="15" t="s">
         <v>276</v>
       </c>
       <c r="B161" s="20"/>
-      <c r="C161" s="16" t="s">
+      <c r="C161" s="20" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D161" s="16" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="15" t="s">
         <v>278</v>
       </c>
       <c r="B162" s="21" t="s">
         <v>656</v>
       </c>
-      <c r="C162" s="16" t="s">
+      <c r="C162" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D162" s="16" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
         <v>280</v>
       </c>
       <c r="B163" s="20"/>
-      <c r="C163" s="16" t="s">
+      <c r="C163" s="20" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D163" s="16" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="15" t="s">
         <v>282</v>
       </c>
       <c r="B164" s="20"/>
-      <c r="C164" s="16" t="s">
+      <c r="C164" s="20" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D164" s="16" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="15" t="s">
         <v>284</v>
       </c>
       <c r="B165" s="20"/>
-      <c r="C165" s="16" t="s">
+      <c r="C165" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D165" s="16" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="15" t="s">
         <v>286</v>
       </c>
       <c r="B166" s="20"/>
-      <c r="C166" s="16" t="s">
+      <c r="C166" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D166" s="16" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="15" t="s">
         <v>288</v>
       </c>
       <c r="B167" s="20"/>
-      <c r="C167" s="16" t="s">
+      <c r="C167" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D167" s="16" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="17" t="s">
         <v>521</v>
       </c>
       <c r="B168" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="C168" s="18" t="s">
+      <c r="C168" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D168" s="18" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="22" t="s">
         <v>61</v>
       </c>
       <c r="B169" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="C169" s="24" t="s">
+      <c r="C169" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D169" s="24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="22" t="s">
         <v>125</v>
       </c>
       <c r="B170" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="C170" s="24" t="s">
+      <c r="C170" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D170" s="24" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="17" t="s">
         <v>125</v>
       </c>
       <c r="B171" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="C171" s="18" t="s">
+      <c r="C171" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D171" s="18" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="17" t="s">
         <v>704</v>
       </c>
       <c r="B172" s="21" t="s">
         <v>680</v>
       </c>
-      <c r="C172" s="18" t="s">
+      <c r="C172" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D172" s="18" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="17" t="s">
         <v>829</v>
       </c>
       <c r="B173" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="C173" s="18" t="s">
+      <c r="C173" s="21" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D173" s="18" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="17" t="s">
         <v>738</v>
       </c>
       <c r="B174" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="C174" s="18" t="s">
+      <c r="C174" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D174" s="18" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="15" t="s">
         <v>290</v>
       </c>
       <c r="B175" s="20"/>
-      <c r="C175" s="16" t="s">
+      <c r="C175" s="20" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D175" s="16" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="15" t="s">
         <v>292</v>
       </c>
       <c r="B176" s="20"/>
-      <c r="C176" s="16" t="s">
+      <c r="C176" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D176" s="16" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="17" t="s">
         <v>631</v>
       </c>
       <c r="B177" s="21" t="s">
         <v>610</v>
       </c>
-      <c r="C177" s="18" t="s">
+      <c r="C177" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D177" s="18" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="17" t="s">
         <v>715</v>
       </c>
       <c r="B178" s="21" t="s">
         <v>709</v>
       </c>
-      <c r="C178" s="18" t="s">
+      <c r="C178" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D178" s="18" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="17" t="s">
-        <v>936</v>
+        <v>1169</v>
       </c>
       <c r="B179" s="21" t="s">
         <v>896</v>
       </c>
-      <c r="C179" s="18" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C179" s="21" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D179" s="18" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="15" t="s">
         <v>294</v>
       </c>
       <c r="B180" s="20"/>
-      <c r="C180" s="16" t="s">
+      <c r="C180" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D180" s="16" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="17" t="s">
         <v>881</v>
       </c>
       <c r="B181" s="21" t="s">
         <v>839</v>
       </c>
-      <c r="C181" s="18" t="s">
+      <c r="C181" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D181" s="18" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="15" t="s">
         <v>296</v>
       </c>
       <c r="B182" s="20"/>
-      <c r="C182" s="16" t="s">
+      <c r="C182" s="20" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D182" s="16" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="17" t="s">
         <v>750</v>
       </c>
       <c r="B183" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="C183" s="18" t="s">
+      <c r="C183" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D183" s="18" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B184" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="C184" s="24" t="s">
+      <c r="C184" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D184" s="24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B185" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="C185" s="24" t="s">
+      <c r="C185" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D185" s="24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B186" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="C186" s="24" t="s">
+      <c r="C186" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D186" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="17" t="s">
         <v>695</v>
       </c>
       <c r="B187" s="21" t="s">
         <v>680</v>
       </c>
-      <c r="C187" s="18" t="s">
+      <c r="C187" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D187" s="18" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="15" t="s">
-        <v>901</v>
+        <v>1170</v>
       </c>
       <c r="B188" s="21" t="s">
         <v>896</v>
       </c>
-      <c r="C188" s="18" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C188" s="21" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D188" s="18" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="17" t="s">
         <v>792</v>
       </c>
       <c r="B189" s="21" t="s">
         <v>776</v>
       </c>
-      <c r="C189" s="18" t="s">
+      <c r="C189" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D189" s="18" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="17" t="s">
         <v>748</v>
       </c>
       <c r="B190" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="C190" s="18" t="s">
+      <c r="C190" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D190" s="18" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="14" t="s">
         <v>703</v>
       </c>
       <c r="B191" s="14" t="s">
         <v>680</v>
       </c>
-      <c r="C191" s="18" t="s">
+      <c r="C191" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D191" s="18" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="17" t="s">
         <v>866</v>
       </c>
       <c r="B192" s="21" t="s">
         <v>839</v>
       </c>
-      <c r="C192" s="18" t="s">
+      <c r="C192" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D192" s="18" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="17" t="s">
         <v>868</v>
       </c>
       <c r="B193" s="21" t="s">
         <v>839</v>
       </c>
-      <c r="C193" s="18" t="s">
+      <c r="C193" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D193" s="18" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="17" t="s">
         <v>812</v>
       </c>
       <c r="B194" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="C194" s="18" t="s">
+      <c r="C194" s="21" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D194" s="18" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="17" t="s">
         <v>609</v>
       </c>
       <c r="B195" s="21" t="s">
         <v>589</v>
       </c>
-      <c r="C195" s="18" t="s">
+      <c r="C195" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D195" s="18" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="17" t="s">
         <v>608</v>
       </c>
       <c r="B196" s="21" t="s">
         <v>589</v>
       </c>
-      <c r="C196" s="18" t="s">
+      <c r="C196" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D196" s="18" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="15" t="s">
         <v>298</v>
       </c>
       <c r="B197" s="20"/>
-      <c r="C197" s="16" t="s">
+      <c r="C197" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D197" s="16" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="17" t="s">
         <v>867</v>
       </c>
       <c r="B198" s="21" t="s">
         <v>839</v>
       </c>
-      <c r="C198" s="18" t="s">
+      <c r="C198" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D198" s="18" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="15" t="s">
-        <v>903</v>
+        <v>1171</v>
       </c>
       <c r="B199" s="21" t="s">
         <v>896</v>
       </c>
-      <c r="C199" s="18" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C199" s="21" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D199" s="18" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="17" t="s">
         <v>300</v>
       </c>
       <c r="B200" s="21" t="s">
         <v>895</v>
       </c>
-      <c r="C200" s="18" t="s">
+      <c r="C200" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D200" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="15" t="s">
         <v>302</v>
       </c>
       <c r="B201" s="20"/>
-      <c r="C201" s="16" t="s">
+      <c r="C201" s="20"/>
+      <c r="D201" s="16" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="17" t="s">
         <v>864</v>
       </c>
       <c r="B202" s="21" t="s">
         <v>839</v>
       </c>
-      <c r="C202" s="18" t="s">
+      <c r="C202" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D202" s="18" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="17" t="s">
-        <v>914</v>
+        <v>1172</v>
       </c>
       <c r="B203" s="21" t="s">
         <v>896</v>
       </c>
-      <c r="C203" s="18" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C203" s="21" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D203" s="18" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="17" t="s">
         <v>804</v>
       </c>
       <c r="B204" s="21" t="s">
         <v>776</v>
       </c>
-      <c r="C204" s="18" t="s">
+      <c r="C204" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D204" s="18" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="15" t="s">
         <v>304</v>
       </c>
       <c r="B205" s="20"/>
-      <c r="C205" s="16" t="s">
+      <c r="C205" s="20"/>
+      <c r="D205" s="16" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="17" t="s">
         <v>675</v>
       </c>
       <c r="B206" s="21" t="s">
         <v>656</v>
       </c>
-      <c r="C206" s="18" t="s">
+      <c r="C206" s="21"/>
+      <c r="D206" s="18" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="17" t="s">
         <v>870</v>
       </c>
       <c r="B207" s="21" t="s">
         <v>839</v>
       </c>
-      <c r="C207" s="18" t="s">
+      <c r="C207" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D207" s="18" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="17" t="s">
         <v>875</v>
       </c>
       <c r="B208" s="21" t="s">
         <v>839</v>
       </c>
-      <c r="C208" s="18" t="s">
+      <c r="C208" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D208" s="18" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="17" t="s">
         <v>876</v>
       </c>
       <c r="B209" s="21" t="s">
         <v>839</v>
       </c>
-      <c r="C209" s="18" t="s">
+      <c r="C209" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D209" s="18" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="17" t="s">
         <v>878</v>
       </c>
       <c r="B210" s="21" t="s">
         <v>839</v>
       </c>
-      <c r="C210" s="18" t="s">
+      <c r="C210" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D210" s="18" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="17" t="s">
         <v>877</v>
       </c>
       <c r="B211" s="21" t="s">
         <v>839</v>
       </c>
-      <c r="C211" s="18" t="s">
+      <c r="C211" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D211" s="18" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="17" t="s">
         <v>874</v>
       </c>
       <c r="B212" s="21" t="s">
         <v>839</v>
       </c>
-      <c r="C212" s="18" t="s">
+      <c r="C212" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D212" s="18" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="17" t="s">
         <v>873</v>
       </c>
       <c r="B213" s="21" t="s">
         <v>839</v>
       </c>
-      <c r="C213" s="18" t="s">
+      <c r="C213" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D213" s="18" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="17" t="s">
         <v>871</v>
       </c>
       <c r="B214" s="21" t="s">
         <v>839</v>
       </c>
-      <c r="C214" s="18" t="s">
+      <c r="C214" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D214" s="18" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="17" t="s">
         <v>869</v>
       </c>
       <c r="B215" s="21" t="s">
         <v>839</v>
       </c>
-      <c r="C215" s="18" t="s">
+      <c r="C215" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D215" s="18" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="17" t="s">
         <v>872</v>
       </c>
       <c r="B216" s="21" t="s">
         <v>839</v>
       </c>
-      <c r="C216" s="18" t="s">
+      <c r="C216" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D216" s="18" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="17" t="s">
         <v>796</v>
       </c>
       <c r="B217" s="21" t="s">
         <v>776</v>
       </c>
-      <c r="C217" s="18" t="s">
+      <c r="C217" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D217" s="18" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="17" t="s">
         <v>794</v>
       </c>
       <c r="B218" s="21" t="s">
         <v>776</v>
       </c>
-      <c r="C218" s="18" t="s">
+      <c r="C218" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D218" s="18" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="15" t="s">
         <v>306</v>
       </c>
       <c r="B219" s="20"/>
-      <c r="C219" s="16" t="s">
+      <c r="C219" s="20"/>
+      <c r="D219" s="16" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="17" t="s">
         <v>765</v>
       </c>
       <c r="B220" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="C220" s="18" t="s">
+      <c r="C220" s="21"/>
+      <c r="D220" s="18" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="22" t="s">
         <v>95</v>
       </c>
       <c r="B221" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="C221" s="24" t="s">
+      <c r="C221" s="23"/>
+      <c r="D221" s="24" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="22" t="s">
         <v>63</v>
       </c>
       <c r="B222" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="C222" s="24" t="s">
+      <c r="C222" s="23"/>
+      <c r="D222" s="24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="17" t="s">
         <v>755</v>
       </c>
       <c r="B223" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="C223" s="18" t="s">
+      <c r="C223" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D223" s="18" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="17" t="s">
         <v>672</v>
       </c>
       <c r="B224" s="21" t="s">
         <v>656</v>
       </c>
-      <c r="C224" s="18" t="s">
+      <c r="C224" s="21"/>
+      <c r="D224" s="18" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="17" t="s">
         <v>882</v>
       </c>
       <c r="B225" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="C225" s="18" t="s">
+      <c r="C225" s="21"/>
+      <c r="D225" s="18" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="17" t="s">
-        <v>938</v>
+        <v>1173</v>
       </c>
       <c r="B226" s="21" t="s">
         <v>896</v>
       </c>
-      <c r="C226" s="18" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C226" s="21" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D226" s="18" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="14" t="s">
         <v>607</v>
       </c>
       <c r="B227" s="21" t="s">
         <v>589</v>
       </c>
-      <c r="C227" s="14" t="s">
+      <c r="C227" s="14"/>
+      <c r="D227" s="14" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="14" t="s">
         <v>863</v>
       </c>
       <c r="B228" s="21" t="s">
         <v>839</v>
       </c>
-      <c r="C228" s="14" t="s">
+      <c r="C228" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D228" s="14" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="11" t="s">
         <v>308</v>
       </c>
       <c r="B229" s="20"/>
-      <c r="C229" s="12" t="s">
+      <c r="C229" s="11"/>
+      <c r="D229" s="12" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="14" t="s">
         <v>810</v>
       </c>
       <c r="B230" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="C230" s="14" t="s">
+      <c r="C230" s="21" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D230" s="14" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="14" t="s">
-        <v>916</v>
+        <v>1174</v>
       </c>
       <c r="B231" s="21" t="s">
         <v>896</v>
       </c>
-      <c r="C231" s="14" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C231" s="21" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D231" s="14" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="11" t="s">
         <v>310</v>
       </c>
       <c r="B232" s="20"/>
-      <c r="C232" s="12" t="s">
+      <c r="C232" s="11"/>
+      <c r="D232" s="12" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="11" t="s">
         <v>312</v>
       </c>
       <c r="B233" s="20"/>
-      <c r="C233" s="12" t="s">
+      <c r="C233" s="11"/>
+      <c r="D233" s="12" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="11" t="s">
         <v>314</v>
       </c>
       <c r="B234" s="20"/>
-      <c r="C234" s="12" t="s">
+      <c r="C234" s="11"/>
+      <c r="D234" s="12" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="14" t="s">
         <v>861</v>
       </c>
       <c r="B235" s="14" t="s">
         <v>839</v>
       </c>
-      <c r="C235" s="14" t="s">
+      <c r="C235" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D235" s="14" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="14" t="s">
         <v>879</v>
       </c>
       <c r="B236" s="14" t="s">
         <v>839</v>
       </c>
-      <c r="C236" s="14" t="s">
+      <c r="C236" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D236" s="14" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="14" t="s">
         <v>673</v>
       </c>
       <c r="B237" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="C237" s="14" t="s">
+      <c r="C237" s="14"/>
+      <c r="D237" s="14" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="14" t="s">
         <v>706</v>
       </c>
       <c r="B238" s="14" t="s">
         <v>680</v>
       </c>
-      <c r="C238" s="14" t="s">
+      <c r="C238" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D238" s="14" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="11" t="s">
         <v>316</v>
       </c>
       <c r="B239" s="11"/>
-      <c r="C239" s="12" t="s">
+      <c r="C239" s="11"/>
+      <c r="D239" s="12" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="11" t="s">
         <v>318</v>
       </c>
       <c r="B240" s="11"/>
-      <c r="C240" s="12" t="s">
+      <c r="C240" s="11"/>
+      <c r="D240" s="12" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="11" t="s">
-        <v>897</v>
+        <v>1175</v>
       </c>
       <c r="B241" s="11" t="s">
         <v>896</v>
       </c>
-      <c r="C241" s="14" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C241" s="21" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D241" s="14" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="14" t="s">
-        <v>959</v>
+        <v>941</v>
       </c>
       <c r="B242" s="14" t="s">
-        <v>975</v>
-      </c>
-      <c r="C242" s="25" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+        <v>957</v>
+      </c>
+      <c r="C242" s="14"/>
+      <c r="D242" s="25" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="14" t="s">
-        <v>961</v>
+        <v>943</v>
       </c>
       <c r="B243" s="14" t="s">
-        <v>975</v>
-      </c>
-      <c r="C243" s="14" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+        <v>957</v>
+      </c>
+      <c r="C243" s="14"/>
+      <c r="D243" s="14" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="14" t="s">
-        <v>963</v>
+        <v>945</v>
       </c>
       <c r="B244" s="14" t="s">
-        <v>975</v>
-      </c>
-      <c r="C244" s="14" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+        <v>957</v>
+      </c>
+      <c r="C244" s="14"/>
+      <c r="D244" s="14" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="11" t="s">
         <v>320</v>
       </c>
       <c r="B245" s="11"/>
-      <c r="C245" s="12" t="s">
+      <c r="C245" s="11"/>
+      <c r="D245" s="12" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="11" t="s">
         <v>322</v>
       </c>
       <c r="B246" s="11"/>
-      <c r="C246" s="12" t="s">
+      <c r="C246" s="11"/>
+      <c r="D246" s="12" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="14" t="s">
-        <v>953</v>
+        <v>935</v>
       </c>
       <c r="B247" s="14" t="s">
-        <v>939</v>
-      </c>
-      <c r="C247" s="14" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+        <v>921</v>
+      </c>
+      <c r="C247" s="14"/>
+      <c r="D247" s="14" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="14" t="s">
-        <v>945</v>
+        <v>927</v>
       </c>
       <c r="B248" s="14" t="s">
-        <v>939</v>
-      </c>
-      <c r="C248" s="25" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+        <v>921</v>
+      </c>
+      <c r="C248" s="14"/>
+      <c r="D248" s="25" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="10" t="s">
         <v>699</v>
       </c>
       <c r="B249" s="14" t="s">
         <v>680</v>
       </c>
-      <c r="C249" s="10" t="s">
+      <c r="C249" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D249" s="10" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="10" t="s">
         <v>700</v>
       </c>
       <c r="B250" s="14" t="s">
         <v>680</v>
       </c>
-      <c r="C250" s="10" t="s">
+      <c r="C250" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D250" s="10" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="11" t="s">
         <v>324</v>
       </c>
       <c r="B251" s="11"/>
-      <c r="C251" s="12" t="s">
+      <c r="C251" s="11"/>
+      <c r="D251" s="12" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="11" t="s">
         <v>326</v>
       </c>
       <c r="B252" s="11"/>
-      <c r="C252" s="12" t="s">
+      <c r="C252" s="11"/>
+      <c r="D252" s="12" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="11" t="s">
         <v>328</v>
       </c>
       <c r="B253" s="11"/>
-      <c r="C253" s="12" t="s">
+      <c r="C253" s="11"/>
+      <c r="D253" s="12" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="10" t="s">
         <v>330</v>
       </c>
       <c r="B254" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="C254" s="10" t="s">
+      <c r="C254" s="14"/>
+      <c r="D254" s="10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A255" s="11" t="s">
         <v>332</v>
       </c>
       <c r="B255" s="11"/>
-      <c r="C255" s="12" t="s">
+      <c r="C255" s="11"/>
+      <c r="D255" s="12" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="11" t="s">
         <v>334</v>
       </c>
       <c r="B256" s="11"/>
-      <c r="C256" s="12" t="s">
+      <c r="C256" s="11"/>
+      <c r="D256" s="12" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="11" t="s">
         <v>336</v>
       </c>
       <c r="B257" s="11"/>
-      <c r="C257" s="12" t="s">
+      <c r="C257" s="11"/>
+      <c r="D257" s="12" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="11" t="s">
         <v>338</v>
       </c>
       <c r="B258" s="11"/>
-      <c r="C258" s="12" t="s">
+      <c r="C258" s="11"/>
+      <c r="D258" s="12" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="11" t="s">
         <v>340</v>
       </c>
       <c r="B259" s="11"/>
-      <c r="C259" s="12" t="s">
+      <c r="C259" s="11"/>
+      <c r="D259" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="11" t="s">
         <v>342</v>
       </c>
       <c r="B260" s="11"/>
-      <c r="C260" s="12" t="s">
+      <c r="C260" s="11"/>
+      <c r="D260" s="12" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="10" t="s">
         <v>678</v>
       </c>
       <c r="B261" s="10" t="s">
         <v>656</v>
       </c>
-      <c r="C261" s="10" t="s">
+      <c r="D261" s="10" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="11" t="s">
         <v>344</v>
       </c>
       <c r="B262" s="11"/>
-      <c r="C262" s="12" t="s">
+      <c r="C262" s="11"/>
+      <c r="D262" s="12" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A263" s="11" t="s">
         <v>346</v>
       </c>
       <c r="B263" s="11"/>
-      <c r="C263" s="12" t="s">
+      <c r="C263" s="11"/>
+      <c r="D263" s="12" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="14" t="s">
         <v>818</v>
       </c>
       <c r="B264" s="14" t="s">
         <v>807</v>
       </c>
-      <c r="C264" s="14" t="s">
+      <c r="C264" s="21" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D264" s="14" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="11" t="s">
         <v>348</v>
       </c>
       <c r="B265" s="11"/>
-      <c r="C265" s="12" t="s">
+      <c r="C265" s="11"/>
+      <c r="D265" s="12" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="11" t="s">
         <v>350</v>
       </c>
       <c r="B266" s="11"/>
-      <c r="C266" s="12" t="s">
+      <c r="C266" s="11"/>
+      <c r="D266" s="12" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="11" t="s">
         <v>352</v>
       </c>
       <c r="B267" s="11"/>
-      <c r="C267" s="12" t="s">
+      <c r="C267" s="11"/>
+      <c r="D267" s="12" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="11" t="s">
         <v>354</v>
       </c>
       <c r="B268" s="11"/>
-      <c r="C268" s="12" t="s">
+      <c r="C268" s="11"/>
+      <c r="D268" s="12" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="14" t="s">
         <v>550</v>
       </c>
       <c r="B269" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="C269" s="14" t="s">
+      <c r="C269" s="14"/>
+      <c r="D269" s="14" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="10" t="s">
         <v>721</v>
       </c>
       <c r="B270" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="C270" s="10" t="s">
+      <c r="C270" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D270" s="10" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="14" t="s">
         <v>527</v>
       </c>
       <c r="B271" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="C271" s="14" t="s">
+      <c r="C271" s="14"/>
+      <c r="D271" s="14" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="26" t="s">
         <v>127</v>
       </c>
       <c r="B272" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="C272" s="26" t="s">
+      <c r="C272" s="26"/>
+      <c r="D272" s="26" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="26" t="s">
         <v>123</v>
       </c>
       <c r="B273" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="C273" s="26" t="s">
+      <c r="C273" s="26"/>
+      <c r="D273" s="26" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="11" t="s">
         <v>356</v>
       </c>
       <c r="B274" s="11"/>
-      <c r="C274" s="12" t="s">
+      <c r="C274" s="11"/>
+      <c r="D274" s="12" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="14" t="s">
         <v>358</v>
       </c>
       <c r="B275" s="14" t="s">
         <v>895</v>
       </c>
-      <c r="C275" s="12" t="s">
+      <c r="C275" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D275" s="12" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="26" t="s">
         <v>510</v>
       </c>
       <c r="B276" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="C276" s="26" t="s">
+      <c r="C276" s="26"/>
+      <c r="D276" s="26" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="11" t="s">
         <v>360</v>
       </c>
       <c r="B277" s="11"/>
-      <c r="C277" s="12" t="s">
+      <c r="C277" s="11"/>
+      <c r="D277" s="12" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>26</v>
       </c>
       <c r="B278" t="s">
         <v>500</v>
       </c>
-      <c r="C278" t="s">
+      <c r="C278"/>
+      <c r="D278" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="11" t="s">
         <v>362</v>
       </c>
       <c r="B279" s="11"/>
-      <c r="C279" s="12" t="s">
+      <c r="C279" s="11"/>
+      <c r="D279" s="12" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="11" t="s">
         <v>364</v>
       </c>
       <c r="B280" s="11"/>
-      <c r="C280" s="12" t="s">
+      <c r="C280" s="11"/>
+      <c r="D280" s="12" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="14" t="s">
         <v>586</v>
       </c>
       <c r="B281" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C281" s="14" t="s">
+      <c r="C281" s="14"/>
+      <c r="D281" s="14" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="10" t="s">
         <v>629</v>
       </c>
       <c r="B282" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="C282" s="10" t="s">
+      <c r="C282" s="14"/>
+      <c r="D282" s="10" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="14" t="s">
         <v>578</v>
       </c>
       <c r="B283" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C283" s="14" t="s">
+      <c r="C283" s="14"/>
+      <c r="D283" s="14" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="11" t="s">
         <v>366</v>
       </c>
       <c r="B284" s="11"/>
-      <c r="C284" s="12" t="s">
+      <c r="C284" s="11"/>
+      <c r="D284" s="12" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="11" t="s">
         <v>368</v>
       </c>
       <c r="B285" s="11"/>
-      <c r="C285" s="12" t="s">
+      <c r="C285" s="11"/>
+      <c r="D285" s="12" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="11" t="s">
         <v>370</v>
       </c>
       <c r="B286" s="11"/>
-      <c r="C286" s="12" t="s">
+      <c r="C286" s="11"/>
+      <c r="D286" s="12" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="26" t="s">
         <v>111</v>
       </c>
       <c r="B287" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="C287" s="26" t="s">
+      <c r="C287" s="26"/>
+      <c r="D287" s="26" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="14" t="s">
         <v>83</v>
       </c>
       <c r="B288" s="14"/>
-      <c r="C288" s="14" t="s">
+      <c r="C288" s="14"/>
+      <c r="D288" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="11" t="s">
         <v>374</v>
       </c>
       <c r="B289" s="11"/>
-      <c r="C289" s="12" t="s">
+      <c r="C289" s="11"/>
+      <c r="D289" s="12" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="14" t="s">
         <v>653</v>
       </c>
       <c r="B290" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="C290" s="14" t="s">
+      <c r="C290" s="14"/>
+      <c r="D290" s="14" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="11" t="s">
         <v>376</v>
       </c>
       <c r="B291" s="11"/>
-      <c r="C291" s="12" t="s">
+      <c r="C291" s="11"/>
+      <c r="D291" s="12" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="26" t="s">
         <v>77</v>
       </c>
       <c r="B292" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="C292" s="26" t="s">
+      <c r="C292" s="26"/>
+      <c r="D292" s="26" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="26" t="s">
         <v>75</v>
       </c>
       <c r="B293" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="C293" s="26" t="s">
+      <c r="C293" s="26"/>
+      <c r="D293" s="26" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="14" t="s">
         <v>774</v>
       </c>
       <c r="B294" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="C294" s="14" t="s">
+      <c r="C294" s="14"/>
+      <c r="D294" s="14" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="14" t="s">
-        <v>1033</v>
+        <v>1015</v>
       </c>
       <c r="B295" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="C295" s="14" t="s">
+      <c r="C295" s="14"/>
+      <c r="D295" s="14" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="14" t="s">
         <v>515</v>
       </c>
       <c r="B296" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="C296" s="14" t="s">
+      <c r="C296" s="14"/>
+      <c r="D296" s="14" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="26" t="s">
         <v>119</v>
       </c>
       <c r="B297" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="C297" s="26" t="s">
+      <c r="C297" s="26"/>
+      <c r="D297" s="26" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="11" t="s">
         <v>378</v>
       </c>
       <c r="B298" s="11"/>
-      <c r="C298" s="12" t="s">
+      <c r="C298" s="11"/>
+      <c r="D298" s="12" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="11" t="s">
         <v>380</v>
       </c>
       <c r="B299" s="11"/>
-      <c r="C299" s="12" t="s">
+      <c r="C299" s="11"/>
+      <c r="D299" s="12" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="14" t="s">
         <v>98</v>
       </c>
       <c r="B300" s="14"/>
-      <c r="C300" s="14" t="s">
+      <c r="C300" s="14"/>
+      <c r="D300" s="14" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="14" t="s">
         <v>582</v>
       </c>
       <c r="B301" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C301" s="14" t="s">
+      <c r="C301" s="14"/>
+      <c r="D301" s="14" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="11" t="s">
         <v>384</v>
       </c>
       <c r="B302" s="11"/>
-      <c r="C302" s="12" t="s">
+      <c r="C302" s="11"/>
+      <c r="D302" s="12" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B303" s="14"/>
-      <c r="C303" s="14" t="s">
+      <c r="C303" s="14"/>
+      <c r="D303" s="14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="11" t="s">
         <v>388</v>
       </c>
       <c r="B304" s="11"/>
-      <c r="C304" s="12" t="s">
+      <c r="C304" s="11"/>
+      <c r="D304" s="12" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="11" t="s">
         <v>390</v>
       </c>
       <c r="B305" s="11"/>
-      <c r="C305" s="12" t="s">
+      <c r="C305" s="11"/>
+      <c r="D305" s="12" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="11" t="s">
         <v>392</v>
       </c>
       <c r="B306" s="11"/>
-      <c r="C306" s="12" t="s">
+      <c r="C306" s="11"/>
+      <c r="D306" s="12" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="14" t="s">
         <v>820</v>
       </c>
       <c r="B307" s="14" t="s">
         <v>807</v>
       </c>
-      <c r="C307" s="14" t="s">
+      <c r="C307" s="21" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D307" s="14" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="14" t="s">
-        <v>923</v>
+        <v>1176</v>
       </c>
       <c r="B308" s="10" t="s">
         <v>896</v>
       </c>
-      <c r="C308" s="14" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C308" s="21" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D308" s="14" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="14" t="s">
         <v>741</v>
       </c>
       <c r="B309" s="14" t="s">
         <v>729</v>
       </c>
-      <c r="C309" s="14" t="s">
+      <c r="C309" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D309" s="14" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="14" t="s">
         <v>761</v>
       </c>
       <c r="B310" s="14" t="s">
         <v>753</v>
       </c>
-      <c r="C310" s="14" t="s">
+      <c r="C310" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D310" s="14" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="10" t="s">
         <v>708</v>
       </c>
       <c r="B311" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="C311" s="10" t="s">
+      <c r="C311" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D311" s="10" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="14" t="s">
         <v>708</v>
       </c>
       <c r="B312" s="14" t="s">
         <v>729</v>
       </c>
-      <c r="C312" s="14" t="s">
+      <c r="C312" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D312" s="14" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="14" t="s">
         <v>833</v>
       </c>
       <c r="B313" s="14" t="s">
         <v>807</v>
       </c>
-      <c r="C313" s="14" t="s">
+      <c r="C313" s="21" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D313" s="14" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>16</v>
       </c>
       <c r="B314" t="s">
         <v>500</v>
       </c>
-      <c r="C314" t="s">
+      <c r="C314"/>
+      <c r="D314" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="14" t="s">
-        <v>949</v>
+        <v>931</v>
       </c>
       <c r="B315" s="14" t="s">
+        <v>921</v>
+      </c>
+      <c r="C315" s="14"/>
+      <c r="D315" s="14" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" s="14" t="s">
         <v>939</v>
       </c>
-      <c r="C315" s="14" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A316" s="14" t="s">
+      <c r="B316" s="14" t="s">
+        <v>921</v>
+      </c>
+      <c r="C316" s="14"/>
+      <c r="D316" s="14" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" s="14" t="s">
+        <v>958</v>
+      </c>
+      <c r="B317" s="14" t="s">
         <v>957</v>
       </c>
-      <c r="B316" s="14" t="s">
-        <v>939</v>
-      </c>
-      <c r="C316" s="14" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A317" s="14" t="s">
-        <v>976</v>
-      </c>
-      <c r="B317" s="14" t="s">
-        <v>975</v>
-      </c>
-      <c r="C317" s="14" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C317" s="14"/>
+      <c r="D317" s="14" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="14" t="s">
-        <v>973</v>
+        <v>955</v>
       </c>
       <c r="B318" s="14" t="s">
-        <v>975</v>
-      </c>
-      <c r="C318" s="14" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+        <v>957</v>
+      </c>
+      <c r="C318" s="14"/>
+      <c r="D318" s="14" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="14" t="s">
         <v>588</v>
       </c>
       <c r="B319" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C319" s="14" t="s">
+      <c r="C319" s="14"/>
+      <c r="D319" s="14" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="11" t="s">
         <v>394</v>
       </c>
       <c r="B320" s="11"/>
-      <c r="C320" s="12" t="s">
+      <c r="C320" s="11"/>
+      <c r="D320" s="12" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="11" t="s">
         <v>396</v>
       </c>
       <c r="B321" s="11"/>
-      <c r="C321" s="12" t="s">
+      <c r="C321" s="11"/>
+      <c r="D321" s="12" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A322" s="11" t="s">
         <v>398</v>
       </c>
       <c r="B322" s="11"/>
-      <c r="C322" s="12" t="s">
+      <c r="C322" s="11"/>
+      <c r="D322" s="12" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="10" t="s">
         <v>692</v>
       </c>
       <c r="B323" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="C323" s="10" t="s">
+      <c r="C323" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D323" s="10" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="10" t="s">
         <v>705</v>
       </c>
       <c r="B324" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="C324" s="10" t="s">
+      <c r="C324" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D324" s="10" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="14" t="s">
         <v>572</v>
       </c>
       <c r="B325" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C325" s="14" t="s">
+      <c r="C325" s="14"/>
+      <c r="D325" s="14" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="10" t="s">
         <v>727</v>
       </c>
       <c r="B326" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="C326" s="10" t="s">
+      <c r="C326" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D326" s="10" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="10" t="s">
         <v>711</v>
       </c>
       <c r="B327" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="C327" s="10" t="s">
+      <c r="C327" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D327" s="10" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="10" t="s">
         <v>723</v>
       </c>
       <c r="B328" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="C328" s="10" t="s">
+      <c r="C328" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D328" s="10" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="10" t="s">
         <v>712</v>
       </c>
       <c r="B329" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="C329" s="10" t="s">
+      <c r="C329" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D329" s="10" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="14" t="s">
+        <v>934</v>
+      </c>
+      <c r="B330" s="14" t="s">
+        <v>921</v>
+      </c>
+      <c r="C330" s="14"/>
+      <c r="D330" s="14" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" s="10" t="s">
+        <v>923</v>
+      </c>
+      <c r="B331" s="10" t="s">
+        <v>921</v>
+      </c>
+      <c r="D331" s="14" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" s="14" t="s">
+        <v>951</v>
+      </c>
+      <c r="B332" s="14" t="s">
+        <v>957</v>
+      </c>
+      <c r="C332" s="14"/>
+      <c r="D332" s="14" t="s">
         <v>952</v>
       </c>
-      <c r="B330" s="14" t="s">
-        <v>939</v>
-      </c>
-      <c r="C330" s="14" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A331" s="10" t="s">
-        <v>941</v>
-      </c>
-      <c r="B331" s="10" t="s">
-        <v>939</v>
-      </c>
-      <c r="C331" s="14" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A332" s="14" t="s">
-        <v>969</v>
-      </c>
-      <c r="B332" s="14" t="s">
-        <v>975</v>
-      </c>
-      <c r="C332" s="14" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="14" t="s">
-        <v>926</v>
+        <v>1177</v>
       </c>
       <c r="B333" s="14" t="s">
         <v>896</v>
       </c>
-      <c r="C333" s="14" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C333" s="21" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D333" s="14" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="11" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B334" s="14" t="s">
         <v>896</v>
       </c>
-      <c r="C334" s="14" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C334" s="21" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D334" s="14" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="14" t="s">
         <v>806</v>
       </c>
       <c r="B335" s="14" t="s">
         <v>776</v>
       </c>
-      <c r="C335" s="14" t="s">
+      <c r="C335" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D335" s="14" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="14" t="s">
-        <v>937</v>
+        <v>1178</v>
       </c>
       <c r="B336" s="10" t="s">
         <v>896</v>
       </c>
-      <c r="C336" s="14" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C336" s="21" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D336" s="14" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="14" t="s">
         <v>797</v>
       </c>
       <c r="B337" s="14" t="s">
         <v>776</v>
       </c>
-      <c r="C337" s="14" t="s">
+      <c r="C337" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D337" s="14" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="26" t="s">
         <v>57</v>
       </c>
       <c r="B338" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="C338" s="26" t="s">
+      <c r="C338" s="26"/>
+      <c r="D338" s="26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="14" t="s">
         <v>749</v>
       </c>
       <c r="B339" s="14" t="s">
         <v>729</v>
       </c>
-      <c r="C339" s="14" t="s">
+      <c r="C339" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D339" s="14" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="14" t="s">
         <v>808</v>
       </c>
       <c r="B340" s="14" t="s">
         <v>807</v>
       </c>
-      <c r="C340" s="14" t="s">
+      <c r="C340" s="21" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D340" s="14" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="11" t="s">
         <v>400</v>
       </c>
       <c r="B341" s="11"/>
-      <c r="C341" s="12" t="s">
+      <c r="C341" s="11"/>
+      <c r="D341" s="12" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="10" t="s">
         <v>627</v>
       </c>
       <c r="B342" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="C342" s="10" t="s">
+      <c r="C342" s="14"/>
+      <c r="D342" s="10" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="14" t="s">
         <v>773</v>
       </c>
       <c r="B343" s="14" t="s">
         <v>753</v>
       </c>
-      <c r="C343" s="14" t="s">
+      <c r="C343" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D343" s="14" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="14" t="s">
         <v>774</v>
       </c>
       <c r="B344" s="14" t="s">
         <v>753</v>
       </c>
-      <c r="C344" s="14" t="s">
+      <c r="C344" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D344" s="14" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="14" t="s">
-        <v>955</v>
+        <v>937</v>
       </c>
       <c r="B345" s="14" t="s">
-        <v>939</v>
-      </c>
-      <c r="C345" s="14" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+        <v>921</v>
+      </c>
+      <c r="C345" s="14"/>
+      <c r="D345" s="14" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="14" t="s">
-        <v>971</v>
+        <v>953</v>
       </c>
       <c r="B346" s="14" t="s">
-        <v>975</v>
-      </c>
-      <c r="C346" s="14" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+        <v>957</v>
+      </c>
+      <c r="C346" s="14"/>
+      <c r="D346" s="14" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="10" t="s">
-        <v>927</v>
+        <v>1179</v>
       </c>
       <c r="B347" s="10" t="s">
         <v>896</v>
       </c>
-      <c r="C347" s="14" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C347" s="21" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D347" s="14" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="14" t="s">
         <v>826</v>
       </c>
       <c r="B348" s="14" t="s">
         <v>807</v>
       </c>
-      <c r="C348" s="14" t="s">
+      <c r="C348" s="21" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D348" s="14" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="14" t="s">
         <v>816</v>
       </c>
       <c r="B349" s="14" t="s">
         <v>807</v>
       </c>
-      <c r="C349" s="14" t="s">
+      <c r="C349" s="21" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D349" s="14" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="14" t="s">
         <v>758</v>
       </c>
       <c r="B350" s="14" t="s">
         <v>753</v>
       </c>
-      <c r="C350" s="14" t="s">
+      <c r="C350" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D350" s="14" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="14" t="s">
-        <v>935</v>
+        <v>1180</v>
       </c>
       <c r="B351" s="10" t="s">
         <v>896</v>
       </c>
-      <c r="C351" s="14" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C351" s="21" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D351" s="14" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="14" t="s">
         <v>532</v>
       </c>
       <c r="B352" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="C352" s="14" t="s">
+      <c r="C352" s="14"/>
+      <c r="D352" s="14" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>35</v>
       </c>
       <c r="B353" t="s">
         <v>500</v>
       </c>
-      <c r="C353" t="s">
+      <c r="C353"/>
+      <c r="D353" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="14" t="s">
         <v>775</v>
       </c>
       <c r="B354" s="14" t="s">
         <v>753</v>
       </c>
-      <c r="C354" s="14" t="s">
+      <c r="C354" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D354" s="14" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="14" t="s">
-        <v>915</v>
+        <v>1181</v>
       </c>
       <c r="B355" s="14" t="s">
         <v>896</v>
       </c>
-      <c r="C355" s="14" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C355" s="21" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D355" s="14" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="11" t="s">
         <v>402</v>
       </c>
       <c r="B356" s="11"/>
-      <c r="C356" s="12" t="s">
+      <c r="C356" s="11"/>
+      <c r="D356" s="12" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="11" t="s">
         <v>404</v>
       </c>
       <c r="B357" s="11"/>
-      <c r="C357" s="12" t="s">
+      <c r="C357" s="11"/>
+      <c r="D357" s="12" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="11" t="s">
         <v>406</v>
       </c>
       <c r="B358" s="11"/>
-      <c r="C358" s="12" t="s">
+      <c r="C358" s="11"/>
+      <c r="D358" s="12" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="11" t="s">
         <v>408</v>
       </c>
       <c r="B359" s="11"/>
-      <c r="C359" s="12" t="s">
+      <c r="C359" s="11"/>
+      <c r="D359" s="12" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="11" t="s">
         <v>410</v>
       </c>
       <c r="B360" s="11"/>
-      <c r="C360" s="12" t="s">
+      <c r="C360" s="11"/>
+      <c r="D360" s="12" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="11" t="s">
         <v>412</v>
       </c>
       <c r="B361" s="11"/>
-      <c r="C361" s="12" t="s">
+      <c r="C361" s="11"/>
+      <c r="D361" s="12" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="14" t="s">
         <v>573</v>
       </c>
       <c r="B362" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C362" s="14" t="s">
+      <c r="C362" s="14"/>
+      <c r="D362" s="14" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="11" t="s">
         <v>414</v>
       </c>
       <c r="B363" s="11"/>
-      <c r="C363" s="12" t="s">
+      <c r="C363" s="11"/>
+      <c r="D363" s="12" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="11" t="s">
         <v>416</v>
       </c>
       <c r="B364" s="11"/>
-      <c r="C364" s="12" t="s">
+      <c r="C364" s="11"/>
+      <c r="D364" s="12" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="14" t="s">
         <v>800</v>
       </c>
       <c r="B365" s="14" t="s">
         <v>776</v>
       </c>
-      <c r="C365" s="14" t="s">
+      <c r="C365" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D365" s="14" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="11" t="s">
         <v>418</v>
       </c>
       <c r="B366" s="11"/>
-      <c r="C366" s="12" t="s">
+      <c r="C366" s="11"/>
+      <c r="D366" s="12" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="26" t="s">
         <v>89</v>
       </c>
       <c r="B367" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="C367" s="26" t="s">
+      <c r="C367" s="26"/>
+      <c r="D367" s="26" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="10" t="s">
         <v>696</v>
       </c>
       <c r="B368" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="C368" s="10" t="s">
+      <c r="C368" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D368" s="10" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="14" t="s">
         <v>805</v>
       </c>
       <c r="B369" s="14" t="s">
         <v>776</v>
       </c>
-      <c r="C369" s="14" t="s">
+      <c r="C369" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D369" s="14" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="14" t="s">
         <v>799</v>
       </c>
       <c r="B370" s="14" t="s">
         <v>776</v>
       </c>
-      <c r="C370" s="14" t="s">
+      <c r="C370" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D370" s="14" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="14" t="s">
         <v>862</v>
       </c>
       <c r="B371" s="14" t="s">
         <v>839</v>
       </c>
-      <c r="C371" s="14" t="s">
+      <c r="C371" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D371" s="14" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="10" t="s">
         <v>625</v>
       </c>
       <c r="B372" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="C372" s="10" t="s">
+      <c r="C372" s="14"/>
+      <c r="D372" s="10" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="11" t="s">
         <v>420</v>
       </c>
       <c r="B373" s="11"/>
-      <c r="C373" s="12" t="s">
+      <c r="C373" s="11"/>
+      <c r="D373" s="12" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="14" t="s">
         <v>547</v>
       </c>
       <c r="B374" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="C374" s="14" t="s">
+      <c r="C374" s="14"/>
+      <c r="D374" s="14" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B375" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="C375" s="10" t="s">
+      <c r="C375" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D375" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="26" t="s">
         <v>41</v>
       </c>
       <c r="B376" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="C376" s="26" t="s">
+      <c r="C376" s="26"/>
+      <c r="D376" s="26" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="11" t="s">
         <v>422</v>
       </c>
       <c r="B377" s="11"/>
-      <c r="C377" s="12" t="s">
+      <c r="C377" s="11"/>
+      <c r="D377" s="12" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="10" t="s">
         <v>633</v>
       </c>
       <c r="B378" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="C378" s="10" t="s">
+      <c r="C378" s="14"/>
+      <c r="D378" s="10" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="10" t="s">
         <v>633</v>
       </c>
       <c r="B379" s="10" t="s">
         <v>634</v>
       </c>
-      <c r="C379" s="10" t="s">
+      <c r="D379" s="10" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="11" t="s">
         <v>424</v>
       </c>
       <c r="B380" s="11"/>
-      <c r="C380" s="12" t="s">
+      <c r="C380" s="11"/>
+      <c r="D380" s="12" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="11" t="s">
         <v>426</v>
       </c>
       <c r="B381" s="11"/>
-      <c r="C381" s="12" t="s">
+      <c r="C381" s="11"/>
+      <c r="D381" s="12" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="11" t="s">
         <v>428</v>
       </c>
       <c r="B382" s="11"/>
-      <c r="C382" s="12" t="s">
+      <c r="C382" s="11"/>
+      <c r="D382" s="12" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="11" t="s">
         <v>430</v>
       </c>
       <c r="B383" s="11"/>
-      <c r="C383" s="12" t="s">
+      <c r="C383" s="11"/>
+      <c r="D383" s="12" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="11" t="s">
         <v>432</v>
       </c>
       <c r="B384" s="11"/>
-      <c r="C384" s="12" t="s">
+      <c r="C384" s="11"/>
+      <c r="D384" s="12" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="11" t="s">
         <v>434</v>
       </c>
       <c r="B385" s="11"/>
-      <c r="C385" s="12" t="s">
+      <c r="C385" s="11"/>
+      <c r="D385" s="12" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="11" t="s">
         <v>436</v>
       </c>
       <c r="B386" s="11"/>
-      <c r="C386" s="12" t="s">
+      <c r="C386" s="11"/>
+      <c r="D386" s="12" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="11" t="s">
         <v>438</v>
       </c>
       <c r="B387" s="11"/>
-      <c r="C387" s="12" t="s">
+      <c r="C387" s="11"/>
+      <c r="D387" s="12" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="11" t="s">
         <v>101</v>
       </c>
       <c r="B388" s="11"/>
-      <c r="C388" s="12" t="s">
+      <c r="C388" s="11"/>
+      <c r="D388" s="12" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="11" t="s">
         <v>441</v>
       </c>
       <c r="B389" s="11"/>
-      <c r="C389" s="12" t="s">
+      <c r="C389" s="11"/>
+      <c r="D389" s="12" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="11" t="s">
         <v>443</v>
       </c>
       <c r="B390" s="11"/>
-      <c r="C390" s="12" t="s">
+      <c r="C390" s="11"/>
+      <c r="D390" s="12" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="14" t="s">
         <v>85</v>
       </c>
       <c r="B391" s="14"/>
-      <c r="C391" s="14" t="s">
+      <c r="C391" s="14"/>
+      <c r="D391" s="14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="11" t="s">
         <v>447</v>
       </c>
       <c r="B392" s="11"/>
-      <c r="C392" s="12" t="s">
+      <c r="C392" s="11"/>
+      <c r="D392" s="12" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="11" t="s">
         <v>449</v>
       </c>
       <c r="B393" s="11"/>
-      <c r="C393" s="12" t="s">
+      <c r="C393" s="11"/>
+      <c r="D393" s="12" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="14" t="s">
         <v>565</v>
       </c>
       <c r="B394" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C394" s="14" t="s">
+      <c r="C394" s="14"/>
+      <c r="D394" s="14" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="14" t="s">
         <v>544</v>
       </c>
       <c r="B395" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="C395" s="14" t="s">
+      <c r="C395" s="14"/>
+      <c r="D395" s="14" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="10" t="s">
         <v>624</v>
       </c>
       <c r="B396" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="C396" s="10" t="s">
+      <c r="C396" s="14"/>
+      <c r="D396" s="10" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="14" t="s">
         <v>623</v>
       </c>
       <c r="B397" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="C397" s="14" t="s">
+      <c r="C397" s="14"/>
+      <c r="D397" s="14" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="10" t="s">
         <v>646</v>
       </c>
       <c r="B398" s="10" t="s">
         <v>634</v>
       </c>
-      <c r="C398" s="10" t="s">
+      <c r="D398" s="10" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="14" t="s">
         <v>545</v>
       </c>
       <c r="B399" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="C399" s="14" t="s">
+      <c r="C399" s="14"/>
+      <c r="D399" s="14" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="14" t="s">
         <v>560</v>
       </c>
       <c r="B400" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="C400" s="14" t="s">
+      <c r="C400" s="14"/>
+      <c r="D400" s="14" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="14" t="s">
         <v>546</v>
       </c>
       <c r="B401" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="C401" s="14" t="s">
+      <c r="C401" s="14"/>
+      <c r="D401" s="14" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="402" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A402" s="11" t="s">
         <v>451</v>
       </c>
       <c r="B402" s="11"/>
-      <c r="C402" s="12" t="s">
+      <c r="C402" s="11"/>
+      <c r="D402" s="12" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="14" t="s">
         <v>453</v>
       </c>
       <c r="B403" s="14" t="s">
         <v>895</v>
       </c>
-      <c r="C403" s="12" t="s">
+      <c r="C403" s="21" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D403" s="12" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="26" t="s">
         <v>117</v>
       </c>
       <c r="B404" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="C404" s="26" t="s">
+      <c r="C404" s="26"/>
+      <c r="D404" s="26" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="26" t="s">
         <v>455</v>
       </c>
       <c r="B405" s="26" t="s">
         <v>886</v>
       </c>
-      <c r="C405" s="12" t="s">
+      <c r="C405" s="21" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D405" s="12" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="14" t="s">
         <v>801</v>
       </c>
       <c r="B406" s="14" t="s">
         <v>776</v>
       </c>
-      <c r="C406" s="14" t="s">
+      <c r="C406" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D406" s="14" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="26" t="s">
         <v>121</v>
       </c>
       <c r="B407" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="C407" s="26" t="s">
+      <c r="C407" s="26"/>
+      <c r="D407" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="26" t="s">
         <v>105</v>
       </c>
       <c r="B408" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="C408" s="26" t="s">
+      <c r="C408" s="26"/>
+      <c r="D408" s="26" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="26" t="s">
         <v>105</v>
       </c>
       <c r="B409" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="C409" s="14" t="s">
+      <c r="C409" s="14"/>
+      <c r="D409" s="14" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="11" t="s">
         <v>457</v>
       </c>
       <c r="B410" s="11"/>
-      <c r="C410" s="12" t="s">
+      <c r="C410" s="11"/>
+      <c r="D410" s="12" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="14" t="s">
         <v>835</v>
       </c>
       <c r="B411" s="14" t="s">
         <v>807</v>
       </c>
-      <c r="C411" s="14" t="s">
+      <c r="C411" s="21" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D411" s="14" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" s="10" t="s">
-        <v>928</v>
+        <v>1182</v>
       </c>
       <c r="B412" s="10" t="s">
         <v>896</v>
       </c>
-      <c r="C412" s="14" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C412" s="21" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D412" s="14" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" s="11" t="s">
         <v>459</v>
       </c>
       <c r="B413" s="11"/>
-      <c r="C413" s="12" t="s">
+      <c r="C413" s="11"/>
+      <c r="D413" s="12" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" s="11" t="s">
         <v>461</v>
       </c>
       <c r="B414" s="11"/>
-      <c r="C414" s="12" t="s">
+      <c r="C414" s="11"/>
+      <c r="D414" s="12" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="26" t="s">
         <v>104</v>
       </c>
       <c r="B415" t="s">
         <v>501</v>
       </c>
-      <c r="C415" s="26" t="s">
+      <c r="C415"/>
+      <c r="D415" s="26" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" s="10" t="s">
         <v>632</v>
       </c>
       <c r="B416" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="C416" s="10" t="s">
+      <c r="C416" s="14"/>
+      <c r="D416" s="10" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="11" t="s">
         <v>463</v>
       </c>
       <c r="B417" s="11"/>
-      <c r="C417" s="12" t="s">
+      <c r="C417" s="11"/>
+      <c r="D417" s="12" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>15</v>
       </c>
       <c r="B418" t="s">
         <v>500</v>
       </c>
-      <c r="C418" t="s">
+      <c r="C418"/>
+      <c r="D418" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="10" t="s">
         <v>650</v>
       </c>
       <c r="B419" s="10" t="s">
         <v>634</v>
       </c>
-      <c r="C419" s="10" t="s">
+      <c r="D419" s="10" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="11" t="s">
         <v>465</v>
       </c>
       <c r="B420" s="11"/>
-      <c r="C420" s="12" t="s">
+      <c r="C420" s="11"/>
+      <c r="D420" s="12" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="14" t="s">
         <v>561</v>
       </c>
       <c r="B421" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C421" s="14" t="s">
+      <c r="C421" s="14"/>
+      <c r="D421" s="14" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="11" t="s">
         <v>467</v>
       </c>
       <c r="B422" s="11"/>
-      <c r="C422" s="12" t="s">
+      <c r="C422" s="11"/>
+      <c r="D422" s="12" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="11" t="s">
         <v>469</v>
       </c>
       <c r="B423" s="11"/>
-      <c r="C423" s="12" t="s">
+      <c r="C423" s="11"/>
+      <c r="D423" s="12" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" s="10" t="s">
         <v>469</v>
       </c>
       <c r="B424" s="10" t="s">
-        <v>939</v>
-      </c>
-      <c r="C424" s="14" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+        <v>921</v>
+      </c>
+      <c r="D424" s="14" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" s="11" t="s">
         <v>471</v>
       </c>
       <c r="B425" s="11"/>
-      <c r="C425" s="12" t="s">
+      <c r="C425" s="11"/>
+      <c r="D425" s="12" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="11" t="s">
         <v>473</v>
       </c>
       <c r="B426" s="11"/>
-      <c r="C426" s="12" t="s">
+      <c r="C426" s="11"/>
+      <c r="D426" s="12" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="11" t="s">
         <v>475</v>
       </c>
       <c r="B427" s="11"/>
-      <c r="C427" s="12" t="s">
+      <c r="C427" s="11"/>
+      <c r="D427" s="12" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="11" t="s">
         <v>477</v>
       </c>
       <c r="B428" s="11"/>
-      <c r="C428" s="12" t="s">
+      <c r="C428" s="11"/>
+      <c r="D428" s="12" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" s="11" t="s">
         <v>479</v>
       </c>
       <c r="B429" s="11"/>
-      <c r="C429" s="12" t="s">
+      <c r="C429" s="11"/>
+      <c r="D429" s="12" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="11" t="s">
         <v>481</v>
       </c>
       <c r="B430" s="11"/>
-      <c r="C430" s="12" t="s">
+      <c r="C430" s="11"/>
+      <c r="D430" s="12" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" s="10" t="s">
         <v>674</v>
       </c>
       <c r="B431" s="10" t="s">
         <v>656</v>
       </c>
-      <c r="C431" s="10" t="s">
+      <c r="D431" s="10" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" s="14" t="s">
         <v>802</v>
       </c>
       <c r="B432" s="14" t="s">
         <v>776</v>
       </c>
-      <c r="C432" s="14" t="s">
+      <c r="C432" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D432" s="14" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" s="11" t="s">
         <v>483</v>
       </c>
       <c r="B433" s="11"/>
-      <c r="C433" s="12" t="s">
+      <c r="C433" s="11"/>
+      <c r="D433" s="12" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" s="14" t="s">
         <v>584</v>
       </c>
       <c r="B434" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C434" s="14" t="s">
+      <c r="C434" s="14"/>
+      <c r="D434" s="14" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="14" t="s">
         <v>583</v>
       </c>
       <c r="B435" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C435" s="14" t="s">
+      <c r="C435" s="14"/>
+      <c r="D435" s="14" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="14" t="s">
         <v>651</v>
       </c>
       <c r="B436" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="C436" s="14" t="s">
+      <c r="C436" s="14"/>
+      <c r="D436" s="14" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" s="11" t="s">
         <v>485</v>
       </c>
       <c r="B437" s="11"/>
-      <c r="C437" s="12" t="s">
+      <c r="C437" s="11"/>
+      <c r="D437" s="12" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" s="26" t="s">
         <v>62</v>
       </c>
       <c r="B438" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="C438" s="26" t="s">
+      <c r="C438" s="26"/>
+      <c r="D438" s="26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" s="11" t="s">
         <v>487</v>
       </c>
       <c r="B439" s="11"/>
-      <c r="C439" s="12" t="s">
+      <c r="C439" s="11"/>
+      <c r="D439" s="12" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" s="11" t="s">
         <v>489</v>
       </c>
       <c r="B440" s="11"/>
-      <c r="C440" s="12" t="s">
+      <c r="C440" s="11"/>
+      <c r="D440" s="12" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" s="14" t="s">
         <v>732</v>
       </c>
       <c r="B441" s="14" t="s">
         <v>729</v>
       </c>
-      <c r="C441" s="14" t="s">
+      <c r="C441" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D441" s="14" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" s="11" t="s">
         <v>491</v>
       </c>
       <c r="B442" s="11"/>
-      <c r="C442" s="12" t="s">
+      <c r="C442" s="11"/>
+      <c r="D442" s="12" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" s="10" t="s">
         <v>697</v>
       </c>
       <c r="B443" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="C443" s="10" t="s">
+      <c r="C443" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D443" s="10" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" s="26" t="s">
         <v>107</v>
       </c>
       <c r="B444" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="C444" s="26" t="s">
+      <c r="C444" s="26"/>
+      <c r="D444" s="26" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" s="14" t="s">
         <v>107</v>
       </c>
       <c r="B445" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="C445" s="14" t="s">
+      <c r="C445" s="14"/>
+      <c r="D445" s="14" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B446" s="14"/>
-      <c r="C446" s="14" t="s">
+      <c r="C446" s="14"/>
+      <c r="D446" s="14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" s="11" t="s">
         <v>495</v>
       </c>
       <c r="B447" s="11"/>
-      <c r="C447" s="12" t="s">
+      <c r="C447" s="11"/>
+      <c r="D447" s="12" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" s="14" t="s">
-        <v>979</v>
+        <v>961</v>
       </c>
       <c r="B448" s="14" t="s">
-        <v>978</v>
-      </c>
-      <c r="C448" s="25" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+        <v>960</v>
+      </c>
+      <c r="C448" s="14"/>
+      <c r="D448" s="25" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" s="14" t="s">
-        <v>980</v>
+        <v>962</v>
       </c>
       <c r="B449" s="14" t="s">
-        <v>978</v>
-      </c>
-      <c r="C449" s="25" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+        <v>960</v>
+      </c>
+      <c r="C449" s="14"/>
+      <c r="D449" s="25" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B450" s="14" t="s">
+        <v>960</v>
+      </c>
+      <c r="C450" s="14"/>
+      <c r="D450" s="14" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A451" s="14" t="s">
+        <v>963</v>
+      </c>
+      <c r="B451" s="14" t="s">
+        <v>960</v>
+      </c>
+      <c r="C451" s="14"/>
+      <c r="D451" s="25" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A452" s="14" t="s">
+        <v>968</v>
+      </c>
+      <c r="B452" s="14" t="s">
+        <v>960</v>
+      </c>
+      <c r="C452" s="14"/>
+      <c r="D452" s="14" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A453" s="14" t="s">
+        <v>970</v>
+      </c>
+      <c r="B453" s="14" t="s">
+        <v>960</v>
+      </c>
+      <c r="C453" s="14"/>
+      <c r="D453" s="14" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A454" s="14" t="s">
+        <v>972</v>
+      </c>
+      <c r="B454" s="14" t="s">
+        <v>960</v>
+      </c>
+      <c r="C454" s="14"/>
+      <c r="D454" s="14" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A455" s="14" t="s">
+        <v>975</v>
+      </c>
+      <c r="B455" s="14" t="s">
+        <v>993</v>
+      </c>
+      <c r="C455" s="14"/>
+      <c r="D455" s="14" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A456" s="14" t="s">
+        <v>992</v>
+      </c>
+      <c r="B456" s="14" t="s">
+        <v>993</v>
+      </c>
+      <c r="C456" s="14"/>
+      <c r="D456" s="14" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A457" s="25" t="s">
         <v>978</v>
       </c>
-      <c r="C450" s="14" t="s">
+      <c r="B457" s="14" t="s">
+        <v>977</v>
+      </c>
+      <c r="C457" s="14"/>
+      <c r="D457" s="14" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A458" s="25" t="s">
+        <v>979</v>
+      </c>
+      <c r="B458" s="25" t="s">
+        <v>977</v>
+      </c>
+      <c r="C458" s="25"/>
+      <c r="D458" s="14" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A459" s="25" t="s">
+        <v>980</v>
+      </c>
+      <c r="B459" s="14" t="s">
+        <v>977</v>
+      </c>
+      <c r="C459" s="14"/>
+      <c r="D459" s="14" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A460" s="25" t="s">
+        <v>981</v>
+      </c>
+      <c r="B460" s="14" t="s">
+        <v>977</v>
+      </c>
+      <c r="C460" s="14"/>
+      <c r="D460" s="14" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A461" s="25" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A451" s="14" t="s">
-        <v>981</v>
-      </c>
-      <c r="B451" s="14" t="s">
-        <v>978</v>
-      </c>
-      <c r="C451" s="25" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A452" s="14" t="s">
-        <v>986</v>
-      </c>
-      <c r="B452" s="14" t="s">
-        <v>978</v>
-      </c>
-      <c r="C452" s="14" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A453" s="14" t="s">
+      <c r="B461" s="14" t="s">
+        <v>977</v>
+      </c>
+      <c r="C461" s="14"/>
+      <c r="D461" s="14" t="s">
         <v>988</v>
       </c>
-      <c r="B453" s="14" t="s">
-        <v>978</v>
-      </c>
-      <c r="C453" s="14" t="s">
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A462" s="25" t="s">
+        <v>983</v>
+      </c>
+      <c r="B462" s="14" t="s">
+        <v>977</v>
+      </c>
+      <c r="C462" s="14"/>
+      <c r="D462" s="14" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A454" s="14" t="s">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A463" s="25" t="s">
         <v>990</v>
       </c>
-      <c r="B454" s="14" t="s">
-        <v>978</v>
-      </c>
-      <c r="C454" s="14" t="s">
+      <c r="B463" s="14" t="s">
+        <v>977</v>
+      </c>
+      <c r="C463" s="14"/>
+      <c r="D463" s="14" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A455" s="14" t="s">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A464" s="14" t="s">
+        <v>994</v>
+      </c>
+      <c r="B464" s="14" t="s">
         <v>993</v>
       </c>
-      <c r="B455" s="14" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C455" s="14" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A456" s="14" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B456" s="14" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C456" s="14" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A457" s="25" t="s">
+      <c r="C464" s="14"/>
+      <c r="D464" s="14" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A465" s="14" t="s">
         <v>996</v>
       </c>
-      <c r="B457" s="14" t="s">
-        <v>995</v>
-      </c>
-      <c r="C457" s="14" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A458" s="25" t="s">
+      <c r="B465" s="14" t="s">
+        <v>993</v>
+      </c>
+      <c r="C465" s="14"/>
+      <c r="D465" s="14" t="s">
         <v>997</v>
       </c>
-      <c r="B458" s="25" t="s">
-        <v>995</v>
-      </c>
-      <c r="C458" s="14" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A459" s="25" t="s">
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A466" s="14" t="s">
         <v>998</v>
       </c>
-      <c r="B459" s="14" t="s">
-        <v>995</v>
-      </c>
-      <c r="C459" s="14" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A460" s="25" t="s">
+      <c r="B466" s="14" t="s">
+        <v>993</v>
+      </c>
+      <c r="C466" s="14"/>
+      <c r="D466" s="14" t="s">
         <v>999</v>
       </c>
-      <c r="B460" s="14" t="s">
-        <v>995</v>
-      </c>
-      <c r="C460" s="14" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A461" s="25" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B461" s="14" t="s">
-        <v>995</v>
-      </c>
-      <c r="C461" s="14" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A462" s="25" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B462" s="14" t="s">
-        <v>995</v>
-      </c>
-      <c r="C462" s="14" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A463" s="25" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B463" s="14" t="s">
-        <v>995</v>
-      </c>
-      <c r="C463" s="14" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A464" s="14" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B464" s="14" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C464" s="14" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A465" s="14" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B465" s="14" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C465" s="14" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A466" s="14" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B466" s="14" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C466" s="14" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" s="14" t="s">
         <v>774</v>
       </c>
       <c r="B467" s="14" t="s">
+        <v>993</v>
+      </c>
+      <c r="C467" s="14"/>
+      <c r="D467" s="14" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A468" s="14" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B468" s="14" t="s">
+        <v>993</v>
+      </c>
+      <c r="C468" s="14"/>
+      <c r="D468" s="14" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A469" s="14" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B469" s="14" t="s">
+        <v>993</v>
+      </c>
+      <c r="C469" s="14"/>
+      <c r="D469" s="14" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A470" s="14" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B470" s="14" t="s">
+        <v>993</v>
+      </c>
+      <c r="C470" s="14"/>
+      <c r="D470" s="14" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A471" s="14" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B471" s="14" t="s">
+        <v>993</v>
+      </c>
+      <c r="C471" s="14"/>
+      <c r="D471" s="14" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A472" s="14" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B472" s="14" t="s">
+        <v>993</v>
+      </c>
+      <c r="C472" s="14"/>
+      <c r="D472" s="14" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A473" s="14" t="s">
         <v>1011</v>
       </c>
-      <c r="C467" s="14" t="s">
+      <c r="B473" s="14" t="s">
+        <v>993</v>
+      </c>
+      <c r="C473" s="14"/>
+      <c r="D473" s="14" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A474" s="14" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B474" s="14" t="s">
+        <v>993</v>
+      </c>
+      <c r="C474" s="14"/>
+      <c r="D474" s="14" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A475" s="14" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B475" s="14" t="s">
+        <v>993</v>
+      </c>
+      <c r="C475" s="14"/>
+      <c r="D475" s="14" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A476" s="14" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A468" s="14" t="s">
+      <c r="B476" s="14" t="s">
+        <v>993</v>
+      </c>
+      <c r="C476" s="14"/>
+      <c r="D476" s="14" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A477" s="14" t="s">
         <v>1019</v>
       </c>
-      <c r="B468" s="14" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C468" s="14" t="s">
+      <c r="B477" s="14" t="s">
+        <v>993</v>
+      </c>
+      <c r="C477" s="14"/>
+      <c r="D477" s="14" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A478" s="14" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A469" s="14" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B469" s="14" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C469" s="14" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A470" s="14" t="s">
+      <c r="B478" s="14" t="s">
+        <v>993</v>
+      </c>
+      <c r="C478" s="14"/>
+      <c r="D478" s="14" t="s">
         <v>1023</v>
       </c>
-      <c r="B470" s="14" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C470" s="14" t="s">
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A479" s="14" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A471" s="14" t="s">
+      <c r="B479" s="14" t="s">
+        <v>993</v>
+      </c>
+      <c r="C479" s="14"/>
+      <c r="D479" s="25" t="s">
         <v>1025</v>
       </c>
-      <c r="B471" s="14" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C471" s="14" t="s">
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A480" s="10" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A472" s="14" t="s">
+      <c r="B480" s="14" t="s">
+        <v>993</v>
+      </c>
+      <c r="C480" s="14"/>
+      <c r="D480" s="13" t="s">
         <v>1027</v>
       </c>
-      <c r="B472" s="14" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C472" s="14" t="s">
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A481" s="10" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A473" s="14" t="s">
+      <c r="B481" s="14" t="s">
+        <v>993</v>
+      </c>
+      <c r="C481" s="14"/>
+      <c r="D481" s="13" t="s">
         <v>1029</v>
       </c>
-      <c r="B473" s="14" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C473" s="14" t="s">
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A482" s="11" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A474" s="14" t="s">
+      <c r="B482" s="11" t="s">
+        <v>993</v>
+      </c>
+      <c r="C482" s="11"/>
+      <c r="D482" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A483" s="14" t="s">
         <v>1031</v>
       </c>
-      <c r="B474" s="14" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C474" s="14" t="s">
+      <c r="B483" s="14" t="s">
+        <v>993</v>
+      </c>
+      <c r="C483" s="14"/>
+      <c r="D483" s="14" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A475" s="14" t="s">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A484" s="10" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B484" s="10" t="s">
+        <v>993</v>
+      </c>
+      <c r="D484" s="10" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A485" s="10" t="s">
         <v>1035</v>
       </c>
-      <c r="B475" s="14" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C475" s="14" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A476" s="14" t="s">
+      <c r="B485" s="10" t="s">
+        <v>993</v>
+      </c>
+      <c r="D485" s="10" t="s">
         <v>1036</v>
       </c>
-      <c r="B476" s="14" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C476" s="14" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A477" s="14" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B477" s="14" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C477" s="14" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A478" s="14" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B478" s="14" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C478" s="14" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A479" s="14" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B479" s="14" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C479" s="25" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A480" s="10" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B480" s="14" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C480" s="13" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A481" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B481" s="14" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C481" s="13" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A482" s="11" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B482" s="11" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C482" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A483" s="14" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B483" s="14" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C483" s="14" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A484" s="10" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B484" s="10" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C484" s="10" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A485" s="10" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B485" s="10" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C485" s="10" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" s="10" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B486" s="10" t="s">
+        <v>993</v>
+      </c>
+      <c r="D486" s="10" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A487" s="10" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B487" s="10" t="s">
+        <v>993</v>
+      </c>
+      <c r="D487" s="10" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A488" s="10" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B488" s="10" t="s">
+        <v>993</v>
+      </c>
+      <c r="D488" s="10" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A489" s="10" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B489" s="10" t="s">
+        <v>993</v>
+      </c>
+      <c r="D489" s="10" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A490" s="10" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B490" s="10" t="s">
+        <v>993</v>
+      </c>
+      <c r="D490" s="10" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A491" s="10" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B491" s="10" t="s">
+        <v>993</v>
+      </c>
+      <c r="D491" s="10" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A492" s="10" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B492" s="10" t="s">
+        <v>993</v>
+      </c>
+      <c r="D492" s="13" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A493" s="10" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B493" s="10" t="s">
+        <v>993</v>
+      </c>
+      <c r="D493" s="10" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A494" s="13" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B494" s="13" t="s">
+        <v>993</v>
+      </c>
+      <c r="C494" s="13"/>
+      <c r="D494" s="10" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A495" s="10" t="s">
         <v>1158</v>
       </c>
-      <c r="B486" s="10" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C486" s="10" t="s">
+      <c r="B495" s="10" t="s">
+        <v>993</v>
+      </c>
+      <c r="D495" s="13" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A487" s="10" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B487" s="10" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C487" s="10" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A488" s="10" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B488" s="10" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C488" s="10" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A489" s="10" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B489" s="10" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C489" s="10" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A490" s="10" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B490" s="10" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C490" s="10" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A491" s="10" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B491" s="10" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C491" s="10" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A492" s="10" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B492" s="10" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C492" s="13" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A493" s="10" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B493" s="10" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C493" s="10" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A494" s="13" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B494" s="13" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C494" s="10" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A495" s="10" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B495" s="10" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C495" s="13" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="512" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C512" s="13"/>
-    </row>
-    <row r="528" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C528" s="13"/>
-    </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="512" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D512" s="13"/>
+    </row>
+    <row r="528" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D528" s="13"/>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" s="14"/>
       <c r="B529" s="14"/>
       <c r="C529" s="14"/>
-    </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D529" s="14"/>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" s="11"/>
       <c r="B530" s="11"/>
-      <c r="C530" s="12"/>
-    </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C530" s="11"/>
+      <c r="D530" s="12"/>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" s="14"/>
       <c r="B531" s="14"/>
       <c r="C531" s="14"/>
-    </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D531" s="14"/>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" s="14"/>
       <c r="B532" s="14"/>
       <c r="C532" s="14"/>
-    </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D532" s="14"/>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" s="14"/>
       <c r="B533" s="14"/>
       <c r="C533" s="14"/>
-    </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D533" s="14"/>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" s="14"/>
       <c r="B534" s="14"/>
       <c r="C534" s="14"/>
-    </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D534" s="14"/>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" s="14"/>
       <c r="B535" s="14"/>
       <c r="C535" s="14"/>
-    </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D535" s="14"/>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" s="14"/>
       <c r="B536" s="14"/>
       <c r="C536" s="14"/>
-    </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D536" s="14"/>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" s="14"/>
       <c r="B537" s="14"/>
       <c r="C537" s="14"/>
-    </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D537" s="14"/>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" s="14"/>
       <c r="B538" s="14"/>
       <c r="C538" s="14"/>
-    </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D538" s="14"/>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" s="14"/>
       <c r="B539" s="14"/>
       <c r="C539" s="14"/>
-    </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D539" s="14"/>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" s="14"/>
       <c r="B542" s="14"/>
       <c r="C542" s="14"/>
+      <c r="D542" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C450" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C542">
+  <autoFilter ref="A1:D495" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D542">
     <sortCondition ref="A2:A542"/>
   </sortState>
   <dataConsolidate/>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A376:A1048576 A373:A374 A259:A371 A192:A257 A1:A190">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11096,7 +12145,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
-        <v>1055</v>
+        <v>1037</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -11108,229 +12157,229 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="27"/>
       <c r="B2" s="28" t="s">
-        <v>1056</v>
+        <v>1038</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>1057</v>
+        <v>1039</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>1058</v>
+        <v>1040</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>1059</v>
+        <v>1041</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>1060</v>
+        <v>1042</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
-        <v>1062</v>
+        <v>1044</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>1063</v>
+        <v>1045</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>1064</v>
+        <v>1046</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>1065</v>
+        <v>1047</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>1066</v>
+        <v>1048</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>1067</v>
+        <v>1049</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>1068</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>1069</v>
+        <v>1051</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>1070</v>
+        <v>1052</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>1071</v>
+        <v>1053</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>1072</v>
+        <v>1054</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>1073</v>
+        <v>1055</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>1074</v>
+        <v>1056</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>1075</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>1076</v>
+        <v>1058</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>1077</v>
+        <v>1059</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>1078</v>
+        <v>1060</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>1079</v>
+        <v>1061</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>1080</v>
+        <v>1062</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>1081</v>
+        <v>1063</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>1082</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
-        <v>1083</v>
+        <v>1065</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>1084</v>
+        <v>1066</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>1085</v>
+        <v>1067</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>1086</v>
+        <v>1068</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>1087</v>
+        <v>1069</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>1088</v>
+        <v>1070</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>1089</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
-        <v>1090</v>
+        <v>1072</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>1091</v>
+        <v>1073</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>1092</v>
+        <v>1074</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>1093</v>
+        <v>1075</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>1094</v>
+        <v>1076</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>1095</v>
+        <v>1077</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>1096</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
-        <v>1097</v>
+        <v>1079</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>1098</v>
+        <v>1080</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>1099</v>
+        <v>1081</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>1100</v>
+        <v>1082</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>1101</v>
+        <v>1083</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>1102</v>
+        <v>1084</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>1103</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
-        <v>1104</v>
+        <v>1086</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>1105</v>
+        <v>1087</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>1106</v>
+        <v>1088</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>1107</v>
+        <v>1089</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>1108</v>
+        <v>1090</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>1109</v>
+        <v>1091</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>1110</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
-        <v>1111</v>
+        <v>1093</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>1112</v>
+        <v>1094</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>1113</v>
+        <v>1095</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>1114</v>
+        <v>1096</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>1115</v>
+        <v>1097</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>1116</v>
+        <v>1098</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>1117</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
-        <v>1118</v>
+        <v>1100</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>1119</v>
+        <v>1101</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>1120</v>
+        <v>1102</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>1121</v>
+        <v>1103</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>1122</v>
+        <v>1104</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>1123</v>
+        <v>1105</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>1124</v>
+        <v>1106</v>
       </c>
     </row>
   </sheetData>
@@ -11356,89 +12405,89 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1125</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1126</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1127</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1128</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1129</v>
+        <v>1111</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>1130</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1131</v>
+        <v>1113</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>1132</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1133</v>
+        <v>1115</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>1134</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>1135</v>
+        <v>1117</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>1136</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>1137</v>
+        <v>1119</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>1138</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>1139</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>1140</v>
+        <v>1122</v>
       </c>
       <c r="B13" t="s">
-        <v>1141</v>
+        <v>1123</v>
       </c>
       <c r="C13" t="s">
-        <v>1142</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>1143</v>
+        <v>1125</v>
       </c>
       <c r="B14" t="s">
-        <v>1144</v>
+        <v>1126</v>
       </c>
       <c r="C14" t="s">
-        <v>1145</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -11446,50 +12495,50 @@
         <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>1146</v>
+        <v>1128</v>
       </c>
       <c r="C15" t="s">
-        <v>1147</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>1148</v>
+        <v>1130</v>
       </c>
       <c r="C16" t="s">
-        <v>1149</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>1150</v>
+        <v>1132</v>
       </c>
       <c r="C17" t="s">
-        <v>1151</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>1152</v>
+        <v>1134</v>
       </c>
       <c r="C18" t="s">
-        <v>1153</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>1154</v>
+        <v>1136</v>
       </c>
       <c r="C19" t="s">
-        <v>1155</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>1156</v>
+        <v>1138</v>
       </c>
       <c r="C20" t="s">
-        <v>1157</v>
+        <v>1139</v>
       </c>
     </row>
   </sheetData>

--- a/Zhodani Words List.xlsx
+++ b/Zhodani Words List.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD5E983-900F-4781-BB1C-C603A0EBFDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342333FE-D944-41C4-B668-A41A5C7F15C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
   <sheets>
     <sheet name="Current vocabulary list" sheetId="2" r:id="rId1"/>
-    <sheet name="Zhdetl (from Alien Book 4)" sheetId="5" r:id="rId2"/>
-    <sheet name="Root Words (from other lists)" sheetId="3" r:id="rId3"/>
-    <sheet name="Correlative Words" sheetId="6" r:id="rId4"/>
-    <sheet name="Verb forms and conjugations" sheetId="4" r:id="rId5"/>
-    <sheet name="Lessons" sheetId="1" r:id="rId6"/>
+    <sheet name="Common suffixes" sheetId="7" r:id="rId2"/>
+    <sheet name="Zhdetl (from Alien Book 4)" sheetId="5" r:id="rId3"/>
+    <sheet name="Root Words (from other lists)" sheetId="3" r:id="rId4"/>
+    <sheet name="Correlative Words" sheetId="6" r:id="rId5"/>
+    <sheet name="Verb forms and conjugations" sheetId="4" r:id="rId6"/>
+    <sheet name="Lessons" sheetId="1" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Current vocabulary list'!$A$1:$D$495</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Lessons!$A$1:$C$223</definedName>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">'Zhdetl (from Alien Book 4)'!$A$1:$B$186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Lessons!$A$1:$C$223</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Zhdetl (from Alien Book 4)'!$A$1:$B$186</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2782" uniqueCount="1183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3017" uniqueCount="1189">
   <si>
     <t>Zhdetl word</t>
   </si>
@@ -3565,9 +3566,6 @@
     <t>verb</t>
   </si>
   <si>
-    <t>adjective</t>
-  </si>
-  <si>
     <t>noun, adj</t>
   </si>
   <si>
@@ -3623,6 +3621,29 @@
   </si>
   <si>
     <t>yomichto</t>
+  </si>
+  <si>
+    <t>Suffix</t>
+  </si>
+  <si>
+    <t>Examples</t>
+  </si>
+  <si>
+    <t>-nad</t>
+  </si>
+  <si>
+    <t>"one who", a thing that</t>
+  </si>
+  <si>
+    <t>pradrnad - one who is trained in psionics
+palnad - one who extends greetings
+Tliaqrnad - "miller", one who grinds grain, a common prole surname</t>
+  </si>
+  <si>
+    <t>Pranatl - an "aspirant", a minor noble of SOC-11</t>
+  </si>
+  <si>
+    <t>adj</t>
   </si>
 </sst>
 </file>
@@ -3773,7 +3794,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3813,12 +3834,45 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3890,8 +3944,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4039E8B-8AC1-44D4-939F-61521D537543}" name="Zhdetl" displayName="Zhdetl" ref="A1:B186" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B186" xr:uid="{B2E9EE69-E126-4FC1-ACEF-C598B63AECDE}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4197,15 +4251,15 @@
   <dimension ref="A1:D542"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D251" sqref="D251"/>
+      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A258" sqref="A258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.109375" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="108.5546875" style="10" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="10"/>
   </cols>
@@ -5126,13 +5180,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="17" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B70" s="21" t="s">
         <v>896</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>1163</v>
+        <v>1188</v>
       </c>
       <c r="D70" s="18" t="s">
         <v>907</v>
@@ -5238,7 +5292,7 @@
         <v>807</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D78" s="18" t="s">
         <v>825</v>
@@ -5266,7 +5320,7 @@
         <v>807</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D80" s="18" t="s">
         <v>813</v>
@@ -5640,7 +5694,7 @@
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="21" t="s">
-        <v>1163</v>
+        <v>1188</v>
       </c>
       <c r="D110" s="16" t="s">
         <v>237</v>
@@ -6006,7 +6060,7 @@
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="20" t="s">
-        <v>1163</v>
+        <v>1188</v>
       </c>
       <c r="D138" s="16" t="s">
         <v>263</v>
@@ -6032,7 +6086,7 @@
         <v>807</v>
       </c>
       <c r="C140" s="21" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D140" s="18" t="s">
         <v>815</v>
@@ -6124,7 +6178,7 @@
         <v>807</v>
       </c>
       <c r="C147" s="21" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D147" s="18" t="s">
         <v>832</v>
@@ -6146,13 +6200,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="17" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B149" s="21" t="s">
         <v>896</v>
       </c>
       <c r="C149" s="21" t="s">
-        <v>1163</v>
+        <v>1188</v>
       </c>
       <c r="D149" s="18" t="s">
         <v>916</v>
@@ -6174,13 +6228,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="15" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B151" s="21" t="s">
         <v>896</v>
       </c>
       <c r="C151" s="21" t="s">
-        <v>1163</v>
+        <v>1188</v>
       </c>
       <c r="D151" s="18" t="s">
         <v>902</v>
@@ -6208,7 +6262,7 @@
         <v>807</v>
       </c>
       <c r="C153" s="21" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D153" s="18" t="s">
         <v>823</v>
@@ -6228,13 +6282,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="17" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B155" s="21" t="s">
         <v>896</v>
       </c>
       <c r="C155" s="21" t="s">
-        <v>1163</v>
+        <v>1188</v>
       </c>
       <c r="D155" s="18" t="s">
         <v>903</v>
@@ -6288,7 +6342,7 @@
         <v>807</v>
       </c>
       <c r="C159" s="21" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D159" s="18" t="s">
         <v>838</v>
@@ -6470,7 +6524,7 @@
         <v>807</v>
       </c>
       <c r="C173" s="21" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D173" s="18" t="s">
         <v>830</v>
@@ -6522,7 +6576,7 @@
         <v>610</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>1161</v>
+        <v>1188</v>
       </c>
       <c r="D177" s="18" t="s">
         <v>613</v>
@@ -6544,13 +6598,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="17" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B179" s="21" t="s">
         <v>896</v>
       </c>
       <c r="C179" s="21" t="s">
-        <v>1163</v>
+        <v>1188</v>
       </c>
       <c r="D179" s="18" t="s">
         <v>918</v>
@@ -6666,13 +6720,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="15" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B188" s="21" t="s">
         <v>896</v>
       </c>
       <c r="C188" s="21" t="s">
-        <v>1163</v>
+        <v>1188</v>
       </c>
       <c r="D188" s="18" t="s">
         <v>900</v>
@@ -6756,7 +6810,7 @@
         <v>807</v>
       </c>
       <c r="C194" s="21" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D194" s="18" t="s">
         <v>885</v>
@@ -6818,13 +6872,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="15" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B199" s="21" t="s">
         <v>896</v>
       </c>
       <c r="C199" s="21" t="s">
-        <v>1163</v>
+        <v>1188</v>
       </c>
       <c r="D199" s="18" t="s">
         <v>901</v>
@@ -6849,7 +6903,9 @@
         <v>302</v>
       </c>
       <c r="B201" s="20"/>
-      <c r="C201" s="20"/>
+      <c r="C201" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D201" s="16" t="s">
         <v>303</v>
       </c>
@@ -6870,13 +6926,13 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="17" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B203" s="21" t="s">
         <v>896</v>
       </c>
       <c r="C203" s="21" t="s">
-        <v>1163</v>
+        <v>1188</v>
       </c>
       <c r="D203" s="18" t="s">
         <v>904</v>
@@ -6901,7 +6957,9 @@
         <v>304</v>
       </c>
       <c r="B205" s="20"/>
-      <c r="C205" s="20"/>
+      <c r="C205" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D205" s="16" t="s">
         <v>305</v>
       </c>
@@ -6913,7 +6971,9 @@
       <c r="B206" s="21" t="s">
         <v>656</v>
       </c>
-      <c r="C206" s="21"/>
+      <c r="C206" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D206" s="18" t="s">
         <v>667</v>
       </c>
@@ -7091,7 +7151,9 @@
         <v>306</v>
       </c>
       <c r="B219" s="20"/>
-      <c r="C219" s="20"/>
+      <c r="C219" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D219" s="16" t="s">
         <v>307</v>
       </c>
@@ -7103,7 +7165,9 @@
       <c r="B220" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="C220" s="21"/>
+      <c r="C220" s="21" t="s">
+        <v>1162</v>
+      </c>
       <c r="D220" s="18" t="s">
         <v>764</v>
       </c>
@@ -7115,7 +7179,9 @@
       <c r="B221" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="C221" s="23"/>
+      <c r="C221" s="20" t="s">
+        <v>1161</v>
+      </c>
       <c r="D221" s="24" t="s">
         <v>96</v>
       </c>
@@ -7127,7 +7193,9 @@
       <c r="B222" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="C222" s="23"/>
+      <c r="C222" s="20" t="s">
+        <v>1161</v>
+      </c>
       <c r="D222" s="24" t="s">
         <v>64</v>
       </c>
@@ -7153,7 +7221,9 @@
       <c r="B224" s="21" t="s">
         <v>656</v>
       </c>
-      <c r="C224" s="21"/>
+      <c r="C224" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D224" s="18" t="s">
         <v>658</v>
       </c>
@@ -7165,20 +7235,22 @@
       <c r="B225" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="C225" s="21"/>
+      <c r="C225" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D225" s="18" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="17" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B226" s="21" t="s">
         <v>896</v>
       </c>
       <c r="C226" s="21" t="s">
-        <v>1163</v>
+        <v>1188</v>
       </c>
       <c r="D226" s="18" t="s">
         <v>920</v>
@@ -7191,7 +7263,9 @@
       <c r="B227" s="21" t="s">
         <v>589</v>
       </c>
-      <c r="C227" s="14"/>
+      <c r="C227" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D227" s="14" t="s">
         <v>595</v>
       </c>
@@ -7215,7 +7289,9 @@
         <v>308</v>
       </c>
       <c r="B229" s="20"/>
-      <c r="C229" s="11"/>
+      <c r="C229" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D229" s="12" t="s">
         <v>309</v>
       </c>
@@ -7228,7 +7304,7 @@
         <v>807</v>
       </c>
       <c r="C230" s="21" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D230" s="14" t="s">
         <v>811</v>
@@ -7236,13 +7312,13 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="14" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B231" s="21" t="s">
         <v>896</v>
       </c>
       <c r="C231" s="21" t="s">
-        <v>1163</v>
+        <v>1188</v>
       </c>
       <c r="D231" s="14" t="s">
         <v>906</v>
@@ -7253,7 +7329,9 @@
         <v>310</v>
       </c>
       <c r="B232" s="20"/>
-      <c r="C232" s="11"/>
+      <c r="C232" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D232" s="12" t="s">
         <v>311</v>
       </c>
@@ -7263,7 +7341,9 @@
         <v>312</v>
       </c>
       <c r="B233" s="20"/>
-      <c r="C233" s="11"/>
+      <c r="C233" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D233" s="12" t="s">
         <v>313</v>
       </c>
@@ -7273,7 +7353,9 @@
         <v>314</v>
       </c>
       <c r="B234" s="20"/>
-      <c r="C234" s="11"/>
+      <c r="C234" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D234" s="12" t="s">
         <v>315</v>
       </c>
@@ -7313,7 +7395,9 @@
       <c r="B237" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="C237" s="14"/>
+      <c r="C237" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D237" s="14" t="s">
         <v>664</v>
       </c>
@@ -7337,7 +7421,9 @@
         <v>316</v>
       </c>
       <c r="B239" s="11"/>
-      <c r="C239" s="11"/>
+      <c r="C239" s="11" t="s">
+        <v>1162</v>
+      </c>
       <c r="D239" s="12" t="s">
         <v>317</v>
       </c>
@@ -7347,20 +7433,22 @@
         <v>318</v>
       </c>
       <c r="B240" s="11"/>
-      <c r="C240" s="11"/>
+      <c r="C240" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D240" s="12" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="11" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B241" s="11" t="s">
         <v>896</v>
       </c>
       <c r="C241" s="21" t="s">
-        <v>1163</v>
+        <v>1188</v>
       </c>
       <c r="D241" s="14" t="s">
         <v>897</v>
@@ -7373,7 +7461,9 @@
       <c r="B242" s="14" t="s">
         <v>957</v>
       </c>
-      <c r="C242" s="14"/>
+      <c r="C242" s="14" t="s">
+        <v>1162</v>
+      </c>
       <c r="D242" s="25" t="s">
         <v>942</v>
       </c>
@@ -7385,7 +7475,9 @@
       <c r="B243" s="14" t="s">
         <v>957</v>
       </c>
-      <c r="C243" s="14"/>
+      <c r="C243" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D243" s="14" t="s">
         <v>944</v>
       </c>
@@ -7397,7 +7489,9 @@
       <c r="B244" s="14" t="s">
         <v>957</v>
       </c>
-      <c r="C244" s="14"/>
+      <c r="C244" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D244" s="14" t="s">
         <v>946</v>
       </c>
@@ -7407,7 +7501,9 @@
         <v>320</v>
       </c>
       <c r="B245" s="11"/>
-      <c r="C245" s="11"/>
+      <c r="C245" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D245" s="12" t="s">
         <v>321</v>
       </c>
@@ -7417,7 +7513,9 @@
         <v>322</v>
       </c>
       <c r="B246" s="11"/>
-      <c r="C246" s="11"/>
+      <c r="C246" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D246" s="12" t="s">
         <v>323</v>
       </c>
@@ -7429,7 +7527,9 @@
       <c r="B247" s="14" t="s">
         <v>921</v>
       </c>
-      <c r="C247" s="14"/>
+      <c r="C247" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D247" s="14" t="s">
         <v>936</v>
       </c>
@@ -7441,7 +7541,9 @@
       <c r="B248" s="14" t="s">
         <v>921</v>
       </c>
-      <c r="C248" s="14"/>
+      <c r="C248" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D248" s="25" t="s">
         <v>928</v>
       </c>
@@ -7479,7 +7581,9 @@
         <v>324</v>
       </c>
       <c r="B251" s="11"/>
-      <c r="C251" s="11"/>
+      <c r="C251" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D251" s="12" t="s">
         <v>325</v>
       </c>
@@ -7489,7 +7593,9 @@
         <v>326</v>
       </c>
       <c r="B252" s="11"/>
-      <c r="C252" s="11"/>
+      <c r="C252" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D252" s="12" t="s">
         <v>327</v>
       </c>
@@ -7499,7 +7605,9 @@
         <v>328</v>
       </c>
       <c r="B253" s="11"/>
-      <c r="C253" s="11"/>
+      <c r="C253" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D253" s="12" t="s">
         <v>329</v>
       </c>
@@ -7511,7 +7619,9 @@
       <c r="B254" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="C254" s="14"/>
+      <c r="C254" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D254" s="10" t="s">
         <v>100</v>
       </c>
@@ -7521,7 +7631,9 @@
         <v>332</v>
       </c>
       <c r="B255" s="11"/>
-      <c r="C255" s="11"/>
+      <c r="C255" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D255" s="12" t="s">
         <v>333</v>
       </c>
@@ -7531,7 +7643,9 @@
         <v>334</v>
       </c>
       <c r="B256" s="11"/>
-      <c r="C256" s="11"/>
+      <c r="C256" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D256" s="12" t="s">
         <v>335</v>
       </c>
@@ -7541,7 +7655,9 @@
         <v>336</v>
       </c>
       <c r="B257" s="11"/>
-      <c r="C257" s="11"/>
+      <c r="C257" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D257" s="12" t="s">
         <v>337</v>
       </c>
@@ -7551,7 +7667,9 @@
         <v>338</v>
       </c>
       <c r="B258" s="11"/>
-      <c r="C258" s="11"/>
+      <c r="C258" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D258" s="12" t="s">
         <v>339</v>
       </c>
@@ -7561,7 +7679,9 @@
         <v>340</v>
       </c>
       <c r="B259" s="11"/>
-      <c r="C259" s="11"/>
+      <c r="C259" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D259" s="12" t="s">
         <v>341</v>
       </c>
@@ -7571,7 +7691,9 @@
         <v>342</v>
       </c>
       <c r="B260" s="11"/>
-      <c r="C260" s="11"/>
+      <c r="C260" s="11" t="s">
+        <v>1162</v>
+      </c>
       <c r="D260" s="12" t="s">
         <v>343</v>
       </c>
@@ -7583,6 +7705,9 @@
       <c r="B261" s="10" t="s">
         <v>656</v>
       </c>
+      <c r="C261" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D261" s="10" t="s">
         <v>662</v>
       </c>
@@ -7592,7 +7717,9 @@
         <v>344</v>
       </c>
       <c r="B262" s="11"/>
-      <c r="C262" s="11"/>
+      <c r="C262" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D262" s="12" t="s">
         <v>345</v>
       </c>
@@ -7602,7 +7729,9 @@
         <v>346</v>
       </c>
       <c r="B263" s="11"/>
-      <c r="C263" s="11"/>
+      <c r="C263" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D263" s="12" t="s">
         <v>347</v>
       </c>
@@ -7615,7 +7744,7 @@
         <v>807</v>
       </c>
       <c r="C264" s="21" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D264" s="14" t="s">
         <v>819</v>
@@ -7626,7 +7755,9 @@
         <v>348</v>
       </c>
       <c r="B265" s="11"/>
-      <c r="C265" s="11"/>
+      <c r="C265" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D265" s="12" t="s">
         <v>349</v>
       </c>
@@ -7636,7 +7767,9 @@
         <v>350</v>
       </c>
       <c r="B266" s="11"/>
-      <c r="C266" s="11"/>
+      <c r="C266" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D266" s="12" t="s">
         <v>351</v>
       </c>
@@ -7646,7 +7779,9 @@
         <v>352</v>
       </c>
       <c r="B267" s="11"/>
-      <c r="C267" s="11"/>
+      <c r="C267" s="11" t="s">
+        <v>1162</v>
+      </c>
       <c r="D267" s="12" t="s">
         <v>353</v>
       </c>
@@ -7656,7 +7791,9 @@
         <v>354</v>
       </c>
       <c r="B268" s="11"/>
-      <c r="C268" s="11"/>
+      <c r="C268" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D268" s="12" t="s">
         <v>355</v>
       </c>
@@ -7668,7 +7805,9 @@
       <c r="B269" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="C269" s="14"/>
+      <c r="C269" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D269" s="14" t="s">
         <v>541</v>
       </c>
@@ -7694,7 +7833,9 @@
       <c r="B271" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="C271" s="14"/>
+      <c r="C271" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D271" s="14" t="s">
         <v>528</v>
       </c>
@@ -7706,7 +7847,9 @@
       <c r="B272" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="C272" s="26"/>
+      <c r="C272" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D272" s="26" t="s">
         <v>128</v>
       </c>
@@ -7718,7 +7861,9 @@
       <c r="B273" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="C273" s="26"/>
+      <c r="C273" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D273" s="26" t="s">
         <v>124</v>
       </c>
@@ -7728,7 +7873,9 @@
         <v>356</v>
       </c>
       <c r="B274" s="11"/>
-      <c r="C274" s="11"/>
+      <c r="C274" s="11" t="s">
+        <v>1162</v>
+      </c>
       <c r="D274" s="12" t="s">
         <v>357</v>
       </c>
@@ -7754,7 +7901,9 @@
       <c r="B276" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="C276" s="26"/>
+      <c r="C276" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D276" s="26" t="s">
         <v>511</v>
       </c>
@@ -7764,7 +7913,9 @@
         <v>360</v>
       </c>
       <c r="B277" s="11"/>
-      <c r="C277" s="11"/>
+      <c r="C277" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D277" s="12" t="s">
         <v>361</v>
       </c>
@@ -7776,7 +7927,9 @@
       <c r="B278" t="s">
         <v>500</v>
       </c>
-      <c r="C278"/>
+      <c r="C278" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D278" t="s">
         <v>27</v>
       </c>
@@ -7786,7 +7939,9 @@
         <v>362</v>
       </c>
       <c r="B279" s="11"/>
-      <c r="C279" s="11"/>
+      <c r="C279" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D279" s="12" t="s">
         <v>363</v>
       </c>
@@ -7796,7 +7951,9 @@
         <v>364</v>
       </c>
       <c r="B280" s="11"/>
-      <c r="C280" s="11"/>
+      <c r="C280" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D280" s="12" t="s">
         <v>365</v>
       </c>
@@ -7808,7 +7965,9 @@
       <c r="B281" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C281" s="14"/>
+      <c r="C281" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D281" s="14" t="s">
         <v>585</v>
       </c>
@@ -7820,7 +7979,9 @@
       <c r="B282" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="C282" s="14"/>
+      <c r="C282" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D282" s="10" t="s">
         <v>620</v>
       </c>
@@ -7832,7 +7993,9 @@
       <c r="B283" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C283" s="14"/>
+      <c r="C283" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D283" s="14" t="s">
         <v>574</v>
       </c>
@@ -7842,7 +8005,9 @@
         <v>366</v>
       </c>
       <c r="B284" s="11"/>
-      <c r="C284" s="11"/>
+      <c r="C284" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D284" s="12" t="s">
         <v>367</v>
       </c>
@@ -7852,7 +8017,9 @@
         <v>368</v>
       </c>
       <c r="B285" s="11"/>
-      <c r="C285" s="11"/>
+      <c r="C285" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D285" s="12" t="s">
         <v>369</v>
       </c>
@@ -7862,7 +8029,9 @@
         <v>370</v>
       </c>
       <c r="B286" s="11"/>
-      <c r="C286" s="11"/>
+      <c r="C286" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D286" s="12" t="s">
         <v>371</v>
       </c>
@@ -7874,7 +8043,9 @@
       <c r="B287" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="C287" s="26"/>
+      <c r="C287" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D287" s="26" t="s">
         <v>112</v>
       </c>
@@ -7884,7 +8055,9 @@
         <v>83</v>
       </c>
       <c r="B288" s="14"/>
-      <c r="C288" s="14"/>
+      <c r="C288" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D288" s="14" t="s">
         <v>84</v>
       </c>
@@ -7894,7 +8067,9 @@
         <v>374</v>
       </c>
       <c r="B289" s="11"/>
-      <c r="C289" s="11"/>
+      <c r="C289" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D289" s="12" t="s">
         <v>375</v>
       </c>
@@ -7906,7 +8081,9 @@
       <c r="B290" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="C290" s="14"/>
+      <c r="C290" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D290" s="14" t="s">
         <v>643</v>
       </c>
@@ -7916,7 +8093,9 @@
         <v>376</v>
       </c>
       <c r="B291" s="11"/>
-      <c r="C291" s="11"/>
+      <c r="C291" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D291" s="12" t="s">
         <v>377</v>
       </c>
@@ -7928,7 +8107,9 @@
       <c r="B292" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="C292" s="26"/>
+      <c r="C292" s="20" t="s">
+        <v>1161</v>
+      </c>
       <c r="D292" s="26" t="s">
         <v>78</v>
       </c>
@@ -7940,7 +8121,9 @@
       <c r="B293" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="C293" s="26"/>
+      <c r="C293" s="20" t="s">
+        <v>1161</v>
+      </c>
       <c r="D293" s="26" t="s">
         <v>76</v>
       </c>
@@ -7952,7 +8135,9 @@
       <c r="B294" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="C294" s="14"/>
+      <c r="C294" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D294" s="14" t="s">
         <v>591</v>
       </c>
@@ -7964,7 +8149,9 @@
       <c r="B295" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="C295" s="14"/>
+      <c r="C295" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D295" s="14" t="s">
         <v>592</v>
       </c>
@@ -7976,7 +8163,9 @@
       <c r="B296" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="C296" s="14"/>
+      <c r="C296" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D296" s="14" t="s">
         <v>516</v>
       </c>
@@ -7988,7 +8177,9 @@
       <c r="B297" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="C297" s="26"/>
+      <c r="C297" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D297" s="26" t="s">
         <v>120</v>
       </c>
@@ -7998,7 +8189,9 @@
         <v>378</v>
       </c>
       <c r="B298" s="11"/>
-      <c r="C298" s="11"/>
+      <c r="C298" s="11" t="s">
+        <v>1162</v>
+      </c>
       <c r="D298" s="12" t="s">
         <v>379</v>
       </c>
@@ -8008,7 +8201,9 @@
         <v>380</v>
       </c>
       <c r="B299" s="11"/>
-      <c r="C299" s="11"/>
+      <c r="C299" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D299" s="12" t="s">
         <v>381</v>
       </c>
@@ -8018,7 +8213,9 @@
         <v>98</v>
       </c>
       <c r="B300" s="14"/>
-      <c r="C300" s="14"/>
+      <c r="C300" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D300" s="14" t="s">
         <v>99</v>
       </c>
@@ -8030,7 +8227,9 @@
       <c r="B301" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C301" s="14"/>
+      <c r="C301" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D301" s="14" t="s">
         <v>581</v>
       </c>
@@ -8040,7 +8239,9 @@
         <v>384</v>
       </c>
       <c r="B302" s="11"/>
-      <c r="C302" s="11"/>
+      <c r="C302" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D302" s="12" t="s">
         <v>385</v>
       </c>
@@ -8050,7 +8251,9 @@
         <v>68</v>
       </c>
       <c r="B303" s="14"/>
-      <c r="C303" s="14"/>
+      <c r="C303" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D303" s="14" t="s">
         <v>69</v>
       </c>
@@ -8060,7 +8263,9 @@
         <v>388</v>
       </c>
       <c r="B304" s="11"/>
-      <c r="C304" s="11"/>
+      <c r="C304" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D304" s="12" t="s">
         <v>389</v>
       </c>
@@ -8070,7 +8275,9 @@
         <v>390</v>
       </c>
       <c r="B305" s="11"/>
-      <c r="C305" s="11"/>
+      <c r="C305" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D305" s="12" t="s">
         <v>391</v>
       </c>
@@ -8080,7 +8287,9 @@
         <v>392</v>
       </c>
       <c r="B306" s="11"/>
-      <c r="C306" s="11"/>
+      <c r="C306" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D306" s="12" t="s">
         <v>393</v>
       </c>
@@ -8093,7 +8302,7 @@
         <v>807</v>
       </c>
       <c r="C307" s="21" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D307" s="14" t="s">
         <v>821</v>
@@ -8101,13 +8310,13 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="14" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B308" s="10" t="s">
         <v>896</v>
       </c>
       <c r="C308" s="21" t="s">
-        <v>1163</v>
+        <v>1188</v>
       </c>
       <c r="D308" s="14" t="s">
         <v>910</v>
@@ -8177,7 +8386,7 @@
         <v>807</v>
       </c>
       <c r="C313" s="21" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D313" s="14" t="s">
         <v>834</v>
@@ -8190,7 +8399,9 @@
       <c r="B314" t="s">
         <v>500</v>
       </c>
-      <c r="C314"/>
+      <c r="C314" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D314" t="s">
         <v>21</v>
       </c>
@@ -8202,7 +8413,9 @@
       <c r="B315" s="14" t="s">
         <v>921</v>
       </c>
-      <c r="C315" s="14"/>
+      <c r="C315" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D315" s="14" t="s">
         <v>932</v>
       </c>
@@ -8214,7 +8427,9 @@
       <c r="B316" s="14" t="s">
         <v>921</v>
       </c>
-      <c r="C316" s="14"/>
+      <c r="C316" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D316" s="14" t="s">
         <v>940</v>
       </c>
@@ -8226,7 +8441,9 @@
       <c r="B317" s="14" t="s">
         <v>957</v>
       </c>
-      <c r="C317" s="14"/>
+      <c r="C317" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D317" s="14" t="s">
         <v>959</v>
       </c>
@@ -8238,7 +8455,9 @@
       <c r="B318" s="14" t="s">
         <v>957</v>
       </c>
-      <c r="C318" s="14"/>
+      <c r="C318" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D318" s="14" t="s">
         <v>956</v>
       </c>
@@ -8250,7 +8469,9 @@
       <c r="B319" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C319" s="14"/>
+      <c r="C319" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D319" s="14" t="s">
         <v>569</v>
       </c>
@@ -8260,7 +8481,9 @@
         <v>394</v>
       </c>
       <c r="B320" s="11"/>
-      <c r="C320" s="11"/>
+      <c r="C320" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D320" s="12" t="s">
         <v>395</v>
       </c>
@@ -8270,7 +8493,9 @@
         <v>396</v>
       </c>
       <c r="B321" s="11"/>
-      <c r="C321" s="11"/>
+      <c r="C321" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D321" s="12" t="s">
         <v>397</v>
       </c>
@@ -8280,7 +8505,9 @@
         <v>398</v>
       </c>
       <c r="B322" s="11"/>
-      <c r="C322" s="11"/>
+      <c r="C322" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D322" s="12" t="s">
         <v>399</v>
       </c>
@@ -8320,7 +8547,9 @@
       <c r="B325" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C325" s="14"/>
+      <c r="C325" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D325" s="14" t="s">
         <v>567</v>
       </c>
@@ -8388,7 +8617,9 @@
       <c r="B330" s="14" t="s">
         <v>921</v>
       </c>
-      <c r="C330" s="14"/>
+      <c r="C330" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D330" s="14" t="s">
         <v>933</v>
       </c>
@@ -8400,6 +8631,9 @@
       <c r="B331" s="10" t="s">
         <v>921</v>
       </c>
+      <c r="C331" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D331" s="14" t="s">
         <v>924</v>
       </c>
@@ -8411,20 +8645,22 @@
       <c r="B332" s="14" t="s">
         <v>957</v>
       </c>
-      <c r="C332" s="14"/>
+      <c r="C332" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D332" s="14" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="14" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B333" s="14" t="s">
         <v>896</v>
       </c>
       <c r="C333" s="21" t="s">
-        <v>1163</v>
+        <v>1188</v>
       </c>
       <c r="D333" s="14" t="s">
         <v>911</v>
@@ -8438,7 +8674,7 @@
         <v>896</v>
       </c>
       <c r="C334" s="21" t="s">
-        <v>1163</v>
+        <v>1188</v>
       </c>
       <c r="D334" s="14" t="s">
         <v>899</v>
@@ -8460,13 +8696,13 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="14" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B336" s="10" t="s">
         <v>896</v>
       </c>
       <c r="C336" s="21" t="s">
-        <v>1163</v>
+        <v>1188</v>
       </c>
       <c r="D336" s="14" t="s">
         <v>919</v>
@@ -8493,7 +8729,9 @@
       <c r="B338" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="C338" s="26"/>
+      <c r="C338" s="20" t="s">
+        <v>1161</v>
+      </c>
       <c r="D338" s="26" t="s">
         <v>58</v>
       </c>
@@ -8520,7 +8758,7 @@
         <v>807</v>
       </c>
       <c r="C340" s="21" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D340" s="14" t="s">
         <v>809</v>
@@ -8531,7 +8769,9 @@
         <v>400</v>
       </c>
       <c r="B341" s="11"/>
-      <c r="C341" s="11"/>
+      <c r="C341" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D341" s="12" t="s">
         <v>401</v>
       </c>
@@ -8543,7 +8783,9 @@
       <c r="B342" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="C342" s="14"/>
+      <c r="C342" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D342" s="10" t="s">
         <v>621</v>
       </c>
@@ -8583,7 +8825,9 @@
       <c r="B345" s="14" t="s">
         <v>921</v>
       </c>
-      <c r="C345" s="14"/>
+      <c r="C345" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D345" s="14" t="s">
         <v>938</v>
       </c>
@@ -8595,20 +8839,22 @@
       <c r="B346" s="14" t="s">
         <v>957</v>
       </c>
-      <c r="C346" s="14"/>
+      <c r="C346" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D346" s="14" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="10" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B347" s="10" t="s">
         <v>896</v>
       </c>
       <c r="C347" s="21" t="s">
-        <v>1163</v>
+        <v>1188</v>
       </c>
       <c r="D347" s="14" t="s">
         <v>912</v>
@@ -8622,7 +8868,7 @@
         <v>807</v>
       </c>
       <c r="C348" s="21" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D348" s="14" t="s">
         <v>827</v>
@@ -8636,7 +8882,7 @@
         <v>807</v>
       </c>
       <c r="C349" s="21" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D349" s="14" t="s">
         <v>817</v>
@@ -8658,13 +8904,13 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="14" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B351" s="10" t="s">
         <v>896</v>
       </c>
       <c r="C351" s="21" t="s">
-        <v>1163</v>
+        <v>1188</v>
       </c>
       <c r="D351" s="14" t="s">
         <v>917</v>
@@ -8677,7 +8923,9 @@
       <c r="B352" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="C352" s="14"/>
+      <c r="C352" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D352" s="14" t="s">
         <v>533</v>
       </c>
@@ -8689,7 +8937,9 @@
       <c r="B353" t="s">
         <v>500</v>
       </c>
-      <c r="C353"/>
+      <c r="C353" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D353" t="s">
         <v>36</v>
       </c>
@@ -8710,13 +8960,13 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="14" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B355" s="14" t="s">
         <v>896</v>
       </c>
       <c r="C355" s="21" t="s">
-        <v>1163</v>
+        <v>1188</v>
       </c>
       <c r="D355" s="14" t="s">
         <v>905</v>
@@ -8727,7 +8977,9 @@
         <v>402</v>
       </c>
       <c r="B356" s="11"/>
-      <c r="C356" s="11"/>
+      <c r="C356" s="11" t="s">
+        <v>1162</v>
+      </c>
       <c r="D356" s="12" t="s">
         <v>403</v>
       </c>
@@ -8737,7 +8989,9 @@
         <v>404</v>
       </c>
       <c r="B357" s="11"/>
-      <c r="C357" s="11"/>
+      <c r="C357" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D357" s="12" t="s">
         <v>405</v>
       </c>
@@ -8747,7 +9001,9 @@
         <v>406</v>
       </c>
       <c r="B358" s="11"/>
-      <c r="C358" s="11"/>
+      <c r="C358" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D358" s="12" t="s">
         <v>407</v>
       </c>
@@ -8757,7 +9013,9 @@
         <v>408</v>
       </c>
       <c r="B359" s="11"/>
-      <c r="C359" s="11"/>
+      <c r="C359" s="11" t="s">
+        <v>1162</v>
+      </c>
       <c r="D359" s="12" t="s">
         <v>409</v>
       </c>
@@ -8767,7 +9025,9 @@
         <v>410</v>
       </c>
       <c r="B360" s="11"/>
-      <c r="C360" s="11"/>
+      <c r="C360" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D360" s="12" t="s">
         <v>411</v>
       </c>
@@ -8777,7 +9037,9 @@
         <v>412</v>
       </c>
       <c r="B361" s="11"/>
-      <c r="C361" s="11"/>
+      <c r="C361" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D361" s="12" t="s">
         <v>413</v>
       </c>
@@ -8789,7 +9051,9 @@
       <c r="B362" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C362" s="14"/>
+      <c r="C362" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D362" s="14" t="s">
         <v>539</v>
       </c>
@@ -8799,7 +9063,9 @@
         <v>414</v>
       </c>
       <c r="B363" s="11"/>
-      <c r="C363" s="11"/>
+      <c r="C363" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D363" s="12" t="s">
         <v>415</v>
       </c>
@@ -8809,7 +9075,9 @@
         <v>416</v>
       </c>
       <c r="B364" s="11"/>
-      <c r="C364" s="11"/>
+      <c r="C364" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D364" s="12" t="s">
         <v>417</v>
       </c>
@@ -8833,7 +9101,9 @@
         <v>418</v>
       </c>
       <c r="B366" s="11"/>
-      <c r="C366" s="11"/>
+      <c r="C366" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D366" s="12" t="s">
         <v>419</v>
       </c>
@@ -8845,7 +9115,9 @@
       <c r="B367" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="C367" s="26"/>
+      <c r="C367" s="20" t="s">
+        <v>1161</v>
+      </c>
       <c r="D367" s="26" t="s">
         <v>90</v>
       </c>
@@ -8913,7 +9185,9 @@
       <c r="B372" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="C372" s="14"/>
+      <c r="C372" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D372" s="10" t="s">
         <v>617</v>
       </c>
@@ -8923,7 +9197,9 @@
         <v>420</v>
       </c>
       <c r="B373" s="11"/>
-      <c r="C373" s="11"/>
+      <c r="C373" s="11" t="s">
+        <v>1162</v>
+      </c>
       <c r="D373" s="12" t="s">
         <v>421</v>
       </c>
@@ -8935,7 +9211,9 @@
       <c r="B374" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="C374" s="14"/>
+      <c r="C374" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D374" s="14" t="s">
         <v>537</v>
       </c>
@@ -8961,7 +9239,9 @@
       <c r="B376" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="C376" s="26"/>
+      <c r="C376" s="20" t="s">
+        <v>1161</v>
+      </c>
       <c r="D376" s="26" t="s">
         <v>66</v>
       </c>
@@ -8971,7 +9251,9 @@
         <v>422</v>
       </c>
       <c r="B377" s="11"/>
-      <c r="C377" s="11"/>
+      <c r="C377" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D377" s="12" t="s">
         <v>423</v>
       </c>
@@ -8983,7 +9265,9 @@
       <c r="B378" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="C378" s="14"/>
+      <c r="C378" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D378" s="10" t="s">
         <v>619</v>
       </c>
@@ -8995,6 +9279,9 @@
       <c r="B379" s="10" t="s">
         <v>634</v>
       </c>
+      <c r="C379" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D379" s="10" t="s">
         <v>636</v>
       </c>
@@ -9004,7 +9291,9 @@
         <v>424</v>
       </c>
       <c r="B380" s="11"/>
-      <c r="C380" s="11"/>
+      <c r="C380" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D380" s="12" t="s">
         <v>425</v>
       </c>
@@ -9014,7 +9303,9 @@
         <v>426</v>
       </c>
       <c r="B381" s="11"/>
-      <c r="C381" s="11"/>
+      <c r="C381" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D381" s="12" t="s">
         <v>427</v>
       </c>
@@ -9024,7 +9315,9 @@
         <v>428</v>
       </c>
       <c r="B382" s="11"/>
-      <c r="C382" s="11"/>
+      <c r="C382" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D382" s="12" t="s">
         <v>429</v>
       </c>
@@ -9034,7 +9327,9 @@
         <v>430</v>
       </c>
       <c r="B383" s="11"/>
-      <c r="C383" s="11"/>
+      <c r="C383" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D383" s="12" t="s">
         <v>431</v>
       </c>
@@ -9044,7 +9339,9 @@
         <v>432</v>
       </c>
       <c r="B384" s="11"/>
-      <c r="C384" s="11"/>
+      <c r="C384" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D384" s="12" t="s">
         <v>433</v>
       </c>
@@ -9054,7 +9351,9 @@
         <v>434</v>
       </c>
       <c r="B385" s="11"/>
-      <c r="C385" s="11"/>
+      <c r="C385" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D385" s="12" t="s">
         <v>435</v>
       </c>
@@ -9064,7 +9363,9 @@
         <v>436</v>
       </c>
       <c r="B386" s="11"/>
-      <c r="C386" s="11"/>
+      <c r="C386" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D386" s="12" t="s">
         <v>437</v>
       </c>
@@ -9074,7 +9375,9 @@
         <v>438</v>
       </c>
       <c r="B387" s="11"/>
-      <c r="C387" s="11"/>
+      <c r="C387" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D387" s="12" t="s">
         <v>439</v>
       </c>
@@ -9084,7 +9387,9 @@
         <v>101</v>
       </c>
       <c r="B388" s="11"/>
-      <c r="C388" s="11"/>
+      <c r="C388" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D388" s="12" t="s">
         <v>440</v>
       </c>
@@ -9094,7 +9399,9 @@
         <v>441</v>
       </c>
       <c r="B389" s="11"/>
-      <c r="C389" s="11"/>
+      <c r="C389" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D389" s="12" t="s">
         <v>442</v>
       </c>
@@ -9104,7 +9411,9 @@
         <v>443</v>
       </c>
       <c r="B390" s="11"/>
-      <c r="C390" s="11"/>
+      <c r="C390" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D390" s="12" t="s">
         <v>444</v>
       </c>
@@ -9114,7 +9423,9 @@
         <v>85</v>
       </c>
       <c r="B391" s="14"/>
-      <c r="C391" s="14"/>
+      <c r="C391" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D391" s="14" t="s">
         <v>86</v>
       </c>
@@ -9124,7 +9435,9 @@
         <v>447</v>
       </c>
       <c r="B392" s="11"/>
-      <c r="C392" s="11"/>
+      <c r="C392" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D392" s="12" t="s">
         <v>448</v>
       </c>
@@ -9134,7 +9447,9 @@
         <v>449</v>
       </c>
       <c r="B393" s="11"/>
-      <c r="C393" s="11"/>
+      <c r="C393" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D393" s="12" t="s">
         <v>450</v>
       </c>
@@ -9146,7 +9461,9 @@
       <c r="B394" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C394" s="14"/>
+      <c r="C394" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D394" s="14" t="s">
         <v>566</v>
       </c>
@@ -9158,7 +9475,9 @@
       <c r="B395" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="C395" s="14"/>
+      <c r="C395" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D395" s="14" t="s">
         <v>542</v>
       </c>
@@ -9170,7 +9489,9 @@
       <c r="B396" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="C396" s="14"/>
+      <c r="C396" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D396" s="10" t="s">
         <v>616</v>
       </c>
@@ -9182,7 +9503,9 @@
       <c r="B397" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="C397" s="14"/>
+      <c r="C397" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D397" s="14" t="s">
         <v>555</v>
       </c>
@@ -9194,6 +9517,9 @@
       <c r="B398" s="10" t="s">
         <v>634</v>
       </c>
+      <c r="C398" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D398" s="10" t="s">
         <v>635</v>
       </c>
@@ -9205,7 +9531,9 @@
       <c r="B399" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="C399" s="14"/>
+      <c r="C399" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D399" s="14" t="s">
         <v>543</v>
       </c>
@@ -9217,7 +9545,9 @@
       <c r="B400" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="C400" s="14"/>
+      <c r="C400" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D400" s="14" t="s">
         <v>553</v>
       </c>
@@ -9229,7 +9559,9 @@
       <c r="B401" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="C401" s="14"/>
+      <c r="C401" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D401" s="14" t="s">
         <v>554</v>
       </c>
@@ -9239,7 +9571,9 @@
         <v>451</v>
       </c>
       <c r="B402" s="11"/>
-      <c r="C402" s="11"/>
+      <c r="C402" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D402" s="12" t="s">
         <v>452</v>
       </c>
@@ -9252,7 +9586,7 @@
         <v>895</v>
       </c>
       <c r="C403" s="21" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D403" s="12" t="s">
         <v>454</v>
@@ -9265,7 +9599,9 @@
       <c r="B404" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="C404" s="26"/>
+      <c r="C404" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D404" s="26" t="s">
         <v>118</v>
       </c>
@@ -9278,7 +9614,7 @@
         <v>886</v>
       </c>
       <c r="C405" s="21" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D405" s="12" t="s">
         <v>456</v>
@@ -9305,7 +9641,9 @@
       <c r="B407" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="C407" s="26"/>
+      <c r="C407" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D407" s="26" t="s">
         <v>122</v>
       </c>
@@ -9317,7 +9655,9 @@
       <c r="B408" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="C408" s="26"/>
+      <c r="C408" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D408" s="26" t="s">
         <v>106</v>
       </c>
@@ -9329,7 +9669,9 @@
       <c r="B409" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="C409" s="14"/>
+      <c r="C409" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D409" s="14" t="s">
         <v>517</v>
       </c>
@@ -9339,7 +9681,9 @@
         <v>457</v>
       </c>
       <c r="B410" s="11"/>
-      <c r="C410" s="11"/>
+      <c r="C410" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D410" s="12" t="s">
         <v>458</v>
       </c>
@@ -9352,7 +9696,7 @@
         <v>807</v>
       </c>
       <c r="C411" s="21" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D411" s="14" t="s">
         <v>836</v>
@@ -9360,13 +9704,13 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" s="10" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B412" s="10" t="s">
         <v>896</v>
       </c>
       <c r="C412" s="21" t="s">
-        <v>1163</v>
+        <v>1188</v>
       </c>
       <c r="D412" s="14" t="s">
         <v>913</v>
@@ -9377,7 +9721,9 @@
         <v>459</v>
       </c>
       <c r="B413" s="11"/>
-      <c r="C413" s="11"/>
+      <c r="C413" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D413" s="12" t="s">
         <v>460</v>
       </c>
@@ -9387,7 +9733,9 @@
         <v>461</v>
       </c>
       <c r="B414" s="11"/>
-      <c r="C414" s="11"/>
+      <c r="C414" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D414" s="12" t="s">
         <v>462</v>
       </c>
@@ -9399,7 +9747,9 @@
       <c r="B415" t="s">
         <v>501</v>
       </c>
-      <c r="C415"/>
+      <c r="C415" s="20" t="s">
+        <v>1161</v>
+      </c>
       <c r="D415" s="26" t="s">
         <v>97</v>
       </c>
@@ -9411,7 +9761,9 @@
       <c r="B416" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="C416" s="14"/>
+      <c r="C416" s="21" t="s">
+        <v>1188</v>
+      </c>
       <c r="D416" s="10" t="s">
         <v>614</v>
       </c>
@@ -9421,7 +9773,9 @@
         <v>463</v>
       </c>
       <c r="B417" s="11"/>
-      <c r="C417" s="11"/>
+      <c r="C417" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D417" s="12" t="s">
         <v>464</v>
       </c>
@@ -9433,7 +9787,9 @@
       <c r="B418" t="s">
         <v>500</v>
       </c>
-      <c r="C418"/>
+      <c r="C418" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D418" t="s">
         <v>22</v>
       </c>
@@ -9445,6 +9801,9 @@
       <c r="B419" s="10" t="s">
         <v>634</v>
       </c>
+      <c r="C419" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D419" s="10" t="s">
         <v>640</v>
       </c>
@@ -9454,7 +9813,9 @@
         <v>465</v>
       </c>
       <c r="B420" s="11"/>
-      <c r="C420" s="11"/>
+      <c r="C420" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D420" s="12" t="s">
         <v>466</v>
       </c>
@@ -9466,7 +9827,9 @@
       <c r="B421" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C421" s="14"/>
+      <c r="C421" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D421" s="14" t="s">
         <v>562</v>
       </c>
@@ -9476,7 +9839,9 @@
         <v>467</v>
       </c>
       <c r="B422" s="11"/>
-      <c r="C422" s="11"/>
+      <c r="C422" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D422" s="12" t="s">
         <v>468</v>
       </c>
@@ -9486,7 +9851,9 @@
         <v>469</v>
       </c>
       <c r="B423" s="11"/>
-      <c r="C423" s="11"/>
+      <c r="C423" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D423" s="12" t="s">
         <v>470</v>
       </c>
@@ -9498,6 +9865,9 @@
       <c r="B424" s="10" t="s">
         <v>921</v>
       </c>
+      <c r="C424" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D424" s="14" t="s">
         <v>922</v>
       </c>
@@ -9507,7 +9877,9 @@
         <v>471</v>
       </c>
       <c r="B425" s="11"/>
-      <c r="C425" s="11"/>
+      <c r="C425" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D425" s="12" t="s">
         <v>472</v>
       </c>
@@ -9517,7 +9889,9 @@
         <v>473</v>
       </c>
       <c r="B426" s="11"/>
-      <c r="C426" s="11"/>
+      <c r="C426" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D426" s="12" t="s">
         <v>474</v>
       </c>
@@ -9527,7 +9901,9 @@
         <v>475</v>
       </c>
       <c r="B427" s="11"/>
-      <c r="C427" s="11"/>
+      <c r="C427" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D427" s="12" t="s">
         <v>476</v>
       </c>
@@ -9537,7 +9913,9 @@
         <v>477</v>
       </c>
       <c r="B428" s="11"/>
-      <c r="C428" s="11"/>
+      <c r="C428" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D428" s="12" t="s">
         <v>478</v>
       </c>
@@ -9547,7 +9925,9 @@
         <v>479</v>
       </c>
       <c r="B429" s="11"/>
-      <c r="C429" s="11"/>
+      <c r="C429" s="11" t="s">
+        <v>1188</v>
+      </c>
       <c r="D429" s="12" t="s">
         <v>480</v>
       </c>
@@ -9557,7 +9937,9 @@
         <v>481</v>
       </c>
       <c r="B430" s="11"/>
-      <c r="C430" s="11"/>
+      <c r="C430" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D430" s="12" t="s">
         <v>482</v>
       </c>
@@ -9569,6 +9951,9 @@
       <c r="B431" s="10" t="s">
         <v>656</v>
       </c>
+      <c r="C431" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D431" s="10" t="s">
         <v>665</v>
       </c>
@@ -9592,7 +9977,9 @@
         <v>483</v>
       </c>
       <c r="B433" s="11"/>
-      <c r="C433" s="11"/>
+      <c r="C433" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D433" s="12" t="s">
         <v>484</v>
       </c>
@@ -9604,7 +9991,9 @@
       <c r="B434" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C434" s="14"/>
+      <c r="C434" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D434" s="14" t="s">
         <v>570</v>
       </c>
@@ -9616,7 +10005,9 @@
       <c r="B435" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C435" s="14"/>
+      <c r="C435" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D435" s="14" t="s">
         <v>571</v>
       </c>
@@ -9628,7 +10019,9 @@
       <c r="B436" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="C436" s="14"/>
+      <c r="C436" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D436" s="14" t="s">
         <v>641</v>
       </c>
@@ -9638,7 +10031,9 @@
         <v>485</v>
       </c>
       <c r="B437" s="11"/>
-      <c r="C437" s="11"/>
+      <c r="C437" s="11" t="s">
+        <v>1188</v>
+      </c>
       <c r="D437" s="12" t="s">
         <v>486</v>
       </c>
@@ -9650,7 +10045,9 @@
       <c r="B438" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="C438" s="26"/>
+      <c r="C438" s="20" t="s">
+        <v>1161</v>
+      </c>
       <c r="D438" s="26" t="s">
         <v>60</v>
       </c>
@@ -9660,7 +10057,9 @@
         <v>487</v>
       </c>
       <c r="B439" s="11"/>
-      <c r="C439" s="11"/>
+      <c r="C439" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D439" s="12" t="s">
         <v>488</v>
       </c>
@@ -9670,7 +10069,9 @@
         <v>489</v>
       </c>
       <c r="B440" s="11"/>
-      <c r="C440" s="11"/>
+      <c r="C440" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D440" s="12" t="s">
         <v>490</v>
       </c>
@@ -9694,7 +10095,9 @@
         <v>491</v>
       </c>
       <c r="B442" s="11"/>
-      <c r="C442" s="11"/>
+      <c r="C442" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D442" s="12" t="s">
         <v>492</v>
       </c>
@@ -9720,7 +10123,9 @@
       <c r="B444" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="C444" s="26"/>
+      <c r="C444" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D444" s="26" t="s">
         <v>109</v>
       </c>
@@ -9732,7 +10137,9 @@
       <c r="B445" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="C445" s="14"/>
+      <c r="C445" s="21" t="s">
+        <v>1161</v>
+      </c>
       <c r="D445" s="14" t="s">
         <v>534</v>
       </c>
@@ -9742,7 +10149,9 @@
         <v>87</v>
       </c>
       <c r="B446" s="14"/>
-      <c r="C446" s="14"/>
+      <c r="C446" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D446" s="14" t="s">
         <v>88</v>
       </c>
@@ -9752,7 +10161,9 @@
         <v>495</v>
       </c>
       <c r="B447" s="11"/>
-      <c r="C447" s="11"/>
+      <c r="C447" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D447" s="12" t="s">
         <v>496</v>
       </c>
@@ -9764,7 +10175,9 @@
       <c r="B448" s="14" t="s">
         <v>960</v>
       </c>
-      <c r="C448" s="14"/>
+      <c r="C448" s="14" t="s">
+        <v>131</v>
+      </c>
       <c r="D448" s="25" t="s">
         <v>965</v>
       </c>
@@ -9776,7 +10189,9 @@
       <c r="B449" s="14" t="s">
         <v>960</v>
       </c>
-      <c r="C449" s="14"/>
+      <c r="C449" s="14" t="s">
+        <v>131</v>
+      </c>
       <c r="D449" s="25" t="s">
         <v>966</v>
       </c>
@@ -9788,7 +10203,9 @@
       <c r="B450" s="14" t="s">
         <v>960</v>
       </c>
-      <c r="C450" s="14"/>
+      <c r="C450" s="14" t="s">
+        <v>131</v>
+      </c>
       <c r="D450" s="14" t="s">
         <v>964</v>
       </c>
@@ -9800,7 +10217,9 @@
       <c r="B451" s="14" t="s">
         <v>960</v>
       </c>
-      <c r="C451" s="14"/>
+      <c r="C451" s="14" t="s">
+        <v>131</v>
+      </c>
       <c r="D451" s="25" t="s">
         <v>967</v>
       </c>
@@ -9812,7 +10231,9 @@
       <c r="B452" s="14" t="s">
         <v>960</v>
       </c>
-      <c r="C452" s="14"/>
+      <c r="C452" s="14" t="s">
+        <v>131</v>
+      </c>
       <c r="D452" s="14" t="s">
         <v>969</v>
       </c>
@@ -9824,7 +10245,9 @@
       <c r="B453" s="14" t="s">
         <v>960</v>
       </c>
-      <c r="C453" s="14"/>
+      <c r="C453" s="14" t="s">
+        <v>131</v>
+      </c>
       <c r="D453" s="14" t="s">
         <v>971</v>
       </c>
@@ -9836,7 +10259,9 @@
       <c r="B454" s="14" t="s">
         <v>960</v>
       </c>
-      <c r="C454" s="14"/>
+      <c r="C454" s="14" t="s">
+        <v>131</v>
+      </c>
       <c r="D454" s="14" t="s">
         <v>973</v>
       </c>
@@ -9848,7 +10273,9 @@
       <c r="B455" s="14" t="s">
         <v>993</v>
       </c>
-      <c r="C455" s="14"/>
+      <c r="C455" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D455" s="14" t="s">
         <v>974</v>
       </c>
@@ -9860,7 +10287,9 @@
       <c r="B456" s="14" t="s">
         <v>993</v>
       </c>
-      <c r="C456" s="14"/>
+      <c r="C456" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D456" s="14" t="s">
         <v>976</v>
       </c>
@@ -9956,7 +10385,9 @@
       <c r="B464" s="14" t="s">
         <v>993</v>
       </c>
-      <c r="C464" s="14"/>
+      <c r="C464" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D464" s="14" t="s">
         <v>995</v>
       </c>
@@ -9968,7 +10399,9 @@
       <c r="B465" s="14" t="s">
         <v>993</v>
       </c>
-      <c r="C465" s="14"/>
+      <c r="C465" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D465" s="14" t="s">
         <v>997</v>
       </c>
@@ -9980,7 +10413,9 @@
       <c r="B466" s="14" t="s">
         <v>993</v>
       </c>
-      <c r="C466" s="14"/>
+      <c r="C466" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D466" s="14" t="s">
         <v>999</v>
       </c>
@@ -9992,7 +10427,9 @@
       <c r="B467" s="14" t="s">
         <v>993</v>
       </c>
-      <c r="C467" s="14"/>
+      <c r="C467" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D467" s="14" t="s">
         <v>1000</v>
       </c>
@@ -10004,7 +10441,9 @@
       <c r="B468" s="14" t="s">
         <v>993</v>
       </c>
-      <c r="C468" s="14"/>
+      <c r="C468" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D468" s="14" t="s">
         <v>1002</v>
       </c>
@@ -10016,7 +10455,9 @@
       <c r="B469" s="14" t="s">
         <v>993</v>
       </c>
-      <c r="C469" s="14"/>
+      <c r="C469" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D469" s="14" t="s">
         <v>1004</v>
       </c>
@@ -10028,7 +10469,9 @@
       <c r="B470" s="14" t="s">
         <v>993</v>
       </c>
-      <c r="C470" s="14"/>
+      <c r="C470" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D470" s="14" t="s">
         <v>1006</v>
       </c>
@@ -10040,7 +10483,9 @@
       <c r="B471" s="14" t="s">
         <v>993</v>
       </c>
-      <c r="C471" s="14"/>
+      <c r="C471" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D471" s="14" t="s">
         <v>1008</v>
       </c>
@@ -10052,7 +10497,9 @@
       <c r="B472" s="14" t="s">
         <v>993</v>
       </c>
-      <c r="C472" s="14"/>
+      <c r="C472" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D472" s="14" t="s">
         <v>1010</v>
       </c>
@@ -10064,7 +10511,9 @@
       <c r="B473" s="14" t="s">
         <v>993</v>
       </c>
-      <c r="C473" s="14"/>
+      <c r="C473" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D473" s="14" t="s">
         <v>1012</v>
       </c>
@@ -10076,7 +10525,9 @@
       <c r="B474" s="14" t="s">
         <v>993</v>
       </c>
-      <c r="C474" s="14"/>
+      <c r="C474" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D474" s="14" t="s">
         <v>1014</v>
       </c>
@@ -10088,7 +10539,9 @@
       <c r="B475" s="14" t="s">
         <v>993</v>
       </c>
-      <c r="C475" s="14"/>
+      <c r="C475" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D475" s="14" t="s">
         <v>1016</v>
       </c>
@@ -10100,7 +10553,9 @@
       <c r="B476" s="14" t="s">
         <v>993</v>
       </c>
-      <c r="C476" s="14"/>
+      <c r="C476" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D476" s="14" t="s">
         <v>1021</v>
       </c>
@@ -10112,7 +10567,9 @@
       <c r="B477" s="14" t="s">
         <v>993</v>
       </c>
-      <c r="C477" s="14"/>
+      <c r="C477" s="14" t="s">
+        <v>1162</v>
+      </c>
       <c r="D477" s="14" t="s">
         <v>1022</v>
       </c>
@@ -10124,7 +10581,9 @@
       <c r="B478" s="14" t="s">
         <v>993</v>
       </c>
-      <c r="C478" s="14"/>
+      <c r="C478" s="14" t="s">
+        <v>1162</v>
+      </c>
       <c r="D478" s="14" t="s">
         <v>1023</v>
       </c>
@@ -10136,7 +10595,9 @@
       <c r="B479" s="14" t="s">
         <v>993</v>
       </c>
-      <c r="C479" s="14"/>
+      <c r="C479" s="21" t="s">
+        <v>1188</v>
+      </c>
       <c r="D479" s="25" t="s">
         <v>1025</v>
       </c>
@@ -10148,7 +10609,9 @@
       <c r="B480" s="14" t="s">
         <v>993</v>
       </c>
-      <c r="C480" s="14"/>
+      <c r="C480" s="21" t="s">
+        <v>1188</v>
+      </c>
       <c r="D480" s="13" t="s">
         <v>1027</v>
       </c>
@@ -10160,7 +10623,9 @@
       <c r="B481" s="14" t="s">
         <v>993</v>
       </c>
-      <c r="C481" s="14"/>
+      <c r="C481" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D481" s="13" t="s">
         <v>1029</v>
       </c>
@@ -10172,7 +10637,9 @@
       <c r="B482" s="11" t="s">
         <v>993</v>
       </c>
-      <c r="C482" s="11"/>
+      <c r="C482" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="D482" s="12" t="s">
         <v>76</v>
       </c>
@@ -10184,7 +10651,9 @@
       <c r="B483" s="14" t="s">
         <v>993</v>
       </c>
-      <c r="C483" s="14"/>
+      <c r="C483" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D483" s="14" t="s">
         <v>1032</v>
       </c>
@@ -10196,6 +10665,9 @@
       <c r="B484" s="10" t="s">
         <v>993</v>
       </c>
+      <c r="C484" s="10" t="s">
+        <v>1161</v>
+      </c>
       <c r="D484" s="10" t="s">
         <v>1034</v>
       </c>
@@ -10207,6 +10679,9 @@
       <c r="B485" s="10" t="s">
         <v>993</v>
       </c>
+      <c r="C485" s="10" t="s">
+        <v>1161</v>
+      </c>
       <c r="D485" s="10" t="s">
         <v>1036</v>
       </c>
@@ -10218,6 +10693,9 @@
       <c r="B486" s="10" t="s">
         <v>993</v>
       </c>
+      <c r="C486" s="10" t="s">
+        <v>1161</v>
+      </c>
       <c r="D486" s="10" t="s">
         <v>1141</v>
       </c>
@@ -10229,6 +10707,9 @@
       <c r="B487" s="10" t="s">
         <v>993</v>
       </c>
+      <c r="C487" s="10" t="s">
+        <v>1162</v>
+      </c>
       <c r="D487" s="10" t="s">
         <v>1143</v>
       </c>
@@ -10240,6 +10721,9 @@
       <c r="B488" s="10" t="s">
         <v>993</v>
       </c>
+      <c r="C488" s="10" t="s">
+        <v>1161</v>
+      </c>
       <c r="D488" s="10" t="s">
         <v>1145</v>
       </c>
@@ -10251,6 +10735,9 @@
       <c r="B489" s="10" t="s">
         <v>993</v>
       </c>
+      <c r="C489" s="10" t="s">
+        <v>1161</v>
+      </c>
       <c r="D489" s="10" t="s">
         <v>1147</v>
       </c>
@@ -10262,6 +10749,9 @@
       <c r="B490" s="10" t="s">
         <v>993</v>
       </c>
+      <c r="C490" s="10" t="s">
+        <v>1161</v>
+      </c>
       <c r="D490" s="10" t="s">
         <v>1149</v>
       </c>
@@ -10273,6 +10763,9 @@
       <c r="B491" s="10" t="s">
         <v>993</v>
       </c>
+      <c r="C491" s="21" t="s">
+        <v>1188</v>
+      </c>
       <c r="D491" s="10" t="s">
         <v>1151</v>
       </c>
@@ -10284,6 +10777,9 @@
       <c r="B492" s="10" t="s">
         <v>993</v>
       </c>
+      <c r="C492" s="10" t="s">
+        <v>1161</v>
+      </c>
       <c r="D492" s="13" t="s">
         <v>1153</v>
       </c>
@@ -10295,6 +10791,9 @@
       <c r="B493" s="10" t="s">
         <v>993</v>
       </c>
+      <c r="C493" s="10" t="s">
+        <v>1161</v>
+      </c>
       <c r="D493" s="10" t="s">
         <v>1155</v>
       </c>
@@ -10306,7 +10805,9 @@
       <c r="B494" s="13" t="s">
         <v>993</v>
       </c>
-      <c r="C494" s="13"/>
+      <c r="C494" s="13" t="s">
+        <v>1161</v>
+      </c>
       <c r="D494" s="10" t="s">
         <v>1157</v>
       </c>
@@ -10317,6 +10818,9 @@
       </c>
       <c r="B495" s="10" t="s">
         <v>993</v>
+      </c>
+      <c r="C495" s="10" t="s">
+        <v>1161</v>
       </c>
       <c r="D495" s="13" t="s">
         <v>1159</v>
@@ -10407,13 +10911,13 @@
   </sortState>
   <dataConsolidate/>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A376:A1048576 A373:A374 A259:A371 A192:A257 A1:A190">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10421,6 +10925,107 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B86E83E-55B3-40BB-BA96-58035B5D13E3}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>978</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>979</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>985</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
+        <v>980</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>981</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
+        <v>982</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>983</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>989</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A3:A8">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:A8">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B8">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202BFE38-5763-453D-9FF5-A2457E37E84D}">
   <dimension ref="A1:B186"/>
   <sheetViews>
@@ -11928,7 +12533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB61E12-6C74-4701-A254-825366490294}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -12124,7 +12729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9877E8E-BB57-4FF2-A3FB-8FEBE988B88E}">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -12390,7 +12995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85CA9072-8D62-4A02-9166-5FE417EB9B7F}">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -12547,7 +13152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A37324B-2868-4E4C-8751-CECEDA1C21E7}">
   <dimension ref="A1:I229"/>
   <sheetViews>

--- a/Zhodani Words List.xlsx
+++ b/Zhodani Words List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342333FE-D944-41C4-B668-A41A5C7F15C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB3DDF0-C88D-4961-9A70-36D3AE4AF5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="891" activeTab="6" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
   <sheets>
     <sheet name="Current vocabulary list" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Current vocabulary list'!$A$1:$D$495</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Lessons!$A$1:$C$223</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Lessons!$A$1:$C$229</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Zhdetl (from Alien Book 4)'!$A$1:$B$186</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3017" uniqueCount="1189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3017" uniqueCount="1200">
   <si>
     <t>Zhdetl word</t>
   </si>
@@ -3644,6 +3644,39 @@
   </si>
   <si>
     <t>adj</t>
+  </si>
+  <si>
+    <t>akopatlicha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chtofrechez </t>
+  </si>
+  <si>
+    <t>fenjrivchiavr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaplamzejiap </t>
+  </si>
+  <si>
+    <t>jivrdre</t>
+  </si>
+  <si>
+    <t>minzchibo</t>
+  </si>
+  <si>
+    <t>minzzhde</t>
+  </si>
+  <si>
+    <t>tlanshia</t>
+  </si>
+  <si>
+    <t>tsadlochib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vavielachte </t>
+  </si>
+  <si>
+    <t>Zdadziare</t>
   </si>
 </sst>
 </file>
@@ -3831,11 +3864,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3843,6 +3876,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3903,16 +3946,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3944,8 +3977,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4039E8B-8AC1-44D4-939F-61521D537543}" name="Zhdetl" displayName="Zhdetl" ref="A1:B186" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B186" xr:uid="{B2E9EE69-E126-4FC1-ACEF-C598B63AECDE}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4250,9 +4283,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}">
   <dimension ref="A1:D542"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A258" sqref="A258"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A417" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A446" sqref="A446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10911,13 +10944,13 @@
   </sortState>
   <dataConsolidate/>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A376:A1048576 A373:A374 A259:A371 A192:A257 A1:A190">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10956,7 +10989,7 @@
       <c r="B2" t="s">
         <v>1185</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>1186</v>
       </c>
     </row>
@@ -11013,13 +11046,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A8">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A8">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B8">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12610,12 +12643,12 @@
       </c>
       <c r="D5" s="5" t="str" cm="1">
         <f t="array" ref="D5:D6">Lessons!A24:A25</f>
-        <v>minz.chibo</v>
+        <v>minzchibo</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D6" s="5" t="str">
-        <v>minz.zhde</v>
+        <v>minzzhde</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -12749,15 +12782,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>1037</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="27"/>
@@ -13154,11 +13187,12 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A37324B-2868-4E4C-8751-CECEDA1C21E7}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I229"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A234" sqref="A234"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13187,7 +13221,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -13198,7 +13232,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -13209,7 +13243,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -13220,7 +13254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -13231,7 +13265,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13242,7 +13276,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -13253,7 +13287,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -13264,7 +13298,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -13275,7 +13309,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -13286,7 +13320,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -13297,7 +13331,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -13308,7 +13342,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -13319,7 +13353,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -13330,7 +13364,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -13341,7 +13375,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -13352,7 +13386,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -13363,7 +13397,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -13387,7 +13421,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>1190</v>
       </c>
       <c r="B20" t="s">
         <v>501</v>
@@ -13398,7 +13432,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>1191</v>
       </c>
       <c r="B21" t="s">
         <v>501</v>
@@ -13409,7 +13443,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>1192</v>
       </c>
       <c r="B22" t="s">
         <v>501</v>
@@ -13420,7 +13454,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>1193</v>
       </c>
       <c r="B23" t="s">
         <v>501</v>
@@ -13431,7 +13465,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>1194</v>
       </c>
       <c r="B24" t="s">
         <v>501</v>
@@ -13442,7 +13476,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>1195</v>
       </c>
       <c r="B25" t="s">
         <v>501</v>
@@ -13464,7 +13498,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>1030</v>
       </c>
       <c r="B27" t="s">
         <v>501</v>
@@ -13475,7 +13509,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>1196</v>
       </c>
       <c r="B28" t="s">
         <v>501</v>
@@ -13486,7 +13520,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>1197</v>
       </c>
       <c r="B29" t="s">
         <v>501</v>
@@ -13497,7 +13531,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>1198</v>
       </c>
       <c r="B30" t="s">
         <v>501</v>
@@ -13508,7 +13542,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>1199</v>
       </c>
       <c r="B31" t="s">
         <v>501</v>
@@ -13528,7 +13562,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>113</v>
       </c>
@@ -13547,7 +13581,7 @@
         <v xml:space="preserve">  Literally 'chill' the freezing winter season on Zhdant.</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>115</v>
       </c>
@@ -13566,7 +13600,7 @@
         <v xml:space="preserve">  Literally 'chill' the freezing winter season on Zhdant.</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>110</v>
       </c>
@@ -13577,7 +13611,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>129</v>
       </c>
@@ -13588,7 +13622,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>125</v>
       </c>
@@ -13599,7 +13633,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>127</v>
       </c>
@@ -13610,7 +13644,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>123</v>
       </c>
@@ -13621,7 +13655,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>111</v>
       </c>
@@ -13632,7 +13666,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>119</v>
       </c>
@@ -13643,7 +13677,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>117</v>
       </c>
@@ -13662,7 +13696,7 @@
         <v xml:space="preserve">   'hot'.</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>121</v>
       </c>
@@ -13673,7 +13707,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>105</v>
       </c>
@@ -13684,7 +13718,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>510</v>
       </c>
@@ -13703,7 +13737,7 @@
         <v xml:space="preserve">   'rain'.</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>107</v>
       </c>
@@ -13714,7 +13748,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>515</v>
       </c>
@@ -13733,7 +13767,7 @@
         <v>plates</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>451</v>
       </c>
@@ -13744,7 +13778,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="str">
         <f>A37</f>
         <v>kafi</v>
@@ -13757,7 +13791,7 @@
       </c>
       <c r="D49"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>521</v>
       </c>
@@ -13776,7 +13810,7 @@
         <v>Herb Garden (hydroponic herb garden)</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>882</v>
       </c>
@@ -13788,7 +13822,7 @@
       </c>
       <c r="D51"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>525</v>
       </c>
@@ -13800,7 +13834,7 @@
       </c>
       <c r="D52"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>527</v>
       </c>
@@ -13811,7 +13845,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>532</v>
       </c>
@@ -13823,7 +13857,7 @@
       </c>
       <c r="D54"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -13837,7 +13871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="str">
         <f>A46</f>
         <v>Ziatl</v>
@@ -13849,7 +13883,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>556</v>
       </c>
@@ -13860,7 +13894,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>623</v>
       </c>
@@ -13871,7 +13905,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>546</v>
       </c>
@@ -13882,7 +13916,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>545</v>
       </c>
@@ -13893,7 +13927,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>547</v>
       </c>
@@ -13904,7 +13938,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>548</v>
       </c>
@@ -13915,7 +13949,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>551</v>
       </c>
@@ -13926,7 +13960,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>549</v>
       </c>
@@ -13937,7 +13971,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>550</v>
       </c>
@@ -13948,7 +13982,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>544</v>
       </c>
@@ -13959,7 +13993,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>560</v>
       </c>
@@ -13971,7 +14005,7 @@
       </c>
       <c r="D67"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>561</v>
       </c>
@@ -13983,7 +14017,7 @@
       </c>
       <c r="D68"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>565</v>
       </c>
@@ -13995,7 +14029,7 @@
       </c>
       <c r="D69"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>572</v>
       </c>
@@ -14007,7 +14041,7 @@
       </c>
       <c r="D70"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>573</v>
       </c>
@@ -14019,7 +14053,7 @@
       </c>
       <c r="D71"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>578</v>
       </c>
@@ -14031,7 +14065,7 @@
       </c>
       <c r="D72"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>587</v>
       </c>
@@ -14043,7 +14077,7 @@
       </c>
       <c r="D73"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>588</v>
       </c>
@@ -14055,7 +14089,7 @@
       </c>
       <c r="D74"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>584</v>
       </c>
@@ -14067,7 +14101,7 @@
       </c>
       <c r="D75"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>583</v>
       </c>
@@ -14079,7 +14113,7 @@
       </c>
       <c r="D76"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>586</v>
       </c>
@@ -14091,7 +14125,7 @@
       </c>
       <c r="D77"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>582</v>
       </c>
@@ -14103,7 +14137,7 @@
       </c>
       <c r="D78"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>600</v>
       </c>
@@ -14115,7 +14149,7 @@
       </c>
       <c r="D79"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>601</v>
       </c>
@@ -14127,7 +14161,7 @@
       </c>
       <c r="D80"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>602</v>
       </c>
@@ -14139,7 +14173,7 @@
       </c>
       <c r="D81"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>603</v>
       </c>
@@ -14154,7 +14188,7 @@
         <v>Ziatl</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>604</v>
       </c>
@@ -14166,7 +14200,7 @@
       </c>
       <c r="D83"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>607</v>
       </c>
@@ -14178,7 +14212,7 @@
       </c>
       <c r="D84"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>608</v>
       </c>
@@ -14190,7 +14224,7 @@
       </c>
       <c r="D85"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>609</v>
       </c>
@@ -14202,7 +14236,7 @@
       </c>
       <c r="D86"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>606</v>
       </c>
@@ -14217,7 +14251,7 @@
         <v>Abradlnad</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>605</v>
       </c>
@@ -14229,7 +14263,7 @@
       </c>
       <c r="D88"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>611</v>
       </c>
@@ -14241,7 +14275,7 @@
       </c>
       <c r="D89"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>631</v>
       </c>
@@ -14253,7 +14287,7 @@
       </c>
       <c r="D90"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>632</v>
       </c>
@@ -14265,7 +14299,7 @@
       </c>
       <c r="D91"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>630</v>
       </c>
@@ -14277,7 +14311,7 @@
       </c>
       <c r="D92"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>624</v>
       </c>
@@ -14289,7 +14323,7 @@
       </c>
       <c r="D93"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>625</v>
       </c>
@@ -14301,7 +14335,7 @@
       </c>
       <c r="D94"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>626</v>
       </c>
@@ -14315,7 +14349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>633</v>
       </c>
@@ -14326,7 +14360,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>629</v>
       </c>
@@ -14340,7 +14374,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>627</v>
       </c>
@@ -14352,7 +14386,7 @@
       </c>
       <c r="D98"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>628</v>
       </c>
@@ -14366,7 +14400,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>646</v>
       </c>
@@ -14378,7 +14412,7 @@
       </c>
       <c r="D100"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>633</v>
       </c>
@@ -14390,7 +14424,7 @@
       </c>
       <c r="D101"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>648</v>
       </c>
@@ -14401,7 +14435,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>647</v>
       </c>
@@ -14413,7 +14447,7 @@
       </c>
       <c r="D103"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>649</v>
       </c>
@@ -14424,7 +14458,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>650</v>
       </c>
@@ -14436,7 +14470,7 @@
       </c>
       <c r="D105"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>651</v>
       </c>
@@ -14447,7 +14481,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>652</v>
       </c>
@@ -14459,7 +14493,7 @@
       </c>
       <c r="D107"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>653</v>
       </c>
@@ -14470,7 +14504,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>654</v>
       </c>
@@ -14482,7 +14516,7 @@
       </c>
       <c r="D109"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>655</v>
       </c>
@@ -14493,7 +14527,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>671</v>
       </c>
@@ -14505,7 +14539,7 @@
       </c>
       <c r="D111"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>672</v>
       </c>
@@ -14517,7 +14551,7 @@
       </c>
       <c r="D112"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>670</v>
       </c>
@@ -14529,7 +14563,7 @@
       </c>
       <c r="D113"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>278</v>
       </c>
@@ -14540,9 +14574,9 @@
         <v>660</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
-        <v>676</v>
+        <v>1189</v>
       </c>
       <c r="B115" t="s">
         <v>656</v>
@@ -14552,7 +14586,7 @@
       </c>
       <c r="D115"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>677</v>
       </c>
@@ -14564,7 +14598,7 @@
       </c>
       <c r="D116"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>678</v>
       </c>
@@ -14576,7 +14610,7 @@
       </c>
       <c r="D117"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>668</v>
       </c>
@@ -14588,7 +14622,7 @@
       </c>
       <c r="D118"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>330</v>
       </c>
@@ -14600,7 +14634,7 @@
       </c>
       <c r="D119"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>673</v>
       </c>
@@ -14611,7 +14645,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>674</v>
       </c>
@@ -14622,7 +14656,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>655</v>
       </c>
@@ -14633,7 +14667,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
         <v>675</v>
       </c>
@@ -14644,7 +14678,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
         <v>692</v>
       </c>
@@ -14655,7 +14689,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>696</v>
       </c>
@@ -14666,7 +14700,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>606</v>
       </c>
@@ -14677,7 +14711,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>695</v>
       </c>
@@ -14688,7 +14722,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>697</v>
       </c>
@@ -14699,7 +14733,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>698</v>
       </c>
@@ -14710,7 +14744,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>706</v>
       </c>
@@ -14721,7 +14755,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>708</v>
       </c>
@@ -14732,7 +14766,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>705</v>
       </c>
@@ -14743,7 +14777,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>699</v>
       </c>
@@ -14754,7 +14788,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>700</v>
       </c>
@@ -14765,7 +14799,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>702</v>
       </c>
@@ -14776,7 +14810,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>703</v>
       </c>
@@ -14787,7 +14821,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>704</v>
       </c>
@@ -14798,7 +14832,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>693</v>
       </c>
@@ -14809,7 +14843,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>711</v>
       </c>
@@ -14820,7 +14854,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>721</v>
       </c>
@@ -14831,7 +14865,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>723</v>
       </c>
@@ -14842,7 +14876,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>725</v>
       </c>
@@ -14853,7 +14887,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>727</v>
       </c>
@@ -14864,7 +14898,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>41</v>
       </c>
@@ -14875,7 +14909,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>720</v>
       </c>
@@ -14886,7 +14920,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>717</v>
       </c>
@@ -14897,7 +14931,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="str">
         <f>A19</f>
         <v>Chibo</v>
@@ -14909,7 +14943,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>712</v>
       </c>
@@ -14920,7 +14954,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>715</v>
       </c>
@@ -14931,7 +14965,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>741</v>
       </c>
@@ -14942,7 +14976,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>730</v>
       </c>
@@ -14953,7 +14987,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>732</v>
       </c>
@@ -14964,7 +14998,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>735</v>
       </c>
@@ -14975,7 +15009,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>736</v>
       </c>
@@ -14986,7 +15020,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>738</v>
       </c>
@@ -14997,7 +15031,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="str">
         <f>A131</f>
         <v>tepozhachtio</v>
@@ -15009,7 +15043,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>748</v>
       </c>
@@ -15020,7 +15054,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>749</v>
       </c>
@@ -15031,7 +15065,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>750</v>
       </c>
@@ -15042,7 +15076,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>751</v>
       </c>
@@ -15053,7 +15087,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>752</v>
       </c>
@@ -15064,7 +15098,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>755</v>
       </c>
@@ -15075,7 +15109,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>757</v>
       </c>
@@ -15086,7 +15120,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>758</v>
       </c>
@@ -15097,7 +15131,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>761</v>
       </c>
@@ -15108,7 +15142,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>763</v>
       </c>
@@ -15119,7 +15153,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>765</v>
       </c>
@@ -15130,7 +15164,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>771</v>
       </c>
@@ -15141,7 +15175,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>772</v>
       </c>
@@ -15152,7 +15186,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>773</v>
       </c>
@@ -15163,7 +15197,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>774</v>
       </c>
@@ -15174,7 +15208,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>775</v>
       </c>
@@ -15185,7 +15219,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>806</v>
       </c>
@@ -15196,7 +15230,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>792</v>
       </c>
@@ -15207,7 +15241,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>793</v>
       </c>
@@ -15218,7 +15252,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>796</v>
       </c>
@@ -15229,7 +15263,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>794</v>
       </c>
@@ -15240,7 +15274,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>795</v>
       </c>
@@ -15251,7 +15285,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>797</v>
       </c>
@@ -15262,7 +15296,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>798</v>
       </c>
@@ -15273,7 +15307,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>799</v>
       </c>
@@ -15284,7 +15318,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>800</v>
       </c>
@@ -15295,7 +15329,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>778</v>
       </c>
@@ -15306,7 +15340,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>801</v>
       </c>
@@ -15317,7 +15351,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>802</v>
       </c>
@@ -15328,7 +15362,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>804</v>
       </c>
@@ -15339,7 +15373,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>805</v>
       </c>
@@ -15350,7 +15384,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>808</v>
       </c>
@@ -15361,7 +15395,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>810</v>
       </c>
@@ -15372,7 +15406,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>812</v>
       </c>
@@ -15383,7 +15417,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>814</v>
       </c>
@@ -15394,7 +15428,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>816</v>
       </c>
@@ -15405,7 +15439,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>818</v>
       </c>
@@ -15416,7 +15450,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>820</v>
       </c>
@@ -15427,7 +15461,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>822</v>
       </c>
@@ -15438,7 +15472,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>824</v>
       </c>
@@ -15449,7 +15483,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>826</v>
       </c>
@@ -15460,7 +15494,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>828</v>
       </c>
@@ -15471,7 +15505,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>829</v>
       </c>
@@ -15482,7 +15516,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>831</v>
       </c>
@@ -15493,7 +15527,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>833</v>
       </c>
@@ -15504,7 +15538,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>835</v>
       </c>
@@ -15515,7 +15549,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>837</v>
       </c>
@@ -15526,7 +15560,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>860</v>
       </c>
@@ -15537,7 +15571,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>861</v>
       </c>
@@ -15548,7 +15582,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>862</v>
       </c>
@@ -15559,7 +15593,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>863</v>
       </c>
@@ -15570,7 +15604,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>864</v>
       </c>
@@ -15581,7 +15615,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>865</v>
       </c>
@@ -15592,7 +15626,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>866</v>
       </c>
@@ -15603,7 +15637,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>867</v>
       </c>
@@ -15614,7 +15648,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>868</v>
       </c>
@@ -15625,7 +15659,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>869</v>
       </c>
@@ -15636,7 +15670,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>870</v>
       </c>
@@ -15647,7 +15681,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>871</v>
       </c>
@@ -15658,7 +15692,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>872</v>
       </c>
@@ -15669,7 +15703,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>873</v>
       </c>
@@ -15680,7 +15714,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>874</v>
       </c>
@@ -15691,7 +15725,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>875</v>
       </c>
@@ -15702,7 +15736,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>876</v>
       </c>
@@ -15713,7 +15747,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>877</v>
       </c>
@@ -15724,7 +15758,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>878</v>
       </c>
@@ -15735,7 +15769,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>879</v>
       </c>
@@ -15746,7 +15780,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>165</v>
       </c>
@@ -15757,7 +15791,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>455</v>
       </c>
@@ -15768,7 +15802,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>138</v>
       </c>
@@ -15779,7 +15813,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>137</v>
       </c>
@@ -15790,7 +15824,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>891</v>
       </c>
@@ -15801,7 +15835,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>893</v>
       </c>
@@ -15813,7 +15847,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C223" xr:uid="{7BCF5D94-DDBB-4BD3-A067-86CB95055B41}"/>
+  <autoFilter ref="A1:C229" xr:uid="{7BCF5D94-DDBB-4BD3-A067-86CB95055B41}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="2. Stateroom &amp; Wardrobe"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I119">
     <sortCondition ref="B2:B119"/>
     <sortCondition ref="A2:A119"/>

--- a/Zhodani Words List.xlsx
+++ b/Zhodani Words List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3E0BF6-ECEA-44AE-A2C3-68DC07513CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5523F6BD-1561-4E58-B5C4-7E4D54BE73D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="891" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3073" uniqueCount="1244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3121" uniqueCount="1269">
   <si>
     <t>Zhdetl word</t>
   </si>
@@ -3809,6 +3809,81 @@
   </si>
   <si>
     <t>"kaiju" - from ancient Terran videos of giant monsters</t>
+  </si>
+  <si>
+    <t>25. Actions</t>
+  </si>
+  <si>
+    <t>to eat</t>
+  </si>
+  <si>
+    <t>to drink</t>
+  </si>
+  <si>
+    <t>to paint</t>
+  </si>
+  <si>
+    <t>to think</t>
+  </si>
+  <si>
+    <t>to laugh</t>
+  </si>
+  <si>
+    <t>to cry</t>
+  </si>
+  <si>
+    <t>to throw</t>
+  </si>
+  <si>
+    <t>to catch</t>
+  </si>
+  <si>
+    <t>to talk</t>
+  </si>
+  <si>
+    <t>to listen</t>
+  </si>
+  <si>
+    <t>tlakole'</t>
+  </si>
+  <si>
+    <t>tlapae'</t>
+  </si>
+  <si>
+    <t>qiloe'</t>
+  </si>
+  <si>
+    <t>shtiave'</t>
+  </si>
+  <si>
+    <t>choetzhe'</t>
+  </si>
+  <si>
+    <t>krile'</t>
+  </si>
+  <si>
+    <t>tie'</t>
+  </si>
+  <si>
+    <t>zhdazhe'</t>
+  </si>
+  <si>
+    <t>niloze'</t>
+  </si>
+  <si>
+    <t>kaqie'</t>
+  </si>
+  <si>
+    <t>to sit</t>
+  </si>
+  <si>
+    <t>to stand</t>
+  </si>
+  <si>
+    <t>kototzhe'</t>
+  </si>
+  <si>
+    <t>ikatike'</t>
   </si>
 </sst>
 </file>
@@ -4019,6 +4094,16 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4078,16 +4163,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4119,8 +4194,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4039E8B-8AC1-44D4-939F-61521D537543}" name="Zhdetl" displayName="Zhdetl" ref="A1:B186" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B186" xr:uid="{B2E9EE69-E126-4FC1-ACEF-C598B63AECDE}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{5FF4A609-EB29-4591-80AA-89AF1E219E8F}" uniqueName="1" name="Word" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{7D4C4436-96EC-4C21-A85D-7C6AE2F8E895}" uniqueName="2" name="Meaning" queryTableFieldId="2" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4423,11 +4498,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}">
-  <dimension ref="A1:D535"/>
+  <dimension ref="A1:D540"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A489" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D506" sqref="D506"/>
+      <pane ySplit="1" topLeftCell="A501" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D511" sqref="D511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11142,38 +11217,198 @@
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D505" s="13"/>
+      <c r="A505" s="10" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B505" s="10" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C505" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D505" s="13" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A506" s="10" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B506" s="10" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C506" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D506" s="10" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A507" s="10" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B507" s="10" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C507" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D507" s="10" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A508" s="10" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B508" s="10" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C508" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D508" s="10" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A509" s="10" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B509" s="10" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C509" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D509" s="10" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A510" s="10" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B510" s="10" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C510" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D510" s="10" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A511" s="10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B511" s="10" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C511" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D511" s="10" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A512" s="10" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B512" s="10" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C512" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D512" s="10" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A513" s="10" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B513" s="10" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C513" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D513" s="10" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A514" s="10" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B514" s="10" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C514" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D514" s="10" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A515" s="10" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B515" s="10" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C515" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D515" s="10" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A516" s="10" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B516" s="10" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C516" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D516" s="10" t="s">
+        <v>1266</v>
+      </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D521" s="13"/>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" s="14"/>
-      <c r="B522" s="14"/>
       <c r="C522" s="14"/>
       <c r="D522" s="14"/>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" s="11"/>
-      <c r="B523" s="11"/>
       <c r="C523" s="11"/>
       <c r="D523" s="12"/>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" s="14"/>
-      <c r="B524" s="14"/>
       <c r="C524" s="14"/>
       <c r="D524" s="14"/>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" s="14"/>
-      <c r="B525" s="14"/>
       <c r="C525" s="14"/>
       <c r="D525" s="14"/>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" s="14"/>
-      <c r="B526" s="14"/>
       <c r="C526" s="14"/>
       <c r="D526" s="14"/>
     </row>
@@ -11185,7 +11420,7 @@
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" s="14"/>
-      <c r="B528" s="14"/>
+      <c r="B528" s="11"/>
       <c r="C528" s="14"/>
       <c r="D528" s="14"/>
     </row>
@@ -11213,11 +11448,26 @@
       <c r="C532" s="14"/>
       <c r="D532" s="14"/>
     </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B533" s="14"/>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B534" s="14"/>
+    </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" s="14"/>
       <c r="B535" s="14"/>
       <c r="C535" s="14"/>
       <c r="D535" s="14"/>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B536" s="14"/>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B537" s="14"/>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B540" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D504" xr:uid="{88C2C8BF-DF2D-49AF-9216-32C7AE890ACB}"/>
@@ -11226,13 +11476,13 @@
   </sortState>
   <dataConsolidate/>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A376:A1048576 A373:A374 A259:A371 A192:A257 A1:A190">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11244,7 +11494,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11328,13 +11578,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A8">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A8">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B8">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Zhodani Words List.xlsx
+++ b/Zhodani Words List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5523F6BD-1561-4E58-B5C4-7E4D54BE73D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688878CE-83B8-41C1-85B2-2C8122A68785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="891" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3121" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="1277">
   <si>
     <t>Zhdetl word</t>
   </si>
@@ -3884,6 +3884,30 @@
   </si>
   <si>
     <t>ikatike'</t>
+  </si>
+  <si>
+    <t>Kotlo</t>
+  </si>
+  <si>
+    <t>alive</t>
+  </si>
+  <si>
+    <t>michtio</t>
+  </si>
+  <si>
+    <t>dead; a corpse</t>
+  </si>
+  <si>
+    <t>nenqie'</t>
+  </si>
+  <si>
+    <t>to have sex</t>
+  </si>
+  <si>
+    <t>ziefrabnenqinad</t>
+  </si>
+  <si>
+    <t>an archaic term used to describe one who has incestuous sexual relations; literally "motherfucker".</t>
   </si>
 </sst>
 </file>
@@ -4501,15 +4525,15 @@
   <dimension ref="A1:D540"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A501" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D511" sqref="D511"/>
+      <pane ySplit="1" topLeftCell="A511" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D520" sqref="D520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="10" customWidth="1"/>
     <col min="4" max="4" width="108.5546875" style="10" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="10"/>
   </cols>
@@ -11382,6 +11406,53 @@
       </c>
       <c r="D516" s="10" t="s">
         <v>1266</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A517" s="10" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C517" s="10" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D517" s="10" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A518" s="10" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C518" s="10" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D518" s="10" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A519" s="10" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B519" s="10" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C519" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D519" s="10" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A520" s="10" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C520" s="10" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D520" s="10" t="s">
+        <v>1276</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.3">
@@ -11494,7 +11565,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Zhodani Words List.xlsx
+++ b/Zhodani Words List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688878CE-83B8-41C1-85B2-2C8122A68785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F116659A-6FED-483E-9570-E0A5EB8DDE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="891" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
+    <workbookView xWindow="-22860" yWindow="1665" windowWidth="21600" windowHeight="8250" tabRatio="891" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
   <sheets>
     <sheet name="Current vocabulary list" sheetId="2" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="1277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3146" uniqueCount="1285">
   <si>
     <t>Zhdetl word</t>
   </si>
@@ -3908,6 +3908,30 @@
   </si>
   <si>
     <t>an archaic term used to describe one who has incestuous sexual relations; literally "motherfucker".</t>
+  </si>
+  <si>
+    <t>shtiavkatlatl</t>
+  </si>
+  <si>
+    <t>psychic residue; literally, "thought excrement"</t>
+  </si>
+  <si>
+    <t>zhayo</t>
+  </si>
+  <si>
+    <t>leaf</t>
+  </si>
+  <si>
+    <t>nioatl</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>chokomatli</t>
+  </si>
+  <si>
+    <t>a six-legged arboreal herbivore native to the temperate forests of Zhdant and resembling a Terran squirrel</t>
   </si>
 </sst>
 </file>
@@ -4525,8 +4549,8 @@
   <dimension ref="A1:D540"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A511" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D520" sqref="D520"/>
+      <pane ySplit="1" topLeftCell="A517" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A525" sqref="A525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11456,22 +11480,48 @@
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D521" s="13"/>
+      <c r="A521" s="10" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C521" s="10" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D521" s="13" t="s">
+        <v>1278</v>
+      </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A522" s="14"/>
-      <c r="C522" s="14"/>
-      <c r="D522" s="14"/>
+      <c r="A522" s="14" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C522" s="14" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D522" s="14" t="s">
+        <v>1280</v>
+      </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A523" s="11"/>
-      <c r="C523" s="11"/>
-      <c r="D523" s="12"/>
+      <c r="A523" s="11" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C523" s="11" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D523" s="12" t="s">
+        <v>1282</v>
+      </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A524" s="14"/>
-      <c r="C524" s="14"/>
-      <c r="D524" s="14"/>
+      <c r="A524" s="14" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C524" s="14" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D524" s="14" t="s">
+        <v>1284</v>
+      </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" s="14"/>

--- a/Zhodani Words List.xlsx
+++ b/Zhodani Words List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F116659A-6FED-483E-9570-E0A5EB8DDE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E59DAD-F365-4D4A-A916-93340123FD12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22860" yWindow="1665" windowWidth="21600" windowHeight="8250" tabRatio="891" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="891" xr2:uid="{06097C92-1E44-4EB6-8222-C9DA7786637A}"/>
   </bookViews>
   <sheets>
     <sheet name="Current vocabulary list" sheetId="2" r:id="rId1"/>
@@ -4549,8 +4549,8 @@
   <dimension ref="A1:D540"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A517" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A525" sqref="A525"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
